--- a/MedTech_Deals.xlsx
+++ b/MedTech_Deals.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://beacononehcp-my.sharepoint.com/personal/hannah_peric_beacononehcp_com/Documents/Documents/medtech-dashboard/Medtech-Dashboard-M-A/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://beacononehcp-my.sharepoint.com/personal/hannah_peric_beacononehcp_com/Documents/Documents/medtech-dashboard/medtech-dashboard/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{A8E36CAE-087B-4CF0-B739-AC648A6297F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3FE633DC-A3E5-4382-9AB5-DCE167057D27}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:1_{A8E36CAE-087B-4CF0-B739-AC648A6297F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3E315AA7-8665-587B-B5C1-C9425F8B1A7F}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="YTD M&amp;A Activity" sheetId="1" r:id="rId1"/>
@@ -5896,7 +5896,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I189"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A154" workbookViewId="0">
       <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
@@ -10851,7 +10851,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74A03339-39CF-4116-915D-6012C03F9151}">
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>

--- a/MedTech_Deals.xlsx
+++ b/MedTech_Deals.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://beacononehcp-my.sharepoint.com/personal/hannah_peric_beacononehcp_com/Documents/Documents/medtech-dashboard/medtech-dashboard/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:1_{A8E36CAE-087B-4CF0-B739-AC648A6297F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3E315AA7-8665-587B-B5C1-C9425F8B1A7F}"/>
+  <xr:revisionPtr revIDLastSave="19" documentId="13_ncr:1_{A8E36CAE-087B-4CF0-B739-AC648A6297F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D7322E05-4D3B-4AD0-A749-9D8BF09DC098}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="YTD M&amp;A Activity" sheetId="1" r:id="rId1"/>
@@ -3135,12 +3135,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J105"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K52" sqref="K52"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="40.5703125" customWidth="1"/>
+    <col min="2" max="2" width="23.5703125" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" customWidth="1"/>
+    <col min="4" max="4" width="47.28515625" customWidth="1"/>
     <col min="5" max="5" width="16.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3175,25 +3179,25 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>250</v>
       </c>
       <c r="C2" t="s">
         <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>251</v>
       </c>
       <c r="E2" s="7">
-        <v>350000000</v>
+        <v>18300000000</v>
       </c>
       <c r="F2" t="s">
-        <v>13</v>
+        <v>252</v>
       </c>
       <c r="G2" t="s">
-        <v>14</v>
+        <v>202</v>
       </c>
       <c r="H2" t="s">
         <v>15</v>
@@ -3227,28 +3231,28 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>221</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>222</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>223</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>224</v>
       </c>
       <c r="E4" s="7">
-        <v>152000000</v>
+        <v>17500000000</v>
       </c>
       <c r="F4" t="s">
-        <v>13</v>
+        <v>201</v>
       </c>
       <c r="G4" t="s">
-        <v>14</v>
+        <v>220</v>
       </c>
       <c r="H4" t="s">
-        <v>24</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -3563,7 +3567,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>65</v>
       </c>
@@ -3589,7 +3593,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>68</v>
       </c>
@@ -3615,7 +3619,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>71</v>
       </c>
@@ -3641,7 +3645,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>74</v>
       </c>
@@ -3667,33 +3671,33 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>77</v>
+        <v>126</v>
       </c>
       <c r="B21" t="s">
-        <v>78</v>
+        <v>127</v>
       </c>
       <c r="C21" t="s">
         <v>11</v>
       </c>
       <c r="D21" t="s">
-        <v>79</v>
+        <v>128</v>
       </c>
       <c r="E21" s="7">
-        <v>4900000000</v>
+        <v>5100000000</v>
       </c>
       <c r="F21" t="s">
-        <v>13</v>
+        <v>124</v>
       </c>
       <c r="G21" t="s">
-        <v>67</v>
+        <v>125</v>
       </c>
       <c r="H21" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>80</v>
       </c>
@@ -3719,21 +3723,21 @@
         <v>61</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="B23" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C23" t="s">
         <v>11</v>
       </c>
       <c r="D23" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="E23" s="7">
-        <v>4100000000</v>
+        <v>4900000000</v>
       </c>
       <c r="F23" t="s">
         <v>13</v>
@@ -3745,21 +3749,21 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B24" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C24" t="s">
         <v>11</v>
       </c>
       <c r="D24" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E24" s="7">
-        <v>883000000</v>
+        <v>4100000000</v>
       </c>
       <c r="F24" t="s">
         <v>13</v>
@@ -3768,10 +3772,10 @@
         <v>67</v>
       </c>
       <c r="H24" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>89</v>
       </c>
@@ -3797,33 +3801,36 @@
         <v>61</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>92</v>
+        <v>326</v>
       </c>
       <c r="B26" t="s">
-        <v>93</v>
+        <v>327</v>
       </c>
       <c r="C26" t="s">
         <v>11</v>
       </c>
       <c r="D26" t="s">
-        <v>94</v>
+        <v>328</v>
       </c>
       <c r="E26" s="7">
-        <v>540000000</v>
+        <v>2250000000</v>
       </c>
       <c r="F26" t="s">
-        <v>13</v>
+        <v>201</v>
       </c>
       <c r="G26" t="s">
-        <v>95</v>
+        <v>292</v>
       </c>
       <c r="H26" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I26" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>96</v>
       </c>
@@ -3849,33 +3856,36 @@
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>99</v>
+        <v>212</v>
       </c>
       <c r="B28" t="s">
-        <v>100</v>
+        <v>213</v>
       </c>
       <c r="C28" t="s">
         <v>11</v>
       </c>
       <c r="D28" t="s">
-        <v>101</v>
+        <v>214</v>
       </c>
       <c r="E28" s="7">
-        <v>225000000</v>
+        <v>1500000000</v>
       </c>
       <c r="F28" t="s">
-        <v>13</v>
+        <v>201</v>
       </c>
       <c r="G28" t="s">
-        <v>95</v>
+        <v>206</v>
       </c>
       <c r="H28" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="I28" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>102</v>
       </c>
@@ -3901,7 +3911,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>105</v>
       </c>
@@ -3927,7 +3937,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>108</v>
       </c>
@@ -3953,9 +3963,9 @@
         <v>38</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>111</v>
+        <v>216</v>
       </c>
       <c r="B32" t="s">
         <v>112</v>
@@ -3964,16 +3974,16 @@
         <v>11</v>
       </c>
       <c r="D32" t="s">
-        <v>113</v>
+        <v>217</v>
       </c>
       <c r="E32" s="7">
-        <v>430000000</v>
+        <v>1500000000</v>
       </c>
       <c r="F32" t="s">
-        <v>13</v>
+        <v>201</v>
       </c>
       <c r="G32" t="s">
-        <v>95</v>
+        <v>206</v>
       </c>
       <c r="H32" t="s">
         <v>34</v>
@@ -4007,28 +4017,28 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>117</v>
+        <v>144</v>
       </c>
       <c r="B34" t="s">
-        <v>118</v>
+        <v>145</v>
       </c>
       <c r="C34" t="s">
-        <v>119</v>
+        <v>11</v>
       </c>
       <c r="D34" t="s">
-        <v>120</v>
+        <v>146</v>
       </c>
       <c r="E34" s="7">
-        <v>100000000</v>
+        <v>1100000000</v>
       </c>
       <c r="F34" t="s">
-        <v>13</v>
+        <v>124</v>
       </c>
       <c r="G34" t="s">
-        <v>95</v>
+        <v>125</v>
       </c>
       <c r="H34" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
@@ -4059,71 +4069,71 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>126</v>
+        <v>86</v>
       </c>
       <c r="B36" t="s">
-        <v>127</v>
+        <v>87</v>
       </c>
       <c r="C36" t="s">
         <v>11</v>
       </c>
       <c r="D36" t="s">
-        <v>128</v>
+        <v>88</v>
       </c>
       <c r="E36" s="7">
-        <v>5100000000</v>
+        <v>883000000</v>
       </c>
       <c r="F36" t="s">
-        <v>124</v>
+        <v>13</v>
       </c>
       <c r="G36" t="s">
-        <v>125</v>
+        <v>67</v>
       </c>
       <c r="H36" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>129</v>
+        <v>314</v>
       </c>
       <c r="B37" t="s">
-        <v>93</v>
+        <v>315</v>
       </c>
       <c r="C37" t="s">
         <v>11</v>
       </c>
       <c r="D37" t="s">
-        <v>130</v>
+        <v>316</v>
       </c>
       <c r="E37" s="7">
-        <v>664000000</v>
+        <v>815000000</v>
       </c>
       <c r="F37" t="s">
-        <v>124</v>
+        <v>201</v>
       </c>
       <c r="G37" t="s">
-        <v>125</v>
+        <v>220</v>
       </c>
       <c r="H37" t="s">
-        <v>15</v>
+        <v>61</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B38" t="s">
-        <v>132</v>
+        <v>93</v>
       </c>
       <c r="C38" t="s">
         <v>11</v>
       </c>
       <c r="D38" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="E38" s="7">
-        <v>250000000</v>
+        <v>664000000</v>
       </c>
       <c r="F38" t="s">
         <v>124</v>
@@ -4215,54 +4225,54 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>144</v>
+        <v>92</v>
       </c>
       <c r="B42" t="s">
-        <v>145</v>
+        <v>93</v>
       </c>
       <c r="C42" t="s">
         <v>11</v>
       </c>
       <c r="D42" t="s">
-        <v>146</v>
+        <v>94</v>
       </c>
       <c r="E42" s="7">
-        <v>1100000000</v>
+        <v>540000000</v>
       </c>
       <c r="F42" t="s">
-        <v>124</v>
+        <v>13</v>
       </c>
       <c r="G42" t="s">
-        <v>125</v>
+        <v>95</v>
       </c>
       <c r="H42" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>147</v>
+        <v>199</v>
       </c>
       <c r="B43" t="s">
-        <v>148</v>
+        <v>93</v>
       </c>
       <c r="C43" t="s">
         <v>11</v>
       </c>
       <c r="D43" t="s">
-        <v>149</v>
+        <v>200</v>
       </c>
       <c r="E43" s="7">
-        <v>130000000</v>
+        <v>533000000</v>
       </c>
       <c r="F43" t="s">
-        <v>124</v>
+        <v>201</v>
       </c>
       <c r="G43" t="s">
-        <v>125</v>
+        <v>202</v>
       </c>
       <c r="H43" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
@@ -4345,57 +4355,57 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>160</v>
+        <v>209</v>
       </c>
       <c r="B47" t="s">
-        <v>161</v>
+        <v>210</v>
       </c>
       <c r="C47" t="s">
         <v>11</v>
       </c>
       <c r="D47" t="s">
-        <v>162</v>
+        <v>211</v>
       </c>
       <c r="E47" s="7">
-        <v>9000000</v>
+        <v>497000000</v>
       </c>
       <c r="F47" t="s">
-        <v>124</v>
+        <v>201</v>
       </c>
       <c r="G47" t="s">
-        <v>159</v>
+        <v>206</v>
       </c>
       <c r="H47" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>163</v>
+        <v>111</v>
       </c>
       <c r="B48" t="s">
-        <v>164</v>
+        <v>112</v>
       </c>
       <c r="C48" t="s">
         <v>11</v>
       </c>
       <c r="D48" t="s">
-        <v>165</v>
+        <v>113</v>
       </c>
       <c r="E48" s="7">
-        <v>6000000</v>
+        <v>430000000</v>
       </c>
       <c r="F48" t="s">
-        <v>124</v>
+        <v>13</v>
       </c>
       <c r="G48" t="s">
-        <v>159</v>
+        <v>95</v>
       </c>
       <c r="H48" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>166</v>
       </c>
@@ -4421,7 +4431,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>169</v>
       </c>
@@ -4447,7 +4457,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>171</v>
       </c>
@@ -4473,33 +4483,33 @@
         <v>15</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>174</v>
+        <v>196</v>
       </c>
       <c r="B52" t="s">
-        <v>175</v>
+        <v>197</v>
       </c>
       <c r="C52" t="s">
         <v>11</v>
       </c>
       <c r="D52" t="s">
-        <v>176</v>
+        <v>198</v>
       </c>
       <c r="E52" s="7">
-        <v>120000000</v>
+        <v>425000000</v>
       </c>
       <c r="F52" t="s">
         <v>124</v>
       </c>
       <c r="G52" t="s">
-        <v>159</v>
+        <v>192</v>
       </c>
       <c r="H52" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>177</v>
       </c>
@@ -4525,33 +4535,33 @@
         <v>15</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>180</v>
+        <v>9</v>
       </c>
       <c r="B54" t="s">
-        <v>181</v>
+        <v>10</v>
       </c>
       <c r="C54" t="s">
         <v>11</v>
       </c>
       <c r="D54" t="s">
-        <v>182</v>
+        <v>12</v>
       </c>
       <c r="E54" s="7">
-        <v>256000000</v>
+        <v>350000000</v>
       </c>
       <c r="F54" t="s">
-        <v>124</v>
+        <v>13</v>
       </c>
       <c r="G54" t="s">
-        <v>159</v>
+        <v>14</v>
       </c>
       <c r="H54" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>183</v>
       </c>
@@ -4577,7 +4587,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>186</v>
       </c>
@@ -4603,7 +4613,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>189</v>
       </c>
@@ -4629,7 +4639,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>193</v>
       </c>
@@ -4655,59 +4665,59 @@
         <v>24</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>196</v>
+        <v>180</v>
       </c>
       <c r="B59" t="s">
-        <v>197</v>
+        <v>181</v>
       </c>
       <c r="C59" t="s">
         <v>11</v>
       </c>
       <c r="D59" t="s">
-        <v>198</v>
+        <v>182</v>
       </c>
       <c r="E59" s="7">
-        <v>425000000</v>
+        <v>256000000</v>
       </c>
       <c r="F59" t="s">
         <v>124</v>
       </c>
       <c r="G59" t="s">
-        <v>192</v>
+        <v>159</v>
       </c>
       <c r="H59" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>199</v>
+        <v>131</v>
       </c>
       <c r="B60" t="s">
-        <v>93</v>
+        <v>132</v>
       </c>
       <c r="C60" t="s">
         <v>11</v>
       </c>
       <c r="D60" t="s">
-        <v>200</v>
+        <v>133</v>
       </c>
       <c r="E60" s="7">
-        <v>533000000</v>
+        <v>250000000</v>
       </c>
       <c r="F60" t="s">
-        <v>201</v>
+        <v>124</v>
       </c>
       <c r="G60" t="s">
-        <v>202</v>
+        <v>125</v>
       </c>
       <c r="H60" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>203</v>
       </c>
@@ -4733,180 +4743,177 @@
         <v>34</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>207</v>
+        <v>99</v>
       </c>
       <c r="B62" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="C62" t="s">
         <v>11</v>
       </c>
       <c r="D62" t="s">
-        <v>208</v>
+        <v>101</v>
       </c>
       <c r="E62" s="7">
-        <v>88000000</v>
+        <v>225000000</v>
       </c>
       <c r="F62" t="s">
-        <v>201</v>
+        <v>13</v>
       </c>
       <c r="G62" t="s">
-        <v>206</v>
+        <v>95</v>
       </c>
       <c r="H62" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>209</v>
+        <v>21</v>
       </c>
       <c r="B63" t="s">
-        <v>210</v>
+        <v>22</v>
       </c>
       <c r="C63" t="s">
         <v>11</v>
       </c>
       <c r="D63" t="s">
-        <v>211</v>
+        <v>23</v>
       </c>
       <c r="E63" s="7">
-        <v>497000000</v>
+        <v>152000000</v>
       </c>
       <c r="F63" t="s">
-        <v>201</v>
+        <v>13</v>
       </c>
       <c r="G63" t="s">
-        <v>206</v>
+        <v>14</v>
       </c>
       <c r="H63" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>212</v>
+        <v>147</v>
       </c>
       <c r="B64" t="s">
-        <v>213</v>
+        <v>148</v>
       </c>
       <c r="C64" t="s">
         <v>11</v>
       </c>
       <c r="D64" t="s">
-        <v>214</v>
+        <v>149</v>
       </c>
       <c r="E64" s="7">
-        <v>1500000000</v>
+        <v>130000000</v>
       </c>
       <c r="F64" t="s">
-        <v>201</v>
+        <v>124</v>
       </c>
       <c r="G64" t="s">
-        <v>206</v>
+        <v>125</v>
       </c>
       <c r="H64" t="s">
-        <v>15</v>
-      </c>
-      <c r="I64" t="s">
-        <v>215</v>
+        <v>34</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>216</v>
+        <v>174</v>
       </c>
       <c r="B65" t="s">
-        <v>112</v>
+        <v>175</v>
       </c>
       <c r="C65" t="s">
         <v>11</v>
       </c>
       <c r="D65" t="s">
-        <v>217</v>
+        <v>176</v>
       </c>
       <c r="E65" s="7">
-        <v>1500000000</v>
+        <v>120000000</v>
       </c>
       <c r="F65" t="s">
-        <v>201</v>
+        <v>124</v>
       </c>
       <c r="G65" t="s">
-        <v>206</v>
+        <v>159</v>
       </c>
       <c r="H65" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>218</v>
+        <v>117</v>
       </c>
       <c r="B66" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
       <c r="C66" t="s">
-        <v>11</v>
+        <v>119</v>
       </c>
       <c r="D66" t="s">
-        <v>219</v>
+        <v>120</v>
       </c>
       <c r="E66" s="7">
-        <v>17000000</v>
+        <v>100000000</v>
       </c>
       <c r="F66" t="s">
-        <v>201</v>
+        <v>13</v>
       </c>
       <c r="G66" t="s">
-        <v>220</v>
+        <v>95</v>
       </c>
       <c r="H66" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>221</v>
+        <v>207</v>
       </c>
       <c r="B67" t="s">
-        <v>222</v>
+        <v>93</v>
       </c>
       <c r="C67" t="s">
-        <v>223</v>
+        <v>11</v>
       </c>
       <c r="D67" t="s">
-        <v>224</v>
+        <v>208</v>
       </c>
       <c r="E67" s="7">
-        <v>17500000000</v>
+        <v>88000000</v>
       </c>
       <c r="F67" t="s">
         <v>201</v>
       </c>
       <c r="G67" t="s">
-        <v>220</v>
+        <v>206</v>
       </c>
       <c r="H67" t="s">
-        <v>61</v>
+        <v>34</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>225</v>
+        <v>282</v>
       </c>
       <c r="B68" t="s">
-        <v>226</v>
+        <v>93</v>
       </c>
       <c r="C68" t="s">
         <v>11</v>
       </c>
       <c r="D68" t="s">
-        <v>227</v>
+        <v>283</v>
       </c>
       <c r="E68" s="7">
-        <v>85000000</v>
+        <v>88000000</v>
       </c>
       <c r="F68" t="s">
         <v>201</v>
@@ -5128,28 +5135,28 @@
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>10</v>
+        <v>225</v>
       </c>
       <c r="B77" t="s">
-        <v>250</v>
+        <v>226</v>
       </c>
       <c r="C77" t="s">
         <v>11</v>
       </c>
       <c r="D77" t="s">
-        <v>251</v>
+        <v>227</v>
       </c>
       <c r="E77" s="7">
-        <v>18300000000</v>
+        <v>85000000</v>
       </c>
       <c r="F77" t="s">
-        <v>252</v>
+        <v>201</v>
       </c>
       <c r="G77" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="H77" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
@@ -5414,28 +5421,28 @@
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>282</v>
+        <v>317</v>
       </c>
       <c r="B88" t="s">
-        <v>93</v>
+        <v>318</v>
       </c>
       <c r="C88" t="s">
         <v>11</v>
       </c>
       <c r="D88" t="s">
-        <v>283</v>
+        <v>319</v>
       </c>
       <c r="E88" s="7">
-        <v>88000000</v>
+        <v>30000000</v>
       </c>
       <c r="F88" t="s">
         <v>201</v>
       </c>
       <c r="G88" t="s">
-        <v>206</v>
+        <v>220</v>
       </c>
       <c r="H88" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
@@ -5726,19 +5733,19 @@
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>314</v>
+        <v>218</v>
       </c>
       <c r="B100" t="s">
-        <v>315</v>
+        <v>145</v>
       </c>
       <c r="C100" t="s">
         <v>11</v>
       </c>
       <c r="D100" t="s">
-        <v>316</v>
+        <v>219</v>
       </c>
       <c r="E100" s="7">
-        <v>815000000</v>
+        <v>17000000</v>
       </c>
       <c r="F100" t="s">
         <v>201</v>
@@ -5747,24 +5754,24 @@
         <v>220</v>
       </c>
       <c r="H100" t="s">
-        <v>61</v>
+        <v>24</v>
       </c>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="B101" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="C101" t="s">
         <v>11</v>
       </c>
       <c r="D101" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="E101" s="7">
-        <v>30000000</v>
+        <v>15000000</v>
       </c>
       <c r="F101" t="s">
         <v>201</v>
@@ -5773,33 +5780,33 @@
         <v>220</v>
       </c>
       <c r="H101" t="s">
-        <v>15</v>
+        <v>61</v>
       </c>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>320</v>
+        <v>160</v>
       </c>
       <c r="B102" t="s">
-        <v>321</v>
+        <v>161</v>
       </c>
       <c r="C102" t="s">
         <v>11</v>
       </c>
       <c r="D102" t="s">
-        <v>322</v>
+        <v>162</v>
       </c>
       <c r="E102" s="7">
-        <v>15000000</v>
+        <v>9000000</v>
       </c>
       <c r="F102" t="s">
-        <v>201</v>
+        <v>124</v>
       </c>
       <c r="G102" t="s">
-        <v>220</v>
+        <v>159</v>
       </c>
       <c r="H102" t="s">
-        <v>61</v>
+        <v>15</v>
       </c>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.25">
@@ -5830,31 +5837,28 @@
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>326</v>
+        <v>163</v>
       </c>
       <c r="B104" t="s">
-        <v>327</v>
+        <v>164</v>
       </c>
       <c r="C104" t="s">
         <v>11</v>
       </c>
       <c r="D104" t="s">
-        <v>328</v>
+        <v>165</v>
       </c>
       <c r="E104" s="7">
-        <v>2250000000</v>
+        <v>6000000</v>
       </c>
       <c r="F104" t="s">
-        <v>201</v>
+        <v>124</v>
       </c>
       <c r="G104" t="s">
-        <v>292</v>
+        <v>159</v>
       </c>
       <c r="H104" t="s">
-        <v>34</v>
-      </c>
-      <c r="I104" t="s">
-        <v>215</v>
+        <v>61</v>
       </c>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.25">
@@ -5887,7 +5891,11 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I105" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:I105" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I104">
+      <sortCondition descending="1" ref="E1:E105"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -5896,7 +5904,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I189"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A154" workbookViewId="0">
+    <sheetView topLeftCell="A154" workbookViewId="0">
       <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>

--- a/MedTech_Deals.xlsx
+++ b/MedTech_Deals.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://beacononehcp-my.sharepoint.com/personal/hannah_peric_beacononehcp_com/Documents/Documents/medtech-dashboard/medtech-dashboard/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="19" documentId="13_ncr:1_{A8E36CAE-087B-4CF0-B739-AC648A6297F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D7322E05-4D3B-4AD0-A749-9D8BF09DC098}"/>
+  <xr:revisionPtr revIDLastSave="33" documentId="13_ncr:1_{A8E36CAE-087B-4CF0-B739-AC648A6297F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D9A1C9AD-0444-46A5-A7E2-C7F519CECEB4}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="35445" yWindow="2910" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="YTD M&amp;A Activity" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2213" uniqueCount="900">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2213" uniqueCount="902">
   <si>
     <t>Company</t>
   </si>
@@ -2725,6 +2725,12 @@
   </si>
   <si>
     <t>Type</t>
+  </si>
+  <si>
+    <t>Women's Health</t>
+  </si>
+  <si>
+    <t>Materials &amp; Manufacturing</t>
   </si>
 </sst>
 </file>
@@ -3136,7 +3142,7 @@
   <dimension ref="A1:J105"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+      <selection activeCell="D21" sqref="A21:D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3144,8 +3150,9 @@
     <col min="1" max="1" width="40.5703125" customWidth="1"/>
     <col min="2" max="2" width="23.5703125" customWidth="1"/>
     <col min="3" max="3" width="11.85546875" customWidth="1"/>
-    <col min="4" max="4" width="47.28515625" customWidth="1"/>
+    <col min="4" max="4" width="102.28515625" customWidth="1"/>
     <col min="5" max="5" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="25.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -3200,7 +3207,7 @@
         <v>202</v>
       </c>
       <c r="H2" t="s">
-        <v>15</v>
+        <v>900</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -3278,7 +3285,7 @@
         <v>14</v>
       </c>
       <c r="H5" t="s">
-        <v>15</v>
+        <v>901</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -3304,7 +3311,7 @@
         <v>14</v>
       </c>
       <c r="H6" t="s">
-        <v>15</v>
+        <v>901</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -3434,7 +3441,7 @@
         <v>14</v>
       </c>
       <c r="H11" t="s">
-        <v>15</v>
+        <v>901</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -3460,7 +3467,7 @@
         <v>14</v>
       </c>
       <c r="H12" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -3486,7 +3493,7 @@
         <v>14</v>
       </c>
       <c r="H13" t="s">
-        <v>34</v>
+        <v>901</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -3564,7 +3571,7 @@
         <v>14</v>
       </c>
       <c r="H16" t="s">
-        <v>34</v>
+        <v>901</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
@@ -3590,7 +3597,7 @@
         <v>67</v>
       </c>
       <c r="H17" t="s">
-        <v>15</v>
+        <v>901</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
@@ -3616,7 +3623,7 @@
         <v>67</v>
       </c>
       <c r="H18" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
@@ -3668,7 +3675,7 @@
         <v>67</v>
       </c>
       <c r="H20" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">

--- a/MedTech_Deals.xlsx
+++ b/MedTech_Deals.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://beacononehcp-my.sharepoint.com/personal/hannah_peric_beacononehcp_com/Documents/Documents/medtech-dashboard/medtech-dashboard/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="43" documentId="13_ncr:1_{A8E36CAE-087B-4CF0-B739-AC648A6297F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4D87E029-DF8F-41D0-9CFD-BE9C83D96A7E}"/>
+  <xr:revisionPtr revIDLastSave="47" documentId="13_ncr:1_{A8E36CAE-087B-4CF0-B739-AC648A6297F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C7AB7B28-180F-4F5A-AFBF-0471CF78F8BA}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="YTD M&amp;A Activity" sheetId="1" r:id="rId1"/>
@@ -3123,8 +3123,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J105"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3761,7 +3761,7 @@
         <v>66</v>
       </c>
       <c r="H24" t="s">
-        <v>15</v>
+        <v>894</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
@@ -3787,7 +3787,7 @@
         <v>66</v>
       </c>
       <c r="H25" t="s">
-        <v>60</v>
+        <v>15</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
@@ -3923,7 +3923,7 @@
         <v>94</v>
       </c>
       <c r="H30" t="s">
-        <v>15</v>
+        <v>893</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
@@ -3949,7 +3949,7 @@
         <v>94</v>
       </c>
       <c r="H31" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
@@ -5893,8 +5893,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I189"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/MedTech_Deals.xlsx
+++ b/MedTech_Deals.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://beacononehcp-my.sharepoint.com/personal/hannah_peric_beacononehcp_com/Documents/Documents/medtech-dashboard/medtech-dashboard/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="47" documentId="13_ncr:1_{A8E36CAE-087B-4CF0-B739-AC648A6297F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C7AB7B28-180F-4F5A-AFBF-0471CF78F8BA}"/>
+  <xr:revisionPtr revIDLastSave="50" documentId="13_ncr:1_{A8E36CAE-087B-4CF0-B739-AC648A6297F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{48C0CFBA-18EB-410C-BF48-3EC79C463316}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,14 +18,14 @@
     <sheet name="YTD IPO" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'YTD M&amp;A Activity'!$A$1:$I$105</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'YTD M&amp;A Activity'!$A$1:$I$104</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2207" uniqueCount="896">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2202" uniqueCount="888">
   <si>
     <t>Company</t>
   </si>
@@ -870,12 +870,6 @@
     <t>AI-powered brain imaging analysis; complements MR-guided AI-assisted scanning.</t>
   </si>
   <si>
-    <t>Elutia (EluPro &amp; CanGaroo bioenvelopes)</t>
-  </si>
-  <si>
-    <t>Acquisition of bioenvelopes designed to protect patients with implantable devices.</t>
-  </si>
-  <si>
     <t>PolyCraft Tech</t>
   </si>
   <si>
@@ -1197,15 +1191,6 @@
     <t>Fannin Partners, Bluebird Ventures</t>
   </si>
   <si>
-    <t>Zeto, Inc.</t>
-  </si>
-  <si>
-    <t>Zeto’s FDA-cleared EEG platform combines a wireless headset with dry electrode technology—eliminating the need for gels or skin preparation—to enable rapid, high-quality acquisition of medical-grade brain activity data</t>
-  </si>
-  <si>
-    <t>MindWorks Global</t>
-  </si>
-  <si>
     <t>Levee Health</t>
   </si>
   <si>
@@ -2557,15 +2542,6 @@
   </si>
   <si>
     <t>Federal Funding</t>
-  </si>
-  <si>
-    <t>ViCentra</t>
-  </si>
-  <si>
-    <t>Insulin delivery system for people living with Type 1 diabetes</t>
-  </si>
-  <si>
-    <t>Innovation Industries (led), Partners in Equity, Invest-NL, EQT Life Sciences, Health Innovations</t>
   </si>
   <si>
     <t>Galvanize Therapeutics</t>
@@ -3121,10 +3097,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J105"/>
+  <dimension ref="A1:I104"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="B87" sqref="B87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3189,7 +3165,7 @@
         <v>201</v>
       </c>
       <c r="H2" t="s">
-        <v>893</v>
+        <v>885</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -3215,7 +3191,7 @@
         <v>14</v>
       </c>
       <c r="H3" t="s">
-        <v>895</v>
+        <v>887</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -3267,7 +3243,7 @@
         <v>14</v>
       </c>
       <c r="H5" t="s">
-        <v>894</v>
+        <v>886</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -3293,7 +3269,7 @@
         <v>14</v>
       </c>
       <c r="H6" t="s">
-        <v>894</v>
+        <v>886</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -3397,7 +3373,7 @@
         <v>14</v>
       </c>
       <c r="H10" t="s">
-        <v>895</v>
+        <v>887</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -3423,7 +3399,7 @@
         <v>14</v>
       </c>
       <c r="H11" t="s">
-        <v>894</v>
+        <v>886</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -3449,7 +3425,7 @@
         <v>14</v>
       </c>
       <c r="H12" t="s">
-        <v>895</v>
+        <v>887</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -3475,7 +3451,7 @@
         <v>14</v>
       </c>
       <c r="H13" t="s">
-        <v>894</v>
+        <v>886</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -3553,7 +3529,7 @@
         <v>14</v>
       </c>
       <c r="H16" t="s">
-        <v>894</v>
+        <v>886</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
@@ -3579,7 +3555,7 @@
         <v>66</v>
       </c>
       <c r="H17" t="s">
-        <v>894</v>
+        <v>886</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
@@ -3735,7 +3711,7 @@
         <v>66</v>
       </c>
       <c r="H23" t="s">
-        <v>895</v>
+        <v>887</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
@@ -3761,7 +3737,7 @@
         <v>66</v>
       </c>
       <c r="H24" t="s">
-        <v>894</v>
+        <v>886</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
@@ -3792,16 +3768,16 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B26" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C26" t="s">
         <v>11</v>
       </c>
       <c r="D26" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="E26" s="6">
         <v>2250000000</v>
@@ -3810,7 +3786,7 @@
         <v>200</v>
       </c>
       <c r="G26" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="H26" t="s">
         <v>33</v>
@@ -3897,7 +3873,7 @@
         <v>94</v>
       </c>
       <c r="H29" t="s">
-        <v>895</v>
+        <v>887</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
@@ -3923,7 +3899,7 @@
         <v>94</v>
       </c>
       <c r="H30" t="s">
-        <v>893</v>
+        <v>885</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
@@ -4079,21 +4055,21 @@
         <v>66</v>
       </c>
       <c r="H36" t="s">
-        <v>895</v>
+        <v>887</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B37" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C37" t="s">
         <v>11</v>
       </c>
       <c r="D37" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="E37" s="6">
         <v>815000000</v>
@@ -4131,7 +4107,7 @@
         <v>124</v>
       </c>
       <c r="H38" t="s">
-        <v>15</v>
+        <v>887</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
@@ -4365,7 +4341,7 @@
         <v>205</v>
       </c>
       <c r="H47" t="s">
-        <v>895</v>
+        <v>887</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
@@ -4547,7 +4523,7 @@
         <v>14</v>
       </c>
       <c r="H54" t="s">
-        <v>15</v>
+        <v>885</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
@@ -4677,7 +4653,7 @@
         <v>158</v>
       </c>
       <c r="H59" t="s">
-        <v>15</v>
+        <v>60</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
@@ -4781,7 +4757,7 @@
         <v>14</v>
       </c>
       <c r="H63" t="s">
-        <v>23</v>
+        <v>886</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
@@ -4833,7 +4809,7 @@
         <v>158</v>
       </c>
       <c r="H65" t="s">
-        <v>15</v>
+        <v>887</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
@@ -4885,47 +4861,47 @@
         <v>205</v>
       </c>
       <c r="H67" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>281</v>
+        <v>227</v>
       </c>
       <c r="B68" t="s">
-        <v>92</v>
+        <v>228</v>
       </c>
       <c r="C68" t="s">
         <v>11</v>
       </c>
       <c r="D68" t="s">
-        <v>282</v>
-      </c>
-      <c r="E68" s="6">
-        <v>88000000</v>
+        <v>229</v>
+      </c>
+      <c r="E68" t="s">
+        <v>19</v>
       </c>
       <c r="F68" t="s">
         <v>200</v>
       </c>
       <c r="G68" t="s">
-        <v>205</v>
+        <v>219</v>
       </c>
       <c r="H68" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="B69" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="C69" t="s">
         <v>11</v>
       </c>
       <c r="D69" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="E69" t="s">
         <v>19</v>
@@ -4934,50 +4910,50 @@
         <v>200</v>
       </c>
       <c r="G69" t="s">
-        <v>219</v>
+        <v>205</v>
       </c>
       <c r="H69" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="B70" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="C70" t="s">
-        <v>11</v>
+        <v>118</v>
       </c>
       <c r="D70" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="E70" t="s">
         <v>19</v>
       </c>
       <c r="F70" t="s">
-        <v>200</v>
+        <v>123</v>
       </c>
       <c r="G70" t="s">
-        <v>205</v>
+        <v>191</v>
       </c>
       <c r="H70" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
+        <v>234</v>
+      </c>
+      <c r="B71" t="s">
         <v>233</v>
-      </c>
-      <c r="B71" t="s">
-        <v>234</v>
       </c>
       <c r="C71" t="s">
         <v>118</v>
       </c>
       <c r="D71" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="E71" t="s">
         <v>19</v>
@@ -4989,21 +4965,21 @@
         <v>191</v>
       </c>
       <c r="H71" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="B72" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="C72" t="s">
-        <v>118</v>
+        <v>11</v>
       </c>
       <c r="D72" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="E72" t="s">
         <v>19</v>
@@ -5015,47 +4991,47 @@
         <v>191</v>
       </c>
       <c r="H72" t="s">
-        <v>15</v>
+        <v>60</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="B73" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="C73" t="s">
         <v>11</v>
       </c>
       <c r="D73" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="E73" t="s">
         <v>19</v>
       </c>
       <c r="F73" t="s">
-        <v>123</v>
+        <v>13</v>
       </c>
       <c r="G73" t="s">
-        <v>191</v>
+        <v>94</v>
       </c>
       <c r="H73" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="B74" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="C74" t="s">
         <v>11</v>
       </c>
       <c r="D74" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="E74" t="s">
         <v>19</v>
@@ -5067,21 +5043,21 @@
         <v>94</v>
       </c>
       <c r="H74" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="B75" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="C75" t="s">
         <v>11</v>
       </c>
       <c r="D75" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="E75" t="s">
         <v>19</v>
@@ -5093,30 +5069,30 @@
         <v>94</v>
       </c>
       <c r="H75" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>246</v>
+        <v>224</v>
       </c>
       <c r="B76" t="s">
-        <v>247</v>
+        <v>225</v>
       </c>
       <c r="C76" t="s">
         <v>11</v>
       </c>
       <c r="D76" t="s">
-        <v>248</v>
-      </c>
-      <c r="E76" t="s">
-        <v>19</v>
+        <v>226</v>
+      </c>
+      <c r="E76" s="6">
+        <v>85000000</v>
       </c>
       <c r="F76" t="s">
-        <v>13</v>
+        <v>200</v>
       </c>
       <c r="G76" t="s">
-        <v>94</v>
+        <v>205</v>
       </c>
       <c r="H76" t="s">
         <v>15</v>
@@ -5124,25 +5100,25 @@
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>224</v>
+        <v>252</v>
       </c>
       <c r="B77" t="s">
-        <v>225</v>
+        <v>253</v>
       </c>
       <c r="C77" t="s">
         <v>11</v>
       </c>
       <c r="D77" t="s">
-        <v>226</v>
-      </c>
-      <c r="E77" s="6">
-        <v>85000000</v>
+        <v>254</v>
+      </c>
+      <c r="E77" t="s">
+        <v>19</v>
       </c>
       <c r="F77" t="s">
-        <v>200</v>
+        <v>251</v>
       </c>
       <c r="G77" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="H77" t="s">
         <v>33</v>
@@ -5150,16 +5126,16 @@
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="B78" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="C78" t="s">
         <v>11</v>
       </c>
       <c r="D78" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="E78" t="s">
         <v>19</v>
@@ -5176,16 +5152,16 @@
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="B79" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="C79" t="s">
         <v>11</v>
       </c>
       <c r="D79" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="E79" t="s">
         <v>19</v>
@@ -5202,42 +5178,42 @@
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="B80" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="C80" t="s">
         <v>11</v>
       </c>
       <c r="D80" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="E80" t="s">
         <v>19</v>
       </c>
       <c r="F80" t="s">
-        <v>251</v>
+        <v>200</v>
       </c>
       <c r="G80" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="H80" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="B81" t="s">
-        <v>262</v>
+        <v>171</v>
       </c>
       <c r="C81" t="s">
         <v>11</v>
       </c>
       <c r="D81" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="E81" t="s">
         <v>19</v>
@@ -5254,16 +5230,16 @@
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B82" t="s">
-        <v>171</v>
+        <v>267</v>
       </c>
       <c r="C82" t="s">
         <v>11</v>
       </c>
       <c r="D82" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="E82" t="s">
         <v>19</v>
@@ -5280,16 +5256,16 @@
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="B83" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="C83" t="s">
         <v>11</v>
       </c>
       <c r="D83" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="E83" t="s">
         <v>19</v>
@@ -5301,21 +5277,21 @@
         <v>205</v>
       </c>
       <c r="H83" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="B84" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="C84" t="s">
         <v>11</v>
       </c>
       <c r="D84" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="E84" t="s">
         <v>19</v>
@@ -5332,16 +5308,16 @@
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="B85" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="C85" t="s">
         <v>11</v>
       </c>
       <c r="D85" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="E85" t="s">
         <v>19</v>
@@ -5358,16 +5334,16 @@
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="B86" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="C86" t="s">
         <v>11</v>
       </c>
       <c r="D86" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="E86" t="s">
         <v>19</v>
@@ -5384,51 +5360,51 @@
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>278</v>
+        <v>314</v>
       </c>
       <c r="B87" t="s">
-        <v>279</v>
+        <v>315</v>
       </c>
       <c r="C87" t="s">
         <v>11</v>
       </c>
       <c r="D87" t="s">
-        <v>280</v>
-      </c>
-      <c r="E87" t="s">
-        <v>19</v>
+        <v>316</v>
+      </c>
+      <c r="E87" s="6">
+        <v>30000000</v>
       </c>
       <c r="F87" t="s">
         <v>200</v>
       </c>
       <c r="G87" t="s">
-        <v>205</v>
+        <v>219</v>
       </c>
       <c r="H87" t="s">
-        <v>33</v>
+        <v>60</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>316</v>
+        <v>281</v>
       </c>
       <c r="B88" t="s">
-        <v>317</v>
+        <v>282</v>
       </c>
       <c r="C88" t="s">
         <v>11</v>
       </c>
       <c r="D88" t="s">
-        <v>318</v>
-      </c>
-      <c r="E88" s="6">
-        <v>30000000</v>
+        <v>283</v>
+      </c>
+      <c r="E88" t="s">
+        <v>19</v>
       </c>
       <c r="F88" t="s">
         <v>200</v>
       </c>
       <c r="G88" t="s">
-        <v>219</v>
+        <v>205</v>
       </c>
       <c r="H88" t="s">
         <v>15</v>
@@ -5436,10 +5412,10 @@
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B89" t="s">
-        <v>284</v>
+        <v>183</v>
       </c>
       <c r="C89" t="s">
         <v>11</v>
@@ -5457,7 +5433,7 @@
         <v>205</v>
       </c>
       <c r="H89" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
@@ -5465,13 +5441,13 @@
         <v>286</v>
       </c>
       <c r="B90" t="s">
-        <v>183</v>
+        <v>287</v>
       </c>
       <c r="C90" t="s">
         <v>11</v>
       </c>
       <c r="D90" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E90" t="s">
         <v>19</v>
@@ -5480,24 +5456,24 @@
         <v>200</v>
       </c>
       <c r="G90" t="s">
-        <v>205</v>
+        <v>289</v>
       </c>
       <c r="H90" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="B91" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="C91" t="s">
         <v>11</v>
       </c>
       <c r="D91" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="E91" t="s">
         <v>19</v>
@@ -5506,18 +5482,18 @@
         <v>200</v>
       </c>
       <c r="G91" t="s">
-        <v>291</v>
+        <v>219</v>
       </c>
       <c r="H91" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B92" t="s">
-        <v>293</v>
+        <v>52</v>
       </c>
       <c r="C92" t="s">
         <v>11</v>
@@ -5535,7 +5511,7 @@
         <v>219</v>
       </c>
       <c r="H92" t="s">
-        <v>41</v>
+        <v>15</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
@@ -5543,13 +5519,13 @@
         <v>295</v>
       </c>
       <c r="B93" t="s">
-        <v>52</v>
+        <v>296</v>
       </c>
       <c r="C93" t="s">
         <v>11</v>
       </c>
       <c r="D93" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="E93" t="s">
         <v>19</v>
@@ -5561,21 +5537,21 @@
         <v>219</v>
       </c>
       <c r="H93" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B94" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C94" t="s">
         <v>11</v>
       </c>
       <c r="D94" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="E94" t="s">
         <v>19</v>
@@ -5592,16 +5568,16 @@
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B95" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C95" t="s">
         <v>11</v>
       </c>
       <c r="D95" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="E95" t="s">
         <v>19</v>
@@ -5618,10 +5594,10 @@
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B96" t="s">
-        <v>304</v>
+        <v>111</v>
       </c>
       <c r="C96" t="s">
         <v>11</v>
@@ -5639,15 +5615,15 @@
         <v>219</v>
       </c>
       <c r="H96" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>306</v>
       </c>
       <c r="B97" t="s">
-        <v>111</v>
+        <v>273</v>
       </c>
       <c r="C97" t="s">
         <v>11</v>
@@ -5665,21 +5641,21 @@
         <v>219</v>
       </c>
       <c r="H97" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>308</v>
       </c>
       <c r="B98" t="s">
-        <v>273</v>
+        <v>309</v>
       </c>
       <c r="C98" t="s">
         <v>11</v>
       </c>
       <c r="D98" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="E98" t="s">
         <v>19</v>
@@ -5694,21 +5670,21 @@
         <v>33</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>310</v>
+        <v>217</v>
       </c>
       <c r="B99" t="s">
-        <v>311</v>
+        <v>144</v>
       </c>
       <c r="C99" t="s">
         <v>11</v>
       </c>
       <c r="D99" t="s">
-        <v>312</v>
-      </c>
-      <c r="E99" t="s">
-        <v>19</v>
+        <v>218</v>
+      </c>
+      <c r="E99" s="6">
+        <v>17000000</v>
       </c>
       <c r="F99" t="s">
         <v>200</v>
@@ -5717,24 +5693,24 @@
         <v>219</v>
       </c>
       <c r="H99" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>217</v>
+        <v>317</v>
       </c>
       <c r="B100" t="s">
-        <v>144</v>
+        <v>318</v>
       </c>
       <c r="C100" t="s">
         <v>11</v>
       </c>
       <c r="D100" t="s">
-        <v>218</v>
+        <v>319</v>
       </c>
       <c r="E100" s="6">
-        <v>17000000</v>
+        <v>15000000</v>
       </c>
       <c r="F100" t="s">
         <v>200</v>
@@ -5743,146 +5719,120 @@
         <v>219</v>
       </c>
       <c r="H100" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>319</v>
+        <v>159</v>
       </c>
       <c r="B101" t="s">
-        <v>320</v>
+        <v>160</v>
       </c>
       <c r="C101" t="s">
         <v>11</v>
       </c>
       <c r="D101" t="s">
+        <v>161</v>
+      </c>
+      <c r="E101" s="6">
+        <v>9000000</v>
+      </c>
+      <c r="F101" t="s">
+        <v>123</v>
+      </c>
+      <c r="G101" t="s">
+        <v>158</v>
+      </c>
+      <c r="H101" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>320</v>
+      </c>
+      <c r="B102" t="s">
         <v>321</v>
-      </c>
-      <c r="E101" s="6">
-        <v>15000000</v>
-      </c>
-      <c r="F101" t="s">
-        <v>200</v>
-      </c>
-      <c r="G101" t="s">
-        <v>219</v>
-      </c>
-      <c r="H101" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
-        <v>159</v>
-      </c>
-      <c r="B102" t="s">
-        <v>160</v>
       </c>
       <c r="C102" t="s">
         <v>11</v>
       </c>
       <c r="D102" t="s">
-        <v>161</v>
-      </c>
-      <c r="E102" s="6">
-        <v>9000000</v>
+        <v>322</v>
+      </c>
+      <c r="E102" t="s">
+        <v>19</v>
       </c>
       <c r="F102" t="s">
-        <v>123</v>
+        <v>200</v>
       </c>
       <c r="G102" t="s">
-        <v>158</v>
+        <v>219</v>
       </c>
       <c r="H102" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>322</v>
+        <v>162</v>
       </c>
       <c r="B103" t="s">
-        <v>323</v>
+        <v>163</v>
       </c>
       <c r="C103" t="s">
         <v>11</v>
       </c>
       <c r="D103" t="s">
-        <v>324</v>
-      </c>
-      <c r="E103" t="s">
-        <v>19</v>
+        <v>164</v>
+      </c>
+      <c r="E103" s="6">
+        <v>6000000</v>
       </c>
       <c r="F103" t="s">
-        <v>200</v>
+        <v>123</v>
       </c>
       <c r="G103" t="s">
-        <v>219</v>
+        <v>158</v>
       </c>
       <c r="H103" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>162</v>
+        <v>326</v>
       </c>
       <c r="B104" t="s">
-        <v>163</v>
+        <v>327</v>
       </c>
       <c r="C104" t="s">
         <v>11</v>
       </c>
       <c r="D104" t="s">
-        <v>164</v>
-      </c>
-      <c r="E104" s="6">
-        <v>6000000</v>
+        <v>328</v>
+      </c>
+      <c r="E104" t="s">
+        <v>19</v>
       </c>
       <c r="F104" t="s">
-        <v>123</v>
+        <v>200</v>
       </c>
       <c r="G104" t="s">
-        <v>158</v>
+        <v>289</v>
       </c>
       <c r="H104" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
-        <v>328</v>
-      </c>
-      <c r="B105" t="s">
-        <v>329</v>
-      </c>
-      <c r="C105" t="s">
-        <v>11</v>
-      </c>
-      <c r="D105" t="s">
-        <v>330</v>
-      </c>
-      <c r="E105" t="s">
-        <v>19</v>
-      </c>
-      <c r="F105" t="s">
-        <v>200</v>
-      </c>
-      <c r="G105" t="s">
-        <v>291</v>
-      </c>
-      <c r="I105" t="s">
         <v>15</v>
       </c>
-      <c r="J105" t="s">
+      <c r="I104" t="s">
         <v>214</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I105" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <autoFilter ref="A1:I104" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I104">
-      <sortCondition descending="1" ref="E1:E105"/>
+      <sortCondition descending="1" ref="E1:E104"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5894,7 +5844,7 @@
   <dimension ref="A1:I189"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5912,16 +5862,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
@@ -5938,71 +5888,71 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>334</v>
+        <v>679</v>
       </c>
       <c r="B2" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C2" t="s">
-        <v>336</v>
+        <v>680</v>
       </c>
       <c r="D2" s="8">
-        <v>120000000</v>
+        <v>450000000</v>
       </c>
       <c r="E2" t="s">
-        <v>337</v>
+        <v>681</v>
       </c>
       <c r="F2" t="s">
-        <v>13</v>
+        <v>200</v>
       </c>
       <c r="G2" t="s">
-        <v>14</v>
+        <v>219</v>
       </c>
       <c r="H2" t="s">
-        <v>895</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>338</v>
+        <v>803</v>
       </c>
       <c r="B3" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C3" t="s">
-        <v>339</v>
+        <v>804</v>
       </c>
       <c r="D3" s="8">
-        <v>120000000</v>
+        <v>316700000</v>
       </c>
       <c r="E3" t="s">
-        <v>19</v>
+        <v>805</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
+        <v>200</v>
       </c>
       <c r="G3" t="s">
-        <v>14</v>
+        <v>205</v>
       </c>
       <c r="H3" t="s">
-        <v>41</v>
+        <v>887</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>340</v>
+        <v>349</v>
       </c>
       <c r="B4" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="C4" t="s">
-        <v>342</v>
+        <v>350</v>
       </c>
       <c r="D4" s="8">
-        <v>100000000</v>
+        <v>260000000</v>
       </c>
       <c r="E4" t="s">
-        <v>343</v>
+        <v>351</v>
       </c>
       <c r="F4" t="s">
         <v>13</v>
@@ -6011,154 +5961,154 @@
         <v>14</v>
       </c>
       <c r="H4" t="s">
-        <v>15</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>344</v>
+        <v>797</v>
       </c>
       <c r="B5" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C5" t="s">
-        <v>345</v>
+        <v>798</v>
       </c>
       <c r="D5" s="8">
-        <v>90000000</v>
+        <v>238000000</v>
       </c>
       <c r="E5" t="s">
-        <v>346</v>
+        <v>799</v>
       </c>
       <c r="F5" t="s">
-        <v>13</v>
+        <v>200</v>
       </c>
       <c r="G5" t="s">
-        <v>14</v>
+        <v>205</v>
       </c>
       <c r="H5" t="s">
-        <v>895</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>347</v>
+        <v>449</v>
       </c>
       <c r="B6" t="s">
-        <v>348</v>
+        <v>333</v>
       </c>
       <c r="C6" t="s">
-        <v>349</v>
+        <v>450</v>
       </c>
       <c r="D6" s="8">
-        <v>14000000</v>
+        <v>200000000</v>
       </c>
       <c r="E6" t="s">
-        <v>350</v>
+        <v>451</v>
       </c>
       <c r="F6" t="s">
         <v>13</v>
       </c>
       <c r="G6" t="s">
-        <v>14</v>
+        <v>94</v>
       </c>
       <c r="H6" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>351</v>
+        <v>509</v>
       </c>
       <c r="B7" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C7" t="s">
-        <v>352</v>
+        <v>510</v>
       </c>
       <c r="D7" s="8">
-        <v>260000000</v>
+        <v>200000000</v>
       </c>
       <c r="E7" t="s">
-        <v>353</v>
+        <v>511</v>
       </c>
       <c r="F7" t="s">
-        <v>13</v>
+        <v>123</v>
       </c>
       <c r="G7" t="s">
-        <v>14</v>
+        <v>124</v>
       </c>
       <c r="H7" t="s">
-        <v>895</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>354</v>
+        <v>447</v>
       </c>
       <c r="B8" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C8" t="s">
-        <v>355</v>
+        <v>448</v>
       </c>
       <c r="D8" s="8">
-        <v>45000000</v>
+        <v>175000000</v>
       </c>
       <c r="E8" t="s">
-        <v>356</v>
+        <v>92</v>
       </c>
       <c r="F8" t="s">
         <v>13</v>
       </c>
       <c r="G8" t="s">
-        <v>14</v>
+        <v>94</v>
       </c>
       <c r="H8" t="s">
-        <v>60</v>
+        <v>887</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>357</v>
+        <v>483</v>
       </c>
       <c r="B9" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C9" t="s">
-        <v>358</v>
+        <v>484</v>
       </c>
       <c r="D9" s="8">
-        <v>5000000</v>
+        <v>175000000</v>
       </c>
       <c r="E9" t="s">
-        <v>359</v>
+        <v>485</v>
       </c>
       <c r="F9" t="s">
         <v>13</v>
       </c>
       <c r="G9" t="s">
-        <v>14</v>
+        <v>94</v>
       </c>
       <c r="H9" t="s">
-        <v>33</v>
+        <v>887</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B10" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C10" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="D10" s="8" t="s">
         <v>19</v>
       </c>
       <c r="E10" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="F10" t="s">
         <v>13</v>
@@ -6172,25 +6122,25 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>363</v>
+        <v>806</v>
       </c>
       <c r="B11" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C11" t="s">
-        <v>364</v>
+        <v>807</v>
       </c>
       <c r="D11" s="8">
-        <v>50000000</v>
+        <v>170000000</v>
       </c>
       <c r="E11" t="s">
-        <v>365</v>
+        <v>808</v>
       </c>
       <c r="F11" t="s">
-        <v>13</v>
+        <v>200</v>
       </c>
       <c r="G11" t="s">
-        <v>14</v>
+        <v>205</v>
       </c>
       <c r="H11" t="s">
         <v>15</v>
@@ -6198,97 +6148,97 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>366</v>
+        <v>791</v>
       </c>
       <c r="B12" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C12" t="s">
-        <v>367</v>
+        <v>792</v>
       </c>
       <c r="D12" s="8">
-        <v>1600000</v>
+        <v>162500000</v>
       </c>
       <c r="E12" t="s">
-        <v>368</v>
+        <v>793</v>
       </c>
       <c r="F12" t="s">
-        <v>13</v>
+        <v>200</v>
       </c>
       <c r="G12" t="s">
-        <v>14</v>
+        <v>205</v>
       </c>
       <c r="H12" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>369</v>
+        <v>211</v>
       </c>
       <c r="B13" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="C13" t="s">
-        <v>370</v>
+        <v>406</v>
       </c>
       <c r="D13" s="8">
-        <v>28000000</v>
+        <v>142000000</v>
       </c>
       <c r="E13" t="s">
-        <v>371</v>
+        <v>407</v>
       </c>
       <c r="F13" t="s">
         <v>13</v>
       </c>
       <c r="G13" t="s">
-        <v>14</v>
+        <v>66</v>
       </c>
       <c r="H13" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>372</v>
+        <v>809</v>
       </c>
       <c r="B14" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C14" t="s">
-        <v>373</v>
+        <v>810</v>
       </c>
       <c r="D14" s="8">
-        <v>31000000</v>
+        <v>130000000</v>
       </c>
       <c r="E14" t="s">
-        <v>374</v>
+        <v>811</v>
       </c>
       <c r="F14" t="s">
-        <v>13</v>
+        <v>200</v>
       </c>
       <c r="G14" t="s">
-        <v>14</v>
+        <v>205</v>
       </c>
       <c r="H14" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>375</v>
+        <v>332</v>
       </c>
       <c r="B15" t="s">
+        <v>333</v>
+      </c>
+      <c r="C15" t="s">
+        <v>334</v>
+      </c>
+      <c r="D15" s="8">
+        <v>120000000</v>
+      </c>
+      <c r="E15" t="s">
         <v>335</v>
-      </c>
-      <c r="C15" t="s">
-        <v>376</v>
-      </c>
-      <c r="D15" s="8">
-        <v>35000000</v>
-      </c>
-      <c r="E15" t="s">
-        <v>377</v>
       </c>
       <c r="F15" t="s">
         <v>13</v>
@@ -6297,24 +6247,24 @@
         <v>14</v>
       </c>
       <c r="H15" t="s">
-        <v>33</v>
+        <v>887</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>378</v>
+        <v>336</v>
       </c>
       <c r="B16" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C16" t="s">
-        <v>379</v>
+        <v>337</v>
       </c>
       <c r="D16" s="8">
-        <v>115000000</v>
+        <v>120000000</v>
       </c>
       <c r="E16" t="s">
-        <v>380</v>
+        <v>19</v>
       </c>
       <c r="F16" t="s">
         <v>13</v>
@@ -6323,50 +6273,50 @@
         <v>14</v>
       </c>
       <c r="H16" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>381</v>
+        <v>465</v>
       </c>
       <c r="B17" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C17" t="s">
-        <v>382</v>
+        <v>466</v>
       </c>
       <c r="D17" s="8">
-        <v>80000000</v>
+        <v>120000000</v>
       </c>
       <c r="E17" t="s">
-        <v>383</v>
+        <v>467</v>
       </c>
       <c r="F17" t="s">
         <v>13</v>
       </c>
       <c r="G17" t="s">
-        <v>14</v>
+        <v>94</v>
       </c>
       <c r="H17" t="s">
-        <v>15</v>
+        <v>887</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B18" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C18" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D18" s="8" t="s">
         <v>19</v>
       </c>
       <c r="E18" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="F18" t="s">
         <v>13</v>
@@ -6380,149 +6330,149 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>387</v>
+        <v>785</v>
       </c>
       <c r="B19" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C19" t="s">
-        <v>388</v>
+        <v>786</v>
       </c>
       <c r="D19" s="8">
-        <v>57700000</v>
+        <v>120000000</v>
       </c>
       <c r="E19" t="s">
-        <v>389</v>
+        <v>787</v>
       </c>
       <c r="F19" t="s">
-        <v>13</v>
+        <v>200</v>
       </c>
       <c r="G19" t="s">
-        <v>66</v>
+        <v>205</v>
       </c>
       <c r="H19" t="s">
-        <v>895</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>390</v>
+        <v>376</v>
       </c>
       <c r="B20" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C20" t="s">
-        <v>391</v>
+        <v>377</v>
       </c>
       <c r="D20" s="8">
-        <v>31000000</v>
+        <v>115000000</v>
       </c>
       <c r="E20" t="s">
-        <v>392</v>
+        <v>378</v>
       </c>
       <c r="F20" t="s">
         <v>13</v>
       </c>
       <c r="G20" t="s">
-        <v>66</v>
+        <v>14</v>
       </c>
       <c r="H20" t="s">
-        <v>33</v>
+        <v>452</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>393</v>
+        <v>812</v>
       </c>
       <c r="B21" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C21" t="s">
-        <v>394</v>
+        <v>813</v>
       </c>
       <c r="D21" s="8">
-        <v>14000000</v>
+        <v>110000000</v>
       </c>
       <c r="E21" t="s">
-        <v>19</v>
+        <v>814</v>
       </c>
       <c r="F21" t="s">
-        <v>13</v>
+        <v>200</v>
       </c>
       <c r="G21" t="s">
-        <v>66</v>
+        <v>205</v>
       </c>
       <c r="H21" t="s">
-        <v>33</v>
+        <v>887</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>395</v>
+        <v>818</v>
       </c>
       <c r="B22" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C22" t="s">
-        <v>396</v>
+        <v>819</v>
       </c>
       <c r="D22" s="8">
-        <v>9300000</v>
+        <v>104000000</v>
       </c>
       <c r="E22" t="s">
-        <v>397</v>
+        <v>820</v>
       </c>
       <c r="F22" t="s">
-        <v>13</v>
+        <v>200</v>
       </c>
       <c r="G22" t="s">
-        <v>66</v>
+        <v>205</v>
       </c>
       <c r="H22" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>398</v>
+        <v>338</v>
       </c>
       <c r="B23" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="C23" t="s">
-        <v>399</v>
+        <v>340</v>
       </c>
       <c r="D23" s="8">
-        <v>1200000</v>
+        <v>100000000</v>
       </c>
       <c r="E23" t="s">
-        <v>19</v>
+        <v>341</v>
       </c>
       <c r="F23" t="s">
         <v>13</v>
       </c>
       <c r="G23" t="s">
-        <v>66</v>
+        <v>14</v>
       </c>
       <c r="H23" t="s">
-        <v>895</v>
+        <v>15</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="B24" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C24" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="D24" s="8">
         <v>100000000</v>
       </c>
       <c r="E24" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="F24" t="s">
         <v>13</v>
@@ -6536,77 +6486,77 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>403</v>
+        <v>441</v>
       </c>
       <c r="B25" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C25" t="s">
-        <v>404</v>
+        <v>442</v>
       </c>
       <c r="D25" s="8">
-        <v>7700000</v>
+        <v>100000000</v>
       </c>
       <c r="E25" t="s">
-        <v>405</v>
+        <v>443</v>
       </c>
       <c r="F25" t="s">
         <v>13</v>
       </c>
       <c r="G25" t="s">
-        <v>66</v>
+        <v>94</v>
       </c>
       <c r="H25" t="s">
-        <v>33</v>
+        <v>887</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>406</v>
+        <v>503</v>
       </c>
       <c r="B26" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C26" t="s">
-        <v>407</v>
+        <v>504</v>
       </c>
       <c r="D26" s="8">
-        <v>20000000</v>
+        <v>100000000</v>
       </c>
       <c r="E26" t="s">
-        <v>19</v>
+        <v>505</v>
       </c>
       <c r="F26" t="s">
-        <v>13</v>
+        <v>123</v>
       </c>
       <c r="G26" t="s">
-        <v>66</v>
+        <v>124</v>
       </c>
       <c r="H26" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>408</v>
+        <v>839</v>
       </c>
       <c r="B27" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C27" t="s">
-        <v>409</v>
+        <v>840</v>
       </c>
       <c r="D27" s="8">
-        <v>15000000</v>
+        <v>100000000</v>
       </c>
       <c r="E27" t="s">
-        <v>410</v>
+        <v>841</v>
       </c>
       <c r="F27" t="s">
-        <v>13</v>
+        <v>200</v>
       </c>
       <c r="G27" t="s">
-        <v>66</v>
+        <v>205</v>
       </c>
       <c r="H27" t="s">
         <v>15</v>
@@ -6614,51 +6564,51 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>211</v>
+        <v>342</v>
       </c>
       <c r="B28" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="C28" t="s">
-        <v>411</v>
+        <v>343</v>
       </c>
       <c r="D28" s="8">
-        <v>142000000</v>
+        <v>90000000</v>
       </c>
       <c r="E28" t="s">
-        <v>412</v>
+        <v>344</v>
       </c>
       <c r="F28" t="s">
         <v>13</v>
       </c>
       <c r="G28" t="s">
-        <v>66</v>
+        <v>14</v>
       </c>
       <c r="H28" t="s">
-        <v>33</v>
+        <v>887</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>413</v>
+        <v>845</v>
       </c>
       <c r="B29" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C29" t="s">
-        <v>414</v>
+        <v>846</v>
       </c>
       <c r="D29" s="8">
-        <v>17500000</v>
+        <v>90000000</v>
       </c>
       <c r="E29" t="s">
-        <v>415</v>
+        <v>847</v>
       </c>
       <c r="F29" t="s">
-        <v>13</v>
+        <v>200</v>
       </c>
       <c r="G29" t="s">
-        <v>66</v>
+        <v>201</v>
       </c>
       <c r="H29" t="s">
         <v>33</v>
@@ -6666,123 +6616,123 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>416</v>
+        <v>788</v>
       </c>
       <c r="B30" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C30" t="s">
-        <v>417</v>
+        <v>789</v>
       </c>
       <c r="D30" s="8">
-        <v>7300000</v>
+        <v>85000000</v>
       </c>
       <c r="E30" t="s">
-        <v>418</v>
+        <v>790</v>
       </c>
       <c r="F30" t="s">
-        <v>13</v>
+        <v>200</v>
       </c>
       <c r="G30" t="s">
-        <v>66</v>
+        <v>205</v>
       </c>
       <c r="H30" t="s">
-        <v>895</v>
+        <v>15</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>419</v>
+        <v>495</v>
       </c>
       <c r="B31" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C31" t="s">
-        <v>420</v>
+        <v>496</v>
       </c>
       <c r="D31" s="8">
-        <v>11000000</v>
+        <v>83000000</v>
       </c>
       <c r="E31" t="s">
-        <v>421</v>
+        <v>497</v>
       </c>
       <c r="F31" t="s">
         <v>13</v>
       </c>
       <c r="G31" t="s">
-        <v>66</v>
+        <v>94</v>
       </c>
       <c r="H31" t="s">
-        <v>895</v>
+        <v>15</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>422</v>
+        <v>379</v>
       </c>
       <c r="B32" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C32" t="s">
-        <v>423</v>
+        <v>380</v>
       </c>
       <c r="D32" s="8">
-        <v>42000000</v>
+        <v>80000000</v>
       </c>
       <c r="E32" t="s">
-        <v>424</v>
+        <v>381</v>
       </c>
       <c r="F32" t="s">
         <v>13</v>
       </c>
       <c r="G32" t="s">
-        <v>66</v>
+        <v>14</v>
       </c>
       <c r="H32" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>425</v>
+        <v>759</v>
       </c>
       <c r="B33" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C33" t="s">
-        <v>426</v>
+        <v>760</v>
       </c>
       <c r="D33" s="8">
-        <v>13600000</v>
+        <v>75000000</v>
       </c>
       <c r="E33" t="s">
-        <v>427</v>
+        <v>761</v>
       </c>
       <c r="F33" t="s">
-        <v>13</v>
+        <v>200</v>
       </c>
       <c r="G33" t="s">
-        <v>66</v>
+        <v>289</v>
       </c>
       <c r="H33" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B34" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C34" t="s">
-        <v>429</v>
-      </c>
-      <c r="D34" s="8">
-        <v>12700000</v>
+        <v>430</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>19</v>
       </c>
       <c r="E34" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="F34" t="s">
         <v>13</v>
@@ -6791,76 +6741,76 @@
         <v>66</v>
       </c>
       <c r="H34" t="s">
-        <v>60</v>
+        <v>33</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>431</v>
+        <v>779</v>
       </c>
       <c r="B35" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C35" t="s">
-        <v>432</v>
+        <v>780</v>
       </c>
       <c r="D35" s="8">
-        <v>2000000</v>
+        <v>67000000</v>
       </c>
       <c r="E35" t="s">
-        <v>433</v>
+        <v>781</v>
       </c>
       <c r="F35" t="s">
-        <v>13</v>
+        <v>200</v>
       </c>
       <c r="G35" t="s">
-        <v>66</v>
+        <v>205</v>
       </c>
       <c r="H35" t="s">
-        <v>41</v>
+        <v>887</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>434</v>
+        <v>459</v>
       </c>
       <c r="B36" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C36" t="s">
-        <v>435</v>
-      </c>
-      <c r="D36" s="8" t="s">
-        <v>19</v>
+        <v>460</v>
+      </c>
+      <c r="D36" s="8">
+        <v>65000000</v>
       </c>
       <c r="E36" t="s">
-        <v>436</v>
+        <v>461</v>
       </c>
       <c r="F36" t="s">
         <v>13</v>
       </c>
       <c r="G36" t="s">
-        <v>66</v>
+        <v>94</v>
       </c>
       <c r="H36" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B37" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C37" t="s">
-        <v>438</v>
-      </c>
-      <c r="D37" s="8">
-        <v>2300000</v>
+        <v>439</v>
+      </c>
+      <c r="D37" s="8" t="s">
+        <v>19</v>
       </c>
       <c r="E37" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="F37" t="s">
         <v>13</v>
@@ -6869,180 +6819,180 @@
         <v>66</v>
       </c>
       <c r="H37" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>440</v>
+        <v>480</v>
       </c>
       <c r="B38" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C38" t="s">
-        <v>441</v>
+        <v>481</v>
       </c>
       <c r="D38" s="8">
-        <v>15000000</v>
+        <v>65000000</v>
       </c>
       <c r="E38" t="s">
-        <v>442</v>
+        <v>482</v>
       </c>
       <c r="F38" t="s">
         <v>13</v>
       </c>
       <c r="G38" t="s">
-        <v>66</v>
+        <v>94</v>
       </c>
       <c r="H38" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B39" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="C39" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="D39" s="8" t="s">
         <v>19</v>
       </c>
       <c r="E39" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="F39" t="s">
         <v>13</v>
       </c>
       <c r="G39" t="s">
-        <v>66</v>
+        <v>94</v>
       </c>
       <c r="H39" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>446</v>
+        <v>815</v>
       </c>
       <c r="B40" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C40" t="s">
-        <v>447</v>
+        <v>816</v>
       </c>
       <c r="D40" s="8">
-        <v>100000000</v>
+        <v>65000000</v>
       </c>
       <c r="E40" t="s">
-        <v>448</v>
+        <v>817</v>
       </c>
       <c r="F40" t="s">
-        <v>13</v>
+        <v>200</v>
       </c>
       <c r="G40" t="s">
-        <v>94</v>
+        <v>205</v>
       </c>
       <c r="H40" t="s">
-        <v>895</v>
+        <v>887</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>449</v>
+        <v>794</v>
       </c>
       <c r="B41" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="C41" t="s">
-        <v>450</v>
-      </c>
-      <c r="D41" s="8" t="s">
-        <v>19</v>
+        <v>795</v>
+      </c>
+      <c r="D41" s="8">
+        <v>60000000</v>
       </c>
       <c r="E41" t="s">
-        <v>451</v>
+        <v>796</v>
       </c>
       <c r="F41" t="s">
-        <v>13</v>
+        <v>200</v>
       </c>
       <c r="G41" t="s">
-        <v>94</v>
+        <v>205</v>
       </c>
       <c r="H41" t="s">
-        <v>33</v>
+        <v>887</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>452</v>
+        <v>385</v>
       </c>
       <c r="B42" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C42" t="s">
-        <v>453</v>
+        <v>386</v>
       </c>
       <c r="D42" s="8">
-        <v>175000000</v>
+        <v>57700000</v>
       </c>
       <c r="E42" t="s">
-        <v>92</v>
+        <v>387</v>
       </c>
       <c r="F42" t="s">
         <v>13</v>
       </c>
       <c r="G42" t="s">
-        <v>94</v>
+        <v>66</v>
       </c>
       <c r="H42" t="s">
-        <v>15</v>
+        <v>887</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>454</v>
+        <v>695</v>
       </c>
       <c r="B43" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C43" t="s">
-        <v>455</v>
+        <v>696</v>
       </c>
       <c r="D43" s="8">
-        <v>200000000</v>
+        <v>56000000</v>
       </c>
       <c r="E43" t="s">
-        <v>456</v>
+        <v>697</v>
       </c>
       <c r="F43" t="s">
-        <v>13</v>
+        <v>200</v>
       </c>
       <c r="G43" t="s">
-        <v>94</v>
+        <v>219</v>
       </c>
       <c r="H43" t="s">
-        <v>457</v>
+        <v>15</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="B44" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C44" t="s">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="D44" s="8">
-        <v>40000000</v>
+        <v>53000000</v>
       </c>
       <c r="E44" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="F44" t="s">
         <v>13</v>
@@ -7051,30 +7001,30 @@
         <v>94</v>
       </c>
       <c r="H44" t="s">
-        <v>23</v>
+        <v>887</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>461</v>
+        <v>361</v>
       </c>
       <c r="B45" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C45" t="s">
-        <v>462</v>
+        <v>362</v>
       </c>
       <c r="D45" s="8">
-        <v>11700000</v>
+        <v>50000000</v>
       </c>
       <c r="E45" t="s">
-        <v>463</v>
+        <v>363</v>
       </c>
       <c r="F45" t="s">
         <v>13</v>
       </c>
       <c r="G45" t="s">
-        <v>94</v>
+        <v>14</v>
       </c>
       <c r="H45" t="s">
         <v>33</v>
@@ -7082,201 +7032,201 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>464</v>
+        <v>672</v>
       </c>
       <c r="B46" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C46" t="s">
-        <v>465</v>
+        <v>199</v>
       </c>
       <c r="D46" s="8">
-        <v>65000000</v>
+        <v>50000000</v>
       </c>
       <c r="E46" t="s">
-        <v>466</v>
+        <v>405</v>
       </c>
       <c r="F46" t="s">
-        <v>13</v>
+        <v>200</v>
       </c>
       <c r="G46" t="s">
-        <v>94</v>
+        <v>219</v>
       </c>
       <c r="H46" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>467</v>
+        <v>750</v>
       </c>
       <c r="B47" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C47" t="s">
-        <v>468</v>
+        <v>751</v>
       </c>
       <c r="D47" s="8">
-        <v>53000000</v>
+        <v>50000000</v>
       </c>
       <c r="E47" t="s">
-        <v>469</v>
+        <v>752</v>
       </c>
       <c r="F47" t="s">
-        <v>13</v>
+        <v>200</v>
       </c>
       <c r="G47" t="s">
-        <v>94</v>
+        <v>289</v>
       </c>
       <c r="H47" t="s">
-        <v>33</v>
+        <v>887</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>470</v>
+        <v>198</v>
       </c>
       <c r="B48" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C48" t="s">
-        <v>471</v>
+        <v>199</v>
       </c>
       <c r="D48" s="8">
-        <v>120000000</v>
+        <v>50000000</v>
       </c>
       <c r="E48" t="s">
-        <v>472</v>
+        <v>405</v>
       </c>
       <c r="F48" t="s">
-        <v>13</v>
+        <v>200</v>
       </c>
       <c r="G48" t="s">
-        <v>94</v>
+        <v>205</v>
       </c>
       <c r="H48" t="s">
-        <v>895</v>
+        <v>15</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>473</v>
+        <v>352</v>
       </c>
       <c r="B49" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C49" t="s">
-        <v>474</v>
+        <v>353</v>
       </c>
       <c r="D49" s="8">
-        <v>5000000</v>
+        <v>45000000</v>
       </c>
       <c r="E49" t="s">
-        <v>475</v>
+        <v>354</v>
       </c>
       <c r="F49" t="s">
         <v>13</v>
       </c>
       <c r="G49" t="s">
-        <v>94</v>
+        <v>14</v>
       </c>
       <c r="H49" t="s">
-        <v>15</v>
+        <v>60</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>476</v>
+        <v>592</v>
       </c>
       <c r="B50" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C50" t="s">
-        <v>477</v>
+        <v>593</v>
       </c>
       <c r="D50" s="8">
-        <v>7000000</v>
+        <v>45000000</v>
       </c>
       <c r="E50" t="s">
-        <v>478</v>
+        <v>594</v>
       </c>
       <c r="F50" t="s">
-        <v>13</v>
+        <v>123</v>
       </c>
       <c r="G50" t="s">
-        <v>94</v>
+        <v>158</v>
       </c>
       <c r="H50" t="s">
-        <v>37</v>
+        <v>887</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>479</v>
+        <v>417</v>
       </c>
       <c r="B51" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C51" t="s">
-        <v>480</v>
+        <v>418</v>
       </c>
       <c r="D51" s="8">
-        <v>17780000</v>
+        <v>42000000</v>
       </c>
       <c r="E51" t="s">
-        <v>481</v>
+        <v>419</v>
       </c>
       <c r="F51" t="s">
         <v>13</v>
       </c>
       <c r="G51" t="s">
-        <v>94</v>
+        <v>66</v>
       </c>
       <c r="H51" t="s">
-        <v>33</v>
+        <v>887</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>482</v>
+        <v>589</v>
       </c>
       <c r="B52" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C52" t="s">
-        <v>483</v>
+        <v>590</v>
       </c>
       <c r="D52" s="8">
-        <v>24000000</v>
+        <v>42000000</v>
       </c>
       <c r="E52" t="s">
-        <v>484</v>
+        <v>591</v>
       </c>
       <c r="F52" t="s">
-        <v>13</v>
+        <v>123</v>
       </c>
       <c r="G52" t="s">
-        <v>94</v>
+        <v>158</v>
       </c>
       <c r="H52" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>485</v>
+        <v>453</v>
       </c>
       <c r="B53" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C53" t="s">
-        <v>486</v>
+        <v>454</v>
       </c>
       <c r="D53" s="8">
-        <v>65000000</v>
+        <v>40000000</v>
       </c>
       <c r="E53" t="s">
-        <v>487</v>
+        <v>455</v>
       </c>
       <c r="F53" t="s">
         <v>13</v>
@@ -7290,181 +7240,181 @@
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>488</v>
+        <v>721</v>
       </c>
       <c r="B54" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C54" t="s">
-        <v>489</v>
+        <v>722</v>
       </c>
       <c r="D54" s="8">
-        <v>175000000</v>
+        <v>40000000</v>
       </c>
       <c r="E54" t="s">
-        <v>490</v>
+        <v>723</v>
       </c>
       <c r="F54" t="s">
-        <v>13</v>
+        <v>200</v>
       </c>
       <c r="G54" t="s">
-        <v>94</v>
+        <v>219</v>
       </c>
       <c r="H54" t="s">
-        <v>895</v>
+        <v>887</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>491</v>
+        <v>512</v>
       </c>
       <c r="B55" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C55" t="s">
-        <v>492</v>
+        <v>513</v>
       </c>
       <c r="D55" s="8">
-        <v>13000000</v>
+        <v>38000000</v>
       </c>
       <c r="E55" t="s">
-        <v>493</v>
+        <v>514</v>
       </c>
       <c r="F55" t="s">
-        <v>13</v>
+        <v>123</v>
       </c>
       <c r="G55" t="s">
-        <v>94</v>
+        <v>124</v>
       </c>
       <c r="H55" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>494</v>
+        <v>606</v>
       </c>
       <c r="B56" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C56" t="s">
-        <v>495</v>
+        <v>607</v>
       </c>
       <c r="D56" s="8">
-        <v>10900000</v>
+        <v>36100000</v>
       </c>
       <c r="E56" t="s">
-        <v>496</v>
+        <v>608</v>
       </c>
       <c r="F56" t="s">
-        <v>13</v>
+        <v>123</v>
       </c>
       <c r="G56" t="s">
-        <v>94</v>
+        <v>158</v>
       </c>
       <c r="H56" t="s">
-        <v>15</v>
+        <v>887</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>497</v>
+        <v>373</v>
       </c>
       <c r="B57" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C57" t="s">
-        <v>498</v>
+        <v>374</v>
       </c>
       <c r="D57" s="8">
-        <v>25000000</v>
+        <v>35000000</v>
       </c>
       <c r="E57" t="s">
-        <v>499</v>
+        <v>375</v>
       </c>
       <c r="F57" t="s">
         <v>13</v>
       </c>
       <c r="G57" t="s">
-        <v>94</v>
+        <v>14</v>
       </c>
       <c r="H57" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>500</v>
+        <v>536</v>
       </c>
       <c r="B58" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C58" t="s">
-        <v>501</v>
+        <v>537</v>
       </c>
       <c r="D58" s="8">
-        <v>83000000</v>
+        <v>35000000</v>
       </c>
       <c r="E58" t="s">
-        <v>502</v>
+        <v>538</v>
       </c>
       <c r="F58" t="s">
-        <v>13</v>
+        <v>123</v>
       </c>
       <c r="G58" t="s">
-        <v>94</v>
+        <v>124</v>
       </c>
       <c r="H58" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>503</v>
+        <v>545</v>
       </c>
       <c r="B59" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C59" t="s">
-        <v>504</v>
+        <v>546</v>
       </c>
       <c r="D59" s="8">
-        <v>30000000</v>
+        <v>35000000</v>
       </c>
       <c r="E59" t="s">
-        <v>19</v>
+        <v>547</v>
       </c>
       <c r="F59" t="s">
-        <v>13</v>
+        <v>123</v>
       </c>
       <c r="G59" t="s">
-        <v>94</v>
+        <v>124</v>
       </c>
       <c r="H59" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>505</v>
+        <v>747</v>
       </c>
       <c r="B60" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C60" t="s">
-        <v>506</v>
+        <v>748</v>
       </c>
       <c r="D60" s="8">
-        <v>5200000</v>
+        <v>35000000</v>
       </c>
       <c r="E60" t="s">
-        <v>507</v>
+        <v>749</v>
       </c>
       <c r="F60" t="s">
-        <v>13</v>
+        <v>200</v>
       </c>
       <c r="G60" t="s">
-        <v>94</v>
+        <v>219</v>
       </c>
       <c r="H60" t="s">
         <v>15</v>
@@ -7472,45 +7422,45 @@
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>508</v>
+        <v>370</v>
       </c>
       <c r="B61" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C61" t="s">
-        <v>509</v>
+        <v>371</v>
       </c>
       <c r="D61" s="8">
-        <v>100000000</v>
+        <v>31000000</v>
       </c>
       <c r="E61" t="s">
-        <v>510</v>
+        <v>372</v>
       </c>
       <c r="F61" t="s">
-        <v>123</v>
+        <v>13</v>
       </c>
       <c r="G61" t="s">
-        <v>124</v>
+        <v>14</v>
       </c>
       <c r="H61" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="B62" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C62" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="D62" s="8">
-        <v>1700000</v>
+        <v>31000000</v>
       </c>
       <c r="E62" t="s">
-        <v>513</v>
+        <v>517</v>
       </c>
       <c r="F62" t="s">
         <v>123</v>
@@ -7519,50 +7469,50 @@
         <v>124</v>
       </c>
       <c r="H62" t="s">
-        <v>37</v>
+        <v>887</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>514</v>
+        <v>498</v>
       </c>
       <c r="B63" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C63" t="s">
-        <v>515</v>
+        <v>499</v>
       </c>
       <c r="D63" s="8">
-        <v>200000000</v>
+        <v>30000000</v>
       </c>
       <c r="E63" t="s">
-        <v>516</v>
+        <v>19</v>
       </c>
       <c r="F63" t="s">
-        <v>123</v>
+        <v>13</v>
       </c>
       <c r="G63" t="s">
-        <v>124</v>
+        <v>94</v>
       </c>
       <c r="H63" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>517</v>
+        <v>527</v>
       </c>
       <c r="B64" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C64" t="s">
-        <v>518</v>
+        <v>528</v>
       </c>
       <c r="D64" s="8">
-        <v>38000000</v>
+        <v>30000000</v>
       </c>
       <c r="E64" t="s">
-        <v>519</v>
+        <v>529</v>
       </c>
       <c r="F64" t="s">
         <v>123</v>
@@ -7574,203 +7524,206 @@
         <v>33</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>520</v>
+        <v>688</v>
       </c>
       <c r="B65" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C65" t="s">
-        <v>521</v>
+        <v>689</v>
       </c>
       <c r="D65" s="8">
-        <v>31000000</v>
+        <v>30000000</v>
       </c>
       <c r="E65" t="s">
-        <v>522</v>
+        <v>690</v>
       </c>
       <c r="F65" t="s">
-        <v>123</v>
+        <v>200</v>
       </c>
       <c r="G65" t="s">
-        <v>124</v>
+        <v>219</v>
       </c>
       <c r="H65" t="s">
-        <v>895</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>523</v>
+        <v>656</v>
       </c>
       <c r="B66" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C66" t="s">
-        <v>524</v>
+        <v>657</v>
       </c>
       <c r="D66" s="8">
-        <v>2000000</v>
+        <v>29400000</v>
       </c>
       <c r="E66" t="s">
-        <v>525</v>
+        <v>19</v>
       </c>
       <c r="F66" t="s">
         <v>123</v>
       </c>
       <c r="G66" t="s">
-        <v>124</v>
+        <v>191</v>
       </c>
       <c r="H66" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>526</v>
+        <v>656</v>
       </c>
       <c r="B67" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C67" t="s">
-        <v>527</v>
+        <v>859</v>
       </c>
       <c r="D67" s="8">
-        <v>3000000</v>
+        <v>29400000</v>
       </c>
       <c r="E67" t="s">
-        <v>528</v>
+        <v>19</v>
       </c>
       <c r="F67" t="s">
         <v>123</v>
       </c>
       <c r="G67" t="s">
-        <v>124</v>
+        <v>191</v>
       </c>
       <c r="H67" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+        <v>887</v>
+      </c>
+      <c r="I67" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>529</v>
+        <v>367</v>
       </c>
       <c r="B68" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C68" t="s">
-        <v>530</v>
+        <v>368</v>
       </c>
       <c r="D68" s="8">
-        <v>7500000</v>
+        <v>28000000</v>
       </c>
       <c r="E68" t="s">
-        <v>531</v>
+        <v>369</v>
       </c>
       <c r="F68" t="s">
-        <v>123</v>
+        <v>13</v>
       </c>
       <c r="G68" t="s">
-        <v>124</v>
+        <v>14</v>
       </c>
       <c r="H68" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>704</v>
+      </c>
+      <c r="B69" t="s">
+        <v>333</v>
+      </c>
+      <c r="C69" t="s">
+        <v>705</v>
+      </c>
+      <c r="D69" s="8">
+        <v>27500000</v>
+      </c>
+      <c r="E69" t="s">
+        <v>706</v>
+      </c>
+      <c r="F69" t="s">
+        <v>200</v>
+      </c>
+      <c r="G69" t="s">
+        <v>219</v>
+      </c>
+      <c r="H69" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>532</v>
-      </c>
-      <c r="B69" t="s">
-        <v>335</v>
-      </c>
-      <c r="C69" t="s">
-        <v>533</v>
-      </c>
-      <c r="D69" s="8">
-        <v>30000000</v>
-      </c>
-      <c r="E69" t="s">
-        <v>534</v>
-      </c>
-      <c r="F69" t="s">
-        <v>123</v>
-      </c>
-      <c r="G69" t="s">
-        <v>124</v>
-      </c>
-      <c r="H69" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>535</v>
+        <v>682</v>
       </c>
       <c r="B70" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C70" t="s">
-        <v>536</v>
+        <v>683</v>
       </c>
       <c r="D70" s="8">
-        <v>11500000</v>
+        <v>27300000</v>
       </c>
       <c r="E70" t="s">
-        <v>537</v>
+        <v>684</v>
       </c>
       <c r="F70" t="s">
-        <v>123</v>
+        <v>200</v>
       </c>
       <c r="G70" t="s">
-        <v>124</v>
+        <v>219</v>
       </c>
       <c r="H70" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>538</v>
+        <v>492</v>
       </c>
       <c r="B71" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C71" t="s">
-        <v>539</v>
+        <v>493</v>
       </c>
       <c r="D71" s="8">
-        <v>15000000</v>
+        <v>25000000</v>
       </c>
       <c r="E71" t="s">
-        <v>540</v>
+        <v>494</v>
       </c>
       <c r="F71" t="s">
-        <v>123</v>
+        <v>13</v>
       </c>
       <c r="G71" t="s">
-        <v>124</v>
+        <v>94</v>
       </c>
       <c r="H71" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="B72" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C72" t="s">
-        <v>542</v>
-      </c>
-      <c r="D72" s="8">
-        <v>35000000</v>
+        <v>543</v>
+      </c>
+      <c r="D72" s="8" t="s">
+        <v>19</v>
       </c>
       <c r="E72" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="F72" t="s">
         <v>123</v>
@@ -7779,24 +7732,24 @@
         <v>124</v>
       </c>
       <c r="H72" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>544</v>
+        <v>560</v>
       </c>
       <c r="B73" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C73" t="s">
-        <v>545</v>
+        <v>561</v>
       </c>
       <c r="D73" s="8">
-        <v>9000000</v>
+        <v>25000000</v>
       </c>
       <c r="E73" t="s">
-        <v>546</v>
+        <v>562</v>
       </c>
       <c r="F73" t="s">
         <v>123</v>
@@ -7805,50 +7758,50 @@
         <v>124</v>
       </c>
       <c r="H73" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>547</v>
+        <v>477</v>
       </c>
       <c r="B74" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C74" t="s">
-        <v>548</v>
-      </c>
-      <c r="D74" s="8" t="s">
+        <v>478</v>
+      </c>
+      <c r="D74" s="8">
+        <v>24000000</v>
+      </c>
+      <c r="E74" t="s">
+        <v>479</v>
+      </c>
+      <c r="F74" t="s">
+        <v>13</v>
+      </c>
+      <c r="G74" t="s">
+        <v>94</v>
+      </c>
+      <c r="H74" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>551</v>
+      </c>
+      <c r="B75" t="s">
+        <v>333</v>
+      </c>
+      <c r="C75" t="s">
+        <v>552</v>
+      </c>
+      <c r="D75" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="E74" t="s">
-        <v>549</v>
-      </c>
-      <c r="F74" t="s">
-        <v>123</v>
-      </c>
-      <c r="G74" t="s">
-        <v>124</v>
-      </c>
-      <c r="H74" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>550</v>
-      </c>
-      <c r="B75" t="s">
-        <v>335</v>
-      </c>
-      <c r="C75" t="s">
-        <v>551</v>
-      </c>
-      <c r="D75" s="8">
-        <v>35000000</v>
-      </c>
       <c r="E75" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="F75" t="s">
         <v>123</v>
@@ -7857,76 +7810,76 @@
         <v>124</v>
       </c>
       <c r="H75" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>762</v>
+      </c>
+      <c r="B76" t="s">
+        <v>333</v>
+      </c>
+      <c r="C76" t="s">
+        <v>763</v>
+      </c>
+      <c r="D76" s="8">
+        <v>24000000</v>
+      </c>
+      <c r="E76" t="s">
+        <v>764</v>
+      </c>
+      <c r="F76" t="s">
+        <v>200</v>
+      </c>
+      <c r="G76" t="s">
+        <v>289</v>
+      </c>
+      <c r="H76" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>553</v>
-      </c>
-      <c r="B76" t="s">
-        <v>335</v>
-      </c>
-      <c r="C76" t="s">
-        <v>554</v>
-      </c>
-      <c r="D76" s="8">
-        <v>10000000</v>
-      </c>
-      <c r="E76" t="s">
-        <v>555</v>
-      </c>
-      <c r="F76" t="s">
-        <v>123</v>
-      </c>
-      <c r="G76" t="s">
-        <v>124</v>
-      </c>
-      <c r="H76" t="s">
-        <v>895</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>556</v>
+        <v>401</v>
       </c>
       <c r="B77" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C77" t="s">
-        <v>557</v>
-      </c>
-      <c r="D77" s="8" t="s">
+        <v>402</v>
+      </c>
+      <c r="D77" s="8">
+        <v>20000000</v>
+      </c>
+      <c r="E77" t="s">
         <v>19</v>
       </c>
-      <c r="E77" t="s">
-        <v>558</v>
-      </c>
       <c r="F77" t="s">
-        <v>123</v>
+        <v>13</v>
       </c>
       <c r="G77" t="s">
-        <v>124</v>
+        <v>66</v>
       </c>
       <c r="H77" t="s">
-        <v>895</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>559</v>
+        <v>578</v>
       </c>
       <c r="B78" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C78" t="s">
-        <v>560</v>
+        <v>579</v>
       </c>
       <c r="D78" s="8">
-        <v>14400000</v>
+        <v>20000000</v>
       </c>
       <c r="E78" t="s">
-        <v>561</v>
+        <v>580</v>
       </c>
       <c r="F78" t="s">
         <v>123</v>
@@ -7935,82 +7888,82 @@
         <v>124</v>
       </c>
       <c r="H78" t="s">
-        <v>895</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>562</v>
+        <v>641</v>
       </c>
       <c r="B79" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C79" t="s">
-        <v>563</v>
+        <v>642</v>
       </c>
       <c r="D79" s="8">
-        <v>6000000</v>
+        <v>20000000</v>
       </c>
       <c r="E79" t="s">
-        <v>564</v>
+        <v>643</v>
       </c>
       <c r="F79" t="s">
         <v>123</v>
       </c>
       <c r="G79" t="s">
-        <v>124</v>
+        <v>191</v>
       </c>
       <c r="H79" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>565</v>
+        <v>688</v>
       </c>
       <c r="B80" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C80" t="s">
-        <v>566</v>
+        <v>689</v>
       </c>
       <c r="D80" s="8">
-        <v>25000000</v>
+        <v>20000000</v>
       </c>
       <c r="E80" t="s">
-        <v>567</v>
+        <v>691</v>
       </c>
       <c r="F80" t="s">
-        <v>123</v>
+        <v>200</v>
       </c>
       <c r="G80" t="s">
-        <v>124</v>
+        <v>219</v>
       </c>
       <c r="H80" t="s">
-        <v>895</v>
+        <v>41</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>568</v>
+        <v>701</v>
       </c>
       <c r="B81" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="C81" t="s">
-        <v>569</v>
+        <v>702</v>
       </c>
       <c r="D81" s="8">
-        <v>2000000</v>
+        <v>20000000</v>
       </c>
       <c r="E81" t="s">
-        <v>570</v>
+        <v>703</v>
       </c>
       <c r="F81" t="s">
-        <v>123</v>
+        <v>200</v>
       </c>
       <c r="G81" t="s">
-        <v>124</v>
+        <v>219</v>
       </c>
       <c r="H81" t="s">
         <v>15</v>
@@ -8018,233 +7971,233 @@
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>571</v>
+        <v>629</v>
       </c>
       <c r="B82" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C82" t="s">
-        <v>572</v>
+        <v>630</v>
       </c>
       <c r="D82" s="8">
-        <v>14300000</v>
+        <v>17900000</v>
       </c>
       <c r="E82" t="s">
-        <v>573</v>
+        <v>631</v>
       </c>
       <c r="F82" t="s">
         <v>123</v>
       </c>
       <c r="G82" t="s">
-        <v>124</v>
+        <v>191</v>
       </c>
       <c r="H82" t="s">
-        <v>41</v>
+        <v>887</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>574</v>
+        <v>474</v>
       </c>
       <c r="B83" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C83" t="s">
-        <v>575</v>
+        <v>475</v>
       </c>
       <c r="D83" s="8">
-        <v>3175000</v>
+        <v>17780000</v>
       </c>
       <c r="E83" t="s">
-        <v>576</v>
+        <v>476</v>
       </c>
       <c r="F83" t="s">
-        <v>123</v>
+        <v>13</v>
       </c>
       <c r="G83" t="s">
-        <v>124</v>
+        <v>94</v>
       </c>
       <c r="H83" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>577</v>
+        <v>408</v>
       </c>
       <c r="B84" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C84" t="s">
-        <v>578</v>
+        <v>409</v>
       </c>
       <c r="D84" s="8">
-        <v>1200000</v>
+        <v>17500000</v>
       </c>
       <c r="E84" t="s">
-        <v>579</v>
+        <v>410</v>
       </c>
       <c r="F84" t="s">
-        <v>123</v>
+        <v>13</v>
       </c>
       <c r="G84" t="s">
-        <v>124</v>
+        <v>66</v>
       </c>
       <c r="H84" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>580</v>
+        <v>644</v>
       </c>
       <c r="B85" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C85" t="s">
-        <v>581</v>
+        <v>645</v>
       </c>
       <c r="D85" s="8">
-        <v>1270000</v>
+        <v>16000000</v>
       </c>
       <c r="E85" t="s">
-        <v>582</v>
+        <v>646</v>
       </c>
       <c r="F85" t="s">
         <v>123</v>
       </c>
       <c r="G85" t="s">
-        <v>124</v>
+        <v>191</v>
       </c>
       <c r="H85" t="s">
-        <v>15</v>
+        <v>887</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>583</v>
+        <v>727</v>
       </c>
       <c r="B86" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C86" t="s">
-        <v>584</v>
+        <v>728</v>
       </c>
       <c r="D86" s="8">
-        <v>20000000</v>
+        <v>16000000</v>
       </c>
       <c r="E86" t="s">
-        <v>585</v>
+        <v>729</v>
       </c>
       <c r="F86" t="s">
-        <v>123</v>
+        <v>200</v>
       </c>
       <c r="G86" t="s">
-        <v>124</v>
+        <v>219</v>
       </c>
       <c r="H86" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>586</v>
+        <v>765</v>
       </c>
       <c r="B87" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C87" t="s">
-        <v>587</v>
+        <v>766</v>
       </c>
       <c r="D87" s="8">
-        <v>200000</v>
+        <v>16000000</v>
       </c>
       <c r="E87" t="s">
-        <v>588</v>
+        <v>767</v>
       </c>
       <c r="F87" t="s">
-        <v>123</v>
+        <v>200</v>
       </c>
       <c r="G87" t="s">
-        <v>124</v>
+        <v>289</v>
       </c>
       <c r="H87" t="s">
-        <v>41</v>
+        <v>15</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>589</v>
+        <v>821</v>
       </c>
       <c r="B88" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C88" t="s">
-        <v>590</v>
+        <v>822</v>
       </c>
       <c r="D88" s="8">
-        <v>13500000</v>
+        <v>16000000</v>
       </c>
       <c r="E88" t="s">
-        <v>19</v>
+        <v>823</v>
       </c>
       <c r="F88" t="s">
-        <v>123</v>
+        <v>200</v>
       </c>
       <c r="G88" t="s">
-        <v>158</v>
+        <v>205</v>
       </c>
       <c r="H88" t="s">
-        <v>60</v>
+        <v>23</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>591</v>
+        <v>403</v>
       </c>
       <c r="B89" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C89" t="s">
-        <v>592</v>
+        <v>404</v>
       </c>
       <c r="D89" s="8">
-        <v>10000000</v>
+        <v>15000000</v>
       </c>
       <c r="E89" t="s">
-        <v>593</v>
+        <v>405</v>
       </c>
       <c r="F89" t="s">
-        <v>123</v>
+        <v>13</v>
       </c>
       <c r="G89" t="s">
-        <v>158</v>
+        <v>66</v>
       </c>
       <c r="H89" t="s">
-        <v>37</v>
+        <v>887</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>594</v>
+        <v>435</v>
       </c>
       <c r="B90" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C90" t="s">
-        <v>595</v>
+        <v>436</v>
       </c>
       <c r="D90" s="8">
-        <v>42000000</v>
+        <v>15000000</v>
       </c>
       <c r="E90" t="s">
-        <v>596</v>
+        <v>437</v>
       </c>
       <c r="F90" t="s">
-        <v>123</v>
+        <v>13</v>
       </c>
       <c r="G90" t="s">
-        <v>158</v>
+        <v>66</v>
       </c>
       <c r="H90" t="s">
         <v>33</v>
@@ -8252,16 +8205,16 @@
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>597</v>
+        <v>230</v>
       </c>
       <c r="B91" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C91" t="s">
         <v>598</v>
       </c>
-      <c r="D91" s="8">
-        <v>45000000</v>
+      <c r="D91" s="8" t="s">
+        <v>19</v>
       </c>
       <c r="E91" t="s">
         <v>599</v>
@@ -8273,30 +8226,30 @@
         <v>158</v>
       </c>
       <c r="H91" t="s">
-        <v>895</v>
+        <v>23</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>600</v>
+        <v>533</v>
       </c>
       <c r="B92" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C92" t="s">
-        <v>601</v>
+        <v>534</v>
       </c>
       <c r="D92" s="8">
-        <v>4500000</v>
+        <v>15000000</v>
       </c>
       <c r="E92" t="s">
-        <v>602</v>
+        <v>535</v>
       </c>
       <c r="F92" t="s">
         <v>123</v>
       </c>
       <c r="G92" t="s">
-        <v>158</v>
+        <v>124</v>
       </c>
       <c r="H92" t="s">
         <v>33</v>
@@ -8304,19 +8257,19 @@
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>230</v>
+        <v>603</v>
       </c>
       <c r="B93" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C93" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="D93" s="8" t="s">
         <v>19</v>
       </c>
       <c r="E93" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="F93" t="s">
         <v>123</v>
@@ -8325,154 +8278,154 @@
         <v>158</v>
       </c>
       <c r="H93" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>605</v>
+        <v>554</v>
       </c>
       <c r="B94" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C94" t="s">
-        <v>606</v>
+        <v>555</v>
       </c>
       <c r="D94" s="8">
-        <v>900000</v>
+        <v>14400000</v>
       </c>
       <c r="E94" t="s">
-        <v>607</v>
+        <v>556</v>
       </c>
       <c r="F94" t="s">
         <v>123</v>
       </c>
       <c r="G94" t="s">
-        <v>158</v>
+        <v>124</v>
       </c>
       <c r="H94" t="s">
-        <v>33</v>
+        <v>887</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>608</v>
+        <v>566</v>
       </c>
       <c r="B95" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C95" t="s">
-        <v>609</v>
-      </c>
-      <c r="D95" s="8" t="s">
-        <v>19</v>
+        <v>567</v>
+      </c>
+      <c r="D95" s="8">
+        <v>14300000</v>
       </c>
       <c r="E95" t="s">
-        <v>610</v>
+        <v>568</v>
       </c>
       <c r="F95" t="s">
         <v>123</v>
       </c>
       <c r="G95" t="s">
-        <v>158</v>
+        <v>124</v>
       </c>
       <c r="H95" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>611</v>
+        <v>345</v>
       </c>
       <c r="B96" t="s">
-        <v>335</v>
+        <v>346</v>
       </c>
       <c r="C96" t="s">
-        <v>612</v>
+        <v>347</v>
       </c>
       <c r="D96" s="8">
-        <v>36100000</v>
+        <v>14000000</v>
       </c>
       <c r="E96" t="s">
-        <v>613</v>
+        <v>348</v>
       </c>
       <c r="F96" t="s">
-        <v>123</v>
+        <v>13</v>
       </c>
       <c r="G96" t="s">
-        <v>158</v>
+        <v>14</v>
       </c>
       <c r="H96" t="s">
-        <v>895</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>614</v>
+        <v>388</v>
       </c>
       <c r="B97" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C97" t="s">
-        <v>615</v>
+        <v>389</v>
       </c>
       <c r="D97" s="8">
-        <v>4000000</v>
+        <v>14000000</v>
       </c>
       <c r="E97" t="s">
-        <v>616</v>
+        <v>19</v>
       </c>
       <c r="F97" t="s">
-        <v>123</v>
+        <v>13</v>
       </c>
       <c r="G97" t="s">
-        <v>158</v>
+        <v>66</v>
       </c>
       <c r="H97" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>617</v>
+        <v>710</v>
       </c>
       <c r="B98" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C98" t="s">
-        <v>618</v>
+        <v>711</v>
       </c>
       <c r="D98" s="8">
-        <v>2500000</v>
+        <v>14000000</v>
       </c>
       <c r="E98" t="s">
-        <v>619</v>
+        <v>19</v>
       </c>
       <c r="F98" t="s">
-        <v>123</v>
+        <v>200</v>
       </c>
       <c r="G98" t="s">
-        <v>158</v>
+        <v>219</v>
       </c>
       <c r="H98" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="B99" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C99" t="s">
-        <v>621</v>
-      </c>
-      <c r="D99" s="8">
-        <v>2500000</v>
+        <v>622</v>
+      </c>
+      <c r="D99" s="8" t="s">
+        <v>19</v>
       </c>
       <c r="E99" t="s">
-        <v>622</v>
+        <v>19</v>
       </c>
       <c r="F99" t="s">
         <v>123</v>
@@ -8481,21 +8434,21 @@
         <v>158</v>
       </c>
       <c r="H99" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>623</v>
       </c>
       <c r="B100" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C100" t="s">
         <v>624</v>
       </c>
-      <c r="D100" s="8">
-        <v>4500000</v>
+      <c r="D100" s="8" t="s">
+        <v>19</v>
       </c>
       <c r="E100" t="s">
         <v>625</v>
@@ -8507,50 +8460,50 @@
         <v>158</v>
       </c>
       <c r="H100" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>626</v>
+        <v>420</v>
       </c>
       <c r="B101" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C101" t="s">
-        <v>627</v>
-      </c>
-      <c r="D101" s="8" t="s">
+        <v>421</v>
+      </c>
+      <c r="D101" s="8">
+        <v>13600000</v>
+      </c>
+      <c r="E101" t="s">
+        <v>422</v>
+      </c>
+      <c r="F101" t="s">
+        <v>13</v>
+      </c>
+      <c r="G101" t="s">
+        <v>66</v>
+      </c>
+      <c r="H101" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>584</v>
+      </c>
+      <c r="B102" t="s">
+        <v>333</v>
+      </c>
+      <c r="C102" t="s">
+        <v>585</v>
+      </c>
+      <c r="D102" s="8">
+        <v>13500000</v>
+      </c>
+      <c r="E102" t="s">
         <v>19</v>
-      </c>
-      <c r="E101" t="s">
-        <v>19</v>
-      </c>
-      <c r="F101" t="s">
-        <v>123</v>
-      </c>
-      <c r="G101" t="s">
-        <v>158</v>
-      </c>
-      <c r="H101" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
-        <v>628</v>
-      </c>
-      <c r="B102" t="s">
-        <v>335</v>
-      </c>
-      <c r="C102" t="s">
-        <v>629</v>
-      </c>
-      <c r="D102" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="E102" t="s">
-        <v>630</v>
       </c>
       <c r="F102" t="s">
         <v>123</v>
@@ -8559,50 +8512,50 @@
         <v>158</v>
       </c>
       <c r="H102" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="B103" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C103" t="s">
-        <v>632</v>
-      </c>
-      <c r="D103" s="8">
-        <v>1524000</v>
+        <v>633</v>
+      </c>
+      <c r="D103" s="8" t="s">
+        <v>19</v>
       </c>
       <c r="E103" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="F103" t="s">
         <v>123</v>
       </c>
       <c r="G103" t="s">
-        <v>158</v>
+        <v>191</v>
       </c>
       <c r="H103" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="B104" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C104" t="s">
-        <v>635</v>
-      </c>
-      <c r="D104" s="8">
-        <v>17900000</v>
+        <v>636</v>
+      </c>
+      <c r="D104" s="8" t="s">
+        <v>19</v>
       </c>
       <c r="E104" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="F104" t="s">
         <v>123</v>
@@ -8611,215 +8564,218 @@
         <v>191</v>
       </c>
       <c r="H104" t="s">
-        <v>895</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>637</v>
+        <v>486</v>
       </c>
       <c r="B105" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C105" t="s">
-        <v>638</v>
-      </c>
-      <c r="D105" s="8" t="s">
-        <v>19</v>
+        <v>487</v>
+      </c>
+      <c r="D105" s="8">
+        <v>13000000</v>
       </c>
       <c r="E105" t="s">
-        <v>639</v>
+        <v>488</v>
       </c>
       <c r="F105" t="s">
-        <v>123</v>
+        <v>13</v>
       </c>
       <c r="G105" t="s">
-        <v>191</v>
+        <v>94</v>
       </c>
       <c r="H105" t="s">
-        <v>895</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>640</v>
+        <v>423</v>
       </c>
       <c r="B106" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C106" t="s">
-        <v>641</v>
-      </c>
-      <c r="D106" s="8" t="s">
-        <v>19</v>
+        <v>424</v>
+      </c>
+      <c r="D106" s="8">
+        <v>12700000</v>
       </c>
       <c r="E106" t="s">
-        <v>642</v>
+        <v>425</v>
       </c>
       <c r="F106" t="s">
-        <v>123</v>
+        <v>13</v>
       </c>
       <c r="G106" t="s">
-        <v>191</v>
+        <v>66</v>
       </c>
       <c r="H106" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>643</v>
+        <v>698</v>
       </c>
       <c r="B107" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C107" t="s">
-        <v>644</v>
+        <v>699</v>
       </c>
       <c r="D107" s="8">
-        <v>6000000</v>
+        <v>12000000</v>
       </c>
       <c r="E107" t="s">
-        <v>645</v>
+        <v>700</v>
       </c>
       <c r="F107" t="s">
-        <v>123</v>
+        <v>200</v>
       </c>
       <c r="G107" t="s">
-        <v>191</v>
+        <v>219</v>
       </c>
       <c r="H107" t="s">
-        <v>895</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>646</v>
+        <v>736</v>
       </c>
       <c r="B108" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C108" t="s">
-        <v>647</v>
+        <v>699</v>
       </c>
       <c r="D108" s="8">
-        <v>20000000</v>
+        <v>12000000</v>
       </c>
       <c r="E108" t="s">
-        <v>648</v>
+        <v>737</v>
       </c>
       <c r="F108" t="s">
-        <v>123</v>
+        <v>200</v>
       </c>
       <c r="G108" t="s">
-        <v>191</v>
+        <v>219</v>
       </c>
       <c r="H108" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>456</v>
+      </c>
+      <c r="B109" t="s">
+        <v>333</v>
+      </c>
+      <c r="C109" t="s">
+        <v>457</v>
+      </c>
+      <c r="D109" s="8">
+        <v>11700000</v>
+      </c>
+      <c r="E109" t="s">
+        <v>458</v>
+      </c>
+      <c r="F109" t="s">
+        <v>13</v>
+      </c>
+      <c r="G109" t="s">
+        <v>94</v>
+      </c>
+      <c r="H109" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
-        <v>649</v>
-      </c>
-      <c r="B109" t="s">
-        <v>335</v>
-      </c>
-      <c r="C109" t="s">
-        <v>650</v>
-      </c>
-      <c r="D109" s="8">
-        <v>16000000</v>
-      </c>
-      <c r="E109" t="s">
-        <v>651</v>
-      </c>
-      <c r="F109" t="s">
-        <v>123</v>
-      </c>
-      <c r="G109" t="s">
-        <v>191</v>
-      </c>
-      <c r="H109" t="s">
-        <v>895</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>652</v>
+        <v>685</v>
       </c>
       <c r="B110" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C110" t="s">
-        <v>653</v>
+        <v>857</v>
       </c>
       <c r="D110" s="8">
-        <v>1180000</v>
+        <v>11600000</v>
       </c>
       <c r="E110" t="s">
-        <v>654</v>
+        <v>858</v>
       </c>
       <c r="F110" t="s">
-        <v>123</v>
+        <v>200</v>
       </c>
       <c r="G110" t="s">
-        <v>191</v>
+        <v>219</v>
       </c>
       <c r="H110" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+      <c r="I110" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>655</v>
+        <v>530</v>
       </c>
       <c r="B111" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C111" t="s">
-        <v>656</v>
+        <v>531</v>
       </c>
       <c r="D111" s="8">
-        <v>6000000</v>
+        <v>11500000</v>
       </c>
       <c r="E111" t="s">
-        <v>657</v>
+        <v>532</v>
       </c>
       <c r="F111" t="s">
         <v>123</v>
       </c>
       <c r="G111" t="s">
-        <v>191</v>
+        <v>124</v>
       </c>
       <c r="H111" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>658</v>
+        <v>685</v>
       </c>
       <c r="B112" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C112" t="s">
-        <v>659</v>
+        <v>686</v>
       </c>
       <c r="D112" s="8">
-        <v>7909999</v>
+        <v>11500000</v>
       </c>
       <c r="E112" t="s">
-        <v>660</v>
+        <v>687</v>
       </c>
       <c r="F112" t="s">
-        <v>123</v>
+        <v>200</v>
       </c>
       <c r="G112" t="s">
-        <v>191</v>
+        <v>219</v>
       </c>
       <c r="H112" t="s">
-        <v>33</v>
+        <v>887</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
@@ -8827,16 +8783,16 @@
         <v>661</v>
       </c>
       <c r="B113" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C113" t="s">
         <v>662</v>
       </c>
-      <c r="D113" s="8">
-        <v>29400000</v>
+      <c r="D113" s="8" t="s">
+        <v>19</v>
       </c>
       <c r="E113" t="s">
-        <v>19</v>
+        <v>663</v>
       </c>
       <c r="F113" t="s">
         <v>123</v>
@@ -8845,56 +8801,56 @@
         <v>191</v>
       </c>
       <c r="H113" t="s">
-        <v>895</v>
+        <v>15</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>663</v>
+        <v>414</v>
       </c>
       <c r="B114" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C114" t="s">
-        <v>664</v>
+        <v>415</v>
       </c>
       <c r="D114" s="8">
-        <v>370000</v>
+        <v>11000000</v>
       </c>
       <c r="E114" t="s">
-        <v>665</v>
+        <v>416</v>
       </c>
       <c r="F114" t="s">
-        <v>123</v>
+        <v>13</v>
       </c>
       <c r="G114" t="s">
-        <v>191</v>
+        <v>66</v>
       </c>
       <c r="H114" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>666</v>
+        <v>718</v>
       </c>
       <c r="B115" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C115" t="s">
-        <v>667</v>
-      </c>
-      <c r="D115" s="8" t="s">
-        <v>19</v>
+        <v>719</v>
+      </c>
+      <c r="D115" s="8">
+        <v>11000000</v>
       </c>
       <c r="E115" t="s">
-        <v>668</v>
+        <v>720</v>
       </c>
       <c r="F115" t="s">
-        <v>123</v>
+        <v>200</v>
       </c>
       <c r="G115" t="s">
-        <v>191</v>
+        <v>219</v>
       </c>
       <c r="H115" t="s">
         <v>15</v>
@@ -8902,25 +8858,25 @@
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>669</v>
+        <v>489</v>
       </c>
       <c r="B116" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C116" t="s">
-        <v>670</v>
+        <v>490</v>
       </c>
       <c r="D116" s="8">
-        <v>7500000</v>
+        <v>10900000</v>
       </c>
       <c r="E116" t="s">
-        <v>19</v>
+        <v>491</v>
       </c>
       <c r="F116" t="s">
-        <v>123</v>
+        <v>13</v>
       </c>
       <c r="G116" t="s">
-        <v>191</v>
+        <v>94</v>
       </c>
       <c r="H116" t="s">
         <v>15</v>
@@ -8928,71 +8884,71 @@
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>671</v>
+        <v>548</v>
       </c>
       <c r="B117" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C117" t="s">
-        <v>672</v>
+        <v>549</v>
       </c>
       <c r="D117" s="8">
-        <v>1800000</v>
+        <v>10000000</v>
       </c>
       <c r="E117" t="s">
-        <v>673</v>
+        <v>550</v>
       </c>
       <c r="F117" t="s">
         <v>123</v>
       </c>
       <c r="G117" t="s">
-        <v>191</v>
+        <v>124</v>
       </c>
       <c r="H117" t="s">
-        <v>37</v>
+        <v>887</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>674</v>
+        <v>586</v>
       </c>
       <c r="B118" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C118" t="s">
-        <v>675</v>
+        <v>587</v>
       </c>
       <c r="D118" s="8">
-        <v>2300000</v>
+        <v>10000000</v>
       </c>
       <c r="E118" t="s">
-        <v>676</v>
+        <v>588</v>
       </c>
       <c r="F118" t="s">
         <v>123</v>
       </c>
       <c r="G118" t="s">
-        <v>191</v>
+        <v>158</v>
       </c>
       <c r="H118" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
+        <v>676</v>
+      </c>
+      <c r="B119" t="s">
+        <v>333</v>
+      </c>
+      <c r="C119" t="s">
         <v>677</v>
       </c>
-      <c r="B119" t="s">
-        <v>335</v>
-      </c>
-      <c r="C119" t="s">
-        <v>199</v>
-      </c>
-      <c r="D119" s="8">
-        <v>50000000</v>
+      <c r="D119" s="8" t="s">
+        <v>19</v>
       </c>
       <c r="E119" t="s">
-        <v>410</v>
+        <v>678</v>
       </c>
       <c r="F119" t="s">
         <v>200</v>
@@ -9001,24 +8957,24 @@
         <v>219</v>
       </c>
       <c r="H119" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>678</v>
+        <v>692</v>
       </c>
       <c r="B120" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C120" t="s">
-        <v>679</v>
+        <v>693</v>
       </c>
       <c r="D120" s="8">
-        <v>2000000</v>
+        <v>10000000</v>
       </c>
       <c r="E120" t="s">
-        <v>680</v>
+        <v>694</v>
       </c>
       <c r="F120" t="s">
         <v>200</v>
@@ -9027,82 +8983,82 @@
         <v>219</v>
       </c>
       <c r="H120" t="s">
-        <v>895</v>
+        <v>33</v>
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>681</v>
+        <v>782</v>
       </c>
       <c r="B121" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C121" t="s">
-        <v>682</v>
-      </c>
-      <c r="D121" s="8" t="s">
-        <v>19</v>
+        <v>783</v>
+      </c>
+      <c r="D121" s="8">
+        <v>10000000</v>
       </c>
       <c r="E121" t="s">
-        <v>683</v>
+        <v>784</v>
       </c>
       <c r="F121" t="s">
         <v>200</v>
       </c>
       <c r="G121" t="s">
-        <v>219</v>
+        <v>205</v>
       </c>
       <c r="H121" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>684</v>
+        <v>848</v>
       </c>
       <c r="B122" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C122" t="s">
-        <v>685</v>
+        <v>849</v>
       </c>
       <c r="D122" s="8">
-        <v>450000000</v>
+        <v>10000000</v>
       </c>
       <c r="E122" t="s">
-        <v>686</v>
+        <v>850</v>
       </c>
       <c r="F122" t="s">
         <v>200</v>
       </c>
       <c r="G122" t="s">
-        <v>219</v>
+        <v>201</v>
       </c>
       <c r="H122" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>687</v>
+        <v>390</v>
       </c>
       <c r="B123" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C123" t="s">
-        <v>688</v>
+        <v>391</v>
       </c>
       <c r="D123" s="8">
-        <v>27300000</v>
+        <v>9300000</v>
       </c>
       <c r="E123" t="s">
-        <v>689</v>
+        <v>392</v>
       </c>
       <c r="F123" t="s">
-        <v>200</v>
+        <v>13</v>
       </c>
       <c r="G123" t="s">
-        <v>219</v>
+        <v>66</v>
       </c>
       <c r="H123" t="s">
         <v>15</v>
@@ -9110,51 +9066,51 @@
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>690</v>
+        <v>539</v>
       </c>
       <c r="B124" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C124" t="s">
-        <v>691</v>
+        <v>540</v>
       </c>
       <c r="D124" s="8">
-        <v>11500000</v>
+        <v>9000000</v>
       </c>
       <c r="E124" t="s">
-        <v>692</v>
+        <v>541</v>
       </c>
       <c r="F124" t="s">
-        <v>200</v>
+        <v>123</v>
       </c>
       <c r="G124" t="s">
-        <v>219</v>
+        <v>124</v>
       </c>
       <c r="H124" t="s">
-        <v>895</v>
+        <v>33</v>
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>693</v>
+        <v>753</v>
       </c>
       <c r="B125" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C125" t="s">
-        <v>694</v>
+        <v>754</v>
       </c>
       <c r="D125" s="8">
-        <v>30000000</v>
+        <v>8200000</v>
       </c>
       <c r="E125" t="s">
-        <v>695</v>
+        <v>755</v>
       </c>
       <c r="F125" t="s">
         <v>200</v>
       </c>
       <c r="G125" t="s">
-        <v>219</v>
+        <v>289</v>
       </c>
       <c r="H125" t="s">
         <v>41</v>
@@ -9162,279 +9118,282 @@
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>693</v>
+        <v>768</v>
       </c>
       <c r="B126" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C126" t="s">
-        <v>694</v>
+        <v>769</v>
       </c>
       <c r="D126" s="8">
-        <v>20000000</v>
+        <v>8000000</v>
       </c>
       <c r="E126" t="s">
-        <v>696</v>
+        <v>770</v>
       </c>
       <c r="F126" t="s">
         <v>200</v>
       </c>
       <c r="G126" t="s">
-        <v>219</v>
+        <v>289</v>
       </c>
       <c r="H126" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>697</v>
+        <v>800</v>
       </c>
       <c r="B127" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C127" t="s">
-        <v>698</v>
+        <v>801</v>
       </c>
       <c r="D127" s="8">
-        <v>10000000</v>
+        <v>8000000</v>
       </c>
       <c r="E127" t="s">
-        <v>699</v>
+        <v>802</v>
       </c>
       <c r="F127" t="s">
         <v>200</v>
       </c>
       <c r="G127" t="s">
-        <v>219</v>
+        <v>205</v>
       </c>
       <c r="H127" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>700</v>
+        <v>653</v>
       </c>
       <c r="B128" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C128" t="s">
-        <v>701</v>
+        <v>654</v>
       </c>
       <c r="D128" s="8">
-        <v>56000000</v>
+        <v>7909999</v>
       </c>
       <c r="E128" t="s">
-        <v>702</v>
+        <v>655</v>
       </c>
       <c r="F128" t="s">
-        <v>200</v>
+        <v>123</v>
       </c>
       <c r="G128" t="s">
-        <v>219</v>
+        <v>191</v>
       </c>
       <c r="H128" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>398</v>
+      </c>
+      <c r="B129" t="s">
+        <v>333</v>
+      </c>
+      <c r="C129" t="s">
+        <v>399</v>
+      </c>
+      <c r="D129" s="8">
+        <v>7700000</v>
+      </c>
+      <c r="E129" t="s">
+        <v>400</v>
+      </c>
+      <c r="F129" t="s">
+        <v>13</v>
+      </c>
+      <c r="G129" t="s">
+        <v>66</v>
+      </c>
+      <c r="H129" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>524</v>
+      </c>
+      <c r="B130" t="s">
+        <v>333</v>
+      </c>
+      <c r="C130" t="s">
+        <v>525</v>
+      </c>
+      <c r="D130" s="8">
+        <v>7500000</v>
+      </c>
+      <c r="E130" t="s">
+        <v>526</v>
+      </c>
+      <c r="F130" t="s">
+        <v>123</v>
+      </c>
+      <c r="G130" t="s">
+        <v>124</v>
+      </c>
+      <c r="H130" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>664</v>
+      </c>
+      <c r="B131" t="s">
+        <v>333</v>
+      </c>
+      <c r="C131" t="s">
+        <v>665</v>
+      </c>
+      <c r="D131" s="8">
+        <v>7500000</v>
+      </c>
+      <c r="E131" t="s">
+        <v>19</v>
+      </c>
+      <c r="F131" t="s">
+        <v>123</v>
+      </c>
+      <c r="G131" t="s">
+        <v>191</v>
+      </c>
+      <c r="H131" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A129" t="s">
-        <v>703</v>
-      </c>
-      <c r="B129" t="s">
-        <v>335</v>
-      </c>
-      <c r="C129" t="s">
-        <v>704</v>
-      </c>
-      <c r="D129" s="8">
-        <v>12000000</v>
-      </c>
-      <c r="E129" t="s">
-        <v>705</v>
-      </c>
-      <c r="F129" t="s">
-        <v>200</v>
-      </c>
-      <c r="G129" t="s">
-        <v>219</v>
-      </c>
-      <c r="H129" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A130" t="s">
-        <v>706</v>
-      </c>
-      <c r="B130" t="s">
-        <v>341</v>
-      </c>
-      <c r="C130" t="s">
-        <v>707</v>
-      </c>
-      <c r="D130" s="8">
-        <v>20000000</v>
-      </c>
-      <c r="E130" t="s">
-        <v>708</v>
-      </c>
-      <c r="F130" t="s">
-        <v>200</v>
-      </c>
-      <c r="G130" t="s">
-        <v>219</v>
-      </c>
-      <c r="H130" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A131" t="s">
-        <v>709</v>
-      </c>
-      <c r="B131" t="s">
-        <v>335</v>
-      </c>
-      <c r="C131" t="s">
-        <v>710</v>
-      </c>
-      <c r="D131" s="8">
-        <v>27500000</v>
-      </c>
-      <c r="E131" t="s">
-        <v>711</v>
-      </c>
-      <c r="F131" t="s">
-        <v>200</v>
-      </c>
-      <c r="G131" t="s">
-        <v>219</v>
-      </c>
-      <c r="H131" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>712</v>
+        <v>664</v>
       </c>
       <c r="B132" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C132" t="s">
-        <v>713</v>
+        <v>853</v>
       </c>
       <c r="D132" s="8">
-        <v>4700000</v>
+        <v>7500000</v>
       </c>
       <c r="E132" t="s">
-        <v>714</v>
+        <v>19</v>
       </c>
       <c r="F132" t="s">
-        <v>200</v>
+        <v>123</v>
       </c>
       <c r="G132" t="s">
-        <v>219</v>
+        <v>191</v>
       </c>
       <c r="H132" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+      <c r="I132" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>715</v>
+        <v>411</v>
       </c>
       <c r="B133" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C133" t="s">
-        <v>716</v>
+        <v>412</v>
       </c>
       <c r="D133" s="8">
-        <v>14000000</v>
+        <v>7300000</v>
       </c>
       <c r="E133" t="s">
+        <v>413</v>
+      </c>
+      <c r="F133" t="s">
+        <v>13</v>
+      </c>
+      <c r="G133" t="s">
+        <v>66</v>
+      </c>
+      <c r="H133" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>471</v>
+      </c>
+      <c r="B134" t="s">
+        <v>333</v>
+      </c>
+      <c r="C134" t="s">
+        <v>472</v>
+      </c>
+      <c r="D134" s="8">
+        <v>7000000</v>
+      </c>
+      <c r="E134" t="s">
+        <v>473</v>
+      </c>
+      <c r="F134" t="s">
+        <v>13</v>
+      </c>
+      <c r="G134" t="s">
+        <v>94</v>
+      </c>
+      <c r="H134" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>777</v>
+      </c>
+      <c r="B135" t="s">
+        <v>333</v>
+      </c>
+      <c r="C135" t="s">
+        <v>778</v>
+      </c>
+      <c r="D135" s="8">
+        <v>7000000</v>
+      </c>
+      <c r="E135" t="s">
         <v>19</v>
-      </c>
-      <c r="F133" t="s">
-        <v>200</v>
-      </c>
-      <c r="G133" t="s">
-        <v>219</v>
-      </c>
-      <c r="H133" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A134" t="s">
-        <v>717</v>
-      </c>
-      <c r="B134" t="s">
-        <v>335</v>
-      </c>
-      <c r="C134" t="s">
-        <v>718</v>
-      </c>
-      <c r="D134" s="8">
-        <v>250000</v>
-      </c>
-      <c r="E134" t="s">
-        <v>719</v>
-      </c>
-      <c r="F134" t="s">
-        <v>200</v>
-      </c>
-      <c r="G134" t="s">
-        <v>219</v>
-      </c>
-      <c r="H134" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A135" t="s">
-        <v>720</v>
-      </c>
-      <c r="B135" t="s">
-        <v>335</v>
-      </c>
-      <c r="C135" t="s">
-        <v>721</v>
-      </c>
-      <c r="D135" s="8">
-        <v>1200000</v>
-      </c>
-      <c r="E135" t="s">
-        <v>722</v>
       </c>
       <c r="F135" t="s">
         <v>200</v>
       </c>
       <c r="G135" t="s">
-        <v>219</v>
+        <v>205</v>
       </c>
       <c r="H135" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="B136" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C136" t="s">
-        <v>724</v>
-      </c>
-      <c r="D136" s="8">
-        <v>11000000</v>
+        <v>725</v>
+      </c>
+      <c r="D136" s="8" t="s">
+        <v>19</v>
       </c>
       <c r="E136" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="F136" t="s">
         <v>200</v>
@@ -9443,50 +9402,50 @@
         <v>219</v>
       </c>
       <c r="H136" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>557</v>
+      </c>
+      <c r="B137" t="s">
+        <v>333</v>
+      </c>
+      <c r="C137" t="s">
+        <v>558</v>
+      </c>
+      <c r="D137" s="8">
+        <v>6000000</v>
+      </c>
+      <c r="E137" t="s">
+        <v>559</v>
+      </c>
+      <c r="F137" t="s">
+        <v>123</v>
+      </c>
+      <c r="G137" t="s">
+        <v>124</v>
+      </c>
+      <c r="H137" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A137" t="s">
-        <v>726</v>
-      </c>
-      <c r="B137" t="s">
-        <v>335</v>
-      </c>
-      <c r="C137" t="s">
-        <v>727</v>
-      </c>
-      <c r="D137" s="8">
-        <v>40000000</v>
-      </c>
-      <c r="E137" t="s">
-        <v>728</v>
-      </c>
-      <c r="F137" t="s">
-        <v>200</v>
-      </c>
-      <c r="G137" t="s">
-        <v>219</v>
-      </c>
-      <c r="H137" t="s">
-        <v>895</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="B138" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C138" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="D138" s="8" t="s">
         <v>19</v>
       </c>
       <c r="E138" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="F138" t="s">
         <v>200</v>
@@ -9498,203 +9457,203 @@
         <v>37</v>
       </c>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>732</v>
+        <v>638</v>
       </c>
       <c r="B139" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C139" t="s">
-        <v>733</v>
+        <v>639</v>
       </c>
       <c r="D139" s="8">
-        <v>16000000</v>
+        <v>6000000</v>
       </c>
       <c r="E139" t="s">
-        <v>734</v>
+        <v>640</v>
       </c>
       <c r="F139" t="s">
-        <v>200</v>
+        <v>123</v>
       </c>
       <c r="G139" t="s">
-        <v>219</v>
+        <v>191</v>
       </c>
       <c r="H139" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>650</v>
+      </c>
+      <c r="B140" t="s">
+        <v>333</v>
+      </c>
+      <c r="C140" t="s">
+        <v>651</v>
+      </c>
+      <c r="D140" s="8">
+        <v>6000000</v>
+      </c>
+      <c r="E140" t="s">
+        <v>652</v>
+      </c>
+      <c r="F140" t="s">
+        <v>123</v>
+      </c>
+      <c r="G140" t="s">
+        <v>191</v>
+      </c>
+      <c r="H140" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>500</v>
+      </c>
+      <c r="B141" t="s">
+        <v>333</v>
+      </c>
+      <c r="C141" t="s">
+        <v>501</v>
+      </c>
+      <c r="D141" s="8">
+        <v>5200000</v>
+      </c>
+      <c r="E141" t="s">
+        <v>502</v>
+      </c>
+      <c r="F141" t="s">
+        <v>13</v>
+      </c>
+      <c r="G141" t="s">
+        <v>94</v>
+      </c>
+      <c r="H141" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A140" t="s">
-        <v>735</v>
-      </c>
-      <c r="B140" t="s">
-        <v>335</v>
-      </c>
-      <c r="C140" t="s">
-        <v>736</v>
-      </c>
-      <c r="D140" s="8" t="s">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>355</v>
+      </c>
+      <c r="B142" t="s">
+        <v>333</v>
+      </c>
+      <c r="C142" t="s">
+        <v>356</v>
+      </c>
+      <c r="D142" s="8">
+        <v>5000000</v>
+      </c>
+      <c r="E142" t="s">
+        <v>357</v>
+      </c>
+      <c r="F142" t="s">
+        <v>13</v>
+      </c>
+      <c r="G142" t="s">
+        <v>14</v>
+      </c>
+      <c r="H142" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>468</v>
+      </c>
+      <c r="B143" t="s">
+        <v>333</v>
+      </c>
+      <c r="C143" t="s">
+        <v>469</v>
+      </c>
+      <c r="D143" s="8">
+        <v>5000000</v>
+      </c>
+      <c r="E143" t="s">
+        <v>470</v>
+      </c>
+      <c r="F143" t="s">
+        <v>13</v>
+      </c>
+      <c r="G143" t="s">
+        <v>94</v>
+      </c>
+      <c r="H143" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>393</v>
+      </c>
+      <c r="B144" t="s">
+        <v>333</v>
+      </c>
+      <c r="C144" t="s">
+        <v>844</v>
+      </c>
+      <c r="D144" s="8">
+        <v>5000000</v>
+      </c>
+      <c r="E144" t="s">
         <v>19</v>
-      </c>
-      <c r="E140" t="s">
-        <v>737</v>
-      </c>
-      <c r="F140" t="s">
-        <v>200</v>
-      </c>
-      <c r="G140" t="s">
-        <v>219</v>
-      </c>
-      <c r="H140" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A141" t="s">
-        <v>738</v>
-      </c>
-      <c r="B141" t="s">
-        <v>335</v>
-      </c>
-      <c r="C141" t="s">
-        <v>739</v>
-      </c>
-      <c r="D141" s="8">
-        <v>2500000</v>
-      </c>
-      <c r="E141" t="s">
-        <v>740</v>
-      </c>
-      <c r="F141" t="s">
-        <v>200</v>
-      </c>
-      <c r="G141" t="s">
-        <v>219</v>
-      </c>
-      <c r="H141" t="s">
-        <v>895</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A142" t="s">
-        <v>741</v>
-      </c>
-      <c r="B142" t="s">
-        <v>335</v>
-      </c>
-      <c r="C142" t="s">
-        <v>704</v>
-      </c>
-      <c r="D142" s="8">
-        <v>12000000</v>
-      </c>
-      <c r="E142" t="s">
-        <v>742</v>
-      </c>
-      <c r="F142" t="s">
-        <v>200</v>
-      </c>
-      <c r="G142" t="s">
-        <v>219</v>
-      </c>
-      <c r="H142" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A143" t="s">
-        <v>743</v>
-      </c>
-      <c r="B143" t="s">
-        <v>335</v>
-      </c>
-      <c r="C143" t="s">
-        <v>744</v>
-      </c>
-      <c r="D143" s="8">
-        <v>1440000</v>
-      </c>
-      <c r="E143" t="s">
-        <v>745</v>
-      </c>
-      <c r="F143" t="s">
-        <v>200</v>
-      </c>
-      <c r="G143" t="s">
-        <v>219</v>
-      </c>
-      <c r="H143" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A144" t="s">
-        <v>746</v>
-      </c>
-      <c r="B144" t="s">
-        <v>335</v>
-      </c>
-      <c r="C144" t="s">
-        <v>747</v>
-      </c>
-      <c r="D144" s="8">
-        <v>2857500</v>
-      </c>
-      <c r="E144" t="s">
-        <v>748</v>
       </c>
       <c r="F144" t="s">
         <v>200</v>
       </c>
       <c r="G144" t="s">
-        <v>219</v>
+        <v>205</v>
       </c>
       <c r="H144" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>749</v>
+        <v>842</v>
       </c>
       <c r="B145" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C145" t="s">
-        <v>750</v>
+        <v>843</v>
       </c>
       <c r="D145" s="8">
-        <v>2300000</v>
+        <v>4875000</v>
       </c>
       <c r="E145" t="s">
-        <v>751</v>
+        <v>19</v>
       </c>
       <c r="F145" t="s">
         <v>200</v>
       </c>
       <c r="G145" t="s">
-        <v>219</v>
+        <v>205</v>
       </c>
       <c r="H145" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>752</v>
+        <v>707</v>
       </c>
       <c r="B146" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C146" t="s">
-        <v>753</v>
+        <v>708</v>
       </c>
       <c r="D146" s="8">
-        <v>35000000</v>
+        <v>4700000</v>
       </c>
       <c r="E146" t="s">
-        <v>754</v>
+        <v>709</v>
       </c>
       <c r="F146" t="s">
         <v>200</v>
@@ -9703,258 +9662,264 @@
         <v>219</v>
       </c>
       <c r="H146" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>755</v>
+        <v>595</v>
       </c>
       <c r="B147" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C147" t="s">
+        <v>596</v>
+      </c>
+      <c r="D147" s="8">
+        <v>4500000</v>
+      </c>
+      <c r="E147" t="s">
+        <v>597</v>
+      </c>
+      <c r="F147" t="s">
+        <v>123</v>
+      </c>
+      <c r="G147" t="s">
+        <v>158</v>
+      </c>
+      <c r="H147" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>618</v>
+      </c>
+      <c r="B148" t="s">
+        <v>333</v>
+      </c>
+      <c r="C148" t="s">
+        <v>619</v>
+      </c>
+      <c r="D148" s="8">
+        <v>4500000</v>
+      </c>
+      <c r="E148" t="s">
+        <v>620</v>
+      </c>
+      <c r="F148" t="s">
+        <v>123</v>
+      </c>
+      <c r="G148" t="s">
+        <v>158</v>
+      </c>
+      <c r="H148" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
         <v>756</v>
       </c>
-      <c r="D147" s="8">
-        <v>50000000</v>
-      </c>
-      <c r="E147" t="s">
+      <c r="B149" t="s">
+        <v>333</v>
+      </c>
+      <c r="C149" t="s">
         <v>757</v>
-      </c>
-      <c r="F147" t="s">
-        <v>200</v>
-      </c>
-      <c r="G147" t="s">
-        <v>291</v>
-      </c>
-      <c r="H147" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A148" t="s">
-        <v>758</v>
-      </c>
-      <c r="B148" t="s">
-        <v>335</v>
-      </c>
-      <c r="C148" t="s">
-        <v>759</v>
-      </c>
-      <c r="D148" s="8">
-        <v>8200000</v>
-      </c>
-      <c r="E148" t="s">
-        <v>760</v>
-      </c>
-      <c r="F148" t="s">
-        <v>200</v>
-      </c>
-      <c r="G148" t="s">
-        <v>291</v>
-      </c>
-      <c r="H148" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A149" t="s">
-        <v>761</v>
-      </c>
-      <c r="B149" t="s">
-        <v>335</v>
-      </c>
-      <c r="C149" t="s">
-        <v>762</v>
       </c>
       <c r="D149" s="8">
         <v>4500000</v>
       </c>
       <c r="E149" t="s">
-        <v>763</v>
+        <v>758</v>
       </c>
       <c r="F149" t="s">
         <v>200</v>
       </c>
       <c r="G149" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="H149" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>764</v>
+        <v>851</v>
       </c>
       <c r="B150" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C150" t="s">
-        <v>765</v>
+        <v>852</v>
       </c>
       <c r="D150" s="8">
-        <v>75000000</v>
+        <v>4500000</v>
       </c>
       <c r="E150" t="s">
-        <v>766</v>
+        <v>19</v>
       </c>
       <c r="F150" t="s">
         <v>200</v>
       </c>
       <c r="G150" t="s">
-        <v>291</v>
+        <v>219</v>
       </c>
       <c r="H150" t="s">
+        <v>41</v>
+      </c>
+      <c r="I150" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>609</v>
+      </c>
+      <c r="B151" t="s">
+        <v>333</v>
+      </c>
+      <c r="C151" t="s">
+        <v>610</v>
+      </c>
+      <c r="D151" s="8">
+        <v>4000000</v>
+      </c>
+      <c r="E151" t="s">
+        <v>611</v>
+      </c>
+      <c r="F151" t="s">
+        <v>123</v>
+      </c>
+      <c r="G151" t="s">
+        <v>158</v>
+      </c>
+      <c r="H151" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A151" t="s">
-        <v>767</v>
-      </c>
-      <c r="B151" t="s">
-        <v>335</v>
-      </c>
-      <c r="C151" t="s">
-        <v>768</v>
-      </c>
-      <c r="D151" s="8">
-        <v>24000000</v>
-      </c>
-      <c r="E151" t="s">
-        <v>769</v>
-      </c>
-      <c r="F151" t="s">
-        <v>200</v>
-      </c>
-      <c r="G151" t="s">
-        <v>291</v>
-      </c>
-      <c r="H151" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>770</v>
+        <v>569</v>
       </c>
       <c r="B152" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C152" t="s">
-        <v>771</v>
+        <v>570</v>
       </c>
       <c r="D152" s="8">
-        <v>16000000</v>
+        <v>3175000</v>
       </c>
       <c r="E152" t="s">
-        <v>772</v>
+        <v>571</v>
       </c>
       <c r="F152" t="s">
-        <v>200</v>
+        <v>123</v>
       </c>
       <c r="G152" t="s">
-        <v>291</v>
+        <v>124</v>
       </c>
       <c r="H152" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>773</v>
+        <v>521</v>
       </c>
       <c r="B153" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C153" t="s">
-        <v>774</v>
+        <v>522</v>
       </c>
       <c r="D153" s="8">
-        <v>8000000</v>
+        <v>3000000</v>
       </c>
       <c r="E153" t="s">
-        <v>775</v>
+        <v>523</v>
       </c>
       <c r="F153" t="s">
-        <v>200</v>
+        <v>123</v>
       </c>
       <c r="G153" t="s">
-        <v>291</v>
+        <v>124</v>
       </c>
       <c r="H153" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>776</v>
+        <v>860</v>
       </c>
       <c r="B154" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C154" t="s">
-        <v>777</v>
+        <v>861</v>
       </c>
       <c r="D154" s="8">
-        <v>1304000</v>
+        <v>3000000</v>
       </c>
       <c r="E154" t="s">
-        <v>778</v>
+        <v>19</v>
       </c>
       <c r="F154" t="s">
-        <v>200</v>
+        <v>123</v>
       </c>
       <c r="G154" t="s">
-        <v>291</v>
+        <v>158</v>
       </c>
       <c r="H154" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="I154" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>779</v>
+        <v>741</v>
       </c>
       <c r="B155" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C155" t="s">
-        <v>780</v>
+        <v>742</v>
       </c>
       <c r="D155" s="8">
-        <v>400000</v>
+        <v>2857500</v>
       </c>
       <c r="E155" t="s">
-        <v>781</v>
+        <v>743</v>
       </c>
       <c r="F155" t="s">
         <v>200</v>
       </c>
       <c r="G155" t="s">
-        <v>291</v>
+        <v>219</v>
       </c>
       <c r="H155" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>782</v>
+        <v>836</v>
       </c>
       <c r="B156" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C156" t="s">
-        <v>783</v>
+        <v>837</v>
       </c>
       <c r="D156" s="8">
-        <v>7000000</v>
+        <v>2800000</v>
       </c>
       <c r="E156" t="s">
-        <v>19</v>
+        <v>838</v>
       </c>
       <c r="F156" t="s">
         <v>200</v>
@@ -9963,440 +9928,443 @@
         <v>205</v>
       </c>
       <c r="H156" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>784</v>
+        <v>612</v>
       </c>
       <c r="B157" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C157" t="s">
-        <v>785</v>
+        <v>613</v>
       </c>
       <c r="D157" s="8">
-        <v>67000000</v>
+        <v>2500000</v>
       </c>
       <c r="E157" t="s">
-        <v>786</v>
+        <v>614</v>
       </c>
       <c r="F157" t="s">
-        <v>200</v>
+        <v>123</v>
       </c>
       <c r="G157" t="s">
-        <v>205</v>
+        <v>158</v>
       </c>
       <c r="H157" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>787</v>
+        <v>615</v>
       </c>
       <c r="B158" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C158" t="s">
-        <v>788</v>
+        <v>616</v>
       </c>
       <c r="D158" s="8">
-        <v>10000000</v>
+        <v>2500000</v>
       </c>
       <c r="E158" t="s">
-        <v>789</v>
+        <v>617</v>
       </c>
       <c r="F158" t="s">
-        <v>200</v>
+        <v>123</v>
       </c>
       <c r="G158" t="s">
-        <v>205</v>
+        <v>158</v>
       </c>
       <c r="H158" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>790</v>
+        <v>733</v>
       </c>
       <c r="B159" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C159" t="s">
-        <v>791</v>
+        <v>734</v>
       </c>
       <c r="D159" s="8">
-        <v>120000000</v>
+        <v>2500000</v>
       </c>
       <c r="E159" t="s">
-        <v>792</v>
+        <v>735</v>
       </c>
       <c r="F159" t="s">
         <v>200</v>
       </c>
       <c r="G159" t="s">
-        <v>205</v>
+        <v>219</v>
       </c>
       <c r="H159" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>793</v>
+        <v>432</v>
       </c>
       <c r="B160" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C160" t="s">
-        <v>794</v>
+        <v>433</v>
       </c>
       <c r="D160" s="8">
-        <v>85000000</v>
+        <v>2300000</v>
       </c>
       <c r="E160" t="s">
-        <v>795</v>
+        <v>434</v>
       </c>
       <c r="F160" t="s">
-        <v>200</v>
+        <v>13</v>
       </c>
       <c r="G160" t="s">
-        <v>205</v>
+        <v>66</v>
       </c>
       <c r="H160" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>796</v>
+        <v>669</v>
       </c>
       <c r="B161" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C161" t="s">
-        <v>797</v>
+        <v>670</v>
       </c>
       <c r="D161" s="8">
-        <v>162500000</v>
+        <v>2300000</v>
       </c>
       <c r="E161" t="s">
-        <v>798</v>
+        <v>671</v>
       </c>
       <c r="F161" t="s">
-        <v>200</v>
+        <v>123</v>
       </c>
       <c r="G161" t="s">
-        <v>205</v>
+        <v>191</v>
       </c>
       <c r="H161" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>799</v>
+        <v>744</v>
       </c>
       <c r="B162" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C162" t="s">
-        <v>800</v>
+        <v>745</v>
       </c>
       <c r="D162" s="8">
-        <v>60000000</v>
+        <v>2300000</v>
       </c>
       <c r="E162" t="s">
-        <v>801</v>
+        <v>746</v>
       </c>
       <c r="F162" t="s">
         <v>200</v>
       </c>
       <c r="G162" t="s">
-        <v>205</v>
+        <v>219</v>
       </c>
       <c r="H162" t="s">
-        <v>895</v>
-      </c>
-    </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>802</v>
+        <v>426</v>
       </c>
       <c r="B163" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C163" t="s">
-        <v>803</v>
+        <v>427</v>
       </c>
       <c r="D163" s="8">
-        <v>238000000</v>
+        <v>2000000</v>
       </c>
       <c r="E163" t="s">
-        <v>804</v>
+        <v>428</v>
       </c>
       <c r="F163" t="s">
-        <v>200</v>
+        <v>13</v>
       </c>
       <c r="G163" t="s">
-        <v>205</v>
+        <v>66</v>
       </c>
       <c r="H163" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>518</v>
+      </c>
+      <c r="B164" t="s">
+        <v>333</v>
+      </c>
+      <c r="C164" t="s">
+        <v>519</v>
+      </c>
+      <c r="D164" s="8">
+        <v>2000000</v>
+      </c>
+      <c r="E164" t="s">
+        <v>520</v>
+      </c>
+      <c r="F164" t="s">
+        <v>123</v>
+      </c>
+      <c r="G164" t="s">
+        <v>124</v>
+      </c>
+      <c r="H164" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>563</v>
+      </c>
+      <c r="B165" t="s">
+        <v>333</v>
+      </c>
+      <c r="C165" t="s">
+        <v>564</v>
+      </c>
+      <c r="D165" s="8">
+        <v>2000000</v>
+      </c>
+      <c r="E165" t="s">
+        <v>565</v>
+      </c>
+      <c r="F165" t="s">
+        <v>123</v>
+      </c>
+      <c r="G165" t="s">
+        <v>124</v>
+      </c>
+      <c r="H165" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A164" t="s">
-        <v>805</v>
-      </c>
-      <c r="B164" t="s">
-        <v>335</v>
-      </c>
-      <c r="C164" t="s">
-        <v>806</v>
-      </c>
-      <c r="D164" s="8">
-        <v>8000000</v>
-      </c>
-      <c r="E164" t="s">
-        <v>807</v>
-      </c>
-      <c r="F164" t="s">
-        <v>200</v>
-      </c>
-      <c r="G164" t="s">
-        <v>205</v>
-      </c>
-      <c r="H164" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A165" t="s">
-        <v>808</v>
-      </c>
-      <c r="B165" t="s">
-        <v>335</v>
-      </c>
-      <c r="C165" t="s">
-        <v>809</v>
-      </c>
-      <c r="D165" s="8">
-        <v>316700000</v>
-      </c>
-      <c r="E165" t="s">
-        <v>810</v>
-      </c>
-      <c r="F165" t="s">
-        <v>200</v>
-      </c>
-      <c r="G165" t="s">
-        <v>205</v>
-      </c>
-      <c r="H165" t="s">
-        <v>895</v>
-      </c>
-    </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>811</v>
+        <v>673</v>
       </c>
       <c r="B166" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C166" t="s">
-        <v>812</v>
+        <v>674</v>
       </c>
       <c r="D166" s="8">
-        <v>170000000</v>
+        <v>2000000</v>
       </c>
       <c r="E166" t="s">
-        <v>813</v>
+        <v>675</v>
       </c>
       <c r="F166" t="s">
         <v>200</v>
       </c>
       <c r="G166" t="s">
-        <v>205</v>
+        <v>219</v>
       </c>
       <c r="H166" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>814</v>
+        <v>854</v>
       </c>
       <c r="B167" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C167" t="s">
-        <v>815</v>
+        <v>855</v>
       </c>
       <c r="D167" s="8">
-        <v>130000000</v>
+        <v>2000000</v>
       </c>
       <c r="E167" t="s">
-        <v>816</v>
+        <v>856</v>
       </c>
       <c r="F167" t="s">
-        <v>200</v>
+        <v>13</v>
       </c>
       <c r="G167" t="s">
-        <v>205</v>
+        <v>94</v>
       </c>
       <c r="H167" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+      <c r="I167" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>817</v>
+        <v>666</v>
       </c>
       <c r="B168" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C168" t="s">
-        <v>818</v>
+        <v>667</v>
       </c>
       <c r="D168" s="8">
-        <v>110000000</v>
+        <v>1800000</v>
       </c>
       <c r="E168" t="s">
-        <v>819</v>
+        <v>668</v>
       </c>
       <c r="F168" t="s">
-        <v>200</v>
+        <v>123</v>
       </c>
       <c r="G168" t="s">
-        <v>205</v>
+        <v>191</v>
       </c>
       <c r="H168" t="s">
-        <v>895</v>
-      </c>
-    </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>820</v>
+        <v>506</v>
       </c>
       <c r="B169" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C169" t="s">
-        <v>821</v>
+        <v>507</v>
       </c>
       <c r="D169" s="8">
-        <v>65000000</v>
+        <v>1700000</v>
       </c>
       <c r="E169" t="s">
-        <v>822</v>
+        <v>508</v>
       </c>
       <c r="F169" t="s">
-        <v>200</v>
+        <v>123</v>
       </c>
       <c r="G169" t="s">
-        <v>205</v>
+        <v>124</v>
       </c>
       <c r="H169" t="s">
-        <v>895</v>
-      </c>
-    </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>823</v>
+        <v>364</v>
       </c>
       <c r="B170" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C170" t="s">
-        <v>824</v>
+        <v>365</v>
       </c>
       <c r="D170" s="8">
-        <v>104000000</v>
+        <v>1600000</v>
       </c>
       <c r="E170" t="s">
-        <v>825</v>
+        <v>366</v>
       </c>
       <c r="F170" t="s">
-        <v>200</v>
+        <v>13</v>
       </c>
       <c r="G170" t="s">
-        <v>205</v>
+        <v>14</v>
       </c>
       <c r="H170" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>826</v>
+        <v>626</v>
       </c>
       <c r="B171" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C171" t="s">
-        <v>827</v>
+        <v>627</v>
       </c>
       <c r="D171" s="8">
-        <v>16000000</v>
+        <v>1524000</v>
       </c>
       <c r="E171" t="s">
-        <v>828</v>
+        <v>628</v>
       </c>
       <c r="F171" t="s">
-        <v>200</v>
+        <v>123</v>
       </c>
       <c r="G171" t="s">
-        <v>205</v>
+        <v>158</v>
       </c>
       <c r="H171" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>829</v>
+        <v>738</v>
       </c>
       <c r="B172" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C172" t="s">
-        <v>830</v>
+        <v>739</v>
       </c>
       <c r="D172" s="8">
-        <v>1270000</v>
+        <v>1440000</v>
       </c>
       <c r="E172" t="s">
-        <v>831</v>
+        <v>740</v>
       </c>
       <c r="F172" t="s">
         <v>200</v>
       </c>
       <c r="G172" t="s">
-        <v>205</v>
+        <v>219</v>
       </c>
       <c r="H172" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>198</v>
+        <v>830</v>
       </c>
       <c r="B173" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C173" t="s">
-        <v>199</v>
-      </c>
-      <c r="D173" s="8">
-        <v>50000000</v>
+        <v>831</v>
+      </c>
+      <c r="D173" s="8" t="s">
+        <v>19</v>
       </c>
       <c r="E173" t="s">
-        <v>410</v>
+        <v>832</v>
       </c>
       <c r="F173" t="s">
         <v>200</v>
@@ -10405,24 +10373,24 @@
         <v>205</v>
       </c>
       <c r="H173" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="B174" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C174" t="s">
-        <v>833</v>
-      </c>
-      <c r="D174" s="8">
-        <v>323850</v>
+        <v>834</v>
+      </c>
+      <c r="D174" s="8" t="s">
+        <v>19</v>
       </c>
       <c r="E174" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="F174" t="s">
         <v>200</v>
@@ -10431,76 +10399,76 @@
         <v>205</v>
       </c>
       <c r="H174" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>835</v>
+        <v>771</v>
       </c>
       <c r="B175" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C175" t="s">
-        <v>836</v>
-      </c>
-      <c r="D175" s="8" t="s">
-        <v>19</v>
+        <v>772</v>
+      </c>
+      <c r="D175" s="8">
+        <v>1304000</v>
       </c>
       <c r="E175" t="s">
-        <v>837</v>
+        <v>773</v>
       </c>
       <c r="F175" t="s">
         <v>200</v>
       </c>
       <c r="G175" t="s">
-        <v>205</v>
+        <v>289</v>
       </c>
       <c r="H175" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>838</v>
+        <v>575</v>
       </c>
       <c r="B176" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C176" t="s">
-        <v>839</v>
-      </c>
-      <c r="D176" s="8" t="s">
-        <v>19</v>
+        <v>576</v>
+      </c>
+      <c r="D176" s="8">
+        <v>1270000</v>
       </c>
       <c r="E176" t="s">
-        <v>840</v>
+        <v>577</v>
       </c>
       <c r="F176" t="s">
-        <v>200</v>
+        <v>123</v>
       </c>
       <c r="G176" t="s">
-        <v>205</v>
+        <v>124</v>
       </c>
       <c r="H176" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
     </row>
     <row r="177" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>841</v>
+        <v>824</v>
       </c>
       <c r="B177" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C177" t="s">
-        <v>842</v>
+        <v>825</v>
       </c>
       <c r="D177" s="8">
-        <v>2800000</v>
+        <v>1270000</v>
       </c>
       <c r="E177" t="s">
-        <v>843</v>
+        <v>826</v>
       </c>
       <c r="F177" t="s">
         <v>200</v>
@@ -10509,160 +10477,160 @@
         <v>205</v>
       </c>
       <c r="H177" t="s">
-        <v>60</v>
+        <v>37</v>
       </c>
     </row>
     <row r="178" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>844</v>
+        <v>393</v>
       </c>
       <c r="B178" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C178" t="s">
-        <v>845</v>
+        <v>394</v>
       </c>
       <c r="D178" s="8">
-        <v>85000000</v>
+        <v>1200000</v>
       </c>
       <c r="E178" t="s">
-        <v>846</v>
+        <v>19</v>
       </c>
       <c r="F178" t="s">
-        <v>200</v>
+        <v>13</v>
       </c>
       <c r="G178" t="s">
-        <v>205</v>
+        <v>66</v>
       </c>
       <c r="H178" t="s">
-        <v>15</v>
+        <v>887</v>
       </c>
     </row>
     <row r="179" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>847</v>
+        <v>572</v>
       </c>
       <c r="B179" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C179" t="s">
-        <v>848</v>
+        <v>573</v>
       </c>
       <c r="D179" s="8">
-        <v>100000000</v>
+        <v>1200000</v>
       </c>
       <c r="E179" t="s">
-        <v>849</v>
+        <v>574</v>
       </c>
       <c r="F179" t="s">
-        <v>200</v>
+        <v>123</v>
       </c>
       <c r="G179" t="s">
-        <v>205</v>
+        <v>124</v>
       </c>
       <c r="H179" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="180" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>850</v>
+        <v>715</v>
       </c>
       <c r="B180" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C180" t="s">
-        <v>851</v>
+        <v>716</v>
       </c>
       <c r="D180" s="8">
-        <v>4875000</v>
+        <v>1200000</v>
       </c>
       <c r="E180" t="s">
-        <v>19</v>
+        <v>717</v>
       </c>
       <c r="F180" t="s">
         <v>200</v>
       </c>
       <c r="G180" t="s">
-        <v>205</v>
+        <v>219</v>
       </c>
       <c r="H180" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
     </row>
     <row r="181" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>398</v>
+        <v>647</v>
       </c>
       <c r="B181" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C181" t="s">
-        <v>852</v>
+        <v>648</v>
       </c>
       <c r="D181" s="8">
-        <v>5000000</v>
+        <v>1180000</v>
       </c>
       <c r="E181" t="s">
-        <v>19</v>
+        <v>649</v>
       </c>
       <c r="F181" t="s">
-        <v>200</v>
+        <v>123</v>
       </c>
       <c r="G181" t="s">
-        <v>205</v>
+        <v>191</v>
       </c>
       <c r="H181" t="s">
-        <v>895</v>
+        <v>33</v>
       </c>
     </row>
     <row r="182" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>853</v>
+        <v>600</v>
       </c>
       <c r="B182" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C182" t="s">
-        <v>854</v>
+        <v>601</v>
       </c>
       <c r="D182" s="8">
-        <v>90000000</v>
+        <v>900000</v>
       </c>
       <c r="E182" t="s">
-        <v>855</v>
+        <v>602</v>
       </c>
       <c r="F182" t="s">
-        <v>200</v>
+        <v>123</v>
       </c>
       <c r="G182" t="s">
-        <v>201</v>
+        <v>158</v>
       </c>
       <c r="H182" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
     </row>
     <row r="183" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>856</v>
+        <v>774</v>
       </c>
       <c r="B183" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C183" t="s">
-        <v>857</v>
+        <v>775</v>
       </c>
       <c r="D183" s="8">
-        <v>10000000</v>
+        <v>400000</v>
       </c>
       <c r="E183" t="s">
-        <v>858</v>
+        <v>776</v>
       </c>
       <c r="F183" t="s">
         <v>200</v>
       </c>
       <c r="G183" t="s">
-        <v>201</v>
+        <v>289</v>
       </c>
       <c r="H183" t="s">
         <v>15</v>
@@ -10670,129 +10638,117 @@
     </row>
     <row r="184" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>859</v>
+        <v>658</v>
       </c>
       <c r="B184" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C184" t="s">
-        <v>860</v>
+        <v>659</v>
       </c>
       <c r="D184" s="8">
-        <v>4500000</v>
+        <v>370000</v>
       </c>
       <c r="E184" t="s">
-        <v>19</v>
+        <v>660</v>
       </c>
       <c r="F184" t="s">
-        <v>200</v>
+        <v>123</v>
       </c>
       <c r="G184" t="s">
-        <v>219</v>
+        <v>191</v>
       </c>
       <c r="H184" t="s">
-        <v>41</v>
-      </c>
-      <c r="I184" t="s">
-        <v>214</v>
+        <v>23</v>
       </c>
     </row>
     <row r="185" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>669</v>
+        <v>827</v>
       </c>
       <c r="B185" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C185" t="s">
-        <v>861</v>
+        <v>828</v>
       </c>
       <c r="D185" s="8">
-        <v>7500000</v>
+        <v>323850</v>
       </c>
       <c r="E185" t="s">
-        <v>19</v>
+        <v>829</v>
       </c>
       <c r="F185" t="s">
-        <v>123</v>
+        <v>200</v>
       </c>
       <c r="G185" t="s">
-        <v>191</v>
+        <v>205</v>
       </c>
       <c r="H185" t="s">
-        <v>37</v>
-      </c>
-      <c r="I185" t="s">
-        <v>214</v>
+        <v>15</v>
       </c>
     </row>
     <row r="186" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>862</v>
+        <v>712</v>
       </c>
       <c r="B186" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C186" t="s">
-        <v>863</v>
+        <v>713</v>
       </c>
       <c r="D186" s="8">
-        <v>2000000</v>
+        <v>250000</v>
       </c>
       <c r="E186" t="s">
-        <v>864</v>
+        <v>714</v>
       </c>
       <c r="F186" t="s">
-        <v>13</v>
+        <v>200</v>
       </c>
       <c r="G186" t="s">
-        <v>94</v>
+        <v>219</v>
       </c>
       <c r="H186" t="s">
-        <v>41</v>
-      </c>
-      <c r="I186" t="s">
-        <v>214</v>
+        <v>33</v>
       </c>
     </row>
     <row r="187" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>690</v>
+        <v>581</v>
       </c>
       <c r="B187" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C187" t="s">
-        <v>865</v>
+        <v>582</v>
       </c>
       <c r="D187" s="8">
-        <v>11600000</v>
+        <v>200000</v>
       </c>
       <c r="E187" t="s">
-        <v>866</v>
+        <v>583</v>
       </c>
       <c r="F187" t="s">
-        <v>200</v>
+        <v>123</v>
       </c>
       <c r="G187" t="s">
-        <v>219</v>
+        <v>124</v>
       </c>
       <c r="H187" t="s">
         <v>41</v>
       </c>
-      <c r="I187" t="s">
-        <v>214</v>
-      </c>
     </row>
     <row r="188" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>661</v>
+        <v>656</v>
       </c>
       <c r="B188" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C188" t="s">
-        <v>867</v>
+        <v>859</v>
       </c>
       <c r="D188" s="8">
         <v>29400000</v>
@@ -10807,7 +10763,7 @@
         <v>191</v>
       </c>
       <c r="H188" t="s">
-        <v>895</v>
+        <v>887</v>
       </c>
       <c r="I188" t="s">
         <v>214</v>
@@ -10815,13 +10771,13 @@
     </row>
     <row r="189" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>868</v>
+        <v>860</v>
       </c>
       <c r="B189" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C189" t="s">
-        <v>869</v>
+        <v>861</v>
       </c>
       <c r="D189" s="8">
         <v>3000000</v>
@@ -10870,36 +10826,36 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>892</v>
+        <v>884</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>891</v>
+        <v>883</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>890</v>
+        <v>882</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>889</v>
+        <v>881</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>888</v>
+        <v>880</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>887</v>
+        <v>879</v>
       </c>
       <c r="B2" t="s">
-        <v>872</v>
+        <v>864</v>
       </c>
       <c r="C2" t="s">
-        <v>886</v>
+        <v>878</v>
       </c>
       <c r="D2" t="s">
-        <v>885</v>
+        <v>877</v>
       </c>
       <c r="E2" s="3">
         <v>17000000</v>
@@ -10913,16 +10869,16 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="B3" t="s">
-        <v>872</v>
+        <v>864</v>
       </c>
       <c r="C3" t="s">
-        <v>884</v>
+        <v>876</v>
       </c>
       <c r="D3" t="s">
-        <v>883</v>
+        <v>875</v>
       </c>
       <c r="E3" s="3">
         <v>75000000</v>
@@ -10936,16 +10892,16 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>882</v>
+        <v>874</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>872</v>
+        <v>864</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>881</v>
+        <v>873</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>873</v>
+        <v>865</v>
       </c>
       <c r="E4" s="9">
         <v>235000000</v>
@@ -10959,16 +10915,16 @@
     </row>
     <row r="5" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>880</v>
+        <v>872</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>872</v>
+        <v>864</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>879</v>
+        <v>871</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>873</v>
+        <v>865</v>
       </c>
       <c r="E5" s="9">
         <v>232000000</v>
@@ -10982,16 +10938,16 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>878</v>
+        <v>870</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>872</v>
+        <v>864</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>877</v>
+        <v>869</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>873</v>
+        <v>865</v>
       </c>
       <c r="E6" s="9">
         <v>494000000</v>
@@ -11005,16 +10961,16 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>709</v>
+        <v>704</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>872</v>
+        <v>864</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>876</v>
+        <v>868</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>873</v>
+        <v>865</v>
       </c>
       <c r="E7" s="9">
         <v>28000000</v>
@@ -11028,16 +10984,16 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>875</v>
+        <v>867</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>872</v>
+        <v>864</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>874</v>
+        <v>866</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>873</v>
+        <v>865</v>
       </c>
       <c r="E8" s="9">
         <v>101000000</v>
@@ -11051,16 +11007,16 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>808</v>
+        <v>803</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>872</v>
+        <v>864</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>871</v>
+        <v>863</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>870</v>
+        <v>862</v>
       </c>
       <c r="E9" s="9">
         <v>364000000</v>

--- a/MedTech_Deals.xlsx
+++ b/MedTech_Deals.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://beacononehcp-my.sharepoint.com/personal/hannah_peric_beacononehcp_com/Documents/Documents/medtech-dashboard/medtech-dashboard/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="50" documentId="13_ncr:1_{A8E36CAE-087B-4CF0-B739-AC648A6297F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{48C0CFBA-18EB-410C-BF48-3EC79C463316}"/>
+  <xr:revisionPtr revIDLastSave="51" documentId="13_ncr:1_{A8E36CAE-087B-4CF0-B739-AC648A6297F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C131FA8C-E5B9-4217-8BDE-1279CDAB5E0A}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="YTD M&amp;A Activity" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2202" uniqueCount="888">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2195" uniqueCount="885">
   <si>
     <t>Company</t>
   </si>
@@ -1474,15 +1474,6 @@
   </si>
   <si>
     <t>U.S. Venture Partners (led), Osage University Partners, Action Potential Venture Capital, GPG Ventures, The Vertical Group, Exceller Hunt Ventures, Gilde Healthcare, Longitude Capital</t>
-  </si>
-  <si>
-    <t>4C Medical Technologies</t>
-  </si>
-  <si>
-    <t>Transcatheter technologies for the treatment of structural heart disease</t>
-  </si>
-  <si>
-    <t>Boston Scientific (led), other new &amp; existing shareholders</t>
   </si>
   <si>
     <t>Nervonik</t>
@@ -3099,7 +3090,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+    <sheetView topLeftCell="A70" workbookViewId="0">
       <selection activeCell="B87" sqref="B87"/>
     </sheetView>
   </sheetViews>
@@ -3165,7 +3156,7 @@
         <v>201</v>
       </c>
       <c r="H2" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -3191,7 +3182,7 @@
         <v>14</v>
       </c>
       <c r="H3" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -3243,7 +3234,7 @@
         <v>14</v>
       </c>
       <c r="H5" t="s">
-        <v>886</v>
+        <v>883</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -3269,7 +3260,7 @@
         <v>14</v>
       </c>
       <c r="H6" t="s">
-        <v>886</v>
+        <v>883</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -3373,7 +3364,7 @@
         <v>14</v>
       </c>
       <c r="H10" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -3399,7 +3390,7 @@
         <v>14</v>
       </c>
       <c r="H11" t="s">
-        <v>886</v>
+        <v>883</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -3425,7 +3416,7 @@
         <v>14</v>
       </c>
       <c r="H12" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -3451,7 +3442,7 @@
         <v>14</v>
       </c>
       <c r="H13" t="s">
-        <v>886</v>
+        <v>883</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -3529,7 +3520,7 @@
         <v>14</v>
       </c>
       <c r="H16" t="s">
-        <v>886</v>
+        <v>883</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
@@ -3555,7 +3546,7 @@
         <v>66</v>
       </c>
       <c r="H17" t="s">
-        <v>886</v>
+        <v>883</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
@@ -3711,7 +3702,7 @@
         <v>66</v>
       </c>
       <c r="H23" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
@@ -3737,7 +3728,7 @@
         <v>66</v>
       </c>
       <c r="H24" t="s">
-        <v>886</v>
+        <v>883</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
@@ -3873,7 +3864,7 @@
         <v>94</v>
       </c>
       <c r="H29" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
@@ -3899,7 +3890,7 @@
         <v>94</v>
       </c>
       <c r="H30" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
@@ -4055,7 +4046,7 @@
         <v>66</v>
       </c>
       <c r="H36" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
@@ -4107,7 +4098,7 @@
         <v>124</v>
       </c>
       <c r="H38" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
@@ -4341,7 +4332,7 @@
         <v>205</v>
       </c>
       <c r="H47" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
@@ -4523,7 +4514,7 @@
         <v>14</v>
       </c>
       <c r="H54" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
@@ -4757,7 +4748,7 @@
         <v>14</v>
       </c>
       <c r="H63" t="s">
-        <v>886</v>
+        <v>883</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
@@ -4809,7 +4800,7 @@
         <v>158</v>
       </c>
       <c r="H65" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
@@ -5841,10 +5832,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:I189"/>
+  <dimension ref="A1:I188"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5888,19 +5879,19 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="B2" t="s">
         <v>333</v>
       </c>
       <c r="C2" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="D2" s="8">
         <v>450000000</v>
       </c>
       <c r="E2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="F2" t="s">
         <v>200</v>
@@ -5914,19 +5905,19 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
       <c r="B3" t="s">
         <v>333</v>
       </c>
       <c r="C3" t="s">
-        <v>804</v>
+        <v>801</v>
       </c>
       <c r="D3" s="8">
         <v>316700000</v>
       </c>
       <c r="E3" t="s">
-        <v>805</v>
+        <v>802</v>
       </c>
       <c r="F3" t="s">
         <v>200</v>
@@ -5935,7 +5926,7 @@
         <v>205</v>
       </c>
       <c r="H3" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -5966,19 +5957,19 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
       <c r="B5" t="s">
         <v>333</v>
       </c>
       <c r="C5" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
       <c r="D5" s="8">
         <v>238000000</v>
       </c>
       <c r="E5" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
       <c r="F5" t="s">
         <v>200</v>
@@ -6018,19 +6009,19 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="B7" t="s">
         <v>333</v>
       </c>
       <c r="C7" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="D7" s="8">
         <v>200000000</v>
       </c>
       <c r="E7" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="F7" t="s">
         <v>123</v>
@@ -6065,76 +6056,76 @@
         <v>94</v>
       </c>
       <c r="H8" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>483</v>
+        <v>358</v>
       </c>
       <c r="B9" t="s">
         <v>333</v>
       </c>
       <c r="C9" t="s">
-        <v>484</v>
-      </c>
-      <c r="D9" s="8">
-        <v>175000000</v>
+        <v>359</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>19</v>
       </c>
       <c r="E9" t="s">
-        <v>485</v>
+        <v>360</v>
       </c>
       <c r="F9" t="s">
         <v>13</v>
       </c>
       <c r="G9" t="s">
-        <v>94</v>
+        <v>14</v>
       </c>
       <c r="H9" t="s">
-        <v>887</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>358</v>
+        <v>803</v>
       </c>
       <c r="B10" t="s">
         <v>333</v>
       </c>
       <c r="C10" t="s">
-        <v>359</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>19</v>
+        <v>804</v>
+      </c>
+      <c r="D10" s="8">
+        <v>170000000</v>
       </c>
       <c r="E10" t="s">
-        <v>360</v>
+        <v>805</v>
       </c>
       <c r="F10" t="s">
-        <v>13</v>
+        <v>200</v>
       </c>
       <c r="G10" t="s">
-        <v>14</v>
+        <v>205</v>
       </c>
       <c r="H10" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>806</v>
+        <v>788</v>
       </c>
       <c r="B11" t="s">
         <v>333</v>
       </c>
       <c r="C11" t="s">
-        <v>807</v>
+        <v>789</v>
       </c>
       <c r="D11" s="8">
-        <v>170000000</v>
+        <v>162500000</v>
       </c>
       <c r="E11" t="s">
-        <v>808</v>
+        <v>790</v>
       </c>
       <c r="F11" t="s">
         <v>200</v>
@@ -6143,56 +6134,56 @@
         <v>205</v>
       </c>
       <c r="H11" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>791</v>
+        <v>211</v>
       </c>
       <c r="B12" t="s">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="C12" t="s">
-        <v>792</v>
+        <v>406</v>
       </c>
       <c r="D12" s="8">
-        <v>162500000</v>
+        <v>142000000</v>
       </c>
       <c r="E12" t="s">
-        <v>793</v>
+        <v>407</v>
       </c>
       <c r="F12" t="s">
-        <v>200</v>
+        <v>13</v>
       </c>
       <c r="G12" t="s">
-        <v>205</v>
+        <v>66</v>
       </c>
       <c r="H12" t="s">
-        <v>41</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>211</v>
+        <v>806</v>
       </c>
       <c r="B13" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="C13" t="s">
-        <v>406</v>
+        <v>807</v>
       </c>
       <c r="D13" s="8">
-        <v>142000000</v>
+        <v>130000000</v>
       </c>
       <c r="E13" t="s">
-        <v>407</v>
+        <v>808</v>
       </c>
       <c r="F13" t="s">
-        <v>13</v>
+        <v>200</v>
       </c>
       <c r="G13" t="s">
-        <v>66</v>
+        <v>205</v>
       </c>
       <c r="H13" t="s">
         <v>15</v>
@@ -6200,45 +6191,45 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>809</v>
+        <v>332</v>
       </c>
       <c r="B14" t="s">
         <v>333</v>
       </c>
       <c r="C14" t="s">
-        <v>810</v>
+        <v>334</v>
       </c>
       <c r="D14" s="8">
-        <v>130000000</v>
+        <v>120000000</v>
       </c>
       <c r="E14" t="s">
-        <v>811</v>
+        <v>335</v>
       </c>
       <c r="F14" t="s">
-        <v>200</v>
+        <v>13</v>
       </c>
       <c r="G14" t="s">
-        <v>205</v>
+        <v>14</v>
       </c>
       <c r="H14" t="s">
-        <v>15</v>
+        <v>884</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="B15" t="s">
         <v>333</v>
       </c>
       <c r="C15" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="D15" s="8">
         <v>120000000</v>
       </c>
       <c r="E15" t="s">
-        <v>335</v>
+        <v>19</v>
       </c>
       <c r="F15" t="s">
         <v>13</v>
@@ -6247,82 +6238,82 @@
         <v>14</v>
       </c>
       <c r="H15" t="s">
-        <v>887</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>336</v>
+        <v>465</v>
       </c>
       <c r="B16" t="s">
         <v>333</v>
       </c>
       <c r="C16" t="s">
-        <v>337</v>
+        <v>466</v>
       </c>
       <c r="D16" s="8">
         <v>120000000</v>
       </c>
       <c r="E16" t="s">
-        <v>19</v>
+        <v>467</v>
       </c>
       <c r="F16" t="s">
         <v>13</v>
       </c>
       <c r="G16" t="s">
-        <v>14</v>
+        <v>94</v>
       </c>
       <c r="H16" t="s">
-        <v>41</v>
+        <v>884</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>465</v>
+        <v>382</v>
       </c>
       <c r="B17" t="s">
         <v>333</v>
       </c>
       <c r="C17" t="s">
-        <v>466</v>
-      </c>
-      <c r="D17" s="8">
-        <v>120000000</v>
+        <v>383</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>19</v>
       </c>
       <c r="E17" t="s">
-        <v>467</v>
+        <v>384</v>
       </c>
       <c r="F17" t="s">
         <v>13</v>
       </c>
       <c r="G17" t="s">
-        <v>94</v>
+        <v>14</v>
       </c>
       <c r="H17" t="s">
-        <v>887</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>382</v>
+        <v>782</v>
       </c>
       <c r="B18" t="s">
         <v>333</v>
       </c>
       <c r="C18" t="s">
-        <v>383</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>19</v>
+        <v>783</v>
+      </c>
+      <c r="D18" s="8">
+        <v>120000000</v>
       </c>
       <c r="E18" t="s">
-        <v>384</v>
+        <v>784</v>
       </c>
       <c r="F18" t="s">
-        <v>13</v>
+        <v>200</v>
       </c>
       <c r="G18" t="s">
-        <v>14</v>
+        <v>205</v>
       </c>
       <c r="H18" t="s">
         <v>15</v>
@@ -6330,71 +6321,71 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>785</v>
+        <v>376</v>
       </c>
       <c r="B19" t="s">
         <v>333</v>
       </c>
       <c r="C19" t="s">
-        <v>786</v>
+        <v>377</v>
       </c>
       <c r="D19" s="8">
-        <v>120000000</v>
+        <v>115000000</v>
       </c>
       <c r="E19" t="s">
-        <v>787</v>
+        <v>378</v>
       </c>
       <c r="F19" t="s">
-        <v>200</v>
+        <v>13</v>
       </c>
       <c r="G19" t="s">
-        <v>205</v>
+        <v>14</v>
       </c>
       <c r="H19" t="s">
-        <v>15</v>
+        <v>452</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>376</v>
+        <v>809</v>
       </c>
       <c r="B20" t="s">
         <v>333</v>
       </c>
       <c r="C20" t="s">
-        <v>377</v>
+        <v>810</v>
       </c>
       <c r="D20" s="8">
-        <v>115000000</v>
+        <v>110000000</v>
       </c>
       <c r="E20" t="s">
-        <v>378</v>
+        <v>811</v>
       </c>
       <c r="F20" t="s">
-        <v>13</v>
+        <v>200</v>
       </c>
       <c r="G20" t="s">
-        <v>14</v>
+        <v>205</v>
       </c>
       <c r="H20" t="s">
-        <v>452</v>
+        <v>884</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>812</v>
+        <v>815</v>
       </c>
       <c r="B21" t="s">
         <v>333</v>
       </c>
       <c r="C21" t="s">
-        <v>813</v>
+        <v>816</v>
       </c>
       <c r="D21" s="8">
-        <v>110000000</v>
+        <v>104000000</v>
       </c>
       <c r="E21" t="s">
-        <v>814</v>
+        <v>817</v>
       </c>
       <c r="F21" t="s">
         <v>200</v>
@@ -6403,238 +6394,238 @@
         <v>205</v>
       </c>
       <c r="H21" t="s">
-        <v>887</v>
+        <v>23</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>818</v>
+        <v>338</v>
       </c>
       <c r="B22" t="s">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="C22" t="s">
-        <v>819</v>
+        <v>340</v>
       </c>
       <c r="D22" s="8">
-        <v>104000000</v>
+        <v>100000000</v>
       </c>
       <c r="E22" t="s">
-        <v>820</v>
+        <v>341</v>
       </c>
       <c r="F22" t="s">
-        <v>200</v>
+        <v>13</v>
       </c>
       <c r="G22" t="s">
-        <v>205</v>
+        <v>14</v>
       </c>
       <c r="H22" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>338</v>
+        <v>395</v>
       </c>
       <c r="B23" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="C23" t="s">
-        <v>340</v>
+        <v>396</v>
       </c>
       <c r="D23" s="8">
         <v>100000000</v>
       </c>
       <c r="E23" t="s">
-        <v>341</v>
+        <v>397</v>
       </c>
       <c r="F23" t="s">
         <v>13</v>
       </c>
       <c r="G23" t="s">
-        <v>14</v>
+        <v>66</v>
       </c>
       <c r="H23" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>395</v>
+        <v>441</v>
       </c>
       <c r="B24" t="s">
         <v>333</v>
       </c>
       <c r="C24" t="s">
-        <v>396</v>
+        <v>442</v>
       </c>
       <c r="D24" s="8">
         <v>100000000</v>
       </c>
       <c r="E24" t="s">
-        <v>397</v>
+        <v>443</v>
       </c>
       <c r="F24" t="s">
         <v>13</v>
       </c>
       <c r="G24" t="s">
-        <v>66</v>
+        <v>94</v>
       </c>
       <c r="H24" t="s">
-        <v>41</v>
+        <v>884</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>441</v>
+        <v>500</v>
       </c>
       <c r="B25" t="s">
         <v>333</v>
       </c>
       <c r="C25" t="s">
-        <v>442</v>
+        <v>501</v>
       </c>
       <c r="D25" s="8">
         <v>100000000</v>
       </c>
       <c r="E25" t="s">
-        <v>443</v>
+        <v>502</v>
       </c>
       <c r="F25" t="s">
-        <v>13</v>
+        <v>123</v>
       </c>
       <c r="G25" t="s">
-        <v>94</v>
+        <v>124</v>
       </c>
       <c r="H25" t="s">
-        <v>887</v>
+        <v>41</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>503</v>
+        <v>836</v>
       </c>
       <c r="B26" t="s">
         <v>333</v>
       </c>
       <c r="C26" t="s">
-        <v>504</v>
+        <v>837</v>
       </c>
       <c r="D26" s="8">
         <v>100000000</v>
       </c>
       <c r="E26" t="s">
-        <v>505</v>
+        <v>838</v>
       </c>
       <c r="F26" t="s">
-        <v>123</v>
+        <v>200</v>
       </c>
       <c r="G26" t="s">
-        <v>124</v>
+        <v>205</v>
       </c>
       <c r="H26" t="s">
-        <v>41</v>
+        <v>15</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>839</v>
+        <v>342</v>
       </c>
       <c r="B27" t="s">
         <v>333</v>
       </c>
       <c r="C27" t="s">
-        <v>840</v>
+        <v>343</v>
       </c>
       <c r="D27" s="8">
-        <v>100000000</v>
+        <v>90000000</v>
       </c>
       <c r="E27" t="s">
-        <v>841</v>
+        <v>344</v>
       </c>
       <c r="F27" t="s">
-        <v>200</v>
+        <v>13</v>
       </c>
       <c r="G27" t="s">
-        <v>205</v>
+        <v>14</v>
       </c>
       <c r="H27" t="s">
-        <v>15</v>
+        <v>884</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>342</v>
+        <v>842</v>
       </c>
       <c r="B28" t="s">
         <v>333</v>
       </c>
       <c r="C28" t="s">
-        <v>343</v>
+        <v>843</v>
       </c>
       <c r="D28" s="8">
         <v>90000000</v>
       </c>
       <c r="E28" t="s">
-        <v>344</v>
+        <v>844</v>
       </c>
       <c r="F28" t="s">
-        <v>13</v>
+        <v>200</v>
       </c>
       <c r="G28" t="s">
-        <v>14</v>
+        <v>201</v>
       </c>
       <c r="H28" t="s">
-        <v>887</v>
+        <v>33</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>845</v>
+        <v>785</v>
       </c>
       <c r="B29" t="s">
         <v>333</v>
       </c>
       <c r="C29" t="s">
-        <v>846</v>
+        <v>786</v>
       </c>
       <c r="D29" s="8">
-        <v>90000000</v>
+        <v>85000000</v>
       </c>
       <c r="E29" t="s">
-        <v>847</v>
+        <v>787</v>
       </c>
       <c r="F29" t="s">
         <v>200</v>
       </c>
       <c r="G29" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="H29" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>788</v>
+        <v>492</v>
       </c>
       <c r="B30" t="s">
         <v>333</v>
       </c>
       <c r="C30" t="s">
-        <v>789</v>
+        <v>493</v>
       </c>
       <c r="D30" s="8">
-        <v>85000000</v>
+        <v>83000000</v>
       </c>
       <c r="E30" t="s">
-        <v>790</v>
+        <v>494</v>
       </c>
       <c r="F30" t="s">
-        <v>200</v>
+        <v>13</v>
       </c>
       <c r="G30" t="s">
-        <v>205</v>
+        <v>94</v>
       </c>
       <c r="H30" t="s">
         <v>15</v>
@@ -6642,25 +6633,25 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>495</v>
+        <v>379</v>
       </c>
       <c r="B31" t="s">
         <v>333</v>
       </c>
       <c r="C31" t="s">
-        <v>496</v>
+        <v>380</v>
       </c>
       <c r="D31" s="8">
-        <v>83000000</v>
+        <v>80000000</v>
       </c>
       <c r="E31" t="s">
-        <v>497</v>
+        <v>381</v>
       </c>
       <c r="F31" t="s">
         <v>13</v>
       </c>
       <c r="G31" t="s">
-        <v>94</v>
+        <v>14</v>
       </c>
       <c r="H31" t="s">
         <v>15</v>
@@ -6668,25 +6659,25 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>379</v>
+        <v>756</v>
       </c>
       <c r="B32" t="s">
         <v>333</v>
       </c>
       <c r="C32" t="s">
-        <v>380</v>
+        <v>757</v>
       </c>
       <c r="D32" s="8">
-        <v>80000000</v>
+        <v>75000000</v>
       </c>
       <c r="E32" t="s">
-        <v>381</v>
+        <v>758</v>
       </c>
       <c r="F32" t="s">
-        <v>13</v>
+        <v>200</v>
       </c>
       <c r="G32" t="s">
-        <v>14</v>
+        <v>289</v>
       </c>
       <c r="H32" t="s">
         <v>15</v>
@@ -6694,103 +6685,103 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>759</v>
+        <v>429</v>
       </c>
       <c r="B33" t="s">
         <v>333</v>
       </c>
       <c r="C33" t="s">
-        <v>760</v>
-      </c>
-      <c r="D33" s="8">
-        <v>75000000</v>
+        <v>430</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>19</v>
       </c>
       <c r="E33" t="s">
-        <v>761</v>
+        <v>431</v>
       </c>
       <c r="F33" t="s">
-        <v>200</v>
+        <v>13</v>
       </c>
       <c r="G33" t="s">
-        <v>289</v>
+        <v>66</v>
       </c>
       <c r="H33" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>429</v>
+        <v>776</v>
       </c>
       <c r="B34" t="s">
         <v>333</v>
       </c>
       <c r="C34" t="s">
-        <v>430</v>
-      </c>
-      <c r="D34" s="8" t="s">
-        <v>19</v>
+        <v>777</v>
+      </c>
+      <c r="D34" s="8">
+        <v>67000000</v>
       </c>
       <c r="E34" t="s">
-        <v>431</v>
+        <v>778</v>
       </c>
       <c r="F34" t="s">
-        <v>13</v>
+        <v>200</v>
       </c>
       <c r="G34" t="s">
-        <v>66</v>
+        <v>205</v>
       </c>
       <c r="H34" t="s">
-        <v>33</v>
+        <v>884</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>779</v>
+        <v>459</v>
       </c>
       <c r="B35" t="s">
         <v>333</v>
       </c>
       <c r="C35" t="s">
-        <v>780</v>
+        <v>460</v>
       </c>
       <c r="D35" s="8">
-        <v>67000000</v>
+        <v>65000000</v>
       </c>
       <c r="E35" t="s">
-        <v>781</v>
+        <v>461</v>
       </c>
       <c r="F35" t="s">
-        <v>200</v>
+        <v>13</v>
       </c>
       <c r="G35" t="s">
-        <v>205</v>
+        <v>94</v>
       </c>
       <c r="H35" t="s">
-        <v>887</v>
+        <v>15</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>459</v>
+        <v>438</v>
       </c>
       <c r="B36" t="s">
         <v>333</v>
       </c>
       <c r="C36" t="s">
-        <v>460</v>
-      </c>
-      <c r="D36" s="8">
-        <v>65000000</v>
+        <v>439</v>
+      </c>
+      <c r="D36" s="8" t="s">
+        <v>19</v>
       </c>
       <c r="E36" t="s">
-        <v>461</v>
+        <v>440</v>
       </c>
       <c r="F36" t="s">
         <v>13</v>
       </c>
       <c r="G36" t="s">
-        <v>94</v>
+        <v>66</v>
       </c>
       <c r="H36" t="s">
         <v>15</v>
@@ -6798,25 +6789,25 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>438</v>
+        <v>480</v>
       </c>
       <c r="B37" t="s">
         <v>333</v>
       </c>
       <c r="C37" t="s">
-        <v>439</v>
-      </c>
-      <c r="D37" s="8" t="s">
-        <v>19</v>
+        <v>481</v>
+      </c>
+      <c r="D37" s="8">
+        <v>65000000</v>
       </c>
       <c r="E37" t="s">
-        <v>440</v>
+        <v>482</v>
       </c>
       <c r="F37" t="s">
         <v>13</v>
       </c>
       <c r="G37" t="s">
-        <v>66</v>
+        <v>94</v>
       </c>
       <c r="H37" t="s">
         <v>15</v>
@@ -6824,19 +6815,19 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>480</v>
+        <v>444</v>
       </c>
       <c r="B38" t="s">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="C38" t="s">
-        <v>481</v>
-      </c>
-      <c r="D38" s="8">
-        <v>65000000</v>
+        <v>445</v>
+      </c>
+      <c r="D38" s="8" t="s">
+        <v>19</v>
       </c>
       <c r="E38" t="s">
-        <v>482</v>
+        <v>446</v>
       </c>
       <c r="F38" t="s">
         <v>13</v>
@@ -6845,50 +6836,50 @@
         <v>94</v>
       </c>
       <c r="H38" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>444</v>
+        <v>812</v>
       </c>
       <c r="B39" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="C39" t="s">
-        <v>445</v>
-      </c>
-      <c r="D39" s="8" t="s">
-        <v>19</v>
+        <v>813</v>
+      </c>
+      <c r="D39" s="8">
+        <v>65000000</v>
       </c>
       <c r="E39" t="s">
-        <v>446</v>
+        <v>814</v>
       </c>
       <c r="F39" t="s">
-        <v>13</v>
+        <v>200</v>
       </c>
       <c r="G39" t="s">
-        <v>94</v>
+        <v>205</v>
       </c>
       <c r="H39" t="s">
-        <v>33</v>
+        <v>884</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>815</v>
+        <v>791</v>
       </c>
       <c r="B40" t="s">
         <v>333</v>
       </c>
       <c r="C40" t="s">
-        <v>816</v>
+        <v>792</v>
       </c>
       <c r="D40" s="8">
-        <v>65000000</v>
+        <v>60000000</v>
       </c>
       <c r="E40" t="s">
-        <v>817</v>
+        <v>793</v>
       </c>
       <c r="F40" t="s">
         <v>200</v>
@@ -6897,466 +6888,466 @@
         <v>205</v>
       </c>
       <c r="H40" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>794</v>
+        <v>385</v>
       </c>
       <c r="B41" t="s">
         <v>333</v>
       </c>
       <c r="C41" t="s">
-        <v>795</v>
+        <v>386</v>
       </c>
       <c r="D41" s="8">
-        <v>60000000</v>
+        <v>57700000</v>
       </c>
       <c r="E41" t="s">
-        <v>796</v>
+        <v>387</v>
       </c>
       <c r="F41" t="s">
-        <v>200</v>
+        <v>13</v>
       </c>
       <c r="G41" t="s">
-        <v>205</v>
+        <v>66</v>
       </c>
       <c r="H41" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>385</v>
+        <v>692</v>
       </c>
       <c r="B42" t="s">
         <v>333</v>
       </c>
       <c r="C42" t="s">
-        <v>386</v>
+        <v>693</v>
       </c>
       <c r="D42" s="8">
-        <v>57700000</v>
+        <v>56000000</v>
       </c>
       <c r="E42" t="s">
-        <v>387</v>
+        <v>694</v>
       </c>
       <c r="F42" t="s">
-        <v>13</v>
+        <v>200</v>
       </c>
       <c r="G42" t="s">
-        <v>66</v>
+        <v>219</v>
       </c>
       <c r="H42" t="s">
-        <v>887</v>
+        <v>15</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>695</v>
+        <v>462</v>
       </c>
       <c r="B43" t="s">
         <v>333</v>
       </c>
       <c r="C43" t="s">
-        <v>696</v>
+        <v>463</v>
       </c>
       <c r="D43" s="8">
-        <v>56000000</v>
+        <v>53000000</v>
       </c>
       <c r="E43" t="s">
-        <v>697</v>
+        <v>464</v>
       </c>
       <c r="F43" t="s">
-        <v>200</v>
+        <v>13</v>
       </c>
       <c r="G43" t="s">
-        <v>219</v>
+        <v>94</v>
       </c>
       <c r="H43" t="s">
-        <v>15</v>
+        <v>884</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>462</v>
+        <v>361</v>
       </c>
       <c r="B44" t="s">
         <v>333</v>
       </c>
       <c r="C44" t="s">
-        <v>463</v>
+        <v>362</v>
       </c>
       <c r="D44" s="8">
-        <v>53000000</v>
+        <v>50000000</v>
       </c>
       <c r="E44" t="s">
-        <v>464</v>
+        <v>363</v>
       </c>
       <c r="F44" t="s">
         <v>13</v>
       </c>
       <c r="G44" t="s">
-        <v>94</v>
+        <v>14</v>
       </c>
       <c r="H44" t="s">
-        <v>887</v>
+        <v>33</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>361</v>
+        <v>669</v>
       </c>
       <c r="B45" t="s">
         <v>333</v>
       </c>
       <c r="C45" t="s">
-        <v>362</v>
+        <v>199</v>
       </c>
       <c r="D45" s="8">
         <v>50000000</v>
       </c>
       <c r="E45" t="s">
-        <v>363</v>
+        <v>405</v>
       </c>
       <c r="F45" t="s">
-        <v>13</v>
+        <v>200</v>
       </c>
       <c r="G45" t="s">
-        <v>14</v>
+        <v>219</v>
       </c>
       <c r="H45" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>672</v>
+        <v>747</v>
       </c>
       <c r="B46" t="s">
         <v>333</v>
       </c>
       <c r="C46" t="s">
-        <v>199</v>
+        <v>748</v>
       </c>
       <c r="D46" s="8">
         <v>50000000</v>
       </c>
       <c r="E46" t="s">
-        <v>405</v>
+        <v>749</v>
       </c>
       <c r="F46" t="s">
         <v>200</v>
       </c>
       <c r="G46" t="s">
-        <v>219</v>
+        <v>289</v>
       </c>
       <c r="H46" t="s">
-        <v>15</v>
+        <v>884</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>750</v>
+        <v>198</v>
       </c>
       <c r="B47" t="s">
         <v>333</v>
       </c>
       <c r="C47" t="s">
-        <v>751</v>
+        <v>199</v>
       </c>
       <c r="D47" s="8">
         <v>50000000</v>
       </c>
       <c r="E47" t="s">
-        <v>752</v>
+        <v>405</v>
       </c>
       <c r="F47" t="s">
         <v>200</v>
       </c>
       <c r="G47" t="s">
-        <v>289</v>
+        <v>205</v>
       </c>
       <c r="H47" t="s">
-        <v>887</v>
+        <v>15</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>198</v>
+        <v>352</v>
       </c>
       <c r="B48" t="s">
         <v>333</v>
       </c>
       <c r="C48" t="s">
-        <v>199</v>
+        <v>353</v>
       </c>
       <c r="D48" s="8">
-        <v>50000000</v>
+        <v>45000000</v>
       </c>
       <c r="E48" t="s">
-        <v>405</v>
+        <v>354</v>
       </c>
       <c r="F48" t="s">
-        <v>200</v>
+        <v>13</v>
       </c>
       <c r="G48" t="s">
-        <v>205</v>
+        <v>14</v>
       </c>
       <c r="H48" t="s">
-        <v>15</v>
+        <v>60</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>352</v>
+        <v>589</v>
       </c>
       <c r="B49" t="s">
         <v>333</v>
       </c>
       <c r="C49" t="s">
-        <v>353</v>
+        <v>590</v>
       </c>
       <c r="D49" s="8">
         <v>45000000</v>
       </c>
       <c r="E49" t="s">
-        <v>354</v>
+        <v>591</v>
       </c>
       <c r="F49" t="s">
-        <v>13</v>
+        <v>123</v>
       </c>
       <c r="G49" t="s">
-        <v>14</v>
+        <v>158</v>
       </c>
       <c r="H49" t="s">
-        <v>60</v>
+        <v>884</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>592</v>
+        <v>417</v>
       </c>
       <c r="B50" t="s">
         <v>333</v>
       </c>
       <c r="C50" t="s">
-        <v>593</v>
+        <v>418</v>
       </c>
       <c r="D50" s="8">
-        <v>45000000</v>
+        <v>42000000</v>
       </c>
       <c r="E50" t="s">
-        <v>594</v>
+        <v>419</v>
       </c>
       <c r="F50" t="s">
-        <v>123</v>
+        <v>13</v>
       </c>
       <c r="G50" t="s">
-        <v>158</v>
+        <v>66</v>
       </c>
       <c r="H50" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>417</v>
+        <v>586</v>
       </c>
       <c r="B51" t="s">
         <v>333</v>
       </c>
       <c r="C51" t="s">
-        <v>418</v>
+        <v>587</v>
       </c>
       <c r="D51" s="8">
         <v>42000000</v>
       </c>
       <c r="E51" t="s">
-        <v>419</v>
+        <v>588</v>
       </c>
       <c r="F51" t="s">
-        <v>13</v>
+        <v>123</v>
       </c>
       <c r="G51" t="s">
-        <v>66</v>
+        <v>158</v>
       </c>
       <c r="H51" t="s">
-        <v>887</v>
+        <v>33</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>589</v>
+        <v>453</v>
       </c>
       <c r="B52" t="s">
         <v>333</v>
       </c>
       <c r="C52" t="s">
-        <v>590</v>
+        <v>454</v>
       </c>
       <c r="D52" s="8">
-        <v>42000000</v>
+        <v>40000000</v>
       </c>
       <c r="E52" t="s">
-        <v>591</v>
+        <v>455</v>
       </c>
       <c r="F52" t="s">
-        <v>123</v>
+        <v>13</v>
       </c>
       <c r="G52" t="s">
-        <v>158</v>
+        <v>94</v>
       </c>
       <c r="H52" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>453</v>
+        <v>718</v>
       </c>
       <c r="B53" t="s">
         <v>333</v>
       </c>
       <c r="C53" t="s">
-        <v>454</v>
+        <v>719</v>
       </c>
       <c r="D53" s="8">
         <v>40000000</v>
       </c>
       <c r="E53" t="s">
-        <v>455</v>
+        <v>720</v>
       </c>
       <c r="F53" t="s">
-        <v>13</v>
+        <v>200</v>
       </c>
       <c r="G53" t="s">
-        <v>94</v>
+        <v>219</v>
       </c>
       <c r="H53" t="s">
-        <v>23</v>
+        <v>884</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>721</v>
+        <v>509</v>
       </c>
       <c r="B54" t="s">
         <v>333</v>
       </c>
       <c r="C54" t="s">
-        <v>722</v>
+        <v>510</v>
       </c>
       <c r="D54" s="8">
-        <v>40000000</v>
+        <v>38000000</v>
       </c>
       <c r="E54" t="s">
-        <v>723</v>
+        <v>511</v>
       </c>
       <c r="F54" t="s">
-        <v>200</v>
+        <v>123</v>
       </c>
       <c r="G54" t="s">
-        <v>219</v>
+        <v>124</v>
       </c>
       <c r="H54" t="s">
-        <v>887</v>
+        <v>33</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>512</v>
+        <v>603</v>
       </c>
       <c r="B55" t="s">
         <v>333</v>
       </c>
       <c r="C55" t="s">
-        <v>513</v>
+        <v>604</v>
       </c>
       <c r="D55" s="8">
-        <v>38000000</v>
+        <v>36100000</v>
       </c>
       <c r="E55" t="s">
-        <v>514</v>
+        <v>605</v>
       </c>
       <c r="F55" t="s">
         <v>123</v>
       </c>
       <c r="G55" t="s">
-        <v>124</v>
+        <v>158</v>
       </c>
       <c r="H55" t="s">
-        <v>33</v>
+        <v>884</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>606</v>
+        <v>373</v>
       </c>
       <c r="B56" t="s">
         <v>333</v>
       </c>
       <c r="C56" t="s">
-        <v>607</v>
+        <v>374</v>
       </c>
       <c r="D56" s="8">
-        <v>36100000</v>
+        <v>35000000</v>
       </c>
       <c r="E56" t="s">
-        <v>608</v>
+        <v>375</v>
       </c>
       <c r="F56" t="s">
-        <v>123</v>
+        <v>13</v>
       </c>
       <c r="G56" t="s">
-        <v>158</v>
+        <v>14</v>
       </c>
       <c r="H56" t="s">
-        <v>887</v>
+        <v>23</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>373</v>
+        <v>533</v>
       </c>
       <c r="B57" t="s">
         <v>333</v>
       </c>
       <c r="C57" t="s">
-        <v>374</v>
+        <v>534</v>
       </c>
       <c r="D57" s="8">
         <v>35000000</v>
       </c>
       <c r="E57" t="s">
-        <v>375</v>
+        <v>535</v>
       </c>
       <c r="F57" t="s">
-        <v>13</v>
+        <v>123</v>
       </c>
       <c r="G57" t="s">
-        <v>14</v>
+        <v>124</v>
       </c>
       <c r="H57" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>536</v>
+        <v>542</v>
       </c>
       <c r="B58" t="s">
         <v>333</v>
       </c>
       <c r="C58" t="s">
-        <v>537</v>
+        <v>543</v>
       </c>
       <c r="D58" s="8">
         <v>35000000</v>
       </c>
       <c r="E58" t="s">
-        <v>538</v>
+        <v>544</v>
       </c>
       <c r="F58" t="s">
         <v>123</v>
@@ -7365,200 +7356,200 @@
         <v>124</v>
       </c>
       <c r="H58" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>545</v>
+        <v>744</v>
       </c>
       <c r="B59" t="s">
         <v>333</v>
       </c>
       <c r="C59" t="s">
-        <v>546</v>
+        <v>745</v>
       </c>
       <c r="D59" s="8">
         <v>35000000</v>
       </c>
       <c r="E59" t="s">
-        <v>547</v>
+        <v>746</v>
       </c>
       <c r="F59" t="s">
-        <v>123</v>
+        <v>200</v>
       </c>
       <c r="G59" t="s">
-        <v>124</v>
+        <v>219</v>
       </c>
       <c r="H59" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>747</v>
+        <v>370</v>
       </c>
       <c r="B60" t="s">
         <v>333</v>
       </c>
       <c r="C60" t="s">
-        <v>748</v>
+        <v>371</v>
       </c>
       <c r="D60" s="8">
-        <v>35000000</v>
+        <v>31000000</v>
       </c>
       <c r="E60" t="s">
-        <v>749</v>
+        <v>372</v>
       </c>
       <c r="F60" t="s">
-        <v>200</v>
+        <v>13</v>
       </c>
       <c r="G60" t="s">
-        <v>219</v>
+        <v>14</v>
       </c>
       <c r="H60" t="s">
-        <v>15</v>
+        <v>60</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>370</v>
+        <v>512</v>
       </c>
       <c r="B61" t="s">
         <v>333</v>
       </c>
       <c r="C61" t="s">
-        <v>371</v>
+        <v>513</v>
       </c>
       <c r="D61" s="8">
         <v>31000000</v>
       </c>
       <c r="E61" t="s">
-        <v>372</v>
+        <v>514</v>
       </c>
       <c r="F61" t="s">
-        <v>13</v>
+        <v>123</v>
       </c>
       <c r="G61" t="s">
-        <v>14</v>
+        <v>124</v>
       </c>
       <c r="H61" t="s">
-        <v>60</v>
+        <v>884</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>515</v>
+        <v>495</v>
       </c>
       <c r="B62" t="s">
         <v>333</v>
       </c>
       <c r="C62" t="s">
-        <v>516</v>
+        <v>496</v>
       </c>
       <c r="D62" s="8">
-        <v>31000000</v>
+        <v>30000000</v>
       </c>
       <c r="E62" t="s">
-        <v>517</v>
+        <v>19</v>
       </c>
       <c r="F62" t="s">
-        <v>123</v>
+        <v>13</v>
       </c>
       <c r="G62" t="s">
-        <v>124</v>
+        <v>94</v>
       </c>
       <c r="H62" t="s">
-        <v>887</v>
+        <v>15</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>498</v>
+        <v>524</v>
       </c>
       <c r="B63" t="s">
         <v>333</v>
       </c>
       <c r="C63" t="s">
-        <v>499</v>
+        <v>525</v>
       </c>
       <c r="D63" s="8">
         <v>30000000</v>
       </c>
       <c r="E63" t="s">
-        <v>19</v>
+        <v>526</v>
       </c>
       <c r="F63" t="s">
-        <v>13</v>
+        <v>123</v>
       </c>
       <c r="G63" t="s">
-        <v>94</v>
+        <v>124</v>
       </c>
       <c r="H63" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>527</v>
+        <v>685</v>
       </c>
       <c r="B64" t="s">
         <v>333</v>
       </c>
       <c r="C64" t="s">
-        <v>528</v>
+        <v>686</v>
       </c>
       <c r="D64" s="8">
         <v>30000000</v>
       </c>
       <c r="E64" t="s">
-        <v>529</v>
+        <v>687</v>
       </c>
       <c r="F64" t="s">
-        <v>123</v>
+        <v>200</v>
       </c>
       <c r="G64" t="s">
-        <v>124</v>
+        <v>219</v>
       </c>
       <c r="H64" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>688</v>
+        <v>653</v>
       </c>
       <c r="B65" t="s">
         <v>333</v>
       </c>
       <c r="C65" t="s">
-        <v>689</v>
+        <v>654</v>
       </c>
       <c r="D65" s="8">
-        <v>30000000</v>
+        <v>29400000</v>
       </c>
       <c r="E65" t="s">
-        <v>690</v>
+        <v>19</v>
       </c>
       <c r="F65" t="s">
-        <v>200</v>
+        <v>123</v>
       </c>
       <c r="G65" t="s">
-        <v>219</v>
+        <v>191</v>
       </c>
       <c r="H65" t="s">
-        <v>41</v>
+        <v>884</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="B66" t="s">
         <v>333</v>
       </c>
       <c r="C66" t="s">
-        <v>657</v>
+        <v>856</v>
       </c>
       <c r="D66" s="8">
         <v>29400000</v>
@@ -7573,79 +7564,79 @@
         <v>191</v>
       </c>
       <c r="H66" t="s">
-        <v>887</v>
+        <v>884</v>
+      </c>
+      <c r="I66" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>656</v>
+        <v>367</v>
       </c>
       <c r="B67" t="s">
         <v>333</v>
       </c>
       <c r="C67" t="s">
-        <v>859</v>
+        <v>368</v>
       </c>
       <c r="D67" s="8">
-        <v>29400000</v>
+        <v>28000000</v>
       </c>
       <c r="E67" t="s">
-        <v>19</v>
+        <v>369</v>
       </c>
       <c r="F67" t="s">
-        <v>123</v>
+        <v>13</v>
       </c>
       <c r="G67" t="s">
-        <v>191</v>
+        <v>14</v>
       </c>
       <c r="H67" t="s">
-        <v>887</v>
-      </c>
-      <c r="I67" t="s">
-        <v>214</v>
+        <v>37</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>367</v>
+        <v>701</v>
       </c>
       <c r="B68" t="s">
         <v>333</v>
       </c>
       <c r="C68" t="s">
-        <v>368</v>
+        <v>702</v>
       </c>
       <c r="D68" s="8">
-        <v>28000000</v>
+        <v>27500000</v>
       </c>
       <c r="E68" t="s">
-        <v>369</v>
+        <v>703</v>
       </c>
       <c r="F68" t="s">
-        <v>13</v>
+        <v>200</v>
       </c>
       <c r="G68" t="s">
-        <v>14</v>
+        <v>219</v>
       </c>
       <c r="H68" t="s">
-        <v>37</v>
+        <v>60</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>704</v>
+        <v>679</v>
       </c>
       <c r="B69" t="s">
         <v>333</v>
       </c>
       <c r="C69" t="s">
-        <v>705</v>
+        <v>680</v>
       </c>
       <c r="D69" s="8">
-        <v>27500000</v>
+        <v>27300000</v>
       </c>
       <c r="E69" t="s">
-        <v>706</v>
+        <v>681</v>
       </c>
       <c r="F69" t="s">
         <v>200</v>
@@ -7654,30 +7645,30 @@
         <v>219</v>
       </c>
       <c r="H69" t="s">
-        <v>60</v>
+        <v>15</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>682</v>
+        <v>489</v>
       </c>
       <c r="B70" t="s">
         <v>333</v>
       </c>
       <c r="C70" t="s">
-        <v>683</v>
+        <v>490</v>
       </c>
       <c r="D70" s="8">
-        <v>27300000</v>
+        <v>25000000</v>
       </c>
       <c r="E70" t="s">
-        <v>684</v>
+        <v>491</v>
       </c>
       <c r="F70" t="s">
-        <v>200</v>
+        <v>13</v>
       </c>
       <c r="G70" t="s">
-        <v>219</v>
+        <v>94</v>
       </c>
       <c r="H70" t="s">
         <v>15</v>
@@ -7685,45 +7676,45 @@
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>492</v>
+        <v>539</v>
       </c>
       <c r="B71" t="s">
         <v>333</v>
       </c>
       <c r="C71" t="s">
-        <v>493</v>
-      </c>
-      <c r="D71" s="8">
-        <v>25000000</v>
+        <v>540</v>
+      </c>
+      <c r="D71" s="8" t="s">
+        <v>19</v>
       </c>
       <c r="E71" t="s">
-        <v>494</v>
+        <v>541</v>
       </c>
       <c r="F71" t="s">
-        <v>13</v>
+        <v>123</v>
       </c>
       <c r="G71" t="s">
-        <v>94</v>
+        <v>124</v>
       </c>
       <c r="H71" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>542</v>
+        <v>557</v>
       </c>
       <c r="B72" t="s">
         <v>333</v>
       </c>
       <c r="C72" t="s">
-        <v>543</v>
-      </c>
-      <c r="D72" s="8" t="s">
-        <v>19</v>
+        <v>558</v>
+      </c>
+      <c r="D72" s="8">
+        <v>25000000</v>
       </c>
       <c r="E72" t="s">
-        <v>544</v>
+        <v>559</v>
       </c>
       <c r="F72" t="s">
         <v>123</v>
@@ -7732,206 +7723,206 @@
         <v>124</v>
       </c>
       <c r="H72" t="s">
-        <v>33</v>
+        <v>884</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>560</v>
+        <v>477</v>
       </c>
       <c r="B73" t="s">
         <v>333</v>
       </c>
       <c r="C73" t="s">
-        <v>561</v>
+        <v>478</v>
       </c>
       <c r="D73" s="8">
-        <v>25000000</v>
+        <v>24000000</v>
       </c>
       <c r="E73" t="s">
-        <v>562</v>
+        <v>479</v>
       </c>
       <c r="F73" t="s">
-        <v>123</v>
+        <v>13</v>
       </c>
       <c r="G73" t="s">
-        <v>124</v>
+        <v>94</v>
       </c>
       <c r="H73" t="s">
-        <v>887</v>
+        <v>15</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>477</v>
+        <v>548</v>
       </c>
       <c r="B74" t="s">
         <v>333</v>
       </c>
       <c r="C74" t="s">
-        <v>478</v>
-      </c>
-      <c r="D74" s="8">
-        <v>24000000</v>
+        <v>549</v>
+      </c>
+      <c r="D74" s="8" t="s">
+        <v>19</v>
       </c>
       <c r="E74" t="s">
-        <v>479</v>
+        <v>550</v>
       </c>
       <c r="F74" t="s">
-        <v>13</v>
+        <v>123</v>
       </c>
       <c r="G74" t="s">
-        <v>94</v>
+        <v>124</v>
       </c>
       <c r="H74" t="s">
-        <v>15</v>
+        <v>884</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>551</v>
+        <v>759</v>
       </c>
       <c r="B75" t="s">
         <v>333</v>
       </c>
       <c r="C75" t="s">
-        <v>552</v>
-      </c>
-      <c r="D75" s="8" t="s">
-        <v>19</v>
+        <v>760</v>
+      </c>
+      <c r="D75" s="8">
+        <v>24000000</v>
       </c>
       <c r="E75" t="s">
-        <v>553</v>
+        <v>761</v>
       </c>
       <c r="F75" t="s">
-        <v>123</v>
+        <v>200</v>
       </c>
       <c r="G75" t="s">
-        <v>124</v>
+        <v>289</v>
       </c>
       <c r="H75" t="s">
-        <v>887</v>
+        <v>33</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>762</v>
+        <v>401</v>
       </c>
       <c r="B76" t="s">
         <v>333</v>
       </c>
       <c r="C76" t="s">
-        <v>763</v>
+        <v>402</v>
       </c>
       <c r="D76" s="8">
-        <v>24000000</v>
+        <v>20000000</v>
       </c>
       <c r="E76" t="s">
-        <v>764</v>
+        <v>19</v>
       </c>
       <c r="F76" t="s">
-        <v>200</v>
+        <v>13</v>
       </c>
       <c r="G76" t="s">
-        <v>289</v>
+        <v>66</v>
       </c>
       <c r="H76" t="s">
-        <v>33</v>
+        <v>882</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>401</v>
+        <v>575</v>
       </c>
       <c r="B77" t="s">
         <v>333</v>
       </c>
       <c r="C77" t="s">
-        <v>402</v>
+        <v>576</v>
       </c>
       <c r="D77" s="8">
         <v>20000000</v>
       </c>
       <c r="E77" t="s">
-        <v>19</v>
+        <v>577</v>
       </c>
       <c r="F77" t="s">
-        <v>13</v>
+        <v>123</v>
       </c>
       <c r="G77" t="s">
-        <v>66</v>
+        <v>124</v>
       </c>
       <c r="H77" t="s">
-        <v>885</v>
+        <v>33</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>578</v>
+        <v>638</v>
       </c>
       <c r="B78" t="s">
         <v>333</v>
       </c>
       <c r="C78" t="s">
-        <v>579</v>
+        <v>639</v>
       </c>
       <c r="D78" s="8">
         <v>20000000</v>
       </c>
       <c r="E78" t="s">
-        <v>580</v>
+        <v>640</v>
       </c>
       <c r="F78" t="s">
         <v>123</v>
       </c>
       <c r="G78" t="s">
-        <v>124</v>
+        <v>191</v>
       </c>
       <c r="H78" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>641</v>
+        <v>685</v>
       </c>
       <c r="B79" t="s">
         <v>333</v>
       </c>
       <c r="C79" t="s">
-        <v>642</v>
+        <v>686</v>
       </c>
       <c r="D79" s="8">
         <v>20000000</v>
       </c>
       <c r="E79" t="s">
-        <v>643</v>
+        <v>688</v>
       </c>
       <c r="F79" t="s">
-        <v>123</v>
+        <v>200</v>
       </c>
       <c r="G79" t="s">
-        <v>191</v>
+        <v>219</v>
       </c>
       <c r="H79" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>688</v>
+        <v>698</v>
       </c>
       <c r="B80" t="s">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="C80" t="s">
-        <v>689</v>
+        <v>699</v>
       </c>
       <c r="D80" s="8">
         <v>20000000</v>
       </c>
       <c r="E80" t="s">
-        <v>691</v>
+        <v>700</v>
       </c>
       <c r="F80" t="s">
         <v>200</v>
@@ -7940,160 +7931,160 @@
         <v>219</v>
       </c>
       <c r="H80" t="s">
-        <v>41</v>
+        <v>15</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>701</v>
+        <v>626</v>
       </c>
       <c r="B81" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="C81" t="s">
-        <v>702</v>
+        <v>627</v>
       </c>
       <c r="D81" s="8">
-        <v>20000000</v>
+        <v>17900000</v>
       </c>
       <c r="E81" t="s">
-        <v>703</v>
+        <v>628</v>
       </c>
       <c r="F81" t="s">
-        <v>200</v>
+        <v>123</v>
       </c>
       <c r="G81" t="s">
-        <v>219</v>
+        <v>191</v>
       </c>
       <c r="H81" t="s">
-        <v>15</v>
+        <v>884</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>629</v>
+        <v>474</v>
       </c>
       <c r="B82" t="s">
         <v>333</v>
       </c>
       <c r="C82" t="s">
-        <v>630</v>
+        <v>475</v>
       </c>
       <c r="D82" s="8">
-        <v>17900000</v>
+        <v>17780000</v>
       </c>
       <c r="E82" t="s">
-        <v>631</v>
+        <v>476</v>
       </c>
       <c r="F82" t="s">
-        <v>123</v>
+        <v>13</v>
       </c>
       <c r="G82" t="s">
-        <v>191</v>
+        <v>94</v>
       </c>
       <c r="H82" t="s">
-        <v>887</v>
+        <v>33</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>474</v>
+        <v>408</v>
       </c>
       <c r="B83" t="s">
         <v>333</v>
       </c>
       <c r="C83" t="s">
-        <v>475</v>
+        <v>409</v>
       </c>
       <c r="D83" s="8">
-        <v>17780000</v>
+        <v>17500000</v>
       </c>
       <c r="E83" t="s">
-        <v>476</v>
+        <v>410</v>
       </c>
       <c r="F83" t="s">
         <v>13</v>
       </c>
       <c r="G83" t="s">
-        <v>94</v>
+        <v>66</v>
       </c>
       <c r="H83" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>408</v>
+        <v>641</v>
       </c>
       <c r="B84" t="s">
         <v>333</v>
       </c>
       <c r="C84" t="s">
-        <v>409</v>
+        <v>642</v>
       </c>
       <c r="D84" s="8">
-        <v>17500000</v>
+        <v>16000000</v>
       </c>
       <c r="E84" t="s">
-        <v>410</v>
+        <v>643</v>
       </c>
       <c r="F84" t="s">
-        <v>13</v>
+        <v>123</v>
       </c>
       <c r="G84" t="s">
-        <v>66</v>
+        <v>191</v>
       </c>
       <c r="H84" t="s">
-        <v>15</v>
+        <v>884</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>644</v>
+        <v>724</v>
       </c>
       <c r="B85" t="s">
         <v>333</v>
       </c>
       <c r="C85" t="s">
-        <v>645</v>
+        <v>725</v>
       </c>
       <c r="D85" s="8">
         <v>16000000</v>
       </c>
       <c r="E85" t="s">
-        <v>646</v>
+        <v>726</v>
       </c>
       <c r="F85" t="s">
-        <v>123</v>
+        <v>200</v>
       </c>
       <c r="G85" t="s">
-        <v>191</v>
+        <v>219</v>
       </c>
       <c r="H85" t="s">
-        <v>887</v>
+        <v>15</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>727</v>
+        <v>762</v>
       </c>
       <c r="B86" t="s">
         <v>333</v>
       </c>
       <c r="C86" t="s">
-        <v>728</v>
+        <v>763</v>
       </c>
       <c r="D86" s="8">
         <v>16000000</v>
       </c>
       <c r="E86" t="s">
-        <v>729</v>
+        <v>764</v>
       </c>
       <c r="F86" t="s">
         <v>200</v>
       </c>
       <c r="G86" t="s">
-        <v>219</v>
+        <v>289</v>
       </c>
       <c r="H86" t="s">
         <v>15</v>
@@ -8101,71 +8092,71 @@
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>765</v>
+        <v>818</v>
       </c>
       <c r="B87" t="s">
         <v>333</v>
       </c>
       <c r="C87" t="s">
-        <v>766</v>
+        <v>819</v>
       </c>
       <c r="D87" s="8">
         <v>16000000</v>
       </c>
       <c r="E87" t="s">
-        <v>767</v>
+        <v>820</v>
       </c>
       <c r="F87" t="s">
         <v>200</v>
       </c>
       <c r="G87" t="s">
-        <v>289</v>
+        <v>205</v>
       </c>
       <c r="H87" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>821</v>
+        <v>403</v>
       </c>
       <c r="B88" t="s">
         <v>333</v>
       </c>
       <c r="C88" t="s">
-        <v>822</v>
+        <v>404</v>
       </c>
       <c r="D88" s="8">
-        <v>16000000</v>
+        <v>15000000</v>
       </c>
       <c r="E88" t="s">
-        <v>823</v>
+        <v>405</v>
       </c>
       <c r="F88" t="s">
-        <v>200</v>
+        <v>13</v>
       </c>
       <c r="G88" t="s">
-        <v>205</v>
+        <v>66</v>
       </c>
       <c r="H88" t="s">
-        <v>23</v>
+        <v>884</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>403</v>
+        <v>435</v>
       </c>
       <c r="B89" t="s">
         <v>333</v>
       </c>
       <c r="C89" t="s">
-        <v>404</v>
+        <v>436</v>
       </c>
       <c r="D89" s="8">
         <v>15000000</v>
       </c>
       <c r="E89" t="s">
-        <v>405</v>
+        <v>437</v>
       </c>
       <c r="F89" t="s">
         <v>13</v>
@@ -8174,128 +8165,128 @@
         <v>66</v>
       </c>
       <c r="H89" t="s">
-        <v>887</v>
+        <v>33</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>435</v>
+        <v>230</v>
       </c>
       <c r="B90" t="s">
         <v>333</v>
       </c>
       <c r="C90" t="s">
-        <v>436</v>
-      </c>
-      <c r="D90" s="8">
-        <v>15000000</v>
+        <v>595</v>
+      </c>
+      <c r="D90" s="8" t="s">
+        <v>19</v>
       </c>
       <c r="E90" t="s">
-        <v>437</v>
+        <v>596</v>
       </c>
       <c r="F90" t="s">
-        <v>13</v>
+        <v>123</v>
       </c>
       <c r="G90" t="s">
-        <v>66</v>
+        <v>158</v>
       </c>
       <c r="H90" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>230</v>
+        <v>530</v>
       </c>
       <c r="B91" t="s">
         <v>333</v>
       </c>
       <c r="C91" t="s">
-        <v>598</v>
-      </c>
-      <c r="D91" s="8" t="s">
-        <v>19</v>
+        <v>531</v>
+      </c>
+      <c r="D91" s="8">
+        <v>15000000</v>
       </c>
       <c r="E91" t="s">
-        <v>599</v>
+        <v>532</v>
       </c>
       <c r="F91" t="s">
         <v>123</v>
       </c>
       <c r="G91" t="s">
-        <v>158</v>
+        <v>124</v>
       </c>
       <c r="H91" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>533</v>
+        <v>600</v>
       </c>
       <c r="B92" t="s">
         <v>333</v>
       </c>
       <c r="C92" t="s">
-        <v>534</v>
-      </c>
-      <c r="D92" s="8">
-        <v>15000000</v>
+        <v>601</v>
+      </c>
+      <c r="D92" s="8" t="s">
+        <v>19</v>
       </c>
       <c r="E92" t="s">
-        <v>535</v>
+        <v>602</v>
       </c>
       <c r="F92" t="s">
         <v>123</v>
       </c>
       <c r="G92" t="s">
-        <v>124</v>
+        <v>158</v>
       </c>
       <c r="H92" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>603</v>
+        <v>551</v>
       </c>
       <c r="B93" t="s">
         <v>333</v>
       </c>
       <c r="C93" t="s">
-        <v>604</v>
-      </c>
-      <c r="D93" s="8" t="s">
-        <v>19</v>
+        <v>552</v>
+      </c>
+      <c r="D93" s="8">
+        <v>14400000</v>
       </c>
       <c r="E93" t="s">
-        <v>605</v>
+        <v>553</v>
       </c>
       <c r="F93" t="s">
         <v>123</v>
       </c>
       <c r="G93" t="s">
-        <v>158</v>
+        <v>124</v>
       </c>
       <c r="H93" t="s">
-        <v>37</v>
+        <v>884</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>554</v>
+        <v>563</v>
       </c>
       <c r="B94" t="s">
         <v>333</v>
       </c>
       <c r="C94" t="s">
-        <v>555</v>
+        <v>564</v>
       </c>
       <c r="D94" s="8">
-        <v>14400000</v>
+        <v>14300000</v>
       </c>
       <c r="E94" t="s">
-        <v>556</v>
+        <v>565</v>
       </c>
       <c r="F94" t="s">
         <v>123</v>
@@ -8304,30 +8295,30 @@
         <v>124</v>
       </c>
       <c r="H94" t="s">
-        <v>887</v>
+        <v>41</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>566</v>
+        <v>345</v>
       </c>
       <c r="B95" t="s">
-        <v>333</v>
+        <v>346</v>
       </c>
       <c r="C95" t="s">
-        <v>567</v>
+        <v>347</v>
       </c>
       <c r="D95" s="8">
-        <v>14300000</v>
+        <v>14000000</v>
       </c>
       <c r="E95" t="s">
-        <v>568</v>
+        <v>348</v>
       </c>
       <c r="F95" t="s">
-        <v>123</v>
+        <v>13</v>
       </c>
       <c r="G95" t="s">
-        <v>124</v>
+        <v>14</v>
       </c>
       <c r="H95" t="s">
         <v>41</v>
@@ -8335,39 +8326,39 @@
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>345</v>
+        <v>388</v>
       </c>
       <c r="B96" t="s">
-        <v>346</v>
+        <v>333</v>
       </c>
       <c r="C96" t="s">
-        <v>347</v>
+        <v>389</v>
       </c>
       <c r="D96" s="8">
         <v>14000000</v>
       </c>
       <c r="E96" t="s">
-        <v>348</v>
+        <v>19</v>
       </c>
       <c r="F96" t="s">
         <v>13</v>
       </c>
       <c r="G96" t="s">
-        <v>14</v>
+        <v>66</v>
       </c>
       <c r="H96" t="s">
-        <v>41</v>
+        <v>15</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>388</v>
+        <v>707</v>
       </c>
       <c r="B97" t="s">
         <v>333</v>
       </c>
       <c r="C97" t="s">
-        <v>389</v>
+        <v>708</v>
       </c>
       <c r="D97" s="8">
         <v>14000000</v>
@@ -8376,56 +8367,56 @@
         <v>19</v>
       </c>
       <c r="F97" t="s">
-        <v>13</v>
+        <v>200</v>
       </c>
       <c r="G97" t="s">
-        <v>66</v>
+        <v>219</v>
       </c>
       <c r="H97" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>710</v>
+        <v>618</v>
       </c>
       <c r="B98" t="s">
         <v>333</v>
       </c>
       <c r="C98" t="s">
-        <v>711</v>
-      </c>
-      <c r="D98" s="8">
-        <v>14000000</v>
+        <v>619</v>
+      </c>
+      <c r="D98" s="8" t="s">
+        <v>19</v>
       </c>
       <c r="E98" t="s">
         <v>19</v>
       </c>
       <c r="F98" t="s">
-        <v>200</v>
+        <v>123</v>
       </c>
       <c r="G98" t="s">
-        <v>219</v>
+        <v>158</v>
       </c>
       <c r="H98" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
+        <v>620</v>
+      </c>
+      <c r="B99" t="s">
+        <v>333</v>
+      </c>
+      <c r="C99" t="s">
         <v>621</v>
-      </c>
-      <c r="B99" t="s">
-        <v>333</v>
-      </c>
-      <c r="C99" t="s">
-        <v>622</v>
       </c>
       <c r="D99" s="8" t="s">
         <v>19</v>
       </c>
       <c r="E99" t="s">
-        <v>19</v>
+        <v>622</v>
       </c>
       <c r="F99" t="s">
         <v>123</v>
@@ -8434,30 +8425,30 @@
         <v>158</v>
       </c>
       <c r="H99" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>623</v>
+        <v>420</v>
       </c>
       <c r="B100" t="s">
         <v>333</v>
       </c>
       <c r="C100" t="s">
-        <v>624</v>
-      </c>
-      <c r="D100" s="8" t="s">
-        <v>19</v>
+        <v>421</v>
+      </c>
+      <c r="D100" s="8">
+        <v>13600000</v>
       </c>
       <c r="E100" t="s">
-        <v>625</v>
+        <v>422</v>
       </c>
       <c r="F100" t="s">
-        <v>123</v>
+        <v>13</v>
       </c>
       <c r="G100" t="s">
-        <v>158</v>
+        <v>66</v>
       </c>
       <c r="H100" t="s">
         <v>15</v>
@@ -8465,54 +8456,54 @@
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>420</v>
+        <v>581</v>
       </c>
       <c r="B101" t="s">
         <v>333</v>
       </c>
       <c r="C101" t="s">
-        <v>421</v>
+        <v>582</v>
       </c>
       <c r="D101" s="8">
-        <v>13600000</v>
+        <v>13500000</v>
       </c>
       <c r="E101" t="s">
-        <v>422</v>
+        <v>19</v>
       </c>
       <c r="F101" t="s">
-        <v>13</v>
+        <v>123</v>
       </c>
       <c r="G101" t="s">
-        <v>66</v>
+        <v>158</v>
       </c>
       <c r="H101" t="s">
-        <v>15</v>
+        <v>60</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>584</v>
+        <v>629</v>
       </c>
       <c r="B102" t="s">
         <v>333</v>
       </c>
       <c r="C102" t="s">
-        <v>585</v>
-      </c>
-      <c r="D102" s="8">
-        <v>13500000</v>
+        <v>630</v>
+      </c>
+      <c r="D102" s="8" t="s">
+        <v>19</v>
       </c>
       <c r="E102" t="s">
-        <v>19</v>
+        <v>631</v>
       </c>
       <c r="F102" t="s">
         <v>123</v>
       </c>
       <c r="G102" t="s">
-        <v>158</v>
+        <v>191</v>
       </c>
       <c r="H102" t="s">
-        <v>60</v>
+        <v>884</v>
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.25">
@@ -8538,102 +8529,102 @@
         <v>191</v>
       </c>
       <c r="H103" t="s">
-        <v>887</v>
+        <v>37</v>
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>635</v>
+        <v>483</v>
       </c>
       <c r="B104" t="s">
         <v>333</v>
       </c>
       <c r="C104" t="s">
-        <v>636</v>
-      </c>
-      <c r="D104" s="8" t="s">
-        <v>19</v>
+        <v>484</v>
+      </c>
+      <c r="D104" s="8">
+        <v>13000000</v>
       </c>
       <c r="E104" t="s">
-        <v>637</v>
+        <v>485</v>
       </c>
       <c r="F104" t="s">
-        <v>123</v>
+        <v>13</v>
       </c>
       <c r="G104" t="s">
-        <v>191</v>
+        <v>94</v>
       </c>
       <c r="H104" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>486</v>
+        <v>423</v>
       </c>
       <c r="B105" t="s">
         <v>333</v>
       </c>
       <c r="C105" t="s">
-        <v>487</v>
+        <v>424</v>
       </c>
       <c r="D105" s="8">
-        <v>13000000</v>
+        <v>12700000</v>
       </c>
       <c r="E105" t="s">
-        <v>488</v>
+        <v>425</v>
       </c>
       <c r="F105" t="s">
         <v>13</v>
       </c>
       <c r="G105" t="s">
-        <v>94</v>
+        <v>66</v>
       </c>
       <c r="H105" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>423</v>
+        <v>695</v>
       </c>
       <c r="B106" t="s">
         <v>333</v>
       </c>
       <c r="C106" t="s">
-        <v>424</v>
+        <v>696</v>
       </c>
       <c r="D106" s="8">
-        <v>12700000</v>
+        <v>12000000</v>
       </c>
       <c r="E106" t="s">
-        <v>425</v>
+        <v>697</v>
       </c>
       <c r="F106" t="s">
-        <v>13</v>
+        <v>200</v>
       </c>
       <c r="G106" t="s">
-        <v>66</v>
+        <v>219</v>
       </c>
       <c r="H106" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>698</v>
+        <v>733</v>
       </c>
       <c r="B107" t="s">
         <v>333</v>
       </c>
       <c r="C107" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="D107" s="8">
         <v>12000000</v>
       </c>
       <c r="E107" t="s">
-        <v>700</v>
+        <v>734</v>
       </c>
       <c r="F107" t="s">
         <v>200</v>
@@ -8647,210 +8638,210 @@
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>736</v>
+        <v>456</v>
       </c>
       <c r="B108" t="s">
         <v>333</v>
       </c>
       <c r="C108" t="s">
-        <v>699</v>
+        <v>457</v>
       </c>
       <c r="D108" s="8">
-        <v>12000000</v>
+        <v>11700000</v>
       </c>
       <c r="E108" t="s">
-        <v>737</v>
+        <v>458</v>
       </c>
       <c r="F108" t="s">
-        <v>200</v>
+        <v>13</v>
       </c>
       <c r="G108" t="s">
-        <v>219</v>
+        <v>94</v>
       </c>
       <c r="H108" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>456</v>
+        <v>682</v>
       </c>
       <c r="B109" t="s">
         <v>333</v>
       </c>
       <c r="C109" t="s">
-        <v>457</v>
+        <v>854</v>
       </c>
       <c r="D109" s="8">
-        <v>11700000</v>
+        <v>11600000</v>
       </c>
       <c r="E109" t="s">
-        <v>458</v>
+        <v>855</v>
       </c>
       <c r="F109" t="s">
-        <v>13</v>
+        <v>200</v>
       </c>
       <c r="G109" t="s">
-        <v>94</v>
+        <v>219</v>
       </c>
       <c r="H109" t="s">
-        <v>15</v>
+        <v>41</v>
+      </c>
+      <c r="I109" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>685</v>
+        <v>527</v>
       </c>
       <c r="B110" t="s">
         <v>333</v>
       </c>
       <c r="C110" t="s">
-        <v>857</v>
+        <v>528</v>
       </c>
       <c r="D110" s="8">
-        <v>11600000</v>
+        <v>11500000</v>
       </c>
       <c r="E110" t="s">
-        <v>858</v>
+        <v>529</v>
       </c>
       <c r="F110" t="s">
-        <v>200</v>
+        <v>123</v>
       </c>
       <c r="G110" t="s">
-        <v>219</v>
+        <v>124</v>
       </c>
       <c r="H110" t="s">
-        <v>41</v>
-      </c>
-      <c r="I110" t="s">
-        <v>214</v>
+        <v>33</v>
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>530</v>
+        <v>682</v>
       </c>
       <c r="B111" t="s">
         <v>333</v>
       </c>
       <c r="C111" t="s">
-        <v>531</v>
+        <v>683</v>
       </c>
       <c r="D111" s="8">
         <v>11500000</v>
       </c>
       <c r="E111" t="s">
-        <v>532</v>
+        <v>684</v>
       </c>
       <c r="F111" t="s">
-        <v>123</v>
+        <v>200</v>
       </c>
       <c r="G111" t="s">
-        <v>124</v>
+        <v>219</v>
       </c>
       <c r="H111" t="s">
-        <v>33</v>
+        <v>884</v>
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>685</v>
+        <v>658</v>
       </c>
       <c r="B112" t="s">
         <v>333</v>
       </c>
       <c r="C112" t="s">
-        <v>686</v>
-      </c>
-      <c r="D112" s="8">
-        <v>11500000</v>
+        <v>659</v>
+      </c>
+      <c r="D112" s="8" t="s">
+        <v>19</v>
       </c>
       <c r="E112" t="s">
-        <v>687</v>
+        <v>660</v>
       </c>
       <c r="F112" t="s">
-        <v>200</v>
+        <v>123</v>
       </c>
       <c r="G112" t="s">
-        <v>219</v>
+        <v>191</v>
       </c>
       <c r="H112" t="s">
-        <v>887</v>
+        <v>15</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>661</v>
+        <v>414</v>
       </c>
       <c r="B113" t="s">
         <v>333</v>
       </c>
       <c r="C113" t="s">
-        <v>662</v>
-      </c>
-      <c r="D113" s="8" t="s">
-        <v>19</v>
+        <v>415</v>
+      </c>
+      <c r="D113" s="8">
+        <v>11000000</v>
       </c>
       <c r="E113" t="s">
-        <v>663</v>
+        <v>416</v>
       </c>
       <c r="F113" t="s">
-        <v>123</v>
+        <v>13</v>
       </c>
       <c r="G113" t="s">
-        <v>191</v>
+        <v>66</v>
       </c>
       <c r="H113" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>414</v>
+        <v>715</v>
       </c>
       <c r="B114" t="s">
         <v>333</v>
       </c>
       <c r="C114" t="s">
-        <v>415</v>
+        <v>716</v>
       </c>
       <c r="D114" s="8">
         <v>11000000</v>
       </c>
       <c r="E114" t="s">
-        <v>416</v>
+        <v>717</v>
       </c>
       <c r="F114" t="s">
-        <v>13</v>
+        <v>200</v>
       </c>
       <c r="G114" t="s">
-        <v>66</v>
+        <v>219</v>
       </c>
       <c r="H114" t="s">
-        <v>41</v>
+        <v>15</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>718</v>
+        <v>486</v>
       </c>
       <c r="B115" t="s">
         <v>333</v>
       </c>
       <c r="C115" t="s">
-        <v>719</v>
+        <v>487</v>
       </c>
       <c r="D115" s="8">
-        <v>11000000</v>
+        <v>10900000</v>
       </c>
       <c r="E115" t="s">
-        <v>720</v>
+        <v>488</v>
       </c>
       <c r="F115" t="s">
-        <v>200</v>
+        <v>13</v>
       </c>
       <c r="G115" t="s">
-        <v>219</v>
+        <v>94</v>
       </c>
       <c r="H115" t="s">
         <v>15</v>
@@ -8858,97 +8849,97 @@
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>489</v>
+        <v>545</v>
       </c>
       <c r="B116" t="s">
         <v>333</v>
       </c>
       <c r="C116" t="s">
-        <v>490</v>
+        <v>546</v>
       </c>
       <c r="D116" s="8">
-        <v>10900000</v>
+        <v>10000000</v>
       </c>
       <c r="E116" t="s">
-        <v>491</v>
+        <v>547</v>
       </c>
       <c r="F116" t="s">
-        <v>13</v>
+        <v>123</v>
       </c>
       <c r="G116" t="s">
-        <v>94</v>
+        <v>124</v>
       </c>
       <c r="H116" t="s">
-        <v>15</v>
+        <v>884</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>548</v>
+        <v>583</v>
       </c>
       <c r="B117" t="s">
         <v>333</v>
       </c>
       <c r="C117" t="s">
-        <v>549</v>
+        <v>584</v>
       </c>
       <c r="D117" s="8">
         <v>10000000</v>
       </c>
       <c r="E117" t="s">
-        <v>550</v>
+        <v>585</v>
       </c>
       <c r="F117" t="s">
         <v>123</v>
       </c>
       <c r="G117" t="s">
-        <v>124</v>
+        <v>158</v>
       </c>
       <c r="H117" t="s">
-        <v>887</v>
+        <v>37</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>586</v>
+        <v>673</v>
       </c>
       <c r="B118" t="s">
         <v>333</v>
       </c>
       <c r="C118" t="s">
-        <v>587</v>
-      </c>
-      <c r="D118" s="8">
-        <v>10000000</v>
+        <v>674</v>
+      </c>
+      <c r="D118" s="8" t="s">
+        <v>19</v>
       </c>
       <c r="E118" t="s">
-        <v>588</v>
+        <v>675</v>
       </c>
       <c r="F118" t="s">
-        <v>123</v>
+        <v>200</v>
       </c>
       <c r="G118" t="s">
-        <v>158</v>
+        <v>219</v>
       </c>
       <c r="H118" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>676</v>
+        <v>689</v>
       </c>
       <c r="B119" t="s">
         <v>333</v>
       </c>
       <c r="C119" t="s">
-        <v>677</v>
-      </c>
-      <c r="D119" s="8" t="s">
-        <v>19</v>
+        <v>690</v>
+      </c>
+      <c r="D119" s="8">
+        <v>10000000</v>
       </c>
       <c r="E119" t="s">
-        <v>678</v>
+        <v>691</v>
       </c>
       <c r="F119" t="s">
         <v>200</v>
@@ -8962,77 +8953,77 @@
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>692</v>
+        <v>779</v>
       </c>
       <c r="B120" t="s">
         <v>333</v>
       </c>
       <c r="C120" t="s">
-        <v>693</v>
+        <v>780</v>
       </c>
       <c r="D120" s="8">
         <v>10000000</v>
       </c>
       <c r="E120" t="s">
-        <v>694</v>
+        <v>781</v>
       </c>
       <c r="F120" t="s">
         <v>200</v>
       </c>
       <c r="G120" t="s">
-        <v>219</v>
+        <v>205</v>
       </c>
       <c r="H120" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>782</v>
+        <v>845</v>
       </c>
       <c r="B121" t="s">
         <v>333</v>
       </c>
       <c r="C121" t="s">
-        <v>783</v>
+        <v>846</v>
       </c>
       <c r="D121" s="8">
         <v>10000000</v>
       </c>
       <c r="E121" t="s">
-        <v>784</v>
+        <v>847</v>
       </c>
       <c r="F121" t="s">
         <v>200</v>
       </c>
       <c r="G121" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="H121" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>848</v>
+        <v>390</v>
       </c>
       <c r="B122" t="s">
         <v>333</v>
       </c>
       <c r="C122" t="s">
-        <v>849</v>
+        <v>391</v>
       </c>
       <c r="D122" s="8">
-        <v>10000000</v>
+        <v>9300000</v>
       </c>
       <c r="E122" t="s">
-        <v>850</v>
+        <v>392</v>
       </c>
       <c r="F122" t="s">
-        <v>200</v>
+        <v>13</v>
       </c>
       <c r="G122" t="s">
-        <v>201</v>
+        <v>66</v>
       </c>
       <c r="H122" t="s">
         <v>15</v>
@@ -9040,71 +9031,71 @@
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>390</v>
+        <v>536</v>
       </c>
       <c r="B123" t="s">
         <v>333</v>
       </c>
       <c r="C123" t="s">
-        <v>391</v>
+        <v>537</v>
       </c>
       <c r="D123" s="8">
-        <v>9300000</v>
+        <v>9000000</v>
       </c>
       <c r="E123" t="s">
-        <v>392</v>
+        <v>538</v>
       </c>
       <c r="F123" t="s">
-        <v>13</v>
+        <v>123</v>
       </c>
       <c r="G123" t="s">
-        <v>66</v>
+        <v>124</v>
       </c>
       <c r="H123" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>539</v>
+        <v>750</v>
       </c>
       <c r="B124" t="s">
         <v>333</v>
       </c>
       <c r="C124" t="s">
-        <v>540</v>
+        <v>751</v>
       </c>
       <c r="D124" s="8">
-        <v>9000000</v>
+        <v>8200000</v>
       </c>
       <c r="E124" t="s">
-        <v>541</v>
+        <v>752</v>
       </c>
       <c r="F124" t="s">
-        <v>123</v>
+        <v>200</v>
       </c>
       <c r="G124" t="s">
-        <v>124</v>
+        <v>289</v>
       </c>
       <c r="H124" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>753</v>
+        <v>765</v>
       </c>
       <c r="B125" t="s">
         <v>333</v>
       </c>
       <c r="C125" t="s">
-        <v>754</v>
+        <v>766</v>
       </c>
       <c r="D125" s="8">
-        <v>8200000</v>
+        <v>8000000</v>
       </c>
       <c r="E125" t="s">
-        <v>755</v>
+        <v>767</v>
       </c>
       <c r="F125" t="s">
         <v>200</v>
@@ -9113,148 +9104,148 @@
         <v>289</v>
       </c>
       <c r="H125" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>768</v>
+        <v>797</v>
       </c>
       <c r="B126" t="s">
         <v>333</v>
       </c>
       <c r="C126" t="s">
-        <v>769</v>
+        <v>798</v>
       </c>
       <c r="D126" s="8">
         <v>8000000</v>
       </c>
       <c r="E126" t="s">
-        <v>770</v>
+        <v>799</v>
       </c>
       <c r="F126" t="s">
         <v>200</v>
       </c>
       <c r="G126" t="s">
-        <v>289</v>
+        <v>205</v>
       </c>
       <c r="H126" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>800</v>
+        <v>650</v>
       </c>
       <c r="B127" t="s">
         <v>333</v>
       </c>
       <c r="C127" t="s">
-        <v>801</v>
+        <v>651</v>
       </c>
       <c r="D127" s="8">
-        <v>8000000</v>
+        <v>7909999</v>
       </c>
       <c r="E127" t="s">
-        <v>802</v>
+        <v>652</v>
       </c>
       <c r="F127" t="s">
-        <v>200</v>
+        <v>123</v>
       </c>
       <c r="G127" t="s">
-        <v>205</v>
+        <v>191</v>
       </c>
       <c r="H127" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>653</v>
+        <v>398</v>
       </c>
       <c r="B128" t="s">
         <v>333</v>
       </c>
       <c r="C128" t="s">
-        <v>654</v>
+        <v>399</v>
       </c>
       <c r="D128" s="8">
-        <v>7909999</v>
+        <v>7700000</v>
       </c>
       <c r="E128" t="s">
-        <v>655</v>
+        <v>400</v>
       </c>
       <c r="F128" t="s">
-        <v>123</v>
+        <v>13</v>
       </c>
       <c r="G128" t="s">
-        <v>191</v>
+        <v>66</v>
       </c>
       <c r="H128" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>398</v>
+        <v>521</v>
       </c>
       <c r="B129" t="s">
         <v>333</v>
       </c>
       <c r="C129" t="s">
-        <v>399</v>
+        <v>522</v>
       </c>
       <c r="D129" s="8">
-        <v>7700000</v>
+        <v>7500000</v>
       </c>
       <c r="E129" t="s">
-        <v>400</v>
+        <v>523</v>
       </c>
       <c r="F129" t="s">
-        <v>13</v>
+        <v>123</v>
       </c>
       <c r="G129" t="s">
-        <v>66</v>
+        <v>124</v>
       </c>
       <c r="H129" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>524</v>
+        <v>661</v>
       </c>
       <c r="B130" t="s">
         <v>333</v>
       </c>
       <c r="C130" t="s">
-        <v>525</v>
+        <v>662</v>
       </c>
       <c r="D130" s="8">
         <v>7500000</v>
       </c>
       <c r="E130" t="s">
-        <v>526</v>
+        <v>19</v>
       </c>
       <c r="F130" t="s">
         <v>123</v>
       </c>
       <c r="G130" t="s">
-        <v>124</v>
+        <v>191</v>
       </c>
       <c r="H130" t="s">
-        <v>60</v>
+        <v>15</v>
       </c>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="B131" t="s">
         <v>333</v>
       </c>
       <c r="C131" t="s">
-        <v>665</v>
+        <v>850</v>
       </c>
       <c r="D131" s="8">
         <v>7500000</v>
@@ -9269,209 +9260,209 @@
         <v>191</v>
       </c>
       <c r="H131" t="s">
-        <v>15</v>
+        <v>37</v>
+      </c>
+      <c r="I131" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>664</v>
+        <v>411</v>
       </c>
       <c r="B132" t="s">
         <v>333</v>
       </c>
       <c r="C132" t="s">
-        <v>853</v>
+        <v>412</v>
       </c>
       <c r="D132" s="8">
-        <v>7500000</v>
+        <v>7300000</v>
       </c>
       <c r="E132" t="s">
-        <v>19</v>
+        <v>413</v>
       </c>
       <c r="F132" t="s">
-        <v>123</v>
+        <v>13</v>
       </c>
       <c r="G132" t="s">
-        <v>191</v>
+        <v>66</v>
       </c>
       <c r="H132" t="s">
-        <v>37</v>
-      </c>
-      <c r="I132" t="s">
-        <v>214</v>
+        <v>884</v>
       </c>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>411</v>
+        <v>471</v>
       </c>
       <c r="B133" t="s">
         <v>333</v>
       </c>
       <c r="C133" t="s">
-        <v>412</v>
+        <v>472</v>
       </c>
       <c r="D133" s="8">
-        <v>7300000</v>
+        <v>7000000</v>
       </c>
       <c r="E133" t="s">
-        <v>413</v>
+        <v>473</v>
       </c>
       <c r="F133" t="s">
         <v>13</v>
       </c>
       <c r="G133" t="s">
-        <v>66</v>
+        <v>94</v>
       </c>
       <c r="H133" t="s">
-        <v>887</v>
+        <v>37</v>
       </c>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>471</v>
+        <v>774</v>
       </c>
       <c r="B134" t="s">
         <v>333</v>
       </c>
       <c r="C134" t="s">
-        <v>472</v>
+        <v>775</v>
       </c>
       <c r="D134" s="8">
         <v>7000000</v>
       </c>
       <c r="E134" t="s">
-        <v>473</v>
+        <v>19</v>
       </c>
       <c r="F134" t="s">
-        <v>13</v>
+        <v>200</v>
       </c>
       <c r="G134" t="s">
-        <v>94</v>
+        <v>205</v>
       </c>
       <c r="H134" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>777</v>
+        <v>721</v>
       </c>
       <c r="B135" t="s">
         <v>333</v>
       </c>
       <c r="C135" t="s">
-        <v>778</v>
-      </c>
-      <c r="D135" s="8">
-        <v>7000000</v>
+        <v>722</v>
+      </c>
+      <c r="D135" s="8" t="s">
+        <v>19</v>
       </c>
       <c r="E135" t="s">
-        <v>19</v>
+        <v>723</v>
       </c>
       <c r="F135" t="s">
         <v>200</v>
       </c>
       <c r="G135" t="s">
-        <v>205</v>
+        <v>219</v>
       </c>
       <c r="H135" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>724</v>
+        <v>554</v>
       </c>
       <c r="B136" t="s">
         <v>333</v>
       </c>
       <c r="C136" t="s">
-        <v>725</v>
-      </c>
-      <c r="D136" s="8" t="s">
-        <v>19</v>
+        <v>555</v>
+      </c>
+      <c r="D136" s="8">
+        <v>6000000</v>
       </c>
       <c r="E136" t="s">
-        <v>726</v>
+        <v>556</v>
       </c>
       <c r="F136" t="s">
-        <v>200</v>
+        <v>123</v>
       </c>
       <c r="G136" t="s">
-        <v>219</v>
+        <v>124</v>
       </c>
       <c r="H136" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>557</v>
+        <v>727</v>
       </c>
       <c r="B137" t="s">
         <v>333</v>
       </c>
       <c r="C137" t="s">
-        <v>558</v>
-      </c>
-      <c r="D137" s="8">
-        <v>6000000</v>
+        <v>728</v>
+      </c>
+      <c r="D137" s="8" t="s">
+        <v>19</v>
       </c>
       <c r="E137" t="s">
-        <v>559</v>
+        <v>729</v>
       </c>
       <c r="F137" t="s">
-        <v>123</v>
+        <v>200</v>
       </c>
       <c r="G137" t="s">
-        <v>124</v>
+        <v>219</v>
       </c>
       <c r="H137" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>730</v>
+        <v>635</v>
       </c>
       <c r="B138" t="s">
         <v>333</v>
       </c>
       <c r="C138" t="s">
-        <v>731</v>
-      </c>
-      <c r="D138" s="8" t="s">
-        <v>19</v>
+        <v>636</v>
+      </c>
+      <c r="D138" s="8">
+        <v>6000000</v>
       </c>
       <c r="E138" t="s">
-        <v>732</v>
+        <v>637</v>
       </c>
       <c r="F138" t="s">
-        <v>200</v>
+        <v>123</v>
       </c>
       <c r="G138" t="s">
-        <v>219</v>
+        <v>191</v>
       </c>
       <c r="H138" t="s">
-        <v>37</v>
+        <v>884</v>
       </c>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>638</v>
+        <v>647</v>
       </c>
       <c r="B139" t="s">
         <v>333</v>
       </c>
       <c r="C139" t="s">
-        <v>639</v>
+        <v>648</v>
       </c>
       <c r="D139" s="8">
         <v>6000000</v>
       </c>
       <c r="E139" t="s">
-        <v>640</v>
+        <v>649</v>
       </c>
       <c r="F139" t="s">
         <v>123</v>
@@ -9480,56 +9471,56 @@
         <v>191</v>
       </c>
       <c r="H139" t="s">
-        <v>887</v>
+        <v>33</v>
       </c>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>650</v>
+        <v>497</v>
       </c>
       <c r="B140" t="s">
         <v>333</v>
       </c>
       <c r="C140" t="s">
-        <v>651</v>
+        <v>498</v>
       </c>
       <c r="D140" s="8">
-        <v>6000000</v>
+        <v>5200000</v>
       </c>
       <c r="E140" t="s">
-        <v>652</v>
+        <v>499</v>
       </c>
       <c r="F140" t="s">
-        <v>123</v>
+        <v>13</v>
       </c>
       <c r="G140" t="s">
-        <v>191</v>
+        <v>94</v>
       </c>
       <c r="H140" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>500</v>
+        <v>355</v>
       </c>
       <c r="B141" t="s">
         <v>333</v>
       </c>
       <c r="C141" t="s">
-        <v>501</v>
+        <v>356</v>
       </c>
       <c r="D141" s="8">
-        <v>5200000</v>
+        <v>5000000</v>
       </c>
       <c r="E141" t="s">
-        <v>502</v>
+        <v>357</v>
       </c>
       <c r="F141" t="s">
         <v>13</v>
       </c>
       <c r="G141" t="s">
-        <v>94</v>
+        <v>14</v>
       </c>
       <c r="H141" t="s">
         <v>15</v>
@@ -9537,25 +9528,25 @@
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>355</v>
+        <v>468</v>
       </c>
       <c r="B142" t="s">
         <v>333</v>
       </c>
       <c r="C142" t="s">
-        <v>356</v>
+        <v>469</v>
       </c>
       <c r="D142" s="8">
         <v>5000000</v>
       </c>
       <c r="E142" t="s">
-        <v>357</v>
+        <v>470</v>
       </c>
       <c r="F142" t="s">
         <v>13</v>
       </c>
       <c r="G142" t="s">
-        <v>14</v>
+        <v>94</v>
       </c>
       <c r="H142" t="s">
         <v>15</v>
@@ -9563,42 +9554,42 @@
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>468</v>
+        <v>393</v>
       </c>
       <c r="B143" t="s">
         <v>333</v>
       </c>
       <c r="C143" t="s">
-        <v>469</v>
+        <v>841</v>
       </c>
       <c r="D143" s="8">
         <v>5000000</v>
       </c>
       <c r="E143" t="s">
-        <v>470</v>
+        <v>19</v>
       </c>
       <c r="F143" t="s">
-        <v>13</v>
+        <v>200</v>
       </c>
       <c r="G143" t="s">
-        <v>94</v>
+        <v>205</v>
       </c>
       <c r="H143" t="s">
-        <v>15</v>
+        <v>884</v>
       </c>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>393</v>
+        <v>839</v>
       </c>
       <c r="B144" t="s">
         <v>333</v>
       </c>
       <c r="C144" t="s">
-        <v>844</v>
+        <v>840</v>
       </c>
       <c r="D144" s="8">
-        <v>5000000</v>
+        <v>4875000</v>
       </c>
       <c r="E144" t="s">
         <v>19</v>
@@ -9610,56 +9601,56 @@
         <v>205</v>
       </c>
       <c r="H144" t="s">
-        <v>887</v>
+        <v>41</v>
       </c>
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>842</v>
+        <v>704</v>
       </c>
       <c r="B145" t="s">
         <v>333</v>
       </c>
       <c r="C145" t="s">
-        <v>843</v>
+        <v>705</v>
       </c>
       <c r="D145" s="8">
-        <v>4875000</v>
+        <v>4700000</v>
       </c>
       <c r="E145" t="s">
-        <v>19</v>
+        <v>706</v>
       </c>
       <c r="F145" t="s">
         <v>200</v>
       </c>
       <c r="G145" t="s">
-        <v>205</v>
+        <v>219</v>
       </c>
       <c r="H145" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>707</v>
+        <v>592</v>
       </c>
       <c r="B146" t="s">
         <v>333</v>
       </c>
       <c r="C146" t="s">
-        <v>708</v>
+        <v>593</v>
       </c>
       <c r="D146" s="8">
-        <v>4700000</v>
+        <v>4500000</v>
       </c>
       <c r="E146" t="s">
-        <v>709</v>
+        <v>594</v>
       </c>
       <c r="F146" t="s">
-        <v>200</v>
+        <v>123</v>
       </c>
       <c r="G146" t="s">
-        <v>219</v>
+        <v>158</v>
       </c>
       <c r="H146" t="s">
         <v>33</v>
@@ -9667,19 +9658,19 @@
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>595</v>
+        <v>615</v>
       </c>
       <c r="B147" t="s">
         <v>333</v>
       </c>
       <c r="C147" t="s">
-        <v>596</v>
+        <v>616</v>
       </c>
       <c r="D147" s="8">
         <v>4500000</v>
       </c>
       <c r="E147" t="s">
-        <v>597</v>
+        <v>617</v>
       </c>
       <c r="F147" t="s">
         <v>123</v>
@@ -9688,131 +9679,131 @@
         <v>158</v>
       </c>
       <c r="H147" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>618</v>
+        <v>753</v>
       </c>
       <c r="B148" t="s">
         <v>333</v>
       </c>
       <c r="C148" t="s">
-        <v>619</v>
+        <v>754</v>
       </c>
       <c r="D148" s="8">
         <v>4500000</v>
       </c>
       <c r="E148" t="s">
-        <v>620</v>
+        <v>755</v>
       </c>
       <c r="F148" t="s">
-        <v>123</v>
+        <v>200</v>
       </c>
       <c r="G148" t="s">
-        <v>158</v>
+        <v>289</v>
       </c>
       <c r="H148" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>756</v>
+        <v>848</v>
       </c>
       <c r="B149" t="s">
         <v>333</v>
       </c>
       <c r="C149" t="s">
-        <v>757</v>
+        <v>849</v>
       </c>
       <c r="D149" s="8">
         <v>4500000</v>
       </c>
       <c r="E149" t="s">
-        <v>758</v>
+        <v>19</v>
       </c>
       <c r="F149" t="s">
         <v>200</v>
       </c>
       <c r="G149" t="s">
-        <v>289</v>
+        <v>219</v>
       </c>
       <c r="H149" t="s">
-        <v>33</v>
+        <v>41</v>
+      </c>
+      <c r="I149" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>851</v>
+        <v>606</v>
       </c>
       <c r="B150" t="s">
         <v>333</v>
       </c>
       <c r="C150" t="s">
-        <v>852</v>
+        <v>607</v>
       </c>
       <c r="D150" s="8">
-        <v>4500000</v>
+        <v>4000000</v>
       </c>
       <c r="E150" t="s">
-        <v>19</v>
+        <v>608</v>
       </c>
       <c r="F150" t="s">
-        <v>200</v>
+        <v>123</v>
       </c>
       <c r="G150" t="s">
-        <v>219</v>
+        <v>158</v>
       </c>
       <c r="H150" t="s">
-        <v>41</v>
-      </c>
-      <c r="I150" t="s">
-        <v>214</v>
+        <v>15</v>
       </c>
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>609</v>
+        <v>566</v>
       </c>
       <c r="B151" t="s">
         <v>333</v>
       </c>
       <c r="C151" t="s">
-        <v>610</v>
+        <v>567</v>
       </c>
       <c r="D151" s="8">
-        <v>4000000</v>
+        <v>3175000</v>
       </c>
       <c r="E151" t="s">
-        <v>611</v>
+        <v>568</v>
       </c>
       <c r="F151" t="s">
         <v>123</v>
       </c>
       <c r="G151" t="s">
-        <v>158</v>
+        <v>124</v>
       </c>
       <c r="H151" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>569</v>
+        <v>518</v>
       </c>
       <c r="B152" t="s">
         <v>333</v>
       </c>
       <c r="C152" t="s">
-        <v>570</v>
+        <v>519</v>
       </c>
       <c r="D152" s="8">
-        <v>3175000</v>
+        <v>3000000</v>
       </c>
       <c r="E152" t="s">
-        <v>571</v>
+        <v>520</v>
       </c>
       <c r="F152" t="s">
         <v>123</v>
@@ -9821,114 +9812,114 @@
         <v>124</v>
       </c>
       <c r="H152" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>521</v>
+        <v>857</v>
       </c>
       <c r="B153" t="s">
         <v>333</v>
       </c>
       <c r="C153" t="s">
-        <v>522</v>
+        <v>858</v>
       </c>
       <c r="D153" s="8">
         <v>3000000</v>
       </c>
       <c r="E153" t="s">
-        <v>523</v>
+        <v>19</v>
       </c>
       <c r="F153" t="s">
         <v>123</v>
       </c>
       <c r="G153" t="s">
-        <v>124</v>
+        <v>158</v>
       </c>
       <c r="H153" t="s">
-        <v>33</v>
+        <v>15</v>
+      </c>
+      <c r="I153" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>860</v>
+        <v>738</v>
       </c>
       <c r="B154" t="s">
         <v>333</v>
       </c>
       <c r="C154" t="s">
-        <v>861</v>
+        <v>739</v>
       </c>
       <c r="D154" s="8">
-        <v>3000000</v>
+        <v>2857500</v>
       </c>
       <c r="E154" t="s">
-        <v>19</v>
+        <v>740</v>
       </c>
       <c r="F154" t="s">
-        <v>123</v>
+        <v>200</v>
       </c>
       <c r="G154" t="s">
-        <v>158</v>
+        <v>219</v>
       </c>
       <c r="H154" t="s">
-        <v>15</v>
-      </c>
-      <c r="I154" t="s">
-        <v>214</v>
+        <v>33</v>
       </c>
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>741</v>
+        <v>833</v>
       </c>
       <c r="B155" t="s">
         <v>333</v>
       </c>
       <c r="C155" t="s">
-        <v>742</v>
+        <v>834</v>
       </c>
       <c r="D155" s="8">
-        <v>2857500</v>
+        <v>2800000</v>
       </c>
       <c r="E155" t="s">
-        <v>743</v>
+        <v>835</v>
       </c>
       <c r="F155" t="s">
         <v>200</v>
       </c>
       <c r="G155" t="s">
-        <v>219</v>
+        <v>205</v>
       </c>
       <c r="H155" t="s">
-        <v>33</v>
+        <v>60</v>
       </c>
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>836</v>
+        <v>609</v>
       </c>
       <c r="B156" t="s">
         <v>333</v>
       </c>
       <c r="C156" t="s">
-        <v>837</v>
+        <v>610</v>
       </c>
       <c r="D156" s="8">
-        <v>2800000</v>
+        <v>2500000</v>
       </c>
       <c r="E156" t="s">
-        <v>838</v>
+        <v>611</v>
       </c>
       <c r="F156" t="s">
-        <v>200</v>
+        <v>123</v>
       </c>
       <c r="G156" t="s">
-        <v>205</v>
+        <v>158</v>
       </c>
       <c r="H156" t="s">
-        <v>60</v>
+        <v>15</v>
       </c>
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.25">
@@ -9954,180 +9945,180 @@
         <v>158</v>
       </c>
       <c r="H157" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>615</v>
+        <v>730</v>
       </c>
       <c r="B158" t="s">
         <v>333</v>
       </c>
       <c r="C158" t="s">
-        <v>616</v>
+        <v>731</v>
       </c>
       <c r="D158" s="8">
         <v>2500000</v>
       </c>
       <c r="E158" t="s">
-        <v>617</v>
+        <v>732</v>
       </c>
       <c r="F158" t="s">
-        <v>123</v>
+        <v>200</v>
       </c>
       <c r="G158" t="s">
-        <v>158</v>
+        <v>219</v>
       </c>
       <c r="H158" t="s">
-        <v>37</v>
+        <v>884</v>
       </c>
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>733</v>
+        <v>432</v>
       </c>
       <c r="B159" t="s">
         <v>333</v>
       </c>
       <c r="C159" t="s">
-        <v>734</v>
+        <v>433</v>
       </c>
       <c r="D159" s="8">
-        <v>2500000</v>
+        <v>2300000</v>
       </c>
       <c r="E159" t="s">
-        <v>735</v>
+        <v>434</v>
       </c>
       <c r="F159" t="s">
-        <v>200</v>
+        <v>13</v>
       </c>
       <c r="G159" t="s">
-        <v>219</v>
+        <v>66</v>
       </c>
       <c r="H159" t="s">
-        <v>887</v>
+        <v>37</v>
       </c>
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>432</v>
+        <v>666</v>
       </c>
       <c r="B160" t="s">
         <v>333</v>
       </c>
       <c r="C160" t="s">
-        <v>433</v>
+        <v>667</v>
       </c>
       <c r="D160" s="8">
         <v>2300000</v>
       </c>
       <c r="E160" t="s">
-        <v>434</v>
+        <v>668</v>
       </c>
       <c r="F160" t="s">
-        <v>13</v>
+        <v>123</v>
       </c>
       <c r="G160" t="s">
-        <v>66</v>
+        <v>191</v>
       </c>
       <c r="H160" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>669</v>
+        <v>741</v>
       </c>
       <c r="B161" t="s">
         <v>333</v>
       </c>
       <c r="C161" t="s">
-        <v>670</v>
+        <v>742</v>
       </c>
       <c r="D161" s="8">
         <v>2300000</v>
       </c>
       <c r="E161" t="s">
-        <v>671</v>
+        <v>743</v>
       </c>
       <c r="F161" t="s">
-        <v>123</v>
+        <v>200</v>
       </c>
       <c r="G161" t="s">
-        <v>191</v>
+        <v>219</v>
       </c>
       <c r="H161" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="162" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>744</v>
+        <v>426</v>
       </c>
       <c r="B162" t="s">
         <v>333</v>
       </c>
       <c r="C162" t="s">
-        <v>745</v>
+        <v>427</v>
       </c>
       <c r="D162" s="8">
-        <v>2300000</v>
+        <v>2000000</v>
       </c>
       <c r="E162" t="s">
-        <v>746</v>
+        <v>428</v>
       </c>
       <c r="F162" t="s">
-        <v>200</v>
+        <v>13</v>
       </c>
       <c r="G162" t="s">
-        <v>219</v>
+        <v>66</v>
       </c>
       <c r="H162" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
     </row>
     <row r="163" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>426</v>
+        <v>515</v>
       </c>
       <c r="B163" t="s">
         <v>333</v>
       </c>
       <c r="C163" t="s">
-        <v>427</v>
+        <v>516</v>
       </c>
       <c r="D163" s="8">
         <v>2000000</v>
       </c>
       <c r="E163" t="s">
-        <v>428</v>
+        <v>517</v>
       </c>
       <c r="F163" t="s">
-        <v>13</v>
+        <v>123</v>
       </c>
       <c r="G163" t="s">
-        <v>66</v>
+        <v>124</v>
       </c>
       <c r="H163" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>518</v>
+        <v>560</v>
       </c>
       <c r="B164" t="s">
         <v>333</v>
       </c>
       <c r="C164" t="s">
-        <v>519</v>
+        <v>561</v>
       </c>
       <c r="D164" s="8">
         <v>2000000</v>
       </c>
       <c r="E164" t="s">
-        <v>520</v>
+        <v>562</v>
       </c>
       <c r="F164" t="s">
         <v>123</v>
@@ -10136,111 +10127,111 @@
         <v>124</v>
       </c>
       <c r="H164" t="s">
-        <v>60</v>
+        <v>15</v>
       </c>
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>563</v>
+        <v>670</v>
       </c>
       <c r="B165" t="s">
         <v>333</v>
       </c>
       <c r="C165" t="s">
-        <v>564</v>
+        <v>671</v>
       </c>
       <c r="D165" s="8">
         <v>2000000</v>
       </c>
       <c r="E165" t="s">
-        <v>565</v>
+        <v>672</v>
       </c>
       <c r="F165" t="s">
-        <v>123</v>
+        <v>200</v>
       </c>
       <c r="G165" t="s">
-        <v>124</v>
+        <v>219</v>
       </c>
       <c r="H165" t="s">
-        <v>15</v>
+        <v>884</v>
       </c>
     </row>
     <row r="166" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>673</v>
+        <v>851</v>
       </c>
       <c r="B166" t="s">
         <v>333</v>
       </c>
       <c r="C166" t="s">
-        <v>674</v>
+        <v>852</v>
       </c>
       <c r="D166" s="8">
         <v>2000000</v>
       </c>
       <c r="E166" t="s">
-        <v>675</v>
+        <v>853</v>
       </c>
       <c r="F166" t="s">
-        <v>200</v>
+        <v>13</v>
       </c>
       <c r="G166" t="s">
-        <v>219</v>
+        <v>94</v>
       </c>
       <c r="H166" t="s">
-        <v>887</v>
+        <v>41</v>
+      </c>
+      <c r="I166" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="167" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>854</v>
+        <v>663</v>
       </c>
       <c r="B167" t="s">
         <v>333</v>
       </c>
       <c r="C167" t="s">
-        <v>855</v>
+        <v>664</v>
       </c>
       <c r="D167" s="8">
-        <v>2000000</v>
+        <v>1800000</v>
       </c>
       <c r="E167" t="s">
-        <v>856</v>
+        <v>665</v>
       </c>
       <c r="F167" t="s">
-        <v>13</v>
+        <v>123</v>
       </c>
       <c r="G167" t="s">
-        <v>94</v>
+        <v>191</v>
       </c>
       <c r="H167" t="s">
-        <v>41</v>
-      </c>
-      <c r="I167" t="s">
-        <v>214</v>
+        <v>37</v>
       </c>
     </row>
     <row r="168" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>666</v>
+        <v>503</v>
       </c>
       <c r="B168" t="s">
         <v>333</v>
       </c>
       <c r="C168" t="s">
-        <v>667</v>
+        <v>504</v>
       </c>
       <c r="D168" s="8">
-        <v>1800000</v>
+        <v>1700000</v>
       </c>
       <c r="E168" t="s">
-        <v>668</v>
+        <v>505</v>
       </c>
       <c r="F168" t="s">
         <v>123</v>
       </c>
       <c r="G168" t="s">
-        <v>191</v>
+        <v>124</v>
       </c>
       <c r="H168" t="s">
         <v>37</v>
@@ -10248,77 +10239,77 @@
     </row>
     <row r="169" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>506</v>
+        <v>364</v>
       </c>
       <c r="B169" t="s">
         <v>333</v>
       </c>
       <c r="C169" t="s">
-        <v>507</v>
+        <v>365</v>
       </c>
       <c r="D169" s="8">
-        <v>1700000</v>
+        <v>1600000</v>
       </c>
       <c r="E169" t="s">
-        <v>508</v>
+        <v>366</v>
       </c>
       <c r="F169" t="s">
-        <v>123</v>
+        <v>13</v>
       </c>
       <c r="G169" t="s">
-        <v>124</v>
+        <v>14</v>
       </c>
       <c r="H169" t="s">
-        <v>37</v>
+        <v>884</v>
       </c>
     </row>
     <row r="170" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>364</v>
+        <v>623</v>
       </c>
       <c r="B170" t="s">
         <v>333</v>
       </c>
       <c r="C170" t="s">
-        <v>365</v>
+        <v>624</v>
       </c>
       <c r="D170" s="8">
-        <v>1600000</v>
+        <v>1524000</v>
       </c>
       <c r="E170" t="s">
-        <v>366</v>
+        <v>625</v>
       </c>
       <c r="F170" t="s">
-        <v>13</v>
+        <v>123</v>
       </c>
       <c r="G170" t="s">
-        <v>14</v>
+        <v>158</v>
       </c>
       <c r="H170" t="s">
-        <v>887</v>
+        <v>33</v>
       </c>
     </row>
     <row r="171" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>626</v>
+        <v>735</v>
       </c>
       <c r="B171" t="s">
         <v>333</v>
       </c>
       <c r="C171" t="s">
-        <v>627</v>
+        <v>736</v>
       </c>
       <c r="D171" s="8">
-        <v>1524000</v>
+        <v>1440000</v>
       </c>
       <c r="E171" t="s">
-        <v>628</v>
+        <v>737</v>
       </c>
       <c r="F171" t="s">
-        <v>123</v>
+        <v>200</v>
       </c>
       <c r="G171" t="s">
-        <v>158</v>
+        <v>219</v>
       </c>
       <c r="H171" t="s">
         <v>33</v>
@@ -10326,28 +10317,28 @@
     </row>
     <row r="172" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>738</v>
+        <v>827</v>
       </c>
       <c r="B172" t="s">
         <v>333</v>
       </c>
       <c r="C172" t="s">
-        <v>739</v>
-      </c>
-      <c r="D172" s="8">
-        <v>1440000</v>
+        <v>828</v>
+      </c>
+      <c r="D172" s="8" t="s">
+        <v>19</v>
       </c>
       <c r="E172" t="s">
-        <v>740</v>
+        <v>829</v>
       </c>
       <c r="F172" t="s">
         <v>200</v>
       </c>
       <c r="G172" t="s">
-        <v>219</v>
+        <v>205</v>
       </c>
       <c r="H172" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
     </row>
     <row r="173" spans="1:9" x14ac:dyDescent="0.25">
@@ -10373,212 +10364,212 @@
         <v>205</v>
       </c>
       <c r="H173" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
     </row>
     <row r="174" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>833</v>
+        <v>768</v>
       </c>
       <c r="B174" t="s">
         <v>333</v>
       </c>
       <c r="C174" t="s">
-        <v>834</v>
-      </c>
-      <c r="D174" s="8" t="s">
-        <v>19</v>
+        <v>769</v>
+      </c>
+      <c r="D174" s="8">
+        <v>1304000</v>
       </c>
       <c r="E174" t="s">
-        <v>835</v>
+        <v>770</v>
       </c>
       <c r="F174" t="s">
         <v>200</v>
       </c>
       <c r="G174" t="s">
-        <v>205</v>
+        <v>289</v>
       </c>
       <c r="H174" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="175" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>771</v>
+        <v>572</v>
       </c>
       <c r="B175" t="s">
         <v>333</v>
       </c>
       <c r="C175" t="s">
-        <v>772</v>
+        <v>573</v>
       </c>
       <c r="D175" s="8">
-        <v>1304000</v>
+        <v>1270000</v>
       </c>
       <c r="E175" t="s">
-        <v>773</v>
+        <v>574</v>
       </c>
       <c r="F175" t="s">
-        <v>200</v>
+        <v>123</v>
       </c>
       <c r="G175" t="s">
-        <v>289</v>
+        <v>124</v>
       </c>
       <c r="H175" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
     </row>
     <row r="176" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>575</v>
+        <v>821</v>
       </c>
       <c r="B176" t="s">
         <v>333</v>
       </c>
       <c r="C176" t="s">
-        <v>576</v>
+        <v>822</v>
       </c>
       <c r="D176" s="8">
         <v>1270000</v>
       </c>
       <c r="E176" t="s">
-        <v>577</v>
+        <v>823</v>
       </c>
       <c r="F176" t="s">
-        <v>123</v>
+        <v>200</v>
       </c>
       <c r="G176" t="s">
-        <v>124</v>
+        <v>205</v>
       </c>
       <c r="H176" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
     </row>
     <row r="177" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>824</v>
+        <v>393</v>
       </c>
       <c r="B177" t="s">
         <v>333</v>
       </c>
       <c r="C177" t="s">
-        <v>825</v>
+        <v>394</v>
       </c>
       <c r="D177" s="8">
-        <v>1270000</v>
+        <v>1200000</v>
       </c>
       <c r="E177" t="s">
-        <v>826</v>
+        <v>19</v>
       </c>
       <c r="F177" t="s">
-        <v>200</v>
+        <v>13</v>
       </c>
       <c r="G177" t="s">
-        <v>205</v>
+        <v>66</v>
       </c>
       <c r="H177" t="s">
-        <v>37</v>
+        <v>884</v>
       </c>
     </row>
     <row r="178" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>393</v>
+        <v>569</v>
       </c>
       <c r="B178" t="s">
         <v>333</v>
       </c>
       <c r="C178" t="s">
-        <v>394</v>
+        <v>570</v>
       </c>
       <c r="D178" s="8">
         <v>1200000</v>
       </c>
       <c r="E178" t="s">
-        <v>19</v>
+        <v>571</v>
       </c>
       <c r="F178" t="s">
-        <v>13</v>
+        <v>123</v>
       </c>
       <c r="G178" t="s">
-        <v>66</v>
+        <v>124</v>
       </c>
       <c r="H178" t="s">
-        <v>887</v>
+        <v>37</v>
       </c>
     </row>
     <row r="179" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>572</v>
+        <v>712</v>
       </c>
       <c r="B179" t="s">
         <v>333</v>
       </c>
       <c r="C179" t="s">
-        <v>573</v>
+        <v>713</v>
       </c>
       <c r="D179" s="8">
         <v>1200000</v>
       </c>
       <c r="E179" t="s">
-        <v>574</v>
+        <v>714</v>
       </c>
       <c r="F179" t="s">
-        <v>123</v>
+        <v>200</v>
       </c>
       <c r="G179" t="s">
-        <v>124</v>
+        <v>219</v>
       </c>
       <c r="H179" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
     </row>
     <row r="180" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>715</v>
+        <v>644</v>
       </c>
       <c r="B180" t="s">
         <v>333</v>
       </c>
       <c r="C180" t="s">
-        <v>716</v>
+        <v>645</v>
       </c>
       <c r="D180" s="8">
-        <v>1200000</v>
+        <v>1180000</v>
       </c>
       <c r="E180" t="s">
-        <v>717</v>
+        <v>646</v>
       </c>
       <c r="F180" t="s">
-        <v>200</v>
+        <v>123</v>
       </c>
       <c r="G180" t="s">
-        <v>219</v>
+        <v>191</v>
       </c>
       <c r="H180" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
     </row>
     <row r="181" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>647</v>
+        <v>597</v>
       </c>
       <c r="B181" t="s">
         <v>333</v>
       </c>
       <c r="C181" t="s">
-        <v>648</v>
+        <v>598</v>
       </c>
       <c r="D181" s="8">
-        <v>1180000</v>
+        <v>900000</v>
       </c>
       <c r="E181" t="s">
-        <v>649</v>
+        <v>599</v>
       </c>
       <c r="F181" t="s">
         <v>123</v>
       </c>
       <c r="G181" t="s">
-        <v>191</v>
+        <v>158</v>
       </c>
       <c r="H181" t="s">
         <v>33</v>
@@ -10586,172 +10577,175 @@
     </row>
     <row r="182" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>600</v>
+        <v>771</v>
       </c>
       <c r="B182" t="s">
         <v>333</v>
       </c>
       <c r="C182" t="s">
-        <v>601</v>
+        <v>772</v>
       </c>
       <c r="D182" s="8">
-        <v>900000</v>
+        <v>400000</v>
       </c>
       <c r="E182" t="s">
-        <v>602</v>
+        <v>773</v>
       </c>
       <c r="F182" t="s">
-        <v>123</v>
+        <v>200</v>
       </c>
       <c r="G182" t="s">
-        <v>158</v>
+        <v>289</v>
       </c>
       <c r="H182" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
     </row>
     <row r="183" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>774</v>
+        <v>655</v>
       </c>
       <c r="B183" t="s">
         <v>333</v>
       </c>
       <c r="C183" t="s">
-        <v>775</v>
+        <v>656</v>
       </c>
       <c r="D183" s="8">
-        <v>400000</v>
+        <v>370000</v>
       </c>
       <c r="E183" t="s">
-        <v>776</v>
+        <v>657</v>
       </c>
       <c r="F183" t="s">
-        <v>200</v>
+        <v>123</v>
       </c>
       <c r="G183" t="s">
-        <v>289</v>
+        <v>191</v>
       </c>
       <c r="H183" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="184" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>658</v>
+        <v>824</v>
       </c>
       <c r="B184" t="s">
         <v>333</v>
       </c>
       <c r="C184" t="s">
-        <v>659</v>
+        <v>825</v>
       </c>
       <c r="D184" s="8">
-        <v>370000</v>
+        <v>323850</v>
       </c>
       <c r="E184" t="s">
-        <v>660</v>
+        <v>826</v>
       </c>
       <c r="F184" t="s">
-        <v>123</v>
+        <v>200</v>
       </c>
       <c r="G184" t="s">
-        <v>191</v>
+        <v>205</v>
       </c>
       <c r="H184" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="185" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>827</v>
+        <v>709</v>
       </c>
       <c r="B185" t="s">
         <v>333</v>
       </c>
       <c r="C185" t="s">
-        <v>828</v>
+        <v>710</v>
       </c>
       <c r="D185" s="8">
-        <v>323850</v>
+        <v>250000</v>
       </c>
       <c r="E185" t="s">
-        <v>829</v>
+        <v>711</v>
       </c>
       <c r="F185" t="s">
         <v>200</v>
       </c>
       <c r="G185" t="s">
-        <v>205</v>
+        <v>219</v>
       </c>
       <c r="H185" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
     </row>
     <row r="186" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>712</v>
+        <v>578</v>
       </c>
       <c r="B186" t="s">
         <v>333</v>
       </c>
       <c r="C186" t="s">
-        <v>713</v>
+        <v>579</v>
       </c>
       <c r="D186" s="8">
-        <v>250000</v>
+        <v>200000</v>
       </c>
       <c r="E186" t="s">
-        <v>714</v>
+        <v>580</v>
       </c>
       <c r="F186" t="s">
-        <v>200</v>
+        <v>123</v>
       </c>
       <c r="G186" t="s">
-        <v>219</v>
+        <v>124</v>
       </c>
       <c r="H186" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
     </row>
     <row r="187" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>581</v>
+        <v>653</v>
       </c>
       <c r="B187" t="s">
         <v>333</v>
       </c>
       <c r="C187" t="s">
-        <v>582</v>
+        <v>856</v>
       </c>
       <c r="D187" s="8">
-        <v>200000</v>
+        <v>29400000</v>
       </c>
       <c r="E187" t="s">
-        <v>583</v>
+        <v>19</v>
       </c>
       <c r="F187" t="s">
         <v>123</v>
       </c>
       <c r="G187" t="s">
-        <v>124</v>
+        <v>191</v>
       </c>
       <c r="H187" t="s">
-        <v>41</v>
+        <v>884</v>
+      </c>
+      <c r="I187" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="188" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>656</v>
+        <v>857</v>
       </c>
       <c r="B188" t="s">
         <v>333</v>
       </c>
       <c r="C188" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="D188" s="8">
-        <v>29400000</v>
+        <v>3000000</v>
       </c>
       <c r="E188" t="s">
         <v>19</v>
@@ -10760,41 +10754,12 @@
         <v>123</v>
       </c>
       <c r="G188" t="s">
-        <v>191</v>
+        <v>158</v>
       </c>
       <c r="H188" t="s">
-        <v>887</v>
+        <v>15</v>
       </c>
       <c r="I188" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A189" t="s">
-        <v>860</v>
-      </c>
-      <c r="B189" t="s">
-        <v>333</v>
-      </c>
-      <c r="C189" t="s">
-        <v>861</v>
-      </c>
-      <c r="D189" s="8">
-        <v>3000000</v>
-      </c>
-      <c r="E189" t="s">
-        <v>19</v>
-      </c>
-      <c r="F189" t="s">
-        <v>123</v>
-      </c>
-      <c r="G189" t="s">
-        <v>158</v>
-      </c>
-      <c r="H189" t="s">
-        <v>15</v>
-      </c>
-      <c r="I189" t="s">
         <v>214</v>
       </c>
     </row>
@@ -10826,36 +10791,36 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>884</v>
+        <v>881</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>883</v>
+        <v>880</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>882</v>
+        <v>879</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>881</v>
+        <v>878</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>880</v>
+        <v>877</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>879</v>
+        <v>876</v>
       </c>
       <c r="B2" t="s">
-        <v>864</v>
+        <v>861</v>
       </c>
       <c r="C2" t="s">
-        <v>878</v>
+        <v>875</v>
       </c>
       <c r="D2" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
       <c r="E2" s="3">
         <v>17000000</v>
@@ -10872,13 +10837,13 @@
         <v>453</v>
       </c>
       <c r="B3" t="s">
-        <v>864</v>
+        <v>861</v>
       </c>
       <c r="C3" t="s">
-        <v>876</v>
+        <v>873</v>
       </c>
       <c r="D3" t="s">
-        <v>875</v>
+        <v>872</v>
       </c>
       <c r="E3" s="3">
         <v>75000000</v>
@@ -10892,16 +10857,16 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>874</v>
+        <v>871</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>864</v>
+        <v>861</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>873</v>
+        <v>870</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>865</v>
+        <v>862</v>
       </c>
       <c r="E4" s="9">
         <v>235000000</v>
@@ -10915,16 +10880,16 @@
     </row>
     <row r="5" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>872</v>
+        <v>869</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>864</v>
+        <v>861</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>871</v>
+        <v>868</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>865</v>
+        <v>862</v>
       </c>
       <c r="E5" s="9">
         <v>232000000</v>
@@ -10938,16 +10903,16 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>870</v>
+        <v>867</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>864</v>
+        <v>861</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>869</v>
+        <v>866</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>865</v>
+        <v>862</v>
       </c>
       <c r="E6" s="9">
         <v>494000000</v>
@@ -10961,16 +10926,16 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>864</v>
+        <v>861</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>868</v>
+        <v>865</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>865</v>
+        <v>862</v>
       </c>
       <c r="E7" s="9">
         <v>28000000</v>
@@ -10984,16 +10949,16 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>867</v>
+        <v>864</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>864</v>
+        <v>861</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>865</v>
+        <v>862</v>
       </c>
       <c r="E8" s="9">
         <v>101000000</v>
@@ -11007,16 +10972,16 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>864</v>
+        <v>861</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>863</v>
+        <v>860</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>862</v>
+        <v>859</v>
       </c>
       <c r="E9" s="9">
         <v>364000000</v>

--- a/MedTech_Deals.xlsx
+++ b/MedTech_Deals.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://beacononehcp-my.sharepoint.com/personal/hannah_peric_beacononehcp_com/Documents/Documents/medtech-dashboard/medtech-dashboard/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="51" documentId="13_ncr:1_{A8E36CAE-087B-4CF0-B739-AC648A6297F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C131FA8C-E5B9-4217-8BDE-1279CDAB5E0A}"/>
+  <xr:revisionPtr revIDLastSave="61" documentId="13_ncr:1_{A8E36CAE-087B-4CF0-B739-AC648A6297F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{443E38B8-A9AE-4722-853E-DC1DC36E403C}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="YTD M&amp;A Activity" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2195" uniqueCount="885">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2202" uniqueCount="888">
   <si>
     <t>Company</t>
   </si>
@@ -2680,6 +2680,15 @@
   </si>
   <si>
     <t>Cardiovascular</t>
+  </si>
+  <si>
+    <t>Clario integrates clinical trial endpoint data from devices, sites and patients. The company is expected to complement Thermo’s existing clinical research services, and to drive costs out of the drug development process for customers</t>
+  </si>
+  <si>
+    <t>R&amp;D</t>
+  </si>
+  <si>
+    <t>Clario</t>
   </si>
 </sst>
 </file>
@@ -3088,10 +3097,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I104"/>
+  <dimension ref="A1:I105"/>
   <sheetViews>
-    <sheetView topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="B87" sqref="B87"/>
+    <sheetView tabSelected="1" topLeftCell="A72" workbookViewId="0">
+      <selection activeCell="B105" sqref="B105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3100,7 +3109,7 @@
     <col min="2" max="2" width="23.5703125" customWidth="1"/>
     <col min="3" max="3" width="11.85546875" customWidth="1"/>
     <col min="4" max="4" width="102.28515625" customWidth="1"/>
-    <col min="5" max="5" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="25.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -5818,6 +5827,32 @@
       </c>
       <c r="I104" t="s">
         <v>214</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>887</v>
+      </c>
+      <c r="B105" t="s">
+        <v>83</v>
+      </c>
+      <c r="C105" t="s">
+        <v>11</v>
+      </c>
+      <c r="D105" t="s">
+        <v>885</v>
+      </c>
+      <c r="E105" s="6">
+        <v>8900000000</v>
+      </c>
+      <c r="F105" t="s">
+        <v>251</v>
+      </c>
+      <c r="G105" t="s">
+        <v>201</v>
+      </c>
+      <c r="H105" t="s">
+        <v>886</v>
       </c>
     </row>
   </sheetData>
@@ -5834,8 +5869,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I188"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView topLeftCell="A162" workbookViewId="0">
+      <selection activeCell="A191" sqref="A191:A192"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/MedTech_Deals.xlsx
+++ b/MedTech_Deals.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://beacononehcp-my.sharepoint.com/personal/hannah_peric_beacononehcp_com/Documents/Documents/medtech-dashboard/medtech-dashboard/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="61" documentId="13_ncr:1_{A8E36CAE-087B-4CF0-B739-AC648A6297F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{443E38B8-A9AE-4722-853E-DC1DC36E403C}"/>
+  <xr:revisionPtr revIDLastSave="66" documentId="13_ncr:1_{A8E36CAE-087B-4CF0-B739-AC648A6297F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{05FAD60F-6F3A-4B6A-AED0-E6D6FBC51689}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5869,15 +5869,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I188"/>
   <sheetViews>
-    <sheetView topLeftCell="A162" workbookViewId="0">
-      <selection activeCell="A191" sqref="A191:A192"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.5703125" customWidth="1"/>
+    <col min="3" max="3" width="74.28515625" customWidth="1"/>
     <col min="4" max="4" width="14.5703125" style="8" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="25.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="22.28515625" bestFit="1" customWidth="1"/>
@@ -6039,7 +6039,7 @@
         <v>94</v>
       </c>
       <c r="H6" t="s">
-        <v>15</v>
+        <v>886</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -6117,7 +6117,7 @@
         <v>14</v>
       </c>
       <c r="H9" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -6325,7 +6325,7 @@
         <v>14</v>
       </c>
       <c r="H17" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">

--- a/MedTech_Deals.xlsx
+++ b/MedTech_Deals.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://beacononehcp-my.sharepoint.com/personal/hannah_peric_beacononehcp_com/Documents/Documents/medtech-dashboard/medtech-dashboard/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="66" documentId="13_ncr:1_{A8E36CAE-087B-4CF0-B739-AC648A6297F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{05FAD60F-6F3A-4B6A-AED0-E6D6FBC51689}"/>
+  <xr:revisionPtr revIDLastSave="150" documentId="13_ncr:1_{A8E36CAE-087B-4CF0-B739-AC648A6297F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4E8B7B18-AE8E-4E40-8CE2-F10934E3E027}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="YTD M&amp;A Activity" sheetId="1" r:id="rId1"/>
@@ -18,14 +18,15 @@
     <sheet name="YTD IPO" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'YTD M&amp;A Activity'!$A$1:$I$104</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'YTD Investment Activity'!$A$1:$I$181</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'YTD M&amp;A Activity'!$A$1:$I$105</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2202" uniqueCount="888">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2151" uniqueCount="885">
   <si>
     <t>Company</t>
   </si>
@@ -1989,9 +1990,6 @@
     <t>Atraverse Medical</t>
   </si>
   <si>
-    <t>Transeptal access solutions for left-heart access</t>
-  </si>
-  <si>
     <t>Vessl Prosthetics</t>
   </si>
   <si>
@@ -2091,9 +2089,6 @@
     <t>Big Pi Ventures (led), Endeavor Catalyst, White Star Capital, Novartis Partners</t>
   </si>
   <si>
-    <t>HSBC Innovation Banking</t>
-  </si>
-  <si>
     <t>NovaDermis</t>
   </si>
   <si>
@@ -2112,15 +2107,9 @@
     <t>BPIF Life Sciences (led), US Venture Partners, Armada ETR Venture Partners, Stechuch Asset Management, Australian Venture</t>
   </si>
   <si>
-    <t>ADTEC</t>
-  </si>
-  <si>
     <t>Cold plasma for infection control applications</t>
   </si>
   <si>
-    <t>AIPO Fund (led), SEI Biomedical</t>
-  </si>
-  <si>
     <t>Kardium</t>
   </si>
   <si>
@@ -2331,15 +2320,6 @@
     <t>IQ Capital (led), B&amp;IG Ventures (led), new and returning strategic investors</t>
   </si>
   <si>
-    <t>panda</t>
-  </si>
-  <si>
-    <t>Next-generation handheld robotics platform for neurosurgeons</t>
-  </si>
-  <si>
-    <t>Oxford Investment Consultants (led), Octopus Ventures (led), IQ Biovator (co-led), US and European unnamed agents</t>
-  </si>
-  <si>
     <t>Navigation Sciences</t>
   </si>
   <si>
@@ -2689,6 +2669,18 @@
   </si>
   <si>
     <t>Clario</t>
+  </si>
+  <si>
+    <t>Opthalmology</t>
+  </si>
+  <si>
+    <t>Neurology</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ophthalmology </t>
+  </si>
+  <si>
+    <t>Ophthalmology</t>
   </si>
 </sst>
 </file>
@@ -3099,8 +3091,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A72" workbookViewId="0">
-      <selection activeCell="B105" sqref="B105"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3109,7 +3101,8 @@
     <col min="2" max="2" width="23.5703125" customWidth="1"/>
     <col min="3" max="3" width="11.85546875" customWidth="1"/>
     <col min="4" max="4" width="102.28515625" customWidth="1"/>
-    <col min="5" max="5" width="18" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18" customWidth="1"/>
+    <col min="6" max="7" width="9.140625" customWidth="1"/>
     <col min="8" max="8" width="25.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3165,7 +3158,7 @@
         <v>201</v>
       </c>
       <c r="H2" t="s">
-        <v>882</v>
+        <v>875</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -3191,7 +3184,7 @@
         <v>14</v>
       </c>
       <c r="H3" t="s">
-        <v>884</v>
+        <v>877</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -3243,7 +3236,7 @@
         <v>14</v>
       </c>
       <c r="H5" t="s">
-        <v>883</v>
+        <v>876</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -3269,7 +3262,7 @@
         <v>14</v>
       </c>
       <c r="H6" t="s">
-        <v>883</v>
+        <v>876</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -3373,7 +3366,7 @@
         <v>14</v>
       </c>
       <c r="H10" t="s">
-        <v>884</v>
+        <v>877</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -3399,7 +3392,7 @@
         <v>14</v>
       </c>
       <c r="H11" t="s">
-        <v>883</v>
+        <v>876</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -3425,7 +3418,7 @@
         <v>14</v>
       </c>
       <c r="H12" t="s">
-        <v>884</v>
+        <v>877</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -3451,7 +3444,7 @@
         <v>14</v>
       </c>
       <c r="H13" t="s">
-        <v>883</v>
+        <v>876</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -3529,7 +3522,7 @@
         <v>14</v>
       </c>
       <c r="H16" t="s">
-        <v>883</v>
+        <v>876</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
@@ -3555,7 +3548,7 @@
         <v>66</v>
       </c>
       <c r="H17" t="s">
-        <v>883</v>
+        <v>876</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
@@ -3659,7 +3652,7 @@
         <v>124</v>
       </c>
       <c r="H21" t="s">
-        <v>15</v>
+        <v>879</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
@@ -3711,7 +3704,7 @@
         <v>66</v>
       </c>
       <c r="H23" t="s">
-        <v>884</v>
+        <v>877</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
@@ -3737,7 +3730,7 @@
         <v>66</v>
       </c>
       <c r="H24" t="s">
-        <v>883</v>
+        <v>876</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
@@ -3873,7 +3866,7 @@
         <v>94</v>
       </c>
       <c r="H29" t="s">
-        <v>884</v>
+        <v>877</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
@@ -3899,7 +3892,7 @@
         <v>94</v>
       </c>
       <c r="H30" t="s">
-        <v>882</v>
+        <v>875</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
@@ -3951,7 +3944,7 @@
         <v>205</v>
       </c>
       <c r="H32" t="s">
-        <v>33</v>
+        <v>881</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
@@ -4055,7 +4048,7 @@
         <v>66</v>
       </c>
       <c r="H36" t="s">
-        <v>884</v>
+        <v>877</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
@@ -4107,7 +4100,7 @@
         <v>124</v>
       </c>
       <c r="H38" t="s">
-        <v>884</v>
+        <v>877</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
@@ -4237,7 +4230,7 @@
         <v>201</v>
       </c>
       <c r="H43" t="s">
-        <v>15</v>
+        <v>882</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
@@ -4263,7 +4256,7 @@
         <v>124</v>
       </c>
       <c r="H44" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
@@ -4341,7 +4334,7 @@
         <v>205</v>
       </c>
       <c r="H47" t="s">
-        <v>884</v>
+        <v>877</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
@@ -4523,7 +4516,7 @@
         <v>14</v>
       </c>
       <c r="H54" t="s">
-        <v>882</v>
+        <v>875</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
@@ -4679,7 +4672,7 @@
         <v>124</v>
       </c>
       <c r="H60" t="s">
-        <v>15</v>
+        <v>882</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
@@ -4757,7 +4750,7 @@
         <v>14</v>
       </c>
       <c r="H63" t="s">
-        <v>883</v>
+        <v>876</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
@@ -4809,7 +4802,7 @@
         <v>158</v>
       </c>
       <c r="H65" t="s">
-        <v>884</v>
+        <v>877</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
@@ -5745,7 +5738,7 @@
         <v>158</v>
       </c>
       <c r="H101" t="s">
-        <v>15</v>
+        <v>882</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.25">
@@ -5831,7 +5824,7 @@
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>887</v>
+        <v>880</v>
       </c>
       <c r="B105" t="s">
         <v>83</v>
@@ -5840,7 +5833,7 @@
         <v>11</v>
       </c>
       <c r="D105" t="s">
-        <v>885</v>
+        <v>878</v>
       </c>
       <c r="E105" s="6">
         <v>8900000000</v>
@@ -5852,11 +5845,11 @@
         <v>201</v>
       </c>
       <c r="H105" t="s">
-        <v>886</v>
+        <v>879</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I104" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <autoFilter ref="A1:I105" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I104">
       <sortCondition descending="1" ref="E1:E104"/>
     </sortState>
@@ -5867,18 +5860,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:I188"/>
+  <dimension ref="A1:I181"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27" customWidth="1"/>
+    <col min="2" max="2" width="8" customWidth="1"/>
     <col min="3" max="3" width="74.28515625" customWidth="1"/>
     <col min="4" max="4" width="14.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" customWidth="1"/>
     <col min="8" max="8" width="25.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="22.28515625" bestFit="1" customWidth="1"/>
   </cols>
@@ -5914,25 +5908,25 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>676</v>
+        <v>358</v>
       </c>
       <c r="B2" t="s">
         <v>333</v>
       </c>
       <c r="C2" t="s">
-        <v>677</v>
-      </c>
-      <c r="D2" s="8">
-        <v>450000000</v>
+        <v>359</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>19</v>
       </c>
       <c r="E2" t="s">
-        <v>678</v>
+        <v>360</v>
       </c>
       <c r="F2" t="s">
-        <v>200</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>219</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
         <v>37</v>
@@ -5940,97 +5934,97 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>800</v>
+        <v>382</v>
       </c>
       <c r="B3" t="s">
         <v>333</v>
       </c>
       <c r="C3" t="s">
-        <v>801</v>
-      </c>
-      <c r="D3" s="8">
-        <v>316700000</v>
+        <v>383</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>19</v>
       </c>
       <c r="E3" t="s">
-        <v>802</v>
+        <v>384</v>
       </c>
       <c r="F3" t="s">
-        <v>200</v>
+        <v>13</v>
       </c>
       <c r="G3" t="s">
-        <v>205</v>
+        <v>14</v>
       </c>
       <c r="H3" t="s">
-        <v>884</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>349</v>
+        <v>429</v>
       </c>
       <c r="B4" t="s">
         <v>333</v>
       </c>
       <c r="C4" t="s">
-        <v>350</v>
-      </c>
-      <c r="D4" s="8">
-        <v>260000000</v>
+        <v>430</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>19</v>
       </c>
       <c r="E4" t="s">
-        <v>351</v>
+        <v>431</v>
       </c>
       <c r="F4" t="s">
         <v>13</v>
       </c>
       <c r="G4" t="s">
-        <v>14</v>
+        <v>66</v>
       </c>
       <c r="H4" t="s">
-        <v>60</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>794</v>
+        <v>438</v>
       </c>
       <c r="B5" t="s">
         <v>333</v>
       </c>
       <c r="C5" t="s">
-        <v>795</v>
-      </c>
-      <c r="D5" s="8">
-        <v>238000000</v>
+        <v>439</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>19</v>
       </c>
       <c r="E5" t="s">
-        <v>796</v>
+        <v>440</v>
       </c>
       <c r="F5" t="s">
-        <v>200</v>
+        <v>13</v>
       </c>
       <c r="G5" t="s">
-        <v>205</v>
+        <v>66</v>
       </c>
       <c r="H5" t="s">
-        <v>41</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="B6" t="s">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="C6" t="s">
-        <v>450</v>
-      </c>
-      <c r="D6" s="8">
-        <v>200000000</v>
+        <v>445</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>19</v>
       </c>
       <c r="E6" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="F6" t="s">
         <v>13</v>
@@ -6039,24 +6033,24 @@
         <v>94</v>
       </c>
       <c r="H6" t="s">
-        <v>886</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>506</v>
+        <v>539</v>
       </c>
       <c r="B7" t="s">
         <v>333</v>
       </c>
       <c r="C7" t="s">
-        <v>507</v>
-      </c>
-      <c r="D7" s="8">
-        <v>200000000</v>
+        <v>540</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>19</v>
       </c>
       <c r="E7" t="s">
-        <v>508</v>
+        <v>541</v>
       </c>
       <c r="F7" t="s">
         <v>123</v>
@@ -6065,134 +6059,134 @@
         <v>124</v>
       </c>
       <c r="H7" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>447</v>
+        <v>548</v>
       </c>
       <c r="B8" t="s">
         <v>333</v>
       </c>
       <c r="C8" t="s">
-        <v>448</v>
-      </c>
-      <c r="D8" s="8">
-        <v>175000000</v>
+        <v>549</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>19</v>
       </c>
       <c r="E8" t="s">
-        <v>92</v>
+        <v>550</v>
       </c>
       <c r="F8" t="s">
-        <v>13</v>
+        <v>123</v>
       </c>
       <c r="G8" t="s">
-        <v>94</v>
+        <v>124</v>
       </c>
       <c r="H8" t="s">
-        <v>884</v>
+        <v>877</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>358</v>
+        <v>230</v>
       </c>
       <c r="B9" t="s">
         <v>333</v>
       </c>
       <c r="C9" t="s">
-        <v>359</v>
+        <v>595</v>
       </c>
       <c r="D9" s="8" t="s">
         <v>19</v>
       </c>
       <c r="E9" t="s">
-        <v>360</v>
+        <v>596</v>
       </c>
       <c r="F9" t="s">
-        <v>13</v>
+        <v>123</v>
       </c>
       <c r="G9" t="s">
-        <v>14</v>
+        <v>158</v>
       </c>
       <c r="H9" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>803</v>
+        <v>600</v>
       </c>
       <c r="B10" t="s">
         <v>333</v>
       </c>
       <c r="C10" t="s">
-        <v>804</v>
-      </c>
-      <c r="D10" s="8">
-        <v>170000000</v>
+        <v>601</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>19</v>
       </c>
       <c r="E10" t="s">
-        <v>805</v>
+        <v>602</v>
       </c>
       <c r="F10" t="s">
-        <v>200</v>
+        <v>123</v>
       </c>
       <c r="G10" t="s">
-        <v>205</v>
+        <v>158</v>
       </c>
       <c r="H10" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>788</v>
+        <v>618</v>
       </c>
       <c r="B11" t="s">
         <v>333</v>
       </c>
       <c r="C11" t="s">
-        <v>789</v>
-      </c>
-      <c r="D11" s="8">
-        <v>162500000</v>
+        <v>619</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>19</v>
       </c>
       <c r="E11" t="s">
-        <v>790</v>
+        <v>19</v>
       </c>
       <c r="F11" t="s">
-        <v>200</v>
+        <v>123</v>
       </c>
       <c r="G11" t="s">
-        <v>205</v>
+        <v>158</v>
       </c>
       <c r="H11" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>211</v>
+        <v>620</v>
       </c>
       <c r="B12" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="C12" t="s">
-        <v>406</v>
-      </c>
-      <c r="D12" s="8">
-        <v>142000000</v>
+        <v>621</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>19</v>
       </c>
       <c r="E12" t="s">
-        <v>407</v>
+        <v>622</v>
       </c>
       <c r="F12" t="s">
-        <v>13</v>
+        <v>123</v>
       </c>
       <c r="G12" t="s">
-        <v>66</v>
+        <v>158</v>
       </c>
       <c r="H12" t="s">
         <v>15</v>
@@ -6200,201 +6194,201 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>806</v>
+        <v>629</v>
       </c>
       <c r="B13" t="s">
         <v>333</v>
       </c>
       <c r="C13" t="s">
-        <v>807</v>
-      </c>
-      <c r="D13" s="8">
-        <v>130000000</v>
+        <v>630</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>19</v>
       </c>
       <c r="E13" t="s">
-        <v>808</v>
+        <v>631</v>
       </c>
       <c r="F13" t="s">
-        <v>200</v>
+        <v>123</v>
       </c>
       <c r="G13" t="s">
-        <v>205</v>
+        <v>191</v>
       </c>
       <c r="H13" t="s">
-        <v>15</v>
+        <v>877</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>332</v>
+        <v>632</v>
       </c>
       <c r="B14" t="s">
         <v>333</v>
       </c>
       <c r="C14" t="s">
-        <v>334</v>
-      </c>
-      <c r="D14" s="8">
-        <v>120000000</v>
+        <v>633</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>19</v>
       </c>
       <c r="E14" t="s">
-        <v>335</v>
+        <v>634</v>
       </c>
       <c r="F14" t="s">
-        <v>13</v>
+        <v>123</v>
       </c>
       <c r="G14" t="s">
-        <v>14</v>
+        <v>191</v>
       </c>
       <c r="H14" t="s">
-        <v>884</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>336</v>
+        <v>657</v>
       </c>
       <c r="B15" t="s">
         <v>333</v>
       </c>
       <c r="C15" t="s">
-        <v>337</v>
-      </c>
-      <c r="D15" s="8">
-        <v>120000000</v>
+        <v>658</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>19</v>
       </c>
       <c r="E15" t="s">
-        <v>19</v>
+        <v>659</v>
       </c>
       <c r="F15" t="s">
-        <v>13</v>
+        <v>123</v>
       </c>
       <c r="G15" t="s">
-        <v>14</v>
+        <v>191</v>
       </c>
       <c r="H15" t="s">
-        <v>41</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>465</v>
+        <v>672</v>
       </c>
       <c r="B16" t="s">
         <v>333</v>
       </c>
       <c r="C16" t="s">
-        <v>466</v>
-      </c>
-      <c r="D16" s="8">
-        <v>120000000</v>
+        <v>673</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>19</v>
       </c>
       <c r="E16" t="s">
-        <v>467</v>
+        <v>674</v>
       </c>
       <c r="F16" t="s">
-        <v>13</v>
+        <v>200</v>
       </c>
       <c r="G16" t="s">
-        <v>94</v>
+        <v>219</v>
       </c>
       <c r="H16" t="s">
-        <v>884</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>382</v>
+        <v>717</v>
       </c>
       <c r="B17" t="s">
         <v>333</v>
       </c>
       <c r="C17" t="s">
-        <v>383</v>
+        <v>718</v>
       </c>
       <c r="D17" s="8" t="s">
         <v>19</v>
       </c>
       <c r="E17" t="s">
-        <v>384</v>
+        <v>719</v>
       </c>
       <c r="F17" t="s">
-        <v>13</v>
+        <v>200</v>
       </c>
       <c r="G17" t="s">
-        <v>14</v>
+        <v>219</v>
       </c>
       <c r="H17" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>782</v>
+        <v>723</v>
       </c>
       <c r="B18" t="s">
         <v>333</v>
       </c>
       <c r="C18" t="s">
-        <v>783</v>
-      </c>
-      <c r="D18" s="8">
-        <v>120000000</v>
+        <v>724</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>19</v>
       </c>
       <c r="E18" t="s">
-        <v>784</v>
+        <v>725</v>
       </c>
       <c r="F18" t="s">
         <v>200</v>
       </c>
       <c r="G18" t="s">
-        <v>205</v>
+        <v>219</v>
       </c>
       <c r="H18" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>376</v>
+        <v>820</v>
       </c>
       <c r="B19" t="s">
         <v>333</v>
       </c>
       <c r="C19" t="s">
-        <v>377</v>
-      </c>
-      <c r="D19" s="8">
-        <v>115000000</v>
+        <v>821</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>19</v>
       </c>
       <c r="E19" t="s">
-        <v>378</v>
+        <v>822</v>
       </c>
       <c r="F19" t="s">
-        <v>13</v>
+        <v>200</v>
       </c>
       <c r="G19" t="s">
-        <v>14</v>
+        <v>205</v>
       </c>
       <c r="H19" t="s">
-        <v>452</v>
+        <v>23</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>809</v>
+        <v>823</v>
       </c>
       <c r="B20" t="s">
         <v>333</v>
       </c>
       <c r="C20" t="s">
-        <v>810</v>
-      </c>
-      <c r="D20" s="8">
-        <v>110000000</v>
+        <v>824</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>811</v>
+        <v>825</v>
       </c>
       <c r="F20" t="s">
         <v>200</v>
@@ -6403,232 +6397,232 @@
         <v>205</v>
       </c>
       <c r="H20" t="s">
-        <v>884</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>815</v>
+        <v>675</v>
       </c>
       <c r="B21" t="s">
         <v>333</v>
       </c>
       <c r="C21" t="s">
-        <v>816</v>
+        <v>676</v>
       </c>
       <c r="D21" s="8">
-        <v>104000000</v>
+        <v>450000000</v>
       </c>
       <c r="E21" t="s">
-        <v>817</v>
+        <v>677</v>
       </c>
       <c r="F21" t="s">
         <v>200</v>
       </c>
       <c r="G21" t="s">
-        <v>205</v>
+        <v>219</v>
       </c>
       <c r="H21" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>338</v>
+        <v>793</v>
       </c>
       <c r="B22" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="C22" t="s">
-        <v>340</v>
+        <v>794</v>
       </c>
       <c r="D22" s="8">
-        <v>100000000</v>
+        <v>316700000</v>
       </c>
       <c r="E22" t="s">
-        <v>341</v>
+        <v>795</v>
       </c>
       <c r="F22" t="s">
-        <v>13</v>
+        <v>200</v>
       </c>
       <c r="G22" t="s">
-        <v>14</v>
+        <v>205</v>
       </c>
       <c r="H22" t="s">
-        <v>15</v>
+        <v>877</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>395</v>
+        <v>349</v>
       </c>
       <c r="B23" t="s">
         <v>333</v>
       </c>
       <c r="C23" t="s">
-        <v>396</v>
+        <v>350</v>
       </c>
       <c r="D23" s="8">
-        <v>100000000</v>
+        <v>260000000</v>
       </c>
       <c r="E23" t="s">
-        <v>397</v>
+        <v>351</v>
       </c>
       <c r="F23" t="s">
         <v>13</v>
       </c>
       <c r="G23" t="s">
-        <v>66</v>
+        <v>14</v>
       </c>
       <c r="H23" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>441</v>
+        <v>787</v>
       </c>
       <c r="B24" t="s">
         <v>333</v>
       </c>
       <c r="C24" t="s">
-        <v>442</v>
+        <v>788</v>
       </c>
       <c r="D24" s="8">
-        <v>100000000</v>
+        <v>238000000</v>
       </c>
       <c r="E24" t="s">
-        <v>443</v>
+        <v>789</v>
       </c>
       <c r="F24" t="s">
-        <v>13</v>
+        <v>200</v>
       </c>
       <c r="G24" t="s">
-        <v>94</v>
+        <v>205</v>
       </c>
       <c r="H24" t="s">
-        <v>884</v>
+        <v>41</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>500</v>
+        <v>449</v>
       </c>
       <c r="B25" t="s">
         <v>333</v>
       </c>
       <c r="C25" t="s">
-        <v>501</v>
+        <v>450</v>
       </c>
       <c r="D25" s="8">
-        <v>100000000</v>
+        <v>200000000</v>
       </c>
       <c r="E25" t="s">
-        <v>502</v>
+        <v>451</v>
       </c>
       <c r="F25" t="s">
-        <v>123</v>
+        <v>13</v>
       </c>
       <c r="G25" t="s">
-        <v>124</v>
+        <v>94</v>
       </c>
       <c r="H25" t="s">
-        <v>41</v>
+        <v>879</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>836</v>
+        <v>506</v>
       </c>
       <c r="B26" t="s">
         <v>333</v>
       </c>
       <c r="C26" t="s">
-        <v>837</v>
+        <v>507</v>
       </c>
       <c r="D26" s="8">
-        <v>100000000</v>
+        <v>200000000</v>
       </c>
       <c r="E26" t="s">
-        <v>838</v>
+        <v>508</v>
       </c>
       <c r="F26" t="s">
-        <v>200</v>
+        <v>123</v>
       </c>
       <c r="G26" t="s">
-        <v>205</v>
+        <v>124</v>
       </c>
       <c r="H26" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>342</v>
+        <v>447</v>
       </c>
       <c r="B27" t="s">
         <v>333</v>
       </c>
       <c r="C27" t="s">
-        <v>343</v>
+        <v>448</v>
       </c>
       <c r="D27" s="8">
-        <v>90000000</v>
+        <v>175000000</v>
       </c>
       <c r="E27" t="s">
-        <v>344</v>
+        <v>92</v>
       </c>
       <c r="F27" t="s">
         <v>13</v>
       </c>
       <c r="G27" t="s">
-        <v>14</v>
+        <v>94</v>
       </c>
       <c r="H27" t="s">
-        <v>884</v>
+        <v>877</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>842</v>
+        <v>796</v>
       </c>
       <c r="B28" t="s">
         <v>333</v>
       </c>
       <c r="C28" t="s">
-        <v>843</v>
+        <v>797</v>
       </c>
       <c r="D28" s="8">
-        <v>90000000</v>
+        <v>170000000</v>
       </c>
       <c r="E28" t="s">
-        <v>844</v>
+        <v>798</v>
       </c>
       <c r="F28" t="s">
         <v>200</v>
       </c>
       <c r="G28" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="H28" t="s">
-        <v>33</v>
+        <v>882</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>785</v>
+        <v>781</v>
       </c>
       <c r="B29" t="s">
         <v>333</v>
       </c>
       <c r="C29" t="s">
-        <v>786</v>
+        <v>782</v>
       </c>
       <c r="D29" s="8">
-        <v>85000000</v>
+        <v>162500000</v>
       </c>
       <c r="E29" t="s">
-        <v>787</v>
+        <v>783</v>
       </c>
       <c r="F29" t="s">
         <v>200</v>
@@ -6637,30 +6631,30 @@
         <v>205</v>
       </c>
       <c r="H29" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>492</v>
+        <v>211</v>
       </c>
       <c r="B30" t="s">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="C30" t="s">
-        <v>493</v>
+        <v>406</v>
       </c>
       <c r="D30" s="8">
-        <v>83000000</v>
+        <v>142000000</v>
       </c>
       <c r="E30" t="s">
-        <v>494</v>
+        <v>407</v>
       </c>
       <c r="F30" t="s">
         <v>13</v>
       </c>
       <c r="G30" t="s">
-        <v>94</v>
+        <v>66</v>
       </c>
       <c r="H30" t="s">
         <v>15</v>
@@ -6668,25 +6662,25 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>379</v>
+        <v>799</v>
       </c>
       <c r="B31" t="s">
         <v>333</v>
       </c>
       <c r="C31" t="s">
-        <v>380</v>
+        <v>800</v>
       </c>
       <c r="D31" s="8">
-        <v>80000000</v>
+        <v>130000000</v>
       </c>
       <c r="E31" t="s">
-        <v>381</v>
+        <v>801</v>
       </c>
       <c r="F31" t="s">
-        <v>13</v>
+        <v>200</v>
       </c>
       <c r="G31" t="s">
-        <v>14</v>
+        <v>205</v>
       </c>
       <c r="H31" t="s">
         <v>15</v>
@@ -6694,103 +6688,103 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>756</v>
+        <v>332</v>
       </c>
       <c r="B32" t="s">
         <v>333</v>
       </c>
       <c r="C32" t="s">
-        <v>757</v>
+        <v>334</v>
       </c>
       <c r="D32" s="8">
-        <v>75000000</v>
+        <v>120000000</v>
       </c>
       <c r="E32" t="s">
-        <v>758</v>
+        <v>335</v>
       </c>
       <c r="F32" t="s">
-        <v>200</v>
+        <v>13</v>
       </c>
       <c r="G32" t="s">
-        <v>289</v>
+        <v>14</v>
       </c>
       <c r="H32" t="s">
-        <v>15</v>
+        <v>877</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>429</v>
+        <v>336</v>
       </c>
       <c r="B33" t="s">
         <v>333</v>
       </c>
       <c r="C33" t="s">
-        <v>430</v>
-      </c>
-      <c r="D33" s="8" t="s">
+        <v>337</v>
+      </c>
+      <c r="D33" s="8">
+        <v>120000000</v>
+      </c>
+      <c r="E33" t="s">
         <v>19</v>
-      </c>
-      <c r="E33" t="s">
-        <v>431</v>
       </c>
       <c r="F33" t="s">
         <v>13</v>
       </c>
       <c r="G33" t="s">
-        <v>66</v>
+        <v>14</v>
       </c>
       <c r="H33" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>776</v>
+        <v>465</v>
       </c>
       <c r="B34" t="s">
         <v>333</v>
       </c>
       <c r="C34" t="s">
-        <v>777</v>
+        <v>466</v>
       </c>
       <c r="D34" s="8">
-        <v>67000000</v>
+        <v>120000000</v>
       </c>
       <c r="E34" t="s">
-        <v>778</v>
+        <v>467</v>
       </c>
       <c r="F34" t="s">
-        <v>200</v>
+        <v>13</v>
       </c>
       <c r="G34" t="s">
-        <v>205</v>
+        <v>94</v>
       </c>
       <c r="H34" t="s">
-        <v>884</v>
+        <v>877</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>459</v>
+        <v>775</v>
       </c>
       <c r="B35" t="s">
         <v>333</v>
       </c>
       <c r="C35" t="s">
-        <v>460</v>
+        <v>776</v>
       </c>
       <c r="D35" s="8">
-        <v>65000000</v>
+        <v>120000000</v>
       </c>
       <c r="E35" t="s">
-        <v>461</v>
+        <v>777</v>
       </c>
       <c r="F35" t="s">
-        <v>13</v>
+        <v>200</v>
       </c>
       <c r="G35" t="s">
-        <v>94</v>
+        <v>205</v>
       </c>
       <c r="H35" t="s">
         <v>15</v>
@@ -6798,227 +6792,227 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>438</v>
+        <v>376</v>
       </c>
       <c r="B36" t="s">
         <v>333</v>
       </c>
       <c r="C36" t="s">
-        <v>439</v>
-      </c>
-      <c r="D36" s="8" t="s">
-        <v>19</v>
+        <v>377</v>
+      </c>
+      <c r="D36" s="8">
+        <v>115000000</v>
       </c>
       <c r="E36" t="s">
-        <v>440</v>
+        <v>378</v>
       </c>
       <c r="F36" t="s">
         <v>13</v>
       </c>
       <c r="G36" t="s">
-        <v>66</v>
+        <v>14</v>
       </c>
       <c r="H36" t="s">
-        <v>15</v>
+        <v>452</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>480</v>
+        <v>802</v>
       </c>
       <c r="B37" t="s">
         <v>333</v>
       </c>
       <c r="C37" t="s">
-        <v>481</v>
+        <v>803</v>
       </c>
       <c r="D37" s="8">
-        <v>65000000</v>
+        <v>110000000</v>
       </c>
       <c r="E37" t="s">
-        <v>482</v>
+        <v>804</v>
       </c>
       <c r="F37" t="s">
-        <v>13</v>
+        <v>200</v>
       </c>
       <c r="G37" t="s">
-        <v>94</v>
+        <v>205</v>
       </c>
       <c r="H37" t="s">
-        <v>15</v>
+        <v>877</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>444</v>
+        <v>808</v>
       </c>
       <c r="B38" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="C38" t="s">
-        <v>445</v>
-      </c>
-      <c r="D38" s="8" t="s">
-        <v>19</v>
+        <v>809</v>
+      </c>
+      <c r="D38" s="8">
+        <v>104000000</v>
       </c>
       <c r="E38" t="s">
-        <v>446</v>
+        <v>810</v>
       </c>
       <c r="F38" t="s">
-        <v>13</v>
+        <v>200</v>
       </c>
       <c r="G38" t="s">
-        <v>94</v>
+        <v>205</v>
       </c>
       <c r="H38" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>812</v>
+        <v>338</v>
       </c>
       <c r="B39" t="s">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="C39" t="s">
-        <v>813</v>
+        <v>340</v>
       </c>
       <c r="D39" s="8">
-        <v>65000000</v>
+        <v>100000000</v>
       </c>
       <c r="E39" t="s">
-        <v>814</v>
+        <v>341</v>
       </c>
       <c r="F39" t="s">
-        <v>200</v>
+        <v>13</v>
       </c>
       <c r="G39" t="s">
-        <v>205</v>
+        <v>14</v>
       </c>
       <c r="H39" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>791</v>
+        <v>395</v>
       </c>
       <c r="B40" t="s">
         <v>333</v>
       </c>
       <c r="C40" t="s">
-        <v>792</v>
+        <v>396</v>
       </c>
       <c r="D40" s="8">
-        <v>60000000</v>
+        <v>100000000</v>
       </c>
       <c r="E40" t="s">
-        <v>793</v>
+        <v>397</v>
       </c>
       <c r="F40" t="s">
-        <v>200</v>
+        <v>13</v>
       </c>
       <c r="G40" t="s">
-        <v>205</v>
+        <v>66</v>
       </c>
       <c r="H40" t="s">
-        <v>884</v>
+        <v>41</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>385</v>
+        <v>441</v>
       </c>
       <c r="B41" t="s">
         <v>333</v>
       </c>
       <c r="C41" t="s">
-        <v>386</v>
+        <v>442</v>
       </c>
       <c r="D41" s="8">
-        <v>57700000</v>
+        <v>100000000</v>
       </c>
       <c r="E41" t="s">
-        <v>387</v>
+        <v>443</v>
       </c>
       <c r="F41" t="s">
         <v>13</v>
       </c>
       <c r="G41" t="s">
-        <v>66</v>
+        <v>94</v>
       </c>
       <c r="H41" t="s">
-        <v>884</v>
+        <v>877</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>692</v>
+        <v>500</v>
       </c>
       <c r="B42" t="s">
         <v>333</v>
       </c>
       <c r="C42" t="s">
-        <v>693</v>
+        <v>501</v>
       </c>
       <c r="D42" s="8">
-        <v>56000000</v>
+        <v>100000000</v>
       </c>
       <c r="E42" t="s">
-        <v>694</v>
+        <v>502</v>
       </c>
       <c r="F42" t="s">
-        <v>200</v>
+        <v>123</v>
       </c>
       <c r="G42" t="s">
-        <v>219</v>
+        <v>124</v>
       </c>
       <c r="H42" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>462</v>
+        <v>829</v>
       </c>
       <c r="B43" t="s">
         <v>333</v>
       </c>
       <c r="C43" t="s">
-        <v>463</v>
+        <v>830</v>
       </c>
       <c r="D43" s="8">
-        <v>53000000</v>
+        <v>100000000</v>
       </c>
       <c r="E43" t="s">
-        <v>464</v>
+        <v>831</v>
       </c>
       <c r="F43" t="s">
-        <v>13</v>
+        <v>200</v>
       </c>
       <c r="G43" t="s">
-        <v>94</v>
+        <v>205</v>
       </c>
       <c r="H43" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>361</v>
+        <v>342</v>
       </c>
       <c r="B44" t="s">
         <v>333</v>
       </c>
       <c r="C44" t="s">
-        <v>362</v>
+        <v>343</v>
       </c>
       <c r="D44" s="8">
-        <v>50000000</v>
+        <v>90000000</v>
       </c>
       <c r="E44" t="s">
-        <v>363</v>
+        <v>344</v>
       </c>
       <c r="F44" t="s">
         <v>13</v>
@@ -7027,82 +7021,82 @@
         <v>14</v>
       </c>
       <c r="H44" t="s">
-        <v>33</v>
+        <v>877</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>669</v>
+        <v>835</v>
       </c>
       <c r="B45" t="s">
         <v>333</v>
       </c>
       <c r="C45" t="s">
-        <v>199</v>
+        <v>836</v>
       </c>
       <c r="D45" s="8">
-        <v>50000000</v>
+        <v>90000000</v>
       </c>
       <c r="E45" t="s">
-        <v>405</v>
+        <v>837</v>
       </c>
       <c r="F45" t="s">
         <v>200</v>
       </c>
       <c r="G45" t="s">
-        <v>219</v>
+        <v>201</v>
       </c>
       <c r="H45" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>747</v>
+        <v>778</v>
       </c>
       <c r="B46" t="s">
         <v>333</v>
       </c>
       <c r="C46" t="s">
-        <v>748</v>
+        <v>779</v>
       </c>
       <c r="D46" s="8">
-        <v>50000000</v>
+        <v>85000000</v>
       </c>
       <c r="E46" t="s">
-        <v>749</v>
+        <v>780</v>
       </c>
       <c r="F46" t="s">
         <v>200</v>
       </c>
       <c r="G46" t="s">
-        <v>289</v>
+        <v>205</v>
       </c>
       <c r="H46" t="s">
-        <v>884</v>
+        <v>41</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>198</v>
+        <v>492</v>
       </c>
       <c r="B47" t="s">
         <v>333</v>
       </c>
       <c r="C47" t="s">
-        <v>199</v>
+        <v>493</v>
       </c>
       <c r="D47" s="8">
-        <v>50000000</v>
+        <v>83000000</v>
       </c>
       <c r="E47" t="s">
-        <v>405</v>
+        <v>494</v>
       </c>
       <c r="F47" t="s">
-        <v>200</v>
+        <v>13</v>
       </c>
       <c r="G47" t="s">
-        <v>205</v>
+        <v>94</v>
       </c>
       <c r="H47" t="s">
         <v>15</v>
@@ -7110,19 +7104,19 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>352</v>
+        <v>379</v>
       </c>
       <c r="B48" t="s">
         <v>333</v>
       </c>
       <c r="C48" t="s">
-        <v>353</v>
+        <v>380</v>
       </c>
       <c r="D48" s="8">
-        <v>45000000</v>
+        <v>80000000</v>
       </c>
       <c r="E48" t="s">
-        <v>354</v>
+        <v>381</v>
       </c>
       <c r="F48" t="s">
         <v>13</v>
@@ -7131,102 +7125,102 @@
         <v>14</v>
       </c>
       <c r="H48" t="s">
-        <v>60</v>
+        <v>15</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>589</v>
+        <v>752</v>
       </c>
       <c r="B49" t="s">
         <v>333</v>
       </c>
       <c r="C49" t="s">
-        <v>590</v>
+        <v>753</v>
       </c>
       <c r="D49" s="8">
-        <v>45000000</v>
+        <v>75000000</v>
       </c>
       <c r="E49" t="s">
-        <v>591</v>
+        <v>754</v>
       </c>
       <c r="F49" t="s">
-        <v>123</v>
+        <v>200</v>
       </c>
       <c r="G49" t="s">
-        <v>158</v>
+        <v>289</v>
       </c>
       <c r="H49" t="s">
-        <v>884</v>
+        <v>877</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>417</v>
+        <v>769</v>
       </c>
       <c r="B50" t="s">
         <v>333</v>
       </c>
       <c r="C50" t="s">
-        <v>418</v>
+        <v>770</v>
       </c>
       <c r="D50" s="8">
-        <v>42000000</v>
+        <v>67000000</v>
       </c>
       <c r="E50" t="s">
-        <v>419</v>
+        <v>771</v>
       </c>
       <c r="F50" t="s">
-        <v>13</v>
+        <v>200</v>
       </c>
       <c r="G50" t="s">
-        <v>66</v>
+        <v>205</v>
       </c>
       <c r="H50" t="s">
-        <v>884</v>
+        <v>877</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>586</v>
+        <v>459</v>
       </c>
       <c r="B51" t="s">
         <v>333</v>
       </c>
       <c r="C51" t="s">
-        <v>587</v>
+        <v>460</v>
       </c>
       <c r="D51" s="8">
-        <v>42000000</v>
+        <v>65000000</v>
       </c>
       <c r="E51" t="s">
-        <v>588</v>
+        <v>461</v>
       </c>
       <c r="F51" t="s">
-        <v>123</v>
+        <v>13</v>
       </c>
       <c r="G51" t="s">
-        <v>158</v>
+        <v>94</v>
       </c>
       <c r="H51" t="s">
-        <v>33</v>
+        <v>882</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>453</v>
+        <v>480</v>
       </c>
       <c r="B52" t="s">
         <v>333</v>
       </c>
       <c r="C52" t="s">
-        <v>454</v>
+        <v>481</v>
       </c>
       <c r="D52" s="8">
-        <v>40000000</v>
+        <v>65000000</v>
       </c>
       <c r="E52" t="s">
-        <v>455</v>
+        <v>482</v>
       </c>
       <c r="F52" t="s">
         <v>13</v>
@@ -7235,160 +7229,160 @@
         <v>94</v>
       </c>
       <c r="H52" t="s">
-        <v>23</v>
+        <v>882</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>718</v>
+        <v>805</v>
       </c>
       <c r="B53" t="s">
         <v>333</v>
       </c>
       <c r="C53" t="s">
-        <v>719</v>
+        <v>806</v>
       </c>
       <c r="D53" s="8">
-        <v>40000000</v>
+        <v>65000000</v>
       </c>
       <c r="E53" t="s">
-        <v>720</v>
+        <v>807</v>
       </c>
       <c r="F53" t="s">
         <v>200</v>
       </c>
       <c r="G53" t="s">
-        <v>219</v>
+        <v>205</v>
       </c>
       <c r="H53" t="s">
-        <v>884</v>
+        <v>877</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>509</v>
+        <v>784</v>
       </c>
       <c r="B54" t="s">
         <v>333</v>
       </c>
       <c r="C54" t="s">
-        <v>510</v>
+        <v>785</v>
       </c>
       <c r="D54" s="8">
-        <v>38000000</v>
+        <v>60000000</v>
       </c>
       <c r="E54" t="s">
-        <v>511</v>
+        <v>786</v>
       </c>
       <c r="F54" t="s">
-        <v>123</v>
+        <v>200</v>
       </c>
       <c r="G54" t="s">
-        <v>124</v>
+        <v>205</v>
       </c>
       <c r="H54" t="s">
-        <v>33</v>
+        <v>877</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>603</v>
+        <v>385</v>
       </c>
       <c r="B55" t="s">
         <v>333</v>
       </c>
       <c r="C55" t="s">
-        <v>604</v>
+        <v>386</v>
       </c>
       <c r="D55" s="8">
-        <v>36100000</v>
+        <v>57700000</v>
       </c>
       <c r="E55" t="s">
-        <v>605</v>
+        <v>387</v>
       </c>
       <c r="F55" t="s">
-        <v>123</v>
+        <v>13</v>
       </c>
       <c r="G55" t="s">
-        <v>158</v>
+        <v>66</v>
       </c>
       <c r="H55" t="s">
-        <v>884</v>
+        <v>877</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>373</v>
+        <v>690</v>
       </c>
       <c r="B56" t="s">
         <v>333</v>
       </c>
       <c r="C56" t="s">
-        <v>374</v>
+        <v>691</v>
       </c>
       <c r="D56" s="8">
-        <v>35000000</v>
+        <v>56000000</v>
       </c>
       <c r="E56" t="s">
-        <v>375</v>
+        <v>692</v>
       </c>
       <c r="F56" t="s">
-        <v>13</v>
+        <v>200</v>
       </c>
       <c r="G56" t="s">
-        <v>14</v>
+        <v>219</v>
       </c>
       <c r="H56" t="s">
-        <v>23</v>
+        <v>882</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>533</v>
+        <v>462</v>
       </c>
       <c r="B57" t="s">
         <v>333</v>
       </c>
       <c r="C57" t="s">
-        <v>534</v>
+        <v>463</v>
       </c>
       <c r="D57" s="8">
-        <v>35000000</v>
+        <v>53000000</v>
       </c>
       <c r="E57" t="s">
-        <v>535</v>
+        <v>464</v>
       </c>
       <c r="F57" t="s">
-        <v>123</v>
+        <v>13</v>
       </c>
       <c r="G57" t="s">
-        <v>124</v>
+        <v>94</v>
       </c>
       <c r="H57" t="s">
-        <v>41</v>
+        <v>877</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>542</v>
+        <v>361</v>
       </c>
       <c r="B58" t="s">
         <v>333</v>
       </c>
       <c r="C58" t="s">
-        <v>543</v>
+        <v>362</v>
       </c>
       <c r="D58" s="8">
-        <v>35000000</v>
+        <v>50000000</v>
       </c>
       <c r="E58" t="s">
-        <v>544</v>
+        <v>363</v>
       </c>
       <c r="F58" t="s">
-        <v>123</v>
+        <v>13</v>
       </c>
       <c r="G58" t="s">
-        <v>124</v>
+        <v>14</v>
       </c>
       <c r="H58" t="s">
         <v>33</v>
@@ -7396,19 +7390,19 @@
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>744</v>
+        <v>668</v>
       </c>
       <c r="B59" t="s">
         <v>333</v>
       </c>
       <c r="C59" t="s">
-        <v>745</v>
+        <v>199</v>
       </c>
       <c r="D59" s="8">
-        <v>35000000</v>
+        <v>50000000</v>
       </c>
       <c r="E59" t="s">
-        <v>746</v>
+        <v>405</v>
       </c>
       <c r="F59" t="s">
         <v>200</v>
@@ -7417,313 +7411,310 @@
         <v>219</v>
       </c>
       <c r="H59" t="s">
-        <v>15</v>
+        <v>882</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>370</v>
+        <v>743</v>
       </c>
       <c r="B60" t="s">
         <v>333</v>
       </c>
       <c r="C60" t="s">
-        <v>371</v>
+        <v>744</v>
       </c>
       <c r="D60" s="8">
-        <v>31000000</v>
+        <v>50000000</v>
       </c>
       <c r="E60" t="s">
-        <v>372</v>
+        <v>745</v>
       </c>
       <c r="F60" t="s">
-        <v>13</v>
+        <v>200</v>
       </c>
       <c r="G60" t="s">
-        <v>14</v>
+        <v>289</v>
       </c>
       <c r="H60" t="s">
-        <v>60</v>
+        <v>877</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>512</v>
+        <v>352</v>
       </c>
       <c r="B61" t="s">
         <v>333</v>
       </c>
       <c r="C61" t="s">
-        <v>513</v>
+        <v>353</v>
       </c>
       <c r="D61" s="8">
-        <v>31000000</v>
+        <v>45000000</v>
       </c>
       <c r="E61" t="s">
-        <v>514</v>
+        <v>354</v>
       </c>
       <c r="F61" t="s">
-        <v>123</v>
+        <v>13</v>
       </c>
       <c r="G61" t="s">
-        <v>124</v>
+        <v>14</v>
       </c>
       <c r="H61" t="s">
-        <v>884</v>
+        <v>60</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>495</v>
+        <v>589</v>
       </c>
       <c r="B62" t="s">
         <v>333</v>
       </c>
       <c r="C62" t="s">
-        <v>496</v>
+        <v>590</v>
       </c>
       <c r="D62" s="8">
-        <v>30000000</v>
+        <v>45000000</v>
       </c>
       <c r="E62" t="s">
-        <v>19</v>
+        <v>591</v>
       </c>
       <c r="F62" t="s">
-        <v>13</v>
+        <v>123</v>
       </c>
       <c r="G62" t="s">
-        <v>94</v>
+        <v>158</v>
       </c>
       <c r="H62" t="s">
-        <v>15</v>
+        <v>877</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>524</v>
+        <v>417</v>
       </c>
       <c r="B63" t="s">
         <v>333</v>
       </c>
       <c r="C63" t="s">
-        <v>525</v>
+        <v>418</v>
       </c>
       <c r="D63" s="8">
-        <v>30000000</v>
+        <v>42000000</v>
       </c>
       <c r="E63" t="s">
-        <v>526</v>
+        <v>419</v>
       </c>
       <c r="F63" t="s">
-        <v>123</v>
+        <v>13</v>
       </c>
       <c r="G63" t="s">
-        <v>124</v>
+        <v>66</v>
       </c>
       <c r="H63" t="s">
-        <v>33</v>
+        <v>877</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>685</v>
+        <v>586</v>
       </c>
       <c r="B64" t="s">
         <v>333</v>
       </c>
       <c r="C64" t="s">
-        <v>686</v>
+        <v>587</v>
       </c>
       <c r="D64" s="8">
-        <v>30000000</v>
+        <v>42000000</v>
       </c>
       <c r="E64" t="s">
-        <v>687</v>
+        <v>588</v>
       </c>
       <c r="F64" t="s">
-        <v>200</v>
+        <v>123</v>
       </c>
       <c r="G64" t="s">
-        <v>219</v>
+        <v>158</v>
       </c>
       <c r="H64" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>653</v>
+        <v>453</v>
       </c>
       <c r="B65" t="s">
         <v>333</v>
       </c>
       <c r="C65" t="s">
-        <v>654</v>
+        <v>454</v>
       </c>
       <c r="D65" s="8">
-        <v>29400000</v>
+        <v>40000000</v>
       </c>
       <c r="E65" t="s">
-        <v>19</v>
+        <v>455</v>
       </c>
       <c r="F65" t="s">
-        <v>123</v>
+        <v>13</v>
       </c>
       <c r="G65" t="s">
-        <v>191</v>
+        <v>94</v>
       </c>
       <c r="H65" t="s">
-        <v>884</v>
+        <v>23</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>653</v>
+        <v>714</v>
       </c>
       <c r="B66" t="s">
         <v>333</v>
       </c>
       <c r="C66" t="s">
-        <v>856</v>
+        <v>715</v>
       </c>
       <c r="D66" s="8">
-        <v>29400000</v>
+        <v>40000000</v>
       </c>
       <c r="E66" t="s">
-        <v>19</v>
+        <v>716</v>
       </c>
       <c r="F66" t="s">
-        <v>123</v>
+        <v>200</v>
       </c>
       <c r="G66" t="s">
-        <v>191</v>
+        <v>219</v>
       </c>
       <c r="H66" t="s">
-        <v>884</v>
-      </c>
-      <c r="I66" t="s">
-        <v>214</v>
+        <v>877</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>367</v>
+        <v>509</v>
       </c>
       <c r="B67" t="s">
         <v>333</v>
       </c>
       <c r="C67" t="s">
-        <v>368</v>
+        <v>510</v>
       </c>
       <c r="D67" s="8">
-        <v>28000000</v>
+        <v>38000000</v>
       </c>
       <c r="E67" t="s">
-        <v>369</v>
+        <v>511</v>
       </c>
       <c r="F67" t="s">
-        <v>13</v>
+        <v>123</v>
       </c>
       <c r="G67" t="s">
-        <v>14</v>
+        <v>124</v>
       </c>
       <c r="H67" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>701</v>
+        <v>603</v>
       </c>
       <c r="B68" t="s">
         <v>333</v>
       </c>
       <c r="C68" t="s">
-        <v>702</v>
+        <v>604</v>
       </c>
       <c r="D68" s="8">
-        <v>27500000</v>
+        <v>36100000</v>
       </c>
       <c r="E68" t="s">
-        <v>703</v>
+        <v>605</v>
       </c>
       <c r="F68" t="s">
-        <v>200</v>
+        <v>123</v>
       </c>
       <c r="G68" t="s">
-        <v>219</v>
+        <v>158</v>
       </c>
       <c r="H68" t="s">
-        <v>60</v>
+        <v>877</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>679</v>
+        <v>373</v>
       </c>
       <c r="B69" t="s">
         <v>333</v>
       </c>
       <c r="C69" t="s">
-        <v>680</v>
+        <v>374</v>
       </c>
       <c r="D69" s="8">
-        <v>27300000</v>
+        <v>35000000</v>
       </c>
       <c r="E69" t="s">
-        <v>681</v>
+        <v>375</v>
       </c>
       <c r="F69" t="s">
-        <v>200</v>
+        <v>13</v>
       </c>
       <c r="G69" t="s">
-        <v>219</v>
+        <v>14</v>
       </c>
       <c r="H69" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>489</v>
+        <v>533</v>
       </c>
       <c r="B70" t="s">
         <v>333</v>
       </c>
       <c r="C70" t="s">
-        <v>490</v>
+        <v>534</v>
       </c>
       <c r="D70" s="8">
-        <v>25000000</v>
+        <v>35000000</v>
       </c>
       <c r="E70" t="s">
-        <v>491</v>
+        <v>535</v>
       </c>
       <c r="F70" t="s">
-        <v>13</v>
+        <v>123</v>
       </c>
       <c r="G70" t="s">
-        <v>94</v>
+        <v>124</v>
       </c>
       <c r="H70" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>539</v>
+        <v>542</v>
       </c>
       <c r="B71" t="s">
         <v>333</v>
       </c>
       <c r="C71" t="s">
-        <v>540</v>
-      </c>
-      <c r="D71" s="8" t="s">
-        <v>19</v>
+        <v>543</v>
+      </c>
+      <c r="D71" s="8">
+        <v>35000000</v>
       </c>
       <c r="E71" t="s">
-        <v>541</v>
+        <v>544</v>
       </c>
       <c r="F71" t="s">
         <v>123</v>
@@ -7732,76 +7723,76 @@
         <v>124</v>
       </c>
       <c r="H71" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>557</v>
+        <v>740</v>
       </c>
       <c r="B72" t="s">
         <v>333</v>
       </c>
       <c r="C72" t="s">
-        <v>558</v>
+        <v>741</v>
       </c>
       <c r="D72" s="8">
-        <v>25000000</v>
+        <v>35000000</v>
       </c>
       <c r="E72" t="s">
-        <v>559</v>
+        <v>742</v>
       </c>
       <c r="F72" t="s">
-        <v>123</v>
+        <v>200</v>
       </c>
       <c r="G72" t="s">
-        <v>124</v>
+        <v>219</v>
       </c>
       <c r="H72" t="s">
-        <v>884</v>
+        <v>877</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>477</v>
+        <v>370</v>
       </c>
       <c r="B73" t="s">
         <v>333</v>
       </c>
       <c r="C73" t="s">
-        <v>478</v>
+        <v>371</v>
       </c>
       <c r="D73" s="8">
-        <v>24000000</v>
+        <v>31000000</v>
       </c>
       <c r="E73" t="s">
-        <v>479</v>
+        <v>372</v>
       </c>
       <c r="F73" t="s">
         <v>13</v>
       </c>
       <c r="G73" t="s">
-        <v>94</v>
+        <v>14</v>
       </c>
       <c r="H73" t="s">
-        <v>15</v>
+        <v>877</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>548</v>
+        <v>512</v>
       </c>
       <c r="B74" t="s">
         <v>333</v>
       </c>
       <c r="C74" t="s">
-        <v>549</v>
-      </c>
-      <c r="D74" s="8" t="s">
-        <v>19</v>
+        <v>513</v>
+      </c>
+      <c r="D74" s="8">
+        <v>31000000</v>
       </c>
       <c r="E74" t="s">
-        <v>550</v>
+        <v>514</v>
       </c>
       <c r="F74" t="s">
         <v>123</v>
@@ -7810,102 +7801,102 @@
         <v>124</v>
       </c>
       <c r="H74" t="s">
-        <v>884</v>
+        <v>877</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>759</v>
+        <v>495</v>
       </c>
       <c r="B75" t="s">
         <v>333</v>
       </c>
       <c r="C75" t="s">
-        <v>760</v>
+        <v>496</v>
       </c>
       <c r="D75" s="8">
-        <v>24000000</v>
+        <v>30000000</v>
       </c>
       <c r="E75" t="s">
-        <v>761</v>
+        <v>19</v>
       </c>
       <c r="F75" t="s">
-        <v>200</v>
+        <v>13</v>
       </c>
       <c r="G75" t="s">
-        <v>289</v>
+        <v>94</v>
       </c>
       <c r="H75" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>401</v>
+        <v>524</v>
       </c>
       <c r="B76" t="s">
         <v>333</v>
       </c>
       <c r="C76" t="s">
-        <v>402</v>
+        <v>525</v>
       </c>
       <c r="D76" s="8">
-        <v>20000000</v>
+        <v>30000000</v>
       </c>
       <c r="E76" t="s">
-        <v>19</v>
+        <v>526</v>
       </c>
       <c r="F76" t="s">
-        <v>13</v>
+        <v>123</v>
       </c>
       <c r="G76" t="s">
-        <v>66</v>
+        <v>124</v>
       </c>
       <c r="H76" t="s">
-        <v>882</v>
+        <v>23</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>575</v>
+        <v>684</v>
       </c>
       <c r="B77" t="s">
         <v>333</v>
       </c>
       <c r="C77" t="s">
-        <v>576</v>
+        <v>685</v>
       </c>
       <c r="D77" s="8">
-        <v>20000000</v>
+        <v>30000000</v>
       </c>
       <c r="E77" t="s">
-        <v>577</v>
+        <v>686</v>
       </c>
       <c r="F77" t="s">
-        <v>123</v>
+        <v>200</v>
       </c>
       <c r="G77" t="s">
-        <v>124</v>
+        <v>219</v>
       </c>
       <c r="H77" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>638</v>
+        <v>653</v>
       </c>
       <c r="B78" t="s">
         <v>333</v>
       </c>
       <c r="C78" t="s">
-        <v>639</v>
+        <v>849</v>
       </c>
       <c r="D78" s="8">
-        <v>20000000</v>
+        <v>29400000</v>
       </c>
       <c r="E78" t="s">
-        <v>640</v>
+        <v>19</v>
       </c>
       <c r="F78" t="s">
         <v>123</v>
@@ -7914,50 +7905,53 @@
         <v>191</v>
       </c>
       <c r="H78" t="s">
-        <v>15</v>
+        <v>877</v>
+      </c>
+      <c r="I78" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>685</v>
+        <v>367</v>
       </c>
       <c r="B79" t="s">
         <v>333</v>
       </c>
       <c r="C79" t="s">
-        <v>686</v>
+        <v>368</v>
       </c>
       <c r="D79" s="8">
-        <v>20000000</v>
+        <v>28000000</v>
       </c>
       <c r="E79" t="s">
-        <v>688</v>
+        <v>369</v>
       </c>
       <c r="F79" t="s">
-        <v>200</v>
+        <v>13</v>
       </c>
       <c r="G79" t="s">
-        <v>219</v>
+        <v>14</v>
       </c>
       <c r="H79" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
+        <v>697</v>
+      </c>
+      <c r="B80" t="s">
+        <v>333</v>
+      </c>
+      <c r="C80" t="s">
         <v>698</v>
       </c>
-      <c r="B80" t="s">
-        <v>339</v>
-      </c>
-      <c r="C80" t="s">
+      <c r="D80" s="8">
+        <v>27500000</v>
+      </c>
+      <c r="E80" t="s">
         <v>699</v>
-      </c>
-      <c r="D80" s="8">
-        <v>20000000</v>
-      </c>
-      <c r="E80" t="s">
-        <v>700</v>
       </c>
       <c r="F80" t="s">
         <v>200</v>
@@ -7966,50 +7960,50 @@
         <v>219</v>
       </c>
       <c r="H80" t="s">
-        <v>15</v>
+        <v>60</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>626</v>
+        <v>678</v>
       </c>
       <c r="B81" t="s">
         <v>333</v>
       </c>
       <c r="C81" t="s">
-        <v>627</v>
+        <v>679</v>
       </c>
       <c r="D81" s="8">
-        <v>17900000</v>
+        <v>27300000</v>
       </c>
       <c r="E81" t="s">
-        <v>628</v>
+        <v>680</v>
       </c>
       <c r="F81" t="s">
-        <v>123</v>
+        <v>200</v>
       </c>
       <c r="G81" t="s">
-        <v>191</v>
+        <v>219</v>
       </c>
       <c r="H81" t="s">
-        <v>884</v>
+        <v>877</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>474</v>
+        <v>489</v>
       </c>
       <c r="B82" t="s">
         <v>333</v>
       </c>
       <c r="C82" t="s">
-        <v>475</v>
+        <v>490</v>
       </c>
       <c r="D82" s="8">
-        <v>17780000</v>
+        <v>25000000</v>
       </c>
       <c r="E82" t="s">
-        <v>476</v>
+        <v>491</v>
       </c>
       <c r="F82" t="s">
         <v>13</v>
@@ -8018,238 +8012,238 @@
         <v>94</v>
       </c>
       <c r="H82" t="s">
-        <v>33</v>
+        <v>877</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>408</v>
+        <v>557</v>
       </c>
       <c r="B83" t="s">
         <v>333</v>
       </c>
       <c r="C83" t="s">
-        <v>409</v>
+        <v>558</v>
       </c>
       <c r="D83" s="8">
-        <v>17500000</v>
+        <v>25000000</v>
       </c>
       <c r="E83" t="s">
-        <v>410</v>
+        <v>559</v>
       </c>
       <c r="F83" t="s">
-        <v>13</v>
+        <v>123</v>
       </c>
       <c r="G83" t="s">
-        <v>66</v>
+        <v>124</v>
       </c>
       <c r="H83" t="s">
-        <v>15</v>
+        <v>877</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>641</v>
+        <v>477</v>
       </c>
       <c r="B84" t="s">
         <v>333</v>
       </c>
       <c r="C84" t="s">
-        <v>642</v>
+        <v>478</v>
       </c>
       <c r="D84" s="8">
-        <v>16000000</v>
+        <v>24000000</v>
       </c>
       <c r="E84" t="s">
-        <v>643</v>
+        <v>479</v>
       </c>
       <c r="F84" t="s">
-        <v>123</v>
+        <v>13</v>
       </c>
       <c r="G84" t="s">
-        <v>191</v>
+        <v>94</v>
       </c>
       <c r="H84" t="s">
-        <v>884</v>
+        <v>877</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>724</v>
+        <v>755</v>
       </c>
       <c r="B85" t="s">
         <v>333</v>
       </c>
       <c r="C85" t="s">
-        <v>725</v>
+        <v>756</v>
       </c>
       <c r="D85" s="8">
-        <v>16000000</v>
+        <v>24000000</v>
       </c>
       <c r="E85" t="s">
-        <v>726</v>
+        <v>757</v>
       </c>
       <c r="F85" t="s">
         <v>200</v>
       </c>
       <c r="G85" t="s">
-        <v>219</v>
+        <v>289</v>
       </c>
       <c r="H85" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>762</v>
+        <v>401</v>
       </c>
       <c r="B86" t="s">
         <v>333</v>
       </c>
       <c r="C86" t="s">
-        <v>763</v>
+        <v>402</v>
       </c>
       <c r="D86" s="8">
-        <v>16000000</v>
+        <v>20000000</v>
       </c>
       <c r="E86" t="s">
-        <v>764</v>
+        <v>19</v>
       </c>
       <c r="F86" t="s">
-        <v>200</v>
+        <v>13</v>
       </c>
       <c r="G86" t="s">
-        <v>289</v>
+        <v>66</v>
       </c>
       <c r="H86" t="s">
-        <v>15</v>
+        <v>875</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>818</v>
+        <v>575</v>
       </c>
       <c r="B87" t="s">
         <v>333</v>
       </c>
       <c r="C87" t="s">
-        <v>819</v>
+        <v>576</v>
       </c>
       <c r="D87" s="8">
-        <v>16000000</v>
+        <v>20000000</v>
       </c>
       <c r="E87" t="s">
-        <v>820</v>
+        <v>577</v>
       </c>
       <c r="F87" t="s">
-        <v>200</v>
+        <v>123</v>
       </c>
       <c r="G87" t="s">
-        <v>205</v>
+        <v>124</v>
       </c>
       <c r="H87" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>403</v>
+        <v>638</v>
       </c>
       <c r="B88" t="s">
         <v>333</v>
       </c>
       <c r="C88" t="s">
-        <v>404</v>
+        <v>639</v>
       </c>
       <c r="D88" s="8">
-        <v>15000000</v>
+        <v>20000000</v>
       </c>
       <c r="E88" t="s">
-        <v>405</v>
+        <v>640</v>
       </c>
       <c r="F88" t="s">
-        <v>13</v>
+        <v>123</v>
       </c>
       <c r="G88" t="s">
-        <v>66</v>
+        <v>191</v>
       </c>
       <c r="H88" t="s">
-        <v>884</v>
+        <v>875</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>435</v>
+        <v>694</v>
       </c>
       <c r="B89" t="s">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="C89" t="s">
-        <v>436</v>
+        <v>695</v>
       </c>
       <c r="D89" s="8">
-        <v>15000000</v>
+        <v>20000000</v>
       </c>
       <c r="E89" t="s">
-        <v>437</v>
+        <v>696</v>
       </c>
       <c r="F89" t="s">
-        <v>13</v>
+        <v>200</v>
       </c>
       <c r="G89" t="s">
-        <v>66</v>
+        <v>219</v>
       </c>
       <c r="H89" t="s">
-        <v>33</v>
+        <v>877</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>230</v>
+        <v>626</v>
       </c>
       <c r="B90" t="s">
         <v>333</v>
       </c>
       <c r="C90" t="s">
-        <v>595</v>
-      </c>
-      <c r="D90" s="8" t="s">
-        <v>19</v>
+        <v>627</v>
+      </c>
+      <c r="D90" s="8">
+        <v>17900000</v>
       </c>
       <c r="E90" t="s">
-        <v>596</v>
+        <v>628</v>
       </c>
       <c r="F90" t="s">
         <v>123</v>
       </c>
       <c r="G90" t="s">
-        <v>158</v>
+        <v>191</v>
       </c>
       <c r="H90" t="s">
-        <v>23</v>
+        <v>877</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>530</v>
+        <v>474</v>
       </c>
       <c r="B91" t="s">
         <v>333</v>
       </c>
       <c r="C91" t="s">
-        <v>531</v>
+        <v>475</v>
       </c>
       <c r="D91" s="8">
-        <v>15000000</v>
+        <v>17780000</v>
       </c>
       <c r="E91" t="s">
-        <v>532</v>
+        <v>476</v>
       </c>
       <c r="F91" t="s">
-        <v>123</v>
+        <v>13</v>
       </c>
       <c r="G91" t="s">
-        <v>124</v>
+        <v>94</v>
       </c>
       <c r="H91" t="s">
         <v>33</v>
@@ -8257,129 +8251,129 @@
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>600</v>
+        <v>408</v>
       </c>
       <c r="B92" t="s">
         <v>333</v>
       </c>
       <c r="C92" t="s">
-        <v>601</v>
-      </c>
-      <c r="D92" s="8" t="s">
-        <v>19</v>
+        <v>409</v>
+      </c>
+      <c r="D92" s="8">
+        <v>17500000</v>
       </c>
       <c r="E92" t="s">
-        <v>602</v>
+        <v>410</v>
       </c>
       <c r="F92" t="s">
-        <v>123</v>
+        <v>13</v>
       </c>
       <c r="G92" t="s">
-        <v>158</v>
+        <v>66</v>
       </c>
       <c r="H92" t="s">
-        <v>37</v>
+        <v>879</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>551</v>
+        <v>641</v>
       </c>
       <c r="B93" t="s">
         <v>333</v>
       </c>
       <c r="C93" t="s">
-        <v>552</v>
+        <v>642</v>
       </c>
       <c r="D93" s="8">
-        <v>14400000</v>
+        <v>16000000</v>
       </c>
       <c r="E93" t="s">
-        <v>553</v>
+        <v>643</v>
       </c>
       <c r="F93" t="s">
         <v>123</v>
       </c>
       <c r="G93" t="s">
-        <v>124</v>
+        <v>191</v>
       </c>
       <c r="H93" t="s">
-        <v>884</v>
+        <v>877</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>563</v>
+        <v>720</v>
       </c>
       <c r="B94" t="s">
         <v>333</v>
       </c>
       <c r="C94" t="s">
-        <v>564</v>
+        <v>721</v>
       </c>
       <c r="D94" s="8">
-        <v>14300000</v>
+        <v>16000000</v>
       </c>
       <c r="E94" t="s">
-        <v>565</v>
+        <v>722</v>
       </c>
       <c r="F94" t="s">
-        <v>123</v>
+        <v>200</v>
       </c>
       <c r="G94" t="s">
-        <v>124</v>
+        <v>219</v>
       </c>
       <c r="H94" t="s">
-        <v>41</v>
+        <v>15</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>345</v>
+        <v>758</v>
       </c>
       <c r="B95" t="s">
-        <v>346</v>
+        <v>333</v>
       </c>
       <c r="C95" t="s">
-        <v>347</v>
+        <v>759</v>
       </c>
       <c r="D95" s="8">
-        <v>14000000</v>
+        <v>16000000</v>
       </c>
       <c r="E95" t="s">
-        <v>348</v>
+        <v>760</v>
       </c>
       <c r="F95" t="s">
-        <v>13</v>
+        <v>200</v>
       </c>
       <c r="G95" t="s">
-        <v>14</v>
+        <v>289</v>
       </c>
       <c r="H95" t="s">
-        <v>41</v>
+        <v>15</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>388</v>
+        <v>811</v>
       </c>
       <c r="B96" t="s">
         <v>333</v>
       </c>
       <c r="C96" t="s">
-        <v>389</v>
+        <v>812</v>
       </c>
       <c r="D96" s="8">
-        <v>14000000</v>
+        <v>16000000</v>
       </c>
       <c r="E96" t="s">
-        <v>19</v>
+        <v>813</v>
       </c>
       <c r="F96" t="s">
-        <v>13</v>
+        <v>200</v>
       </c>
       <c r="G96" t="s">
-        <v>66</v>
+        <v>205</v>
       </c>
       <c r="H96" t="s">
         <v>15</v>
@@ -8387,227 +8381,227 @@
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>707</v>
+        <v>403</v>
       </c>
       <c r="B97" t="s">
         <v>333</v>
       </c>
       <c r="C97" t="s">
-        <v>708</v>
+        <v>404</v>
       </c>
       <c r="D97" s="8">
-        <v>14000000</v>
+        <v>15000000</v>
       </c>
       <c r="E97" t="s">
-        <v>19</v>
+        <v>405</v>
       </c>
       <c r="F97" t="s">
-        <v>200</v>
+        <v>13</v>
       </c>
       <c r="G97" t="s">
-        <v>219</v>
+        <v>66</v>
       </c>
       <c r="H97" t="s">
-        <v>33</v>
+        <v>877</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>618</v>
+        <v>435</v>
       </c>
       <c r="B98" t="s">
         <v>333</v>
       </c>
       <c r="C98" t="s">
-        <v>619</v>
-      </c>
-      <c r="D98" s="8" t="s">
-        <v>19</v>
+        <v>436</v>
+      </c>
+      <c r="D98" s="8">
+        <v>15000000</v>
       </c>
       <c r="E98" t="s">
-        <v>19</v>
+        <v>437</v>
       </c>
       <c r="F98" t="s">
-        <v>123</v>
+        <v>13</v>
       </c>
       <c r="G98" t="s">
-        <v>158</v>
+        <v>66</v>
       </c>
       <c r="H98" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>620</v>
+        <v>530</v>
       </c>
       <c r="B99" t="s">
         <v>333</v>
       </c>
       <c r="C99" t="s">
-        <v>621</v>
-      </c>
-      <c r="D99" s="8" t="s">
-        <v>19</v>
+        <v>531</v>
+      </c>
+      <c r="D99" s="8">
+        <v>15000000</v>
       </c>
       <c r="E99" t="s">
-        <v>622</v>
+        <v>532</v>
       </c>
       <c r="F99" t="s">
         <v>123</v>
       </c>
       <c r="G99" t="s">
-        <v>158</v>
+        <v>124</v>
       </c>
       <c r="H99" t="s">
-        <v>15</v>
+        <v>882</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>420</v>
+        <v>551</v>
       </c>
       <c r="B100" t="s">
         <v>333</v>
       </c>
       <c r="C100" t="s">
-        <v>421</v>
+        <v>552</v>
       </c>
       <c r="D100" s="8">
-        <v>13600000</v>
+        <v>14400000</v>
       </c>
       <c r="E100" t="s">
-        <v>422</v>
+        <v>553</v>
       </c>
       <c r="F100" t="s">
-        <v>13</v>
+        <v>123</v>
       </c>
       <c r="G100" t="s">
-        <v>66</v>
+        <v>124</v>
       </c>
       <c r="H100" t="s">
-        <v>15</v>
+        <v>877</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>581</v>
+        <v>563</v>
       </c>
       <c r="B101" t="s">
         <v>333</v>
       </c>
       <c r="C101" t="s">
-        <v>582</v>
+        <v>564</v>
       </c>
       <c r="D101" s="8">
-        <v>13500000</v>
+        <v>14300000</v>
       </c>
       <c r="E101" t="s">
-        <v>19</v>
+        <v>565</v>
       </c>
       <c r="F101" t="s">
         <v>123</v>
       </c>
       <c r="G101" t="s">
-        <v>158</v>
+        <v>124</v>
       </c>
       <c r="H101" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>629</v>
+        <v>345</v>
       </c>
       <c r="B102" t="s">
-        <v>333</v>
+        <v>346</v>
       </c>
       <c r="C102" t="s">
-        <v>630</v>
-      </c>
-      <c r="D102" s="8" t="s">
-        <v>19</v>
+        <v>347</v>
+      </c>
+      <c r="D102" s="8">
+        <v>14000000</v>
       </c>
       <c r="E102" t="s">
-        <v>631</v>
+        <v>348</v>
       </c>
       <c r="F102" t="s">
-        <v>123</v>
+        <v>13</v>
       </c>
       <c r="G102" t="s">
-        <v>191</v>
+        <v>14</v>
       </c>
       <c r="H102" t="s">
-        <v>884</v>
+        <v>41</v>
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>632</v>
+        <v>388</v>
       </c>
       <c r="B103" t="s">
         <v>333</v>
       </c>
       <c r="C103" t="s">
-        <v>633</v>
-      </c>
-      <c r="D103" s="8" t="s">
+        <v>389</v>
+      </c>
+      <c r="D103" s="8">
+        <v>14000000</v>
+      </c>
+      <c r="E103" t="s">
         <v>19</v>
       </c>
-      <c r="E103" t="s">
-        <v>634</v>
-      </c>
       <c r="F103" t="s">
-        <v>123</v>
+        <v>13</v>
       </c>
       <c r="G103" t="s">
-        <v>191</v>
+        <v>66</v>
       </c>
       <c r="H103" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>483</v>
+        <v>703</v>
       </c>
       <c r="B104" t="s">
         <v>333</v>
       </c>
       <c r="C104" t="s">
-        <v>484</v>
+        <v>704</v>
       </c>
       <c r="D104" s="8">
-        <v>13000000</v>
+        <v>14000000</v>
       </c>
       <c r="E104" t="s">
-        <v>485</v>
+        <v>19</v>
       </c>
       <c r="F104" t="s">
-        <v>13</v>
+        <v>200</v>
       </c>
       <c r="G104" t="s">
-        <v>94</v>
+        <v>219</v>
       </c>
       <c r="H104" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="B105" t="s">
         <v>333</v>
       </c>
       <c r="C105" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="D105" s="8">
-        <v>12700000</v>
+        <v>13600000</v>
       </c>
       <c r="E105" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="F105" t="s">
         <v>13</v>
@@ -8616,102 +8610,102 @@
         <v>66</v>
       </c>
       <c r="H105" t="s">
-        <v>41</v>
+        <v>15</v>
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>695</v>
+        <v>581</v>
       </c>
       <c r="B106" t="s">
         <v>333</v>
       </c>
       <c r="C106" t="s">
-        <v>696</v>
+        <v>582</v>
       </c>
       <c r="D106" s="8">
-        <v>12000000</v>
+        <v>13500000</v>
       </c>
       <c r="E106" t="s">
-        <v>697</v>
+        <v>19</v>
       </c>
       <c r="F106" t="s">
-        <v>200</v>
+        <v>123</v>
       </c>
       <c r="G106" t="s">
-        <v>219</v>
+        <v>158</v>
       </c>
       <c r="H106" t="s">
-        <v>33</v>
+        <v>60</v>
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>733</v>
+        <v>483</v>
       </c>
       <c r="B107" t="s">
         <v>333</v>
       </c>
       <c r="C107" t="s">
-        <v>696</v>
+        <v>484</v>
       </c>
       <c r="D107" s="8">
-        <v>12000000</v>
+        <v>13000000</v>
       </c>
       <c r="E107" t="s">
-        <v>734</v>
+        <v>485</v>
       </c>
       <c r="F107" t="s">
-        <v>200</v>
+        <v>13</v>
       </c>
       <c r="G107" t="s">
-        <v>219</v>
+        <v>94</v>
       </c>
       <c r="H107" t="s">
-        <v>33</v>
+        <v>882</v>
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>456</v>
+        <v>423</v>
       </c>
       <c r="B108" t="s">
         <v>333</v>
       </c>
       <c r="C108" t="s">
-        <v>457</v>
+        <v>424</v>
       </c>
       <c r="D108" s="8">
-        <v>11700000</v>
+        <v>12700000</v>
       </c>
       <c r="E108" t="s">
-        <v>458</v>
+        <v>425</v>
       </c>
       <c r="F108" t="s">
         <v>13</v>
       </c>
       <c r="G108" t="s">
-        <v>94</v>
+        <v>66</v>
       </c>
       <c r="H108" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>682</v>
+        <v>729</v>
       </c>
       <c r="B109" t="s">
         <v>333</v>
       </c>
       <c r="C109" t="s">
-        <v>854</v>
+        <v>693</v>
       </c>
       <c r="D109" s="8">
-        <v>11600000</v>
+        <v>12000000</v>
       </c>
       <c r="E109" t="s">
-        <v>855</v>
+        <v>730</v>
       </c>
       <c r="F109" t="s">
         <v>200</v>
@@ -8720,53 +8714,50 @@
         <v>219</v>
       </c>
       <c r="H109" t="s">
-        <v>41</v>
-      </c>
-      <c r="I109" t="s">
-        <v>214</v>
+        <v>33</v>
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>527</v>
+        <v>456</v>
       </c>
       <c r="B110" t="s">
         <v>333</v>
       </c>
       <c r="C110" t="s">
-        <v>528</v>
+        <v>457</v>
       </c>
       <c r="D110" s="8">
-        <v>11500000</v>
+        <v>11700000</v>
       </c>
       <c r="E110" t="s">
-        <v>529</v>
+        <v>458</v>
       </c>
       <c r="F110" t="s">
-        <v>123</v>
+        <v>13</v>
       </c>
       <c r="G110" t="s">
-        <v>124</v>
+        <v>94</v>
       </c>
       <c r="H110" t="s">
-        <v>33</v>
+        <v>882</v>
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="B111" t="s">
         <v>333</v>
       </c>
       <c r="C111" t="s">
-        <v>683</v>
+        <v>847</v>
       </c>
       <c r="D111" s="8">
-        <v>11500000</v>
+        <v>11600000</v>
       </c>
       <c r="E111" t="s">
-        <v>684</v>
+        <v>848</v>
       </c>
       <c r="F111" t="s">
         <v>200</v>
@@ -8775,56 +8766,59 @@
         <v>219</v>
       </c>
       <c r="H111" t="s">
-        <v>884</v>
+        <v>41</v>
+      </c>
+      <c r="I111" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>658</v>
+        <v>527</v>
       </c>
       <c r="B112" t="s">
         <v>333</v>
       </c>
       <c r="C112" t="s">
-        <v>659</v>
-      </c>
-      <c r="D112" s="8" t="s">
-        <v>19</v>
+        <v>528</v>
+      </c>
+      <c r="D112" s="8">
+        <v>11500000</v>
       </c>
       <c r="E112" t="s">
-        <v>660</v>
+        <v>529</v>
       </c>
       <c r="F112" t="s">
         <v>123</v>
       </c>
       <c r="G112" t="s">
-        <v>191</v>
+        <v>124</v>
       </c>
       <c r="H112" t="s">
-        <v>15</v>
+        <v>879</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>414</v>
+        <v>681</v>
       </c>
       <c r="B113" t="s">
         <v>333</v>
       </c>
       <c r="C113" t="s">
-        <v>415</v>
+        <v>682</v>
       </c>
       <c r="D113" s="8">
-        <v>11000000</v>
+        <v>11500000</v>
       </c>
       <c r="E113" t="s">
-        <v>416</v>
+        <v>683</v>
       </c>
       <c r="F113" t="s">
-        <v>13</v>
+        <v>200</v>
       </c>
       <c r="G113" t="s">
-        <v>66</v>
+        <v>219</v>
       </c>
       <c r="H113" t="s">
         <v>41</v>
@@ -8832,51 +8826,51 @@
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>715</v>
+        <v>414</v>
       </c>
       <c r="B114" t="s">
         <v>333</v>
       </c>
       <c r="C114" t="s">
-        <v>716</v>
+        <v>415</v>
       </c>
       <c r="D114" s="8">
         <v>11000000</v>
       </c>
       <c r="E114" t="s">
-        <v>717</v>
+        <v>416</v>
       </c>
       <c r="F114" t="s">
-        <v>200</v>
+        <v>13</v>
       </c>
       <c r="G114" t="s">
-        <v>219</v>
+        <v>66</v>
       </c>
       <c r="H114" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>486</v>
+        <v>711</v>
       </c>
       <c r="B115" t="s">
         <v>333</v>
       </c>
       <c r="C115" t="s">
-        <v>487</v>
+        <v>712</v>
       </c>
       <c r="D115" s="8">
-        <v>10900000</v>
+        <v>11000000</v>
       </c>
       <c r="E115" t="s">
-        <v>488</v>
+        <v>713</v>
       </c>
       <c r="F115" t="s">
-        <v>13</v>
+        <v>200</v>
       </c>
       <c r="G115" t="s">
-        <v>94</v>
+        <v>219</v>
       </c>
       <c r="H115" t="s">
         <v>15</v>
@@ -8884,97 +8878,97 @@
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>545</v>
+        <v>486</v>
       </c>
       <c r="B116" t="s">
         <v>333</v>
       </c>
       <c r="C116" t="s">
-        <v>546</v>
+        <v>487</v>
       </c>
       <c r="D116" s="8">
-        <v>10000000</v>
+        <v>10900000</v>
       </c>
       <c r="E116" t="s">
-        <v>547</v>
+        <v>488</v>
       </c>
       <c r="F116" t="s">
-        <v>123</v>
+        <v>13</v>
       </c>
       <c r="G116" t="s">
-        <v>124</v>
+        <v>94</v>
       </c>
       <c r="H116" t="s">
-        <v>884</v>
+        <v>877</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>583</v>
+        <v>545</v>
       </c>
       <c r="B117" t="s">
         <v>333</v>
       </c>
       <c r="C117" t="s">
-        <v>584</v>
+        <v>546</v>
       </c>
       <c r="D117" s="8">
         <v>10000000</v>
       </c>
       <c r="E117" t="s">
-        <v>585</v>
+        <v>547</v>
       </c>
       <c r="F117" t="s">
         <v>123</v>
       </c>
       <c r="G117" t="s">
-        <v>158</v>
+        <v>124</v>
       </c>
       <c r="H117" t="s">
-        <v>37</v>
+        <v>877</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>673</v>
+        <v>583</v>
       </c>
       <c r="B118" t="s">
         <v>333</v>
       </c>
       <c r="C118" t="s">
-        <v>674</v>
-      </c>
-      <c r="D118" s="8" t="s">
-        <v>19</v>
+        <v>584</v>
+      </c>
+      <c r="D118" s="8">
+        <v>10000000</v>
       </c>
       <c r="E118" t="s">
-        <v>675</v>
+        <v>585</v>
       </c>
       <c r="F118" t="s">
-        <v>200</v>
+        <v>123</v>
       </c>
       <c r="G118" t="s">
-        <v>219</v>
+        <v>158</v>
       </c>
       <c r="H118" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="B119" t="s">
         <v>333</v>
       </c>
       <c r="C119" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="D119" s="8">
         <v>10000000</v>
       </c>
       <c r="E119" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="F119" t="s">
         <v>200</v>
@@ -8988,19 +8982,19 @@
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>779</v>
+        <v>772</v>
       </c>
       <c r="B120" t="s">
         <v>333</v>
       </c>
       <c r="C120" t="s">
-        <v>780</v>
+        <v>773</v>
       </c>
       <c r="D120" s="8">
         <v>10000000</v>
       </c>
       <c r="E120" t="s">
-        <v>781</v>
+        <v>774</v>
       </c>
       <c r="F120" t="s">
         <v>200</v>
@@ -9009,24 +9003,24 @@
         <v>205</v>
       </c>
       <c r="H120" t="s">
-        <v>37</v>
+        <v>882</v>
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>845</v>
+        <v>838</v>
       </c>
       <c r="B121" t="s">
         <v>333</v>
       </c>
       <c r="C121" t="s">
-        <v>846</v>
+        <v>839</v>
       </c>
       <c r="D121" s="8">
         <v>10000000</v>
       </c>
       <c r="E121" t="s">
-        <v>847</v>
+        <v>840</v>
       </c>
       <c r="F121" t="s">
         <v>200</v>
@@ -9035,7 +9029,7 @@
         <v>201</v>
       </c>
       <c r="H121" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
@@ -9061,7 +9055,7 @@
         <v>66</v>
       </c>
       <c r="H122" t="s">
-        <v>15</v>
+        <v>884</v>
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.25">
@@ -9087,24 +9081,24 @@
         <v>124</v>
       </c>
       <c r="H123" t="s">
-        <v>33</v>
+        <v>884</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>750</v>
+        <v>746</v>
       </c>
       <c r="B124" t="s">
         <v>333</v>
       </c>
       <c r="C124" t="s">
-        <v>751</v>
+        <v>747</v>
       </c>
       <c r="D124" s="8">
         <v>8200000</v>
       </c>
       <c r="E124" t="s">
-        <v>752</v>
+        <v>748</v>
       </c>
       <c r="F124" t="s">
         <v>200</v>
@@ -9118,19 +9112,19 @@
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>765</v>
+        <v>761</v>
       </c>
       <c r="B125" t="s">
         <v>333</v>
       </c>
       <c r="C125" t="s">
-        <v>766</v>
+        <v>762</v>
       </c>
       <c r="D125" s="8">
         <v>8000000</v>
       </c>
       <c r="E125" t="s">
-        <v>767</v>
+        <v>763</v>
       </c>
       <c r="F125" t="s">
         <v>200</v>
@@ -9139,24 +9133,24 @@
         <v>289</v>
       </c>
       <c r="H125" t="s">
-        <v>33</v>
+        <v>882</v>
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>797</v>
+        <v>790</v>
       </c>
       <c r="B126" t="s">
         <v>333</v>
       </c>
       <c r="C126" t="s">
-        <v>798</v>
+        <v>791</v>
       </c>
       <c r="D126" s="8">
         <v>8000000</v>
       </c>
       <c r="E126" t="s">
-        <v>799</v>
+        <v>792</v>
       </c>
       <c r="F126" t="s">
         <v>200</v>
@@ -9248,13 +9242,13 @@
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
+        <v>660</v>
+      </c>
+      <c r="B130" t="s">
+        <v>333</v>
+      </c>
+      <c r="C130" t="s">
         <v>661</v>
-      </c>
-      <c r="B130" t="s">
-        <v>333</v>
-      </c>
-      <c r="C130" t="s">
-        <v>662</v>
       </c>
       <c r="D130" s="8">
         <v>7500000</v>
@@ -9274,13 +9268,13 @@
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="B131" t="s">
         <v>333</v>
       </c>
       <c r="C131" t="s">
-        <v>850</v>
+        <v>843</v>
       </c>
       <c r="D131" s="8">
         <v>7500000</v>
@@ -9324,7 +9318,7 @@
         <v>66</v>
       </c>
       <c r="H132" t="s">
-        <v>884</v>
+        <v>877</v>
       </c>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.25">
@@ -9355,13 +9349,13 @@
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>774</v>
+        <v>767</v>
       </c>
       <c r="B134" t="s">
         <v>333</v>
       </c>
       <c r="C134" t="s">
-        <v>775</v>
+        <v>768</v>
       </c>
       <c r="D134" s="8">
         <v>7000000</v>
@@ -9381,149 +9375,149 @@
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>721</v>
+        <v>554</v>
       </c>
       <c r="B135" t="s">
         <v>333</v>
       </c>
       <c r="C135" t="s">
-        <v>722</v>
-      </c>
-      <c r="D135" s="8" t="s">
-        <v>19</v>
+        <v>555</v>
+      </c>
+      <c r="D135" s="8">
+        <v>6000000</v>
       </c>
       <c r="E135" t="s">
-        <v>723</v>
+        <v>556</v>
       </c>
       <c r="F135" t="s">
-        <v>200</v>
+        <v>123</v>
       </c>
       <c r="G135" t="s">
-        <v>219</v>
+        <v>124</v>
       </c>
       <c r="H135" t="s">
-        <v>37</v>
+        <v>884</v>
       </c>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>554</v>
+        <v>635</v>
       </c>
       <c r="B136" t="s">
         <v>333</v>
       </c>
       <c r="C136" t="s">
-        <v>555</v>
+        <v>636</v>
       </c>
       <c r="D136" s="8">
         <v>6000000</v>
       </c>
       <c r="E136" t="s">
-        <v>556</v>
+        <v>637</v>
       </c>
       <c r="F136" t="s">
         <v>123</v>
       </c>
       <c r="G136" t="s">
-        <v>124</v>
+        <v>191</v>
       </c>
       <c r="H136" t="s">
-        <v>15</v>
+        <v>877</v>
       </c>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>727</v>
+        <v>647</v>
       </c>
       <c r="B137" t="s">
         <v>333</v>
       </c>
       <c r="C137" t="s">
-        <v>728</v>
-      </c>
-      <c r="D137" s="8" t="s">
-        <v>19</v>
+        <v>648</v>
+      </c>
+      <c r="D137" s="8">
+        <v>6000000</v>
       </c>
       <c r="E137" t="s">
-        <v>729</v>
+        <v>649</v>
       </c>
       <c r="F137" t="s">
-        <v>200</v>
+        <v>123</v>
       </c>
       <c r="G137" t="s">
-        <v>219</v>
+        <v>191</v>
       </c>
       <c r="H137" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>635</v>
+        <v>497</v>
       </c>
       <c r="B138" t="s">
         <v>333</v>
       </c>
       <c r="C138" t="s">
-        <v>636</v>
+        <v>498</v>
       </c>
       <c r="D138" s="8">
-        <v>6000000</v>
+        <v>5200000</v>
       </c>
       <c r="E138" t="s">
-        <v>637</v>
+        <v>499</v>
       </c>
       <c r="F138" t="s">
-        <v>123</v>
+        <v>13</v>
       </c>
       <c r="G138" t="s">
-        <v>191</v>
+        <v>94</v>
       </c>
       <c r="H138" t="s">
-        <v>884</v>
+        <v>41</v>
       </c>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>647</v>
+        <v>355</v>
       </c>
       <c r="B139" t="s">
         <v>333</v>
       </c>
       <c r="C139" t="s">
-        <v>648</v>
+        <v>356</v>
       </c>
       <c r="D139" s="8">
-        <v>6000000</v>
+        <v>5000000</v>
       </c>
       <c r="E139" t="s">
-        <v>649</v>
+        <v>357</v>
       </c>
       <c r="F139" t="s">
-        <v>123</v>
+        <v>13</v>
       </c>
       <c r="G139" t="s">
-        <v>191</v>
+        <v>14</v>
       </c>
       <c r="H139" t="s">
-        <v>33</v>
+        <v>882</v>
       </c>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>497</v>
+        <v>468</v>
       </c>
       <c r="B140" t="s">
         <v>333</v>
       </c>
       <c r="C140" t="s">
-        <v>498</v>
+        <v>469</v>
       </c>
       <c r="D140" s="8">
-        <v>5200000</v>
+        <v>5000000</v>
       </c>
       <c r="E140" t="s">
-        <v>499</v>
+        <v>470</v>
       </c>
       <c r="F140" t="s">
         <v>13</v>
@@ -9537,314 +9531,317 @@
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>355</v>
+        <v>393</v>
       </c>
       <c r="B141" t="s">
         <v>333</v>
       </c>
       <c r="C141" t="s">
-        <v>356</v>
+        <v>834</v>
       </c>
       <c r="D141" s="8">
         <v>5000000</v>
       </c>
       <c r="E141" t="s">
-        <v>357</v>
+        <v>19</v>
       </c>
       <c r="F141" t="s">
-        <v>13</v>
+        <v>200</v>
       </c>
       <c r="G141" t="s">
-        <v>14</v>
+        <v>205</v>
       </c>
       <c r="H141" t="s">
-        <v>15</v>
+        <v>877</v>
       </c>
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>468</v>
+        <v>832</v>
       </c>
       <c r="B142" t="s">
         <v>333</v>
       </c>
       <c r="C142" t="s">
-        <v>469</v>
+        <v>833</v>
       </c>
       <c r="D142" s="8">
-        <v>5000000</v>
+        <v>4875000</v>
       </c>
       <c r="E142" t="s">
-        <v>470</v>
+        <v>19</v>
       </c>
       <c r="F142" t="s">
-        <v>13</v>
+        <v>200</v>
       </c>
       <c r="G142" t="s">
-        <v>94</v>
+        <v>205</v>
       </c>
       <c r="H142" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>393</v>
+        <v>700</v>
       </c>
       <c r="B143" t="s">
         <v>333</v>
       </c>
       <c r="C143" t="s">
-        <v>841</v>
+        <v>701</v>
       </c>
       <c r="D143" s="8">
-        <v>5000000</v>
+        <v>4700000</v>
       </c>
       <c r="E143" t="s">
-        <v>19</v>
+        <v>702</v>
       </c>
       <c r="F143" t="s">
         <v>200</v>
       </c>
       <c r="G143" t="s">
-        <v>205</v>
+        <v>219</v>
       </c>
       <c r="H143" t="s">
-        <v>884</v>
+        <v>877</v>
       </c>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>839</v>
+        <v>592</v>
       </c>
       <c r="B144" t="s">
         <v>333</v>
       </c>
       <c r="C144" t="s">
-        <v>840</v>
+        <v>593</v>
       </c>
       <c r="D144" s="8">
-        <v>4875000</v>
+        <v>4500000</v>
       </c>
       <c r="E144" t="s">
-        <v>19</v>
+        <v>594</v>
       </c>
       <c r="F144" t="s">
-        <v>200</v>
+        <v>123</v>
       </c>
       <c r="G144" t="s">
-        <v>205</v>
+        <v>158</v>
       </c>
       <c r="H144" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>704</v>
+        <v>615</v>
       </c>
       <c r="B145" t="s">
         <v>333</v>
       </c>
       <c r="C145" t="s">
-        <v>705</v>
+        <v>616</v>
       </c>
       <c r="D145" s="8">
-        <v>4700000</v>
+        <v>4500000</v>
       </c>
       <c r="E145" t="s">
-        <v>706</v>
+        <v>617</v>
       </c>
       <c r="F145" t="s">
-        <v>200</v>
+        <v>123</v>
       </c>
       <c r="G145" t="s">
-        <v>219</v>
+        <v>158</v>
       </c>
       <c r="H145" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>592</v>
+        <v>749</v>
       </c>
       <c r="B146" t="s">
         <v>333</v>
       </c>
       <c r="C146" t="s">
-        <v>593</v>
+        <v>750</v>
       </c>
       <c r="D146" s="8">
         <v>4500000</v>
       </c>
       <c r="E146" t="s">
-        <v>594</v>
+        <v>751</v>
       </c>
       <c r="F146" t="s">
-        <v>123</v>
+        <v>200</v>
       </c>
       <c r="G146" t="s">
-        <v>158</v>
+        <v>289</v>
       </c>
       <c r="H146" t="s">
-        <v>33</v>
+        <v>882</v>
       </c>
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>615</v>
+        <v>841</v>
       </c>
       <c r="B147" t="s">
         <v>333</v>
       </c>
       <c r="C147" t="s">
-        <v>616</v>
+        <v>842</v>
       </c>
       <c r="D147" s="8">
         <v>4500000</v>
       </c>
       <c r="E147" t="s">
-        <v>617</v>
+        <v>19</v>
       </c>
       <c r="F147" t="s">
-        <v>123</v>
+        <v>200</v>
       </c>
       <c r="G147" t="s">
-        <v>158</v>
+        <v>219</v>
       </c>
       <c r="H147" t="s">
-        <v>23</v>
+        <v>41</v>
+      </c>
+      <c r="I147" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>753</v>
+        <v>606</v>
       </c>
       <c r="B148" t="s">
         <v>333</v>
       </c>
       <c r="C148" t="s">
-        <v>754</v>
+        <v>607</v>
       </c>
       <c r="D148" s="8">
-        <v>4500000</v>
+        <v>4000000</v>
       </c>
       <c r="E148" t="s">
-        <v>755</v>
+        <v>608</v>
       </c>
       <c r="F148" t="s">
-        <v>200</v>
+        <v>123</v>
       </c>
       <c r="G148" t="s">
-        <v>289</v>
+        <v>158</v>
       </c>
       <c r="H148" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>848</v>
+        <v>566</v>
       </c>
       <c r="B149" t="s">
         <v>333</v>
       </c>
       <c r="C149" t="s">
-        <v>849</v>
+        <v>567</v>
       </c>
       <c r="D149" s="8">
-        <v>4500000</v>
+        <v>3175000</v>
       </c>
       <c r="E149" t="s">
-        <v>19</v>
+        <v>568</v>
       </c>
       <c r="F149" t="s">
-        <v>200</v>
+        <v>123</v>
       </c>
       <c r="G149" t="s">
-        <v>219</v>
+        <v>124</v>
       </c>
       <c r="H149" t="s">
-        <v>41</v>
-      </c>
-      <c r="I149" t="s">
-        <v>214</v>
+        <v>23</v>
       </c>
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>606</v>
+        <v>518</v>
       </c>
       <c r="B150" t="s">
         <v>333</v>
       </c>
       <c r="C150" t="s">
-        <v>607</v>
+        <v>519</v>
       </c>
       <c r="D150" s="8">
-        <v>4000000</v>
+        <v>3000000</v>
       </c>
       <c r="E150" t="s">
-        <v>608</v>
+        <v>520</v>
       </c>
       <c r="F150" t="s">
         <v>123</v>
       </c>
       <c r="G150" t="s">
-        <v>158</v>
+        <v>124</v>
       </c>
       <c r="H150" t="s">
-        <v>15</v>
+        <v>875</v>
       </c>
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>566</v>
+        <v>850</v>
       </c>
       <c r="B151" t="s">
         <v>333</v>
       </c>
       <c r="C151" t="s">
-        <v>567</v>
+        <v>851</v>
       </c>
       <c r="D151" s="8">
-        <v>3175000</v>
+        <v>3000000</v>
       </c>
       <c r="E151" t="s">
-        <v>568</v>
+        <v>19</v>
       </c>
       <c r="F151" t="s">
         <v>123</v>
       </c>
       <c r="G151" t="s">
-        <v>124</v>
+        <v>158</v>
       </c>
       <c r="H151" t="s">
-        <v>23</v>
+        <v>15</v>
+      </c>
+      <c r="I151" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>518</v>
+        <v>734</v>
       </c>
       <c r="B152" t="s">
         <v>333</v>
       </c>
       <c r="C152" t="s">
-        <v>519</v>
+        <v>735</v>
       </c>
       <c r="D152" s="8">
-        <v>3000000</v>
+        <v>2857500</v>
       </c>
       <c r="E152" t="s">
-        <v>520</v>
+        <v>736</v>
       </c>
       <c r="F152" t="s">
-        <v>123</v>
+        <v>200</v>
       </c>
       <c r="G152" t="s">
-        <v>124</v>
+        <v>219</v>
       </c>
       <c r="H152" t="s">
         <v>33</v>
@@ -9852,132 +9849,129 @@
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>857</v>
+        <v>826</v>
       </c>
       <c r="B153" t="s">
         <v>333</v>
       </c>
       <c r="C153" t="s">
-        <v>858</v>
+        <v>827</v>
       </c>
       <c r="D153" s="8">
-        <v>3000000</v>
+        <v>2800000</v>
       </c>
       <c r="E153" t="s">
-        <v>19</v>
+        <v>828</v>
       </c>
       <c r="F153" t="s">
-        <v>123</v>
+        <v>200</v>
       </c>
       <c r="G153" t="s">
-        <v>158</v>
+        <v>205</v>
       </c>
       <c r="H153" t="s">
-        <v>15</v>
-      </c>
-      <c r="I153" t="s">
-        <v>214</v>
+        <v>60</v>
       </c>
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>738</v>
+        <v>609</v>
       </c>
       <c r="B154" t="s">
         <v>333</v>
       </c>
       <c r="C154" t="s">
-        <v>739</v>
+        <v>610</v>
       </c>
       <c r="D154" s="8">
-        <v>2857500</v>
+        <v>2500000</v>
       </c>
       <c r="E154" t="s">
-        <v>740</v>
+        <v>611</v>
       </c>
       <c r="F154" t="s">
-        <v>200</v>
+        <v>123</v>
       </c>
       <c r="G154" t="s">
-        <v>219</v>
+        <v>158</v>
       </c>
       <c r="H154" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>833</v>
+        <v>612</v>
       </c>
       <c r="B155" t="s">
         <v>333</v>
       </c>
       <c r="C155" t="s">
-        <v>834</v>
+        <v>613</v>
       </c>
       <c r="D155" s="8">
-        <v>2800000</v>
+        <v>2500000</v>
       </c>
       <c r="E155" t="s">
-        <v>835</v>
+        <v>614</v>
       </c>
       <c r="F155" t="s">
-        <v>200</v>
+        <v>123</v>
       </c>
       <c r="G155" t="s">
-        <v>205</v>
+        <v>158</v>
       </c>
       <c r="H155" t="s">
-        <v>60</v>
+        <v>37</v>
       </c>
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>609</v>
+        <v>726</v>
       </c>
       <c r="B156" t="s">
         <v>333</v>
       </c>
       <c r="C156" t="s">
-        <v>610</v>
+        <v>727</v>
       </c>
       <c r="D156" s="8">
         <v>2500000</v>
       </c>
       <c r="E156" t="s">
-        <v>611</v>
+        <v>728</v>
       </c>
       <c r="F156" t="s">
-        <v>123</v>
+        <v>200</v>
       </c>
       <c r="G156" t="s">
-        <v>158</v>
+        <v>219</v>
       </c>
       <c r="H156" t="s">
-        <v>15</v>
+        <v>877</v>
       </c>
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>612</v>
+        <v>432</v>
       </c>
       <c r="B157" t="s">
         <v>333</v>
       </c>
       <c r="C157" t="s">
-        <v>613</v>
+        <v>433</v>
       </c>
       <c r="D157" s="8">
-        <v>2500000</v>
+        <v>2300000</v>
       </c>
       <c r="E157" t="s">
-        <v>614</v>
+        <v>434</v>
       </c>
       <c r="F157" t="s">
-        <v>123</v>
+        <v>13</v>
       </c>
       <c r="G157" t="s">
-        <v>158</v>
+        <v>66</v>
       </c>
       <c r="H157" t="s">
         <v>37</v>
@@ -9985,820 +9979,637 @@
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>730</v>
+        <v>665</v>
       </c>
       <c r="B158" t="s">
         <v>333</v>
       </c>
       <c r="C158" t="s">
-        <v>731</v>
+        <v>666</v>
       </c>
       <c r="D158" s="8">
-        <v>2500000</v>
+        <v>2300000</v>
       </c>
       <c r="E158" t="s">
-        <v>732</v>
+        <v>667</v>
       </c>
       <c r="F158" t="s">
-        <v>200</v>
+        <v>123</v>
       </c>
       <c r="G158" t="s">
-        <v>219</v>
+        <v>191</v>
       </c>
       <c r="H158" t="s">
-        <v>884</v>
+        <v>23</v>
       </c>
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>432</v>
+        <v>737</v>
       </c>
       <c r="B159" t="s">
         <v>333</v>
       </c>
       <c r="C159" t="s">
-        <v>433</v>
+        <v>738</v>
       </c>
       <c r="D159" s="8">
         <v>2300000</v>
       </c>
       <c r="E159" t="s">
-        <v>434</v>
+        <v>739</v>
       </c>
       <c r="F159" t="s">
-        <v>13</v>
+        <v>200</v>
       </c>
       <c r="G159" t="s">
-        <v>66</v>
+        <v>219</v>
       </c>
       <c r="H159" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>666</v>
+        <v>426</v>
       </c>
       <c r="B160" t="s">
         <v>333</v>
       </c>
       <c r="C160" t="s">
-        <v>667</v>
+        <v>427</v>
       </c>
       <c r="D160" s="8">
-        <v>2300000</v>
+        <v>2000000</v>
       </c>
       <c r="E160" t="s">
-        <v>668</v>
+        <v>428</v>
       </c>
       <c r="F160" t="s">
-        <v>123</v>
+        <v>13</v>
       </c>
       <c r="G160" t="s">
-        <v>191</v>
+        <v>66</v>
       </c>
       <c r="H160" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>741</v>
+        <v>515</v>
       </c>
       <c r="B161" t="s">
         <v>333</v>
       </c>
       <c r="C161" t="s">
-        <v>742</v>
+        <v>516</v>
       </c>
       <c r="D161" s="8">
-        <v>2300000</v>
+        <v>2000000</v>
       </c>
       <c r="E161" t="s">
-        <v>743</v>
+        <v>517</v>
       </c>
       <c r="F161" t="s">
-        <v>200</v>
+        <v>123</v>
       </c>
       <c r="G161" t="s">
-        <v>219</v>
+        <v>124</v>
       </c>
       <c r="H161" t="s">
-        <v>15</v>
+        <v>60</v>
       </c>
     </row>
     <row r="162" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>426</v>
+        <v>560</v>
       </c>
       <c r="B162" t="s">
         <v>333</v>
       </c>
       <c r="C162" t="s">
-        <v>427</v>
+        <v>561</v>
       </c>
       <c r="D162" s="8">
         <v>2000000</v>
       </c>
       <c r="E162" t="s">
-        <v>428</v>
+        <v>562</v>
       </c>
       <c r="F162" t="s">
-        <v>13</v>
+        <v>123</v>
       </c>
       <c r="G162" t="s">
-        <v>66</v>
+        <v>124</v>
       </c>
       <c r="H162" t="s">
-        <v>41</v>
+        <v>15</v>
       </c>
     </row>
     <row r="163" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>515</v>
+        <v>669</v>
       </c>
       <c r="B163" t="s">
         <v>333</v>
       </c>
       <c r="C163" t="s">
-        <v>516</v>
+        <v>670</v>
       </c>
       <c r="D163" s="8">
         <v>2000000</v>
       </c>
       <c r="E163" t="s">
-        <v>517</v>
+        <v>671</v>
       </c>
       <c r="F163" t="s">
-        <v>123</v>
+        <v>200</v>
       </c>
       <c r="G163" t="s">
-        <v>124</v>
+        <v>219</v>
       </c>
       <c r="H163" t="s">
-        <v>60</v>
+        <v>877</v>
       </c>
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>560</v>
+        <v>844</v>
       </c>
       <c r="B164" t="s">
         <v>333</v>
       </c>
       <c r="C164" t="s">
-        <v>561</v>
+        <v>845</v>
       </c>
       <c r="D164" s="8">
         <v>2000000</v>
       </c>
       <c r="E164" t="s">
-        <v>562</v>
+        <v>846</v>
       </c>
       <c r="F164" t="s">
-        <v>123</v>
+        <v>13</v>
       </c>
       <c r="G164" t="s">
-        <v>124</v>
+        <v>94</v>
       </c>
       <c r="H164" t="s">
-        <v>15</v>
+        <v>41</v>
+      </c>
+      <c r="I164" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>670</v>
+        <v>662</v>
       </c>
       <c r="B165" t="s">
         <v>333</v>
       </c>
       <c r="C165" t="s">
-        <v>671</v>
+        <v>663</v>
       </c>
       <c r="D165" s="8">
-        <v>2000000</v>
+        <v>1800000</v>
       </c>
       <c r="E165" t="s">
-        <v>672</v>
+        <v>664</v>
       </c>
       <c r="F165" t="s">
-        <v>200</v>
+        <v>123</v>
       </c>
       <c r="G165" t="s">
-        <v>219</v>
+        <v>191</v>
       </c>
       <c r="H165" t="s">
-        <v>884</v>
+        <v>37</v>
       </c>
     </row>
     <row r="166" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>851</v>
+        <v>503</v>
       </c>
       <c r="B166" t="s">
         <v>333</v>
       </c>
       <c r="C166" t="s">
-        <v>852</v>
+        <v>504</v>
       </c>
       <c r="D166" s="8">
-        <v>2000000</v>
+        <v>1700000</v>
       </c>
       <c r="E166" t="s">
-        <v>853</v>
+        <v>505</v>
       </c>
       <c r="F166" t="s">
-        <v>13</v>
+        <v>123</v>
       </c>
       <c r="G166" t="s">
-        <v>94</v>
+        <v>124</v>
       </c>
       <c r="H166" t="s">
-        <v>41</v>
-      </c>
-      <c r="I166" t="s">
-        <v>214</v>
+        <v>37</v>
       </c>
     </row>
     <row r="167" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>663</v>
+        <v>364</v>
       </c>
       <c r="B167" t="s">
         <v>333</v>
       </c>
       <c r="C167" t="s">
-        <v>664</v>
+        <v>365</v>
       </c>
       <c r="D167" s="8">
-        <v>1800000</v>
+        <v>1600000</v>
       </c>
       <c r="E167" t="s">
-        <v>665</v>
+        <v>366</v>
       </c>
       <c r="F167" t="s">
-        <v>123</v>
+        <v>13</v>
       </c>
       <c r="G167" t="s">
-        <v>191</v>
+        <v>14</v>
       </c>
       <c r="H167" t="s">
-        <v>37</v>
+        <v>877</v>
       </c>
     </row>
     <row r="168" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>503</v>
+        <v>623</v>
       </c>
       <c r="B168" t="s">
         <v>333</v>
       </c>
       <c r="C168" t="s">
-        <v>504</v>
+        <v>624</v>
       </c>
       <c r="D168" s="8">
-        <v>1700000</v>
+        <v>1524000</v>
       </c>
       <c r="E168" t="s">
-        <v>505</v>
+        <v>625</v>
       </c>
       <c r="F168" t="s">
         <v>123</v>
       </c>
       <c r="G168" t="s">
-        <v>124</v>
+        <v>158</v>
       </c>
       <c r="H168" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
     </row>
     <row r="169" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>364</v>
+        <v>731</v>
       </c>
       <c r="B169" t="s">
         <v>333</v>
       </c>
       <c r="C169" t="s">
-        <v>365</v>
+        <v>732</v>
       </c>
       <c r="D169" s="8">
-        <v>1600000</v>
+        <v>1440000</v>
       </c>
       <c r="E169" t="s">
-        <v>366</v>
+        <v>733</v>
       </c>
       <c r="F169" t="s">
-        <v>13</v>
+        <v>200</v>
       </c>
       <c r="G169" t="s">
-        <v>14</v>
+        <v>219</v>
       </c>
       <c r="H169" t="s">
-        <v>884</v>
+        <v>41</v>
       </c>
     </row>
     <row r="170" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>623</v>
+        <v>572</v>
       </c>
       <c r="B170" t="s">
         <v>333</v>
       </c>
       <c r="C170" t="s">
-        <v>624</v>
+        <v>573</v>
       </c>
       <c r="D170" s="8">
-        <v>1524000</v>
+        <v>1270000</v>
       </c>
       <c r="E170" t="s">
-        <v>625</v>
+        <v>574</v>
       </c>
       <c r="F170" t="s">
         <v>123</v>
       </c>
       <c r="G170" t="s">
-        <v>158</v>
+        <v>124</v>
       </c>
       <c r="H170" t="s">
-        <v>33</v>
+        <v>875</v>
       </c>
     </row>
     <row r="171" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>735</v>
+        <v>814</v>
       </c>
       <c r="B171" t="s">
         <v>333</v>
       </c>
       <c r="C171" t="s">
-        <v>736</v>
+        <v>815</v>
       </c>
       <c r="D171" s="8">
-        <v>1440000</v>
+        <v>1270000</v>
       </c>
       <c r="E171" t="s">
-        <v>737</v>
+        <v>816</v>
       </c>
       <c r="F171" t="s">
         <v>200</v>
       </c>
       <c r="G171" t="s">
-        <v>219</v>
+        <v>205</v>
       </c>
       <c r="H171" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="172" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>827</v>
+        <v>393</v>
       </c>
       <c r="B172" t="s">
         <v>333</v>
       </c>
       <c r="C172" t="s">
-        <v>828</v>
-      </c>
-      <c r="D172" s="8" t="s">
+        <v>394</v>
+      </c>
+      <c r="D172" s="8">
+        <v>1200000</v>
+      </c>
+      <c r="E172" t="s">
         <v>19</v>
       </c>
-      <c r="E172" t="s">
-        <v>829</v>
-      </c>
       <c r="F172" t="s">
-        <v>200</v>
+        <v>13</v>
       </c>
       <c r="G172" t="s">
-        <v>205</v>
+        <v>66</v>
       </c>
       <c r="H172" t="s">
-        <v>23</v>
+        <v>877</v>
       </c>
     </row>
     <row r="173" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>830</v>
+        <v>569</v>
       </c>
       <c r="B173" t="s">
         <v>333</v>
       </c>
       <c r="C173" t="s">
-        <v>831</v>
-      </c>
-      <c r="D173" s="8" t="s">
-        <v>19</v>
+        <v>570</v>
+      </c>
+      <c r="D173" s="8">
+        <v>1200000</v>
       </c>
       <c r="E173" t="s">
-        <v>832</v>
+        <v>571</v>
       </c>
       <c r="F173" t="s">
-        <v>200</v>
+        <v>123</v>
       </c>
       <c r="G173" t="s">
-        <v>205</v>
+        <v>124</v>
       </c>
       <c r="H173" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
     </row>
     <row r="174" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>768</v>
+        <v>708</v>
       </c>
       <c r="B174" t="s">
         <v>333</v>
       </c>
       <c r="C174" t="s">
-        <v>769</v>
+        <v>709</v>
       </c>
       <c r="D174" s="8">
-        <v>1304000</v>
+        <v>1200000</v>
       </c>
       <c r="E174" t="s">
-        <v>770</v>
+        <v>710</v>
       </c>
       <c r="F174" t="s">
         <v>200</v>
       </c>
       <c r="G174" t="s">
-        <v>289</v>
+        <v>219</v>
       </c>
       <c r="H174" t="s">
-        <v>37</v>
+        <v>883</v>
       </c>
     </row>
     <row r="175" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>572</v>
+        <v>644</v>
       </c>
       <c r="B175" t="s">
         <v>333</v>
       </c>
       <c r="C175" t="s">
-        <v>573</v>
+        <v>645</v>
       </c>
       <c r="D175" s="8">
-        <v>1270000</v>
+        <v>1180000</v>
       </c>
       <c r="E175" t="s">
-        <v>574</v>
+        <v>646</v>
       </c>
       <c r="F175" t="s">
         <v>123</v>
       </c>
       <c r="G175" t="s">
-        <v>124</v>
+        <v>191</v>
       </c>
       <c r="H175" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
     </row>
     <row r="176" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>821</v>
+        <v>597</v>
       </c>
       <c r="B176" t="s">
         <v>333</v>
       </c>
       <c r="C176" t="s">
-        <v>822</v>
+        <v>598</v>
       </c>
       <c r="D176" s="8">
-        <v>1270000</v>
+        <v>900000</v>
       </c>
       <c r="E176" t="s">
-        <v>823</v>
+        <v>599</v>
       </c>
       <c r="F176" t="s">
+        <v>123</v>
+      </c>
+      <c r="G176" t="s">
+        <v>158</v>
+      </c>
+      <c r="H176" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>764</v>
+      </c>
+      <c r="B177" t="s">
+        <v>333</v>
+      </c>
+      <c r="C177" t="s">
+        <v>765</v>
+      </c>
+      <c r="D177" s="8">
+        <v>400000</v>
+      </c>
+      <c r="E177" t="s">
+        <v>766</v>
+      </c>
+      <c r="F177" t="s">
         <v>200</v>
       </c>
-      <c r="G176" t="s">
-        <v>205</v>
-      </c>
-      <c r="H176" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A177" t="s">
-        <v>393</v>
-      </c>
-      <c r="B177" t="s">
-        <v>333</v>
-      </c>
-      <c r="C177" t="s">
-        <v>394</v>
-      </c>
-      <c r="D177" s="8">
-        <v>1200000</v>
-      </c>
-      <c r="E177" t="s">
-        <v>19</v>
-      </c>
-      <c r="F177" t="s">
-        <v>13</v>
-      </c>
       <c r="G177" t="s">
-        <v>66</v>
+        <v>289</v>
       </c>
       <c r="H177" t="s">
-        <v>884</v>
-      </c>
-    </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>569</v>
+        <v>654</v>
       </c>
       <c r="B178" t="s">
         <v>333</v>
       </c>
       <c r="C178" t="s">
-        <v>570</v>
+        <v>655</v>
       </c>
       <c r="D178" s="8">
-        <v>1200000</v>
+        <v>370000</v>
       </c>
       <c r="E178" t="s">
-        <v>571</v>
+        <v>656</v>
       </c>
       <c r="F178" t="s">
         <v>123</v>
       </c>
       <c r="G178" t="s">
-        <v>124</v>
+        <v>191</v>
       </c>
       <c r="H178" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>712</v>
+        <v>817</v>
       </c>
       <c r="B179" t="s">
         <v>333</v>
       </c>
       <c r="C179" t="s">
-        <v>713</v>
+        <v>818</v>
       </c>
       <c r="D179" s="8">
-        <v>1200000</v>
+        <v>323850</v>
       </c>
       <c r="E179" t="s">
-        <v>714</v>
+        <v>819</v>
       </c>
       <c r="F179" t="s">
         <v>200</v>
       </c>
       <c r="G179" t="s">
+        <v>205</v>
+      </c>
+      <c r="H179" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>705</v>
+      </c>
+      <c r="B180" t="s">
+        <v>333</v>
+      </c>
+      <c r="C180" t="s">
+        <v>706</v>
+      </c>
+      <c r="D180" s="8">
+        <v>250000</v>
+      </c>
+      <c r="E180" t="s">
+        <v>707</v>
+      </c>
+      <c r="F180" t="s">
+        <v>200</v>
+      </c>
+      <c r="G180" t="s">
         <v>219</v>
       </c>
-      <c r="H179" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A180" t="s">
-        <v>644</v>
-      </c>
-      <c r="B180" t="s">
-        <v>333</v>
-      </c>
-      <c r="C180" t="s">
-        <v>645</v>
-      </c>
-      <c r="D180" s="8">
-        <v>1180000</v>
-      </c>
-      <c r="E180" t="s">
-        <v>646</v>
-      </c>
-      <c r="F180" t="s">
-        <v>123</v>
-      </c>
-      <c r="G180" t="s">
-        <v>191</v>
-      </c>
       <c r="H180" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>597</v>
+        <v>578</v>
       </c>
       <c r="B181" t="s">
         <v>333</v>
       </c>
       <c r="C181" t="s">
-        <v>598</v>
+        <v>579</v>
       </c>
       <c r="D181" s="8">
-        <v>900000</v>
+        <v>200000</v>
       </c>
       <c r="E181" t="s">
-        <v>599</v>
+        <v>580</v>
       </c>
       <c r="F181" t="s">
         <v>123</v>
       </c>
       <c r="G181" t="s">
-        <v>158</v>
+        <v>124</v>
       </c>
       <c r="H181" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A182" t="s">
-        <v>771</v>
-      </c>
-      <c r="B182" t="s">
-        <v>333</v>
-      </c>
-      <c r="C182" t="s">
-        <v>772</v>
-      </c>
-      <c r="D182" s="8">
-        <v>400000</v>
-      </c>
-      <c r="E182" t="s">
-        <v>773</v>
-      </c>
-      <c r="F182" t="s">
-        <v>200</v>
-      </c>
-      <c r="G182" t="s">
-        <v>289</v>
-      </c>
-      <c r="H182" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A183" t="s">
-        <v>655</v>
-      </c>
-      <c r="B183" t="s">
-        <v>333</v>
-      </c>
-      <c r="C183" t="s">
-        <v>656</v>
-      </c>
-      <c r="D183" s="8">
-        <v>370000</v>
-      </c>
-      <c r="E183" t="s">
-        <v>657</v>
-      </c>
-      <c r="F183" t="s">
-        <v>123</v>
-      </c>
-      <c r="G183" t="s">
-        <v>191</v>
-      </c>
-      <c r="H183" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A184" t="s">
-        <v>824</v>
-      </c>
-      <c r="B184" t="s">
-        <v>333</v>
-      </c>
-      <c r="C184" t="s">
-        <v>825</v>
-      </c>
-      <c r="D184" s="8">
-        <v>323850</v>
-      </c>
-      <c r="E184" t="s">
-        <v>826</v>
-      </c>
-      <c r="F184" t="s">
-        <v>200</v>
-      </c>
-      <c r="G184" t="s">
-        <v>205</v>
-      </c>
-      <c r="H184" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A185" t="s">
-        <v>709</v>
-      </c>
-      <c r="B185" t="s">
-        <v>333</v>
-      </c>
-      <c r="C185" t="s">
-        <v>710</v>
-      </c>
-      <c r="D185" s="8">
-        <v>250000</v>
-      </c>
-      <c r="E185" t="s">
-        <v>711</v>
-      </c>
-      <c r="F185" t="s">
-        <v>200</v>
-      </c>
-      <c r="G185" t="s">
-        <v>219</v>
-      </c>
-      <c r="H185" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A186" t="s">
-        <v>578</v>
-      </c>
-      <c r="B186" t="s">
-        <v>333</v>
-      </c>
-      <c r="C186" t="s">
-        <v>579</v>
-      </c>
-      <c r="D186" s="8">
-        <v>200000</v>
-      </c>
-      <c r="E186" t="s">
-        <v>580</v>
-      </c>
-      <c r="F186" t="s">
-        <v>123</v>
-      </c>
-      <c r="G186" t="s">
-        <v>124</v>
-      </c>
-      <c r="H186" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A187" t="s">
-        <v>653</v>
-      </c>
-      <c r="B187" t="s">
-        <v>333</v>
-      </c>
-      <c r="C187" t="s">
-        <v>856</v>
-      </c>
-      <c r="D187" s="8">
-        <v>29400000</v>
-      </c>
-      <c r="E187" t="s">
-        <v>19</v>
-      </c>
-      <c r="F187" t="s">
-        <v>123</v>
-      </c>
-      <c r="G187" t="s">
-        <v>191</v>
-      </c>
-      <c r="H187" t="s">
-        <v>884</v>
-      </c>
-      <c r="I187" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A188" t="s">
-        <v>857</v>
-      </c>
-      <c r="B188" t="s">
-        <v>333</v>
-      </c>
-      <c r="C188" t="s">
-        <v>858</v>
-      </c>
-      <c r="D188" s="8">
-        <v>3000000</v>
-      </c>
-      <c r="E188" t="s">
-        <v>19</v>
-      </c>
-      <c r="F188" t="s">
-        <v>123</v>
-      </c>
-      <c r="G188" t="s">
-        <v>158</v>
-      </c>
-      <c r="H188" t="s">
-        <v>15</v>
-      </c>
-      <c r="I188" t="s">
-        <v>214</v>
-      </c>
-    </row>
   </sheetData>
+  <autoFilter ref="A1:I181" xr:uid="{00000000-0001-0000-0100-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I181">
+      <sortCondition descending="1" ref="D1:D181"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -10826,36 +10637,36 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>881</v>
+        <v>874</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>880</v>
+        <v>873</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>879</v>
+        <v>872</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>878</v>
+        <v>871</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>877</v>
+        <v>870</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>876</v>
+        <v>869</v>
       </c>
       <c r="B2" t="s">
-        <v>861</v>
+        <v>854</v>
       </c>
       <c r="C2" t="s">
-        <v>875</v>
+        <v>868</v>
       </c>
       <c r="D2" t="s">
-        <v>874</v>
+        <v>867</v>
       </c>
       <c r="E2" s="3">
         <v>17000000</v>
@@ -10872,13 +10683,13 @@
         <v>453</v>
       </c>
       <c r="B3" t="s">
-        <v>861</v>
+        <v>854</v>
       </c>
       <c r="C3" t="s">
-        <v>873</v>
+        <v>866</v>
       </c>
       <c r="D3" t="s">
-        <v>872</v>
+        <v>865</v>
       </c>
       <c r="E3" s="3">
         <v>75000000</v>
@@ -10892,16 +10703,16 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>871</v>
+        <v>864</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>861</v>
+        <v>854</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>870</v>
+        <v>863</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>862</v>
+        <v>855</v>
       </c>
       <c r="E4" s="9">
         <v>235000000</v>
@@ -10915,16 +10726,16 @@
     </row>
     <row r="5" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>869</v>
+        <v>862</v>
       </c>
       <c r="B5" s="4" t="s">
+        <v>854</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>861</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>868</v>
-      </c>
       <c r="D5" s="4" t="s">
-        <v>862</v>
+        <v>855</v>
       </c>
       <c r="E5" s="9">
         <v>232000000</v>
@@ -10938,16 +10749,16 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>867</v>
+        <v>860</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>861</v>
+        <v>854</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>866</v>
+        <v>859</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>862</v>
+        <v>855</v>
       </c>
       <c r="E6" s="9">
         <v>494000000</v>
@@ -10961,16 +10772,16 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>861</v>
+        <v>854</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>865</v>
+        <v>858</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>862</v>
+        <v>855</v>
       </c>
       <c r="E7" s="9">
         <v>28000000</v>
@@ -10984,16 +10795,16 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>864</v>
+        <v>857</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>861</v>
+        <v>854</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>863</v>
+        <v>856</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>862</v>
+        <v>855</v>
       </c>
       <c r="E8" s="9">
         <v>101000000</v>
@@ -11007,16 +10818,16 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>800</v>
+        <v>793</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>861</v>
+        <v>854</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>860</v>
+        <v>853</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>859</v>
+        <v>852</v>
       </c>
       <c r="E9" s="9">
         <v>364000000</v>

--- a/MedTech_Deals.xlsx
+++ b/MedTech_Deals.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://beacononehcp-my.sharepoint.com/personal/hannah_peric_beacononehcp_com/Documents/Documents/medtech-dashboard/medtech-dashboard/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="150" documentId="13_ncr:1_{A8E36CAE-087B-4CF0-B739-AC648A6297F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4E8B7B18-AE8E-4E40-8CE2-F10934E3E027}"/>
+  <xr:revisionPtr revIDLastSave="189" documentId="13_ncr:1_{A8E36CAE-087B-4CF0-B739-AC648A6297F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1D3AC0D3-B857-40A1-ACDF-1083D7823CEF}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="YTD M&amp;A Activity" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2151" uniqueCount="885">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2151" uniqueCount="884">
   <si>
     <t>Company</t>
   </si>
@@ -1177,9 +1177,6 @@
     <t>Arcuro Medical</t>
   </si>
   <si>
-    <t>All-suture, \"all-inside\" meniscus repair system</t>
-  </si>
-  <si>
     <t>Varana Capital (led), Trendlines, Consensus Business Group</t>
   </si>
   <si>
@@ -2671,9 +2668,6 @@
     <t>Clario</t>
   </si>
   <si>
-    <t>Opthalmology</t>
-  </si>
-  <si>
     <t>Neurology</t>
   </si>
   <si>
@@ -2681,6 +2675,9 @@
   </si>
   <si>
     <t>Ophthalmology</t>
+  </si>
+  <si>
+    <t>All-suture, "all-inside" meniscus repair system</t>
   </si>
 </sst>
 </file>
@@ -2791,7 +2788,18 @@
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -3091,8 +3099,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I105"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3158,7 +3166,7 @@
         <v>201</v>
       </c>
       <c r="H2" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -3184,7 +3192,7 @@
         <v>14</v>
       </c>
       <c r="H3" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -3236,7 +3244,7 @@
         <v>14</v>
       </c>
       <c r="H5" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -3262,7 +3270,7 @@
         <v>14</v>
       </c>
       <c r="H6" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -3366,7 +3374,7 @@
         <v>14</v>
       </c>
       <c r="H10" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -3392,7 +3400,7 @@
         <v>14</v>
       </c>
       <c r="H11" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -3418,7 +3426,7 @@
         <v>14</v>
       </c>
       <c r="H12" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -3444,7 +3452,7 @@
         <v>14</v>
       </c>
       <c r="H13" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -3496,7 +3504,7 @@
         <v>14</v>
       </c>
       <c r="H15" t="s">
-        <v>60</v>
+        <v>878</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -3522,7 +3530,7 @@
         <v>14</v>
       </c>
       <c r="H16" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
@@ -3548,7 +3556,7 @@
         <v>66</v>
       </c>
       <c r="H17" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
@@ -3652,7 +3660,7 @@
         <v>124</v>
       </c>
       <c r="H21" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
@@ -3704,7 +3712,7 @@
         <v>66</v>
       </c>
       <c r="H23" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
@@ -3730,7 +3738,7 @@
         <v>66</v>
       </c>
       <c r="H24" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
@@ -3756,7 +3764,7 @@
         <v>66</v>
       </c>
       <c r="H25" t="s">
-        <v>15</v>
+        <v>878</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
@@ -3866,7 +3874,7 @@
         <v>94</v>
       </c>
       <c r="H29" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
@@ -3892,7 +3900,7 @@
         <v>94</v>
       </c>
       <c r="H30" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
@@ -4048,7 +4056,7 @@
         <v>66</v>
       </c>
       <c r="H36" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
@@ -4100,7 +4108,7 @@
         <v>124</v>
       </c>
       <c r="H38" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
@@ -4126,7 +4134,7 @@
         <v>124</v>
       </c>
       <c r="H39" t="s">
-        <v>33</v>
+        <v>875</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
@@ -4178,7 +4186,7 @@
         <v>124</v>
       </c>
       <c r="H41" t="s">
-        <v>41</v>
+        <v>876</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
@@ -4230,7 +4238,7 @@
         <v>201</v>
       </c>
       <c r="H43" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
@@ -4334,7 +4342,7 @@
         <v>205</v>
       </c>
       <c r="H47" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
@@ -4386,7 +4394,7 @@
         <v>158</v>
       </c>
       <c r="H49" t="s">
-        <v>15</v>
+        <v>875</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
@@ -4412,7 +4420,7 @@
         <v>158</v>
       </c>
       <c r="H50" t="s">
-        <v>15</v>
+        <v>875</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
@@ -4438,7 +4446,7 @@
         <v>158</v>
       </c>
       <c r="H51" t="s">
-        <v>15</v>
+        <v>875</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
@@ -4490,7 +4498,7 @@
         <v>158</v>
       </c>
       <c r="H53" t="s">
-        <v>15</v>
+        <v>60</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
@@ -4516,7 +4524,7 @@
         <v>14</v>
       </c>
       <c r="H54" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
@@ -4542,7 +4550,7 @@
         <v>158</v>
       </c>
       <c r="H55" t="s">
-        <v>33</v>
+        <v>875</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
@@ -4568,7 +4576,7 @@
         <v>158</v>
       </c>
       <c r="H56" t="s">
-        <v>33</v>
+        <v>881</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
@@ -4672,7 +4680,7 @@
         <v>124</v>
       </c>
       <c r="H60" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
@@ -4750,7 +4758,7 @@
         <v>14</v>
       </c>
       <c r="H63" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
@@ -4802,7 +4810,7 @@
         <v>158</v>
       </c>
       <c r="H65" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
@@ -5010,7 +5018,7 @@
         <v>94</v>
       </c>
       <c r="H73" t="s">
-        <v>41</v>
+        <v>15</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
@@ -5036,7 +5044,7 @@
         <v>94</v>
       </c>
       <c r="H74" t="s">
-        <v>33</v>
+        <v>875</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
@@ -5062,7 +5070,7 @@
         <v>94</v>
       </c>
       <c r="H75" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
@@ -5114,7 +5122,7 @@
         <v>201</v>
       </c>
       <c r="H77" t="s">
-        <v>33</v>
+        <v>875</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
@@ -5140,7 +5148,7 @@
         <v>201</v>
       </c>
       <c r="H78" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
@@ -5166,7 +5174,7 @@
         <v>201</v>
       </c>
       <c r="H79" t="s">
-        <v>33</v>
+        <v>878</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
@@ -5192,7 +5200,7 @@
         <v>205</v>
       </c>
       <c r="H80" t="s">
-        <v>15</v>
+        <v>876</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
@@ -5218,7 +5226,7 @@
         <v>205</v>
       </c>
       <c r="H81" t="s">
-        <v>15</v>
+        <v>875</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
@@ -5270,7 +5278,7 @@
         <v>205</v>
       </c>
       <c r="H83" t="s">
-        <v>33</v>
+        <v>875</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
@@ -5296,7 +5304,7 @@
         <v>205</v>
       </c>
       <c r="H84" t="s">
-        <v>33</v>
+        <v>875</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
@@ -5322,7 +5330,7 @@
         <v>205</v>
       </c>
       <c r="H85" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
@@ -5400,7 +5408,7 @@
         <v>205</v>
       </c>
       <c r="H88" t="s">
-        <v>15</v>
+        <v>875</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
@@ -5426,7 +5434,7 @@
         <v>205</v>
       </c>
       <c r="H89" t="s">
-        <v>33</v>
+        <v>875</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
@@ -5452,7 +5460,7 @@
         <v>289</v>
       </c>
       <c r="H90" t="s">
-        <v>15</v>
+        <v>875</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
@@ -5478,7 +5486,7 @@
         <v>219</v>
       </c>
       <c r="H91" t="s">
-        <v>41</v>
+        <v>875</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
@@ -5504,7 +5512,7 @@
         <v>219</v>
       </c>
       <c r="H92" t="s">
-        <v>15</v>
+        <v>875</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
@@ -5530,7 +5538,7 @@
         <v>219</v>
       </c>
       <c r="H93" t="s">
-        <v>33</v>
+        <v>875</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
@@ -5556,7 +5564,7 @@
         <v>219</v>
       </c>
       <c r="H94" t="s">
-        <v>33</v>
+        <v>875</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
@@ -5582,7 +5590,7 @@
         <v>219</v>
       </c>
       <c r="H95" t="s">
-        <v>33</v>
+        <v>881</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
@@ -5608,7 +5616,7 @@
         <v>219</v>
       </c>
       <c r="H96" t="s">
-        <v>60</v>
+        <v>881</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.25">
@@ -5634,7 +5642,7 @@
         <v>219</v>
       </c>
       <c r="H97" t="s">
-        <v>33</v>
+        <v>875</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.25">
@@ -5738,7 +5746,7 @@
         <v>158</v>
       </c>
       <c r="H101" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.25">
@@ -5816,7 +5824,7 @@
         <v>289</v>
       </c>
       <c r="H104" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="I104" t="s">
         <v>214</v>
@@ -5824,7 +5832,7 @@
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="B105" t="s">
         <v>83</v>
@@ -5833,7 +5841,7 @@
         <v>11</v>
       </c>
       <c r="D105" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="E105" s="6">
         <v>8900000000</v>
@@ -5845,7 +5853,7 @@
         <v>201</v>
       </c>
       <c r="H105" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
     </row>
   </sheetData>
@@ -5862,8 +5870,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I181"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView topLeftCell="A160" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="H174" sqref="H174"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5940,13 +5948,13 @@
         <v>333</v>
       </c>
       <c r="C3" t="s">
-        <v>383</v>
+        <v>883</v>
       </c>
       <c r="D3" s="8" t="s">
         <v>19</v>
       </c>
       <c r="E3" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="F3" t="s">
         <v>13</v>
@@ -5960,19 +5968,19 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>428</v>
+      </c>
+      <c r="B4" t="s">
+        <v>333</v>
+      </c>
+      <c r="C4" t="s">
         <v>429</v>
-      </c>
-      <c r="B4" t="s">
-        <v>333</v>
-      </c>
-      <c r="C4" t="s">
-        <v>430</v>
       </c>
       <c r="D4" s="8" t="s">
         <v>19</v>
       </c>
       <c r="E4" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="F4" t="s">
         <v>13</v>
@@ -5986,19 +5994,19 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>437</v>
+      </c>
+      <c r="B5" t="s">
+        <v>333</v>
+      </c>
+      <c r="C5" t="s">
         <v>438</v>
-      </c>
-      <c r="B5" t="s">
-        <v>333</v>
-      </c>
-      <c r="C5" t="s">
-        <v>439</v>
       </c>
       <c r="D5" s="8" t="s">
         <v>19</v>
       </c>
       <c r="E5" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="F5" t="s">
         <v>13</v>
@@ -6012,19 +6020,19 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B6" t="s">
         <v>339</v>
       </c>
       <c r="C6" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="D6" s="8" t="s">
         <v>19</v>
       </c>
       <c r="E6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="F6" t="s">
         <v>13</v>
@@ -6038,19 +6046,19 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>538</v>
+      </c>
+      <c r="B7" t="s">
+        <v>333</v>
+      </c>
+      <c r="C7" t="s">
         <v>539</v>
-      </c>
-      <c r="B7" t="s">
-        <v>333</v>
-      </c>
-      <c r="C7" t="s">
-        <v>540</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>19</v>
       </c>
       <c r="E7" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="F7" t="s">
         <v>123</v>
@@ -6064,19 +6072,19 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>547</v>
+      </c>
+      <c r="B8" t="s">
+        <v>333</v>
+      </c>
+      <c r="C8" t="s">
         <v>548</v>
-      </c>
-      <c r="B8" t="s">
-        <v>333</v>
-      </c>
-      <c r="C8" t="s">
-        <v>549</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>19</v>
       </c>
       <c r="E8" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="F8" t="s">
         <v>123</v>
@@ -6085,7 +6093,7 @@
         <v>124</v>
       </c>
       <c r="H8" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -6096,13 +6104,13 @@
         <v>333</v>
       </c>
       <c r="C9" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="D9" s="8" t="s">
         <v>19</v>
       </c>
       <c r="E9" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="F9" t="s">
         <v>123</v>
@@ -6116,19 +6124,19 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>599</v>
+      </c>
+      <c r="B10" t="s">
+        <v>333</v>
+      </c>
+      <c r="C10" t="s">
         <v>600</v>
-      </c>
-      <c r="B10" t="s">
-        <v>333</v>
-      </c>
-      <c r="C10" t="s">
-        <v>601</v>
       </c>
       <c r="D10" s="8" t="s">
         <v>19</v>
       </c>
       <c r="E10" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="F10" t="s">
         <v>123</v>
@@ -6142,13 +6150,13 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>617</v>
+      </c>
+      <c r="B11" t="s">
+        <v>333</v>
+      </c>
+      <c r="C11" t="s">
         <v>618</v>
-      </c>
-      <c r="B11" t="s">
-        <v>333</v>
-      </c>
-      <c r="C11" t="s">
-        <v>619</v>
       </c>
       <c r="D11" s="8" t="s">
         <v>19</v>
@@ -6168,19 +6176,19 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>619</v>
+      </c>
+      <c r="B12" t="s">
+        <v>333</v>
+      </c>
+      <c r="C12" t="s">
         <v>620</v>
-      </c>
-      <c r="B12" t="s">
-        <v>333</v>
-      </c>
-      <c r="C12" t="s">
-        <v>621</v>
       </c>
       <c r="D12" s="8" t="s">
         <v>19</v>
       </c>
       <c r="E12" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="F12" t="s">
         <v>123</v>
@@ -6194,19 +6202,19 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>628</v>
+      </c>
+      <c r="B13" t="s">
+        <v>333</v>
+      </c>
+      <c r="C13" t="s">
         <v>629</v>
-      </c>
-      <c r="B13" t="s">
-        <v>333</v>
-      </c>
-      <c r="C13" t="s">
-        <v>630</v>
       </c>
       <c r="D13" s="8" t="s">
         <v>19</v>
       </c>
       <c r="E13" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="F13" t="s">
         <v>123</v>
@@ -6215,24 +6223,24 @@
         <v>191</v>
       </c>
       <c r="H13" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>631</v>
+      </c>
+      <c r="B14" t="s">
+        <v>333</v>
+      </c>
+      <c r="C14" t="s">
         <v>632</v>
-      </c>
-      <c r="B14" t="s">
-        <v>333</v>
-      </c>
-      <c r="C14" t="s">
-        <v>633</v>
       </c>
       <c r="D14" s="8" t="s">
         <v>19</v>
       </c>
       <c r="E14" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="F14" t="s">
         <v>123</v>
@@ -6246,19 +6254,19 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>656</v>
+      </c>
+      <c r="B15" t="s">
+        <v>333</v>
+      </c>
+      <c r="C15" t="s">
         <v>657</v>
-      </c>
-      <c r="B15" t="s">
-        <v>333</v>
-      </c>
-      <c r="C15" t="s">
-        <v>658</v>
       </c>
       <c r="D15" s="8" t="s">
         <v>19</v>
       </c>
       <c r="E15" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="F15" t="s">
         <v>123</v>
@@ -6272,19 +6280,19 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>671</v>
+      </c>
+      <c r="B16" t="s">
+        <v>333</v>
+      </c>
+      <c r="C16" t="s">
         <v>672</v>
-      </c>
-      <c r="B16" t="s">
-        <v>333</v>
-      </c>
-      <c r="C16" t="s">
-        <v>673</v>
       </c>
       <c r="D16" s="8" t="s">
         <v>19</v>
       </c>
       <c r="E16" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="F16" t="s">
         <v>200</v>
@@ -6298,19 +6306,19 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>716</v>
+      </c>
+      <c r="B17" t="s">
+        <v>333</v>
+      </c>
+      <c r="C17" t="s">
         <v>717</v>
-      </c>
-      <c r="B17" t="s">
-        <v>333</v>
-      </c>
-      <c r="C17" t="s">
-        <v>718</v>
       </c>
       <c r="D17" s="8" t="s">
         <v>19</v>
       </c>
       <c r="E17" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="F17" t="s">
         <v>200</v>
@@ -6324,19 +6332,19 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>722</v>
+      </c>
+      <c r="B18" t="s">
+        <v>333</v>
+      </c>
+      <c r="C18" t="s">
         <v>723</v>
-      </c>
-      <c r="B18" t="s">
-        <v>333</v>
-      </c>
-      <c r="C18" t="s">
-        <v>724</v>
       </c>
       <c r="D18" s="8" t="s">
         <v>19</v>
       </c>
       <c r="E18" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="F18" t="s">
         <v>200</v>
@@ -6350,19 +6358,19 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>819</v>
+      </c>
+      <c r="B19" t="s">
+        <v>333</v>
+      </c>
+      <c r="C19" t="s">
         <v>820</v>
-      </c>
-      <c r="B19" t="s">
-        <v>333</v>
-      </c>
-      <c r="C19" t="s">
-        <v>821</v>
       </c>
       <c r="D19" s="8" t="s">
         <v>19</v>
       </c>
       <c r="E19" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="F19" t="s">
         <v>200</v>
@@ -6376,19 +6384,19 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>822</v>
+      </c>
+      <c r="B20" t="s">
+        <v>333</v>
+      </c>
+      <c r="C20" t="s">
         <v>823</v>
-      </c>
-      <c r="B20" t="s">
-        <v>333</v>
-      </c>
-      <c r="C20" t="s">
-        <v>824</v>
       </c>
       <c r="D20" s="8" t="s">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="F20" t="s">
         <v>200</v>
@@ -6402,19 +6410,19 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>674</v>
+      </c>
+      <c r="B21" t="s">
+        <v>333</v>
+      </c>
+      <c r="C21" t="s">
         <v>675</v>
-      </c>
-      <c r="B21" t="s">
-        <v>333</v>
-      </c>
-      <c r="C21" t="s">
-        <v>676</v>
       </c>
       <c r="D21" s="8">
         <v>450000000</v>
       </c>
       <c r="E21" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="F21" t="s">
         <v>200</v>
@@ -6428,19 +6436,19 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>792</v>
+      </c>
+      <c r="B22" t="s">
+        <v>333</v>
+      </c>
+      <c r="C22" t="s">
         <v>793</v>
-      </c>
-      <c r="B22" t="s">
-        <v>333</v>
-      </c>
-      <c r="C22" t="s">
-        <v>794</v>
       </c>
       <c r="D22" s="8">
         <v>316700000</v>
       </c>
       <c r="E22" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="F22" t="s">
         <v>200</v>
@@ -6449,7 +6457,7 @@
         <v>205</v>
       </c>
       <c r="H22" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -6480,19 +6488,19 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
+        <v>786</v>
+      </c>
+      <c r="B24" t="s">
+        <v>333</v>
+      </c>
+      <c r="C24" t="s">
         <v>787</v>
-      </c>
-      <c r="B24" t="s">
-        <v>333</v>
-      </c>
-      <c r="C24" t="s">
-        <v>788</v>
       </c>
       <c r="D24" s="8">
         <v>238000000</v>
       </c>
       <c r="E24" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="F24" t="s">
         <v>200</v>
@@ -6506,19 +6514,19 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>448</v>
+      </c>
+      <c r="B25" t="s">
+        <v>333</v>
+      </c>
+      <c r="C25" t="s">
         <v>449</v>
-      </c>
-      <c r="B25" t="s">
-        <v>333</v>
-      </c>
-      <c r="C25" t="s">
-        <v>450</v>
       </c>
       <c r="D25" s="8">
         <v>200000000</v>
       </c>
       <c r="E25" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="F25" t="s">
         <v>13</v>
@@ -6527,24 +6535,24 @@
         <v>94</v>
       </c>
       <c r="H25" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
+        <v>505</v>
+      </c>
+      <c r="B26" t="s">
+        <v>333</v>
+      </c>
+      <c r="C26" t="s">
         <v>506</v>
-      </c>
-      <c r="B26" t="s">
-        <v>333</v>
-      </c>
-      <c r="C26" t="s">
-        <v>507</v>
       </c>
       <c r="D26" s="8">
         <v>200000000</v>
       </c>
       <c r="E26" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="F26" t="s">
         <v>123</v>
@@ -6558,13 +6566,13 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
+        <v>446</v>
+      </c>
+      <c r="B27" t="s">
+        <v>333</v>
+      </c>
+      <c r="C27" t="s">
         <v>447</v>
-      </c>
-      <c r="B27" t="s">
-        <v>333</v>
-      </c>
-      <c r="C27" t="s">
-        <v>448</v>
       </c>
       <c r="D27" s="8">
         <v>175000000</v>
@@ -6579,24 +6587,24 @@
         <v>94</v>
       </c>
       <c r="H27" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
+        <v>795</v>
+      </c>
+      <c r="B28" t="s">
+        <v>333</v>
+      </c>
+      <c r="C28" t="s">
         <v>796</v>
-      </c>
-      <c r="B28" t="s">
-        <v>333</v>
-      </c>
-      <c r="C28" t="s">
-        <v>797</v>
       </c>
       <c r="D28" s="8">
         <v>170000000</v>
       </c>
       <c r="E28" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="F28" t="s">
         <v>200</v>
@@ -6605,24 +6613,24 @@
         <v>205</v>
       </c>
       <c r="H28" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
+        <v>780</v>
+      </c>
+      <c r="B29" t="s">
+        <v>333</v>
+      </c>
+      <c r="C29" t="s">
         <v>781</v>
-      </c>
-      <c r="B29" t="s">
-        <v>333</v>
-      </c>
-      <c r="C29" t="s">
-        <v>782</v>
       </c>
       <c r="D29" s="8">
         <v>162500000</v>
       </c>
       <c r="E29" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="F29" t="s">
         <v>200</v>
@@ -6642,13 +6650,13 @@
         <v>339</v>
       </c>
       <c r="C30" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D30" s="8">
         <v>142000000</v>
       </c>
       <c r="E30" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="F30" t="s">
         <v>13</v>
@@ -6662,19 +6670,19 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
+        <v>798</v>
+      </c>
+      <c r="B31" t="s">
+        <v>333</v>
+      </c>
+      <c r="C31" t="s">
         <v>799</v>
-      </c>
-      <c r="B31" t="s">
-        <v>333</v>
-      </c>
-      <c r="C31" t="s">
-        <v>800</v>
       </c>
       <c r="D31" s="8">
         <v>130000000</v>
       </c>
       <c r="E31" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="F31" t="s">
         <v>200</v>
@@ -6709,7 +6717,7 @@
         <v>14</v>
       </c>
       <c r="H32" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
@@ -6740,19 +6748,19 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
+        <v>464</v>
+      </c>
+      <c r="B34" t="s">
+        <v>333</v>
+      </c>
+      <c r="C34" t="s">
         <v>465</v>
-      </c>
-      <c r="B34" t="s">
-        <v>333</v>
-      </c>
-      <c r="C34" t="s">
-        <v>466</v>
       </c>
       <c r="D34" s="8">
         <v>120000000</v>
       </c>
       <c r="E34" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="F34" t="s">
         <v>13</v>
@@ -6761,24 +6769,24 @@
         <v>94</v>
       </c>
       <c r="H34" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
+        <v>774</v>
+      </c>
+      <c r="B35" t="s">
+        <v>333</v>
+      </c>
+      <c r="C35" t="s">
         <v>775</v>
-      </c>
-      <c r="B35" t="s">
-        <v>333</v>
-      </c>
-      <c r="C35" t="s">
-        <v>776</v>
       </c>
       <c r="D35" s="8">
         <v>120000000</v>
       </c>
       <c r="E35" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="F35" t="s">
         <v>200</v>
@@ -6813,24 +6821,24 @@
         <v>14</v>
       </c>
       <c r="H36" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
+        <v>801</v>
+      </c>
+      <c r="B37" t="s">
+        <v>333</v>
+      </c>
+      <c r="C37" t="s">
         <v>802</v>
-      </c>
-      <c r="B37" t="s">
-        <v>333</v>
-      </c>
-      <c r="C37" t="s">
-        <v>803</v>
       </c>
       <c r="D37" s="8">
         <v>110000000</v>
       </c>
       <c r="E37" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="F37" t="s">
         <v>200</v>
@@ -6839,24 +6847,24 @@
         <v>205</v>
       </c>
       <c r="H37" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
+        <v>807</v>
+      </c>
+      <c r="B38" t="s">
+        <v>333</v>
+      </c>
+      <c r="C38" t="s">
         <v>808</v>
-      </c>
-      <c r="B38" t="s">
-        <v>333</v>
-      </c>
-      <c r="C38" t="s">
-        <v>809</v>
       </c>
       <c r="D38" s="8">
         <v>104000000</v>
       </c>
       <c r="E38" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="F38" t="s">
         <v>200</v>
@@ -6891,24 +6899,24 @@
         <v>14</v>
       </c>
       <c r="H39" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
+        <v>394</v>
+      </c>
+      <c r="B40" t="s">
+        <v>333</v>
+      </c>
+      <c r="C40" t="s">
         <v>395</v>
-      </c>
-      <c r="B40" t="s">
-        <v>333</v>
-      </c>
-      <c r="C40" t="s">
-        <v>396</v>
       </c>
       <c r="D40" s="8">
         <v>100000000</v>
       </c>
       <c r="E40" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="F40" t="s">
         <v>13</v>
@@ -6922,19 +6930,19 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
+        <v>440</v>
+      </c>
+      <c r="B41" t="s">
+        <v>333</v>
+      </c>
+      <c r="C41" t="s">
         <v>441</v>
-      </c>
-      <c r="B41" t="s">
-        <v>333</v>
-      </c>
-      <c r="C41" t="s">
-        <v>442</v>
       </c>
       <c r="D41" s="8">
         <v>100000000</v>
       </c>
       <c r="E41" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="F41" t="s">
         <v>13</v>
@@ -6943,24 +6951,24 @@
         <v>94</v>
       </c>
       <c r="H41" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
+        <v>499</v>
+      </c>
+      <c r="B42" t="s">
+        <v>333</v>
+      </c>
+      <c r="C42" t="s">
         <v>500</v>
-      </c>
-      <c r="B42" t="s">
-        <v>333</v>
-      </c>
-      <c r="C42" t="s">
-        <v>501</v>
       </c>
       <c r="D42" s="8">
         <v>100000000</v>
       </c>
       <c r="E42" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="F42" t="s">
         <v>123</v>
@@ -6974,19 +6982,19 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
+        <v>828</v>
+      </c>
+      <c r="B43" t="s">
+        <v>333</v>
+      </c>
+      <c r="C43" t="s">
         <v>829</v>
-      </c>
-      <c r="B43" t="s">
-        <v>333</v>
-      </c>
-      <c r="C43" t="s">
-        <v>830</v>
       </c>
       <c r="D43" s="8">
         <v>100000000</v>
       </c>
       <c r="E43" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="F43" t="s">
         <v>200</v>
@@ -6995,7 +7003,7 @@
         <v>205</v>
       </c>
       <c r="H43" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
@@ -7021,24 +7029,24 @@
         <v>14</v>
       </c>
       <c r="H44" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
+        <v>834</v>
+      </c>
+      <c r="B45" t="s">
+        <v>333</v>
+      </c>
+      <c r="C45" t="s">
         <v>835</v>
-      </c>
-      <c r="B45" t="s">
-        <v>333</v>
-      </c>
-      <c r="C45" t="s">
-        <v>836</v>
       </c>
       <c r="D45" s="8">
         <v>90000000</v>
       </c>
       <c r="E45" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="F45" t="s">
         <v>200</v>
@@ -7052,19 +7060,19 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
+        <v>777</v>
+      </c>
+      <c r="B46" t="s">
+        <v>333</v>
+      </c>
+      <c r="C46" t="s">
         <v>778</v>
-      </c>
-      <c r="B46" t="s">
-        <v>333</v>
-      </c>
-      <c r="C46" t="s">
-        <v>779</v>
       </c>
       <c r="D46" s="8">
         <v>85000000</v>
       </c>
       <c r="E46" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="F46" t="s">
         <v>200</v>
@@ -7078,19 +7086,19 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
+        <v>491</v>
+      </c>
+      <c r="B47" t="s">
+        <v>333</v>
+      </c>
+      <c r="C47" t="s">
         <v>492</v>
-      </c>
-      <c r="B47" t="s">
-        <v>333</v>
-      </c>
-      <c r="C47" t="s">
-        <v>493</v>
       </c>
       <c r="D47" s="8">
         <v>83000000</v>
       </c>
       <c r="E47" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="F47" t="s">
         <v>13</v>
@@ -7130,19 +7138,19 @@
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
+        <v>751</v>
+      </c>
+      <c r="B49" t="s">
+        <v>333</v>
+      </c>
+      <c r="C49" t="s">
         <v>752</v>
-      </c>
-      <c r="B49" t="s">
-        <v>333</v>
-      </c>
-      <c r="C49" t="s">
-        <v>753</v>
       </c>
       <c r="D49" s="8">
         <v>75000000</v>
       </c>
       <c r="E49" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="F49" t="s">
         <v>200</v>
@@ -7151,24 +7159,24 @@
         <v>289</v>
       </c>
       <c r="H49" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
+        <v>768</v>
+      </c>
+      <c r="B50" t="s">
+        <v>333</v>
+      </c>
+      <c r="C50" t="s">
         <v>769</v>
-      </c>
-      <c r="B50" t="s">
-        <v>333</v>
-      </c>
-      <c r="C50" t="s">
-        <v>770</v>
       </c>
       <c r="D50" s="8">
         <v>67000000</v>
       </c>
       <c r="E50" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="F50" t="s">
         <v>200</v>
@@ -7177,24 +7185,24 @@
         <v>205</v>
       </c>
       <c r="H50" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
+        <v>458</v>
+      </c>
+      <c r="B51" t="s">
+        <v>333</v>
+      </c>
+      <c r="C51" t="s">
         <v>459</v>
-      </c>
-      <c r="B51" t="s">
-        <v>333</v>
-      </c>
-      <c r="C51" t="s">
-        <v>460</v>
       </c>
       <c r="D51" s="8">
         <v>65000000</v>
       </c>
       <c r="E51" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="F51" t="s">
         <v>13</v>
@@ -7203,24 +7211,24 @@
         <v>94</v>
       </c>
       <c r="H51" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
+        <v>479</v>
+      </c>
+      <c r="B52" t="s">
+        <v>333</v>
+      </c>
+      <c r="C52" t="s">
         <v>480</v>
-      </c>
-      <c r="B52" t="s">
-        <v>333</v>
-      </c>
-      <c r="C52" t="s">
-        <v>481</v>
       </c>
       <c r="D52" s="8">
         <v>65000000</v>
       </c>
       <c r="E52" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="F52" t="s">
         <v>13</v>
@@ -7229,24 +7237,24 @@
         <v>94</v>
       </c>
       <c r="H52" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
+        <v>804</v>
+      </c>
+      <c r="B53" t="s">
+        <v>333</v>
+      </c>
+      <c r="C53" t="s">
         <v>805</v>
-      </c>
-      <c r="B53" t="s">
-        <v>333</v>
-      </c>
-      <c r="C53" t="s">
-        <v>806</v>
       </c>
       <c r="D53" s="8">
         <v>65000000</v>
       </c>
       <c r="E53" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="F53" t="s">
         <v>200</v>
@@ -7255,24 +7263,24 @@
         <v>205</v>
       </c>
       <c r="H53" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
+        <v>783</v>
+      </c>
+      <c r="B54" t="s">
+        <v>333</v>
+      </c>
+      <c r="C54" t="s">
         <v>784</v>
-      </c>
-      <c r="B54" t="s">
-        <v>333</v>
-      </c>
-      <c r="C54" t="s">
-        <v>785</v>
       </c>
       <c r="D54" s="8">
         <v>60000000</v>
       </c>
       <c r="E54" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="F54" t="s">
         <v>200</v>
@@ -7281,24 +7289,24 @@
         <v>205</v>
       </c>
       <c r="H54" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
+        <v>384</v>
+      </c>
+      <c r="B55" t="s">
+        <v>333</v>
+      </c>
+      <c r="C55" t="s">
         <v>385</v>
-      </c>
-      <c r="B55" t="s">
-        <v>333</v>
-      </c>
-      <c r="C55" t="s">
-        <v>386</v>
       </c>
       <c r="D55" s="8">
         <v>57700000</v>
       </c>
       <c r="E55" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F55" t="s">
         <v>13</v>
@@ -7307,24 +7315,24 @@
         <v>66</v>
       </c>
       <c r="H55" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
+        <v>689</v>
+      </c>
+      <c r="B56" t="s">
+        <v>333</v>
+      </c>
+      <c r="C56" t="s">
         <v>690</v>
-      </c>
-      <c r="B56" t="s">
-        <v>333</v>
-      </c>
-      <c r="C56" t="s">
-        <v>691</v>
       </c>
       <c r="D56" s="8">
         <v>56000000</v>
       </c>
       <c r="E56" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="F56" t="s">
         <v>200</v>
@@ -7333,24 +7341,24 @@
         <v>219</v>
       </c>
       <c r="H56" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
+        <v>461</v>
+      </c>
+      <c r="B57" t="s">
+        <v>333</v>
+      </c>
+      <c r="C57" t="s">
         <v>462</v>
-      </c>
-      <c r="B57" t="s">
-        <v>333</v>
-      </c>
-      <c r="C57" t="s">
-        <v>463</v>
       </c>
       <c r="D57" s="8">
         <v>53000000</v>
       </c>
       <c r="E57" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="F57" t="s">
         <v>13</v>
@@ -7359,7 +7367,7 @@
         <v>94</v>
       </c>
       <c r="H57" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
@@ -7390,7 +7398,7 @@
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="B59" t="s">
         <v>333</v>
@@ -7402,7 +7410,7 @@
         <v>50000000</v>
       </c>
       <c r="E59" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="F59" t="s">
         <v>200</v>
@@ -7411,24 +7419,24 @@
         <v>219</v>
       </c>
       <c r="H59" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
+        <v>742</v>
+      </c>
+      <c r="B60" t="s">
+        <v>333</v>
+      </c>
+      <c r="C60" t="s">
         <v>743</v>
-      </c>
-      <c r="B60" t="s">
-        <v>333</v>
-      </c>
-      <c r="C60" t="s">
-        <v>744</v>
       </c>
       <c r="D60" s="8">
         <v>50000000</v>
       </c>
       <c r="E60" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="F60" t="s">
         <v>200</v>
@@ -7437,7 +7445,7 @@
         <v>289</v>
       </c>
       <c r="H60" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
@@ -7468,19 +7476,19 @@
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
+        <v>588</v>
+      </c>
+      <c r="B62" t="s">
+        <v>333</v>
+      </c>
+      <c r="C62" t="s">
         <v>589</v>
-      </c>
-      <c r="B62" t="s">
-        <v>333</v>
-      </c>
-      <c r="C62" t="s">
-        <v>590</v>
       </c>
       <c r="D62" s="8">
         <v>45000000</v>
       </c>
       <c r="E62" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="F62" t="s">
         <v>123</v>
@@ -7489,24 +7497,24 @@
         <v>158</v>
       </c>
       <c r="H62" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
+        <v>416</v>
+      </c>
+      <c r="B63" t="s">
+        <v>333</v>
+      </c>
+      <c r="C63" t="s">
         <v>417</v>
-      </c>
-      <c r="B63" t="s">
-        <v>333</v>
-      </c>
-      <c r="C63" t="s">
-        <v>418</v>
       </c>
       <c r="D63" s="8">
         <v>42000000</v>
       </c>
       <c r="E63" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F63" t="s">
         <v>13</v>
@@ -7515,24 +7523,24 @@
         <v>66</v>
       </c>
       <c r="H63" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
+        <v>585</v>
+      </c>
+      <c r="B64" t="s">
+        <v>333</v>
+      </c>
+      <c r="C64" t="s">
         <v>586</v>
-      </c>
-      <c r="B64" t="s">
-        <v>333</v>
-      </c>
-      <c r="C64" t="s">
-        <v>587</v>
       </c>
       <c r="D64" s="8">
         <v>42000000</v>
       </c>
       <c r="E64" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="F64" t="s">
         <v>123</v>
@@ -7546,19 +7554,19 @@
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
+        <v>452</v>
+      </c>
+      <c r="B65" t="s">
+        <v>333</v>
+      </c>
+      <c r="C65" t="s">
         <v>453</v>
-      </c>
-      <c r="B65" t="s">
-        <v>333</v>
-      </c>
-      <c r="C65" t="s">
-        <v>454</v>
       </c>
       <c r="D65" s="8">
         <v>40000000</v>
       </c>
       <c r="E65" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="F65" t="s">
         <v>13</v>
@@ -7572,19 +7580,19 @@
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
+        <v>713</v>
+      </c>
+      <c r="B66" t="s">
+        <v>333</v>
+      </c>
+      <c r="C66" t="s">
         <v>714</v>
-      </c>
-      <c r="B66" t="s">
-        <v>333</v>
-      </c>
-      <c r="C66" t="s">
-        <v>715</v>
       </c>
       <c r="D66" s="8">
         <v>40000000</v>
       </c>
       <c r="E66" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="F66" t="s">
         <v>200</v>
@@ -7593,24 +7601,24 @@
         <v>219</v>
       </c>
       <c r="H66" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
+        <v>508</v>
+      </c>
+      <c r="B67" t="s">
+        <v>333</v>
+      </c>
+      <c r="C67" t="s">
         <v>509</v>
-      </c>
-      <c r="B67" t="s">
-        <v>333</v>
-      </c>
-      <c r="C67" t="s">
-        <v>510</v>
       </c>
       <c r="D67" s="8">
         <v>38000000</v>
       </c>
       <c r="E67" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="F67" t="s">
         <v>123</v>
@@ -7624,19 +7632,19 @@
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
+        <v>602</v>
+      </c>
+      <c r="B68" t="s">
+        <v>333</v>
+      </c>
+      <c r="C68" t="s">
         <v>603</v>
-      </c>
-      <c r="B68" t="s">
-        <v>333</v>
-      </c>
-      <c r="C68" t="s">
-        <v>604</v>
       </c>
       <c r="D68" s="8">
         <v>36100000</v>
       </c>
       <c r="E68" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="F68" t="s">
         <v>123</v>
@@ -7645,7 +7653,7 @@
         <v>158</v>
       </c>
       <c r="H68" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
@@ -7676,19 +7684,19 @@
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
+        <v>532</v>
+      </c>
+      <c r="B70" t="s">
+        <v>333</v>
+      </c>
+      <c r="C70" t="s">
         <v>533</v>
-      </c>
-      <c r="B70" t="s">
-        <v>333</v>
-      </c>
-      <c r="C70" t="s">
-        <v>534</v>
       </c>
       <c r="D70" s="8">
         <v>35000000</v>
       </c>
       <c r="E70" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="F70" t="s">
         <v>123</v>
@@ -7702,19 +7710,19 @@
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
+        <v>541</v>
+      </c>
+      <c r="B71" t="s">
+        <v>333</v>
+      </c>
+      <c r="C71" t="s">
         <v>542</v>
-      </c>
-      <c r="B71" t="s">
-        <v>333</v>
-      </c>
-      <c r="C71" t="s">
-        <v>543</v>
       </c>
       <c r="D71" s="8">
         <v>35000000</v>
       </c>
       <c r="E71" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="F71" t="s">
         <v>123</v>
@@ -7728,19 +7736,19 @@
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
+        <v>739</v>
+      </c>
+      <c r="B72" t="s">
+        <v>333</v>
+      </c>
+      <c r="C72" t="s">
         <v>740</v>
-      </c>
-      <c r="B72" t="s">
-        <v>333</v>
-      </c>
-      <c r="C72" t="s">
-        <v>741</v>
       </c>
       <c r="D72" s="8">
         <v>35000000</v>
       </c>
       <c r="E72" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="F72" t="s">
         <v>200</v>
@@ -7749,7 +7757,7 @@
         <v>219</v>
       </c>
       <c r="H72" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
@@ -7775,24 +7783,24 @@
         <v>14</v>
       </c>
       <c r="H73" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
+        <v>511</v>
+      </c>
+      <c r="B74" t="s">
+        <v>333</v>
+      </c>
+      <c r="C74" t="s">
         <v>512</v>
-      </c>
-      <c r="B74" t="s">
-        <v>333</v>
-      </c>
-      <c r="C74" t="s">
-        <v>513</v>
       </c>
       <c r="D74" s="8">
         <v>31000000</v>
       </c>
       <c r="E74" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="F74" t="s">
         <v>123</v>
@@ -7801,18 +7809,18 @@
         <v>124</v>
       </c>
       <c r="H74" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
+        <v>494</v>
+      </c>
+      <c r="B75" t="s">
+        <v>333</v>
+      </c>
+      <c r="C75" t="s">
         <v>495</v>
-      </c>
-      <c r="B75" t="s">
-        <v>333</v>
-      </c>
-      <c r="C75" t="s">
-        <v>496</v>
       </c>
       <c r="D75" s="8">
         <v>30000000</v>
@@ -7832,19 +7840,19 @@
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
+        <v>523</v>
+      </c>
+      <c r="B76" t="s">
+        <v>333</v>
+      </c>
+      <c r="C76" t="s">
         <v>524</v>
-      </c>
-      <c r="B76" t="s">
-        <v>333</v>
-      </c>
-      <c r="C76" t="s">
-        <v>525</v>
       </c>
       <c r="D76" s="8">
         <v>30000000</v>
       </c>
       <c r="E76" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="F76" t="s">
         <v>123</v>
@@ -7858,19 +7866,19 @@
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
+        <v>683</v>
+      </c>
+      <c r="B77" t="s">
+        <v>333</v>
+      </c>
+      <c r="C77" t="s">
         <v>684</v>
-      </c>
-      <c r="B77" t="s">
-        <v>333</v>
-      </c>
-      <c r="C77" t="s">
-        <v>685</v>
       </c>
       <c r="D77" s="8">
         <v>30000000</v>
       </c>
       <c r="E77" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="F77" t="s">
         <v>200</v>
@@ -7884,13 +7892,13 @@
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="B78" t="s">
         <v>333</v>
       </c>
       <c r="C78" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D78" s="8">
         <v>29400000</v>
@@ -7905,7 +7913,7 @@
         <v>191</v>
       </c>
       <c r="H78" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="I78" t="s">
         <v>214</v>
@@ -7939,19 +7947,19 @@
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
+        <v>696</v>
+      </c>
+      <c r="B80" t="s">
+        <v>333</v>
+      </c>
+      <c r="C80" t="s">
         <v>697</v>
-      </c>
-      <c r="B80" t="s">
-        <v>333</v>
-      </c>
-      <c r="C80" t="s">
-        <v>698</v>
       </c>
       <c r="D80" s="8">
         <v>27500000</v>
       </c>
       <c r="E80" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="F80" t="s">
         <v>200</v>
@@ -7965,19 +7973,19 @@
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
+        <v>677</v>
+      </c>
+      <c r="B81" t="s">
+        <v>333</v>
+      </c>
+      <c r="C81" t="s">
         <v>678</v>
-      </c>
-      <c r="B81" t="s">
-        <v>333</v>
-      </c>
-      <c r="C81" t="s">
-        <v>679</v>
       </c>
       <c r="D81" s="8">
         <v>27300000</v>
       </c>
       <c r="E81" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="F81" t="s">
         <v>200</v>
@@ -7986,24 +7994,24 @@
         <v>219</v>
       </c>
       <c r="H81" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
+        <v>488</v>
+      </c>
+      <c r="B82" t="s">
+        <v>333</v>
+      </c>
+      <c r="C82" t="s">
         <v>489</v>
-      </c>
-      <c r="B82" t="s">
-        <v>333</v>
-      </c>
-      <c r="C82" t="s">
-        <v>490</v>
       </c>
       <c r="D82" s="8">
         <v>25000000</v>
       </c>
       <c r="E82" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="F82" t="s">
         <v>13</v>
@@ -8012,24 +8020,24 @@
         <v>94</v>
       </c>
       <c r="H82" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
+        <v>556</v>
+      </c>
+      <c r="B83" t="s">
+        <v>333</v>
+      </c>
+      <c r="C83" t="s">
         <v>557</v>
-      </c>
-      <c r="B83" t="s">
-        <v>333</v>
-      </c>
-      <c r="C83" t="s">
-        <v>558</v>
       </c>
       <c r="D83" s="8">
         <v>25000000</v>
       </c>
       <c r="E83" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="F83" t="s">
         <v>123</v>
@@ -8038,24 +8046,24 @@
         <v>124</v>
       </c>
       <c r="H83" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
+        <v>476</v>
+      </c>
+      <c r="B84" t="s">
+        <v>333</v>
+      </c>
+      <c r="C84" t="s">
         <v>477</v>
-      </c>
-      <c r="B84" t="s">
-        <v>333</v>
-      </c>
-      <c r="C84" t="s">
-        <v>478</v>
       </c>
       <c r="D84" s="8">
         <v>24000000</v>
       </c>
       <c r="E84" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="F84" t="s">
         <v>13</v>
@@ -8064,24 +8072,24 @@
         <v>94</v>
       </c>
       <c r="H84" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
+        <v>754</v>
+      </c>
+      <c r="B85" t="s">
+        <v>333</v>
+      </c>
+      <c r="C85" t="s">
         <v>755</v>
-      </c>
-      <c r="B85" t="s">
-        <v>333</v>
-      </c>
-      <c r="C85" t="s">
-        <v>756</v>
       </c>
       <c r="D85" s="8">
         <v>24000000</v>
       </c>
       <c r="E85" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="F85" t="s">
         <v>200</v>
@@ -8095,13 +8103,13 @@
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
+        <v>400</v>
+      </c>
+      <c r="B86" t="s">
+        <v>333</v>
+      </c>
+      <c r="C86" t="s">
         <v>401</v>
-      </c>
-      <c r="B86" t="s">
-        <v>333</v>
-      </c>
-      <c r="C86" t="s">
-        <v>402</v>
       </c>
       <c r="D86" s="8">
         <v>20000000</v>
@@ -8116,24 +8124,24 @@
         <v>66</v>
       </c>
       <c r="H86" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
+        <v>574</v>
+      </c>
+      <c r="B87" t="s">
+        <v>333</v>
+      </c>
+      <c r="C87" t="s">
         <v>575</v>
-      </c>
-      <c r="B87" t="s">
-        <v>333</v>
-      </c>
-      <c r="C87" t="s">
-        <v>576</v>
       </c>
       <c r="D87" s="8">
         <v>20000000</v>
       </c>
       <c r="E87" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="F87" t="s">
         <v>123</v>
@@ -8147,19 +8155,19 @@
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
+        <v>637</v>
+      </c>
+      <c r="B88" t="s">
+        <v>333</v>
+      </c>
+      <c r="C88" t="s">
         <v>638</v>
-      </c>
-      <c r="B88" t="s">
-        <v>333</v>
-      </c>
-      <c r="C88" t="s">
-        <v>639</v>
       </c>
       <c r="D88" s="8">
         <v>20000000</v>
       </c>
       <c r="E88" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="F88" t="s">
         <v>123</v>
@@ -8168,24 +8176,24 @@
         <v>191</v>
       </c>
       <c r="H88" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="B89" t="s">
         <v>339</v>
       </c>
       <c r="C89" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="D89" s="8">
         <v>20000000</v>
       </c>
       <c r="E89" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="F89" t="s">
         <v>200</v>
@@ -8194,24 +8202,24 @@
         <v>219</v>
       </c>
       <c r="H89" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
+        <v>625</v>
+      </c>
+      <c r="B90" t="s">
+        <v>333</v>
+      </c>
+      <c r="C90" t="s">
         <v>626</v>
-      </c>
-      <c r="B90" t="s">
-        <v>333</v>
-      </c>
-      <c r="C90" t="s">
-        <v>627</v>
       </c>
       <c r="D90" s="8">
         <v>17900000</v>
       </c>
       <c r="E90" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="F90" t="s">
         <v>123</v>
@@ -8220,24 +8228,24 @@
         <v>191</v>
       </c>
       <c r="H90" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
+        <v>473</v>
+      </c>
+      <c r="B91" t="s">
+        <v>333</v>
+      </c>
+      <c r="C91" t="s">
         <v>474</v>
-      </c>
-      <c r="B91" t="s">
-        <v>333</v>
-      </c>
-      <c r="C91" t="s">
-        <v>475</v>
       </c>
       <c r="D91" s="8">
         <v>17780000</v>
       </c>
       <c r="E91" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="F91" t="s">
         <v>13</v>
@@ -8251,19 +8259,19 @@
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
+        <v>407</v>
+      </c>
+      <c r="B92" t="s">
+        <v>333</v>
+      </c>
+      <c r="C92" t="s">
         <v>408</v>
-      </c>
-      <c r="B92" t="s">
-        <v>333</v>
-      </c>
-      <c r="C92" t="s">
-        <v>409</v>
       </c>
       <c r="D92" s="8">
         <v>17500000</v>
       </c>
       <c r="E92" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="F92" t="s">
         <v>13</v>
@@ -8272,24 +8280,24 @@
         <v>66</v>
       </c>
       <c r="H92" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
+        <v>640</v>
+      </c>
+      <c r="B93" t="s">
+        <v>333</v>
+      </c>
+      <c r="C93" t="s">
         <v>641</v>
-      </c>
-      <c r="B93" t="s">
-        <v>333</v>
-      </c>
-      <c r="C93" t="s">
-        <v>642</v>
       </c>
       <c r="D93" s="8">
         <v>16000000</v>
       </c>
       <c r="E93" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="F93" t="s">
         <v>123</v>
@@ -8298,24 +8306,24 @@
         <v>191</v>
       </c>
       <c r="H93" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
+        <v>719</v>
+      </c>
+      <c r="B94" t="s">
+        <v>333</v>
+      </c>
+      <c r="C94" t="s">
         <v>720</v>
-      </c>
-      <c r="B94" t="s">
-        <v>333</v>
-      </c>
-      <c r="C94" t="s">
-        <v>721</v>
       </c>
       <c r="D94" s="8">
         <v>16000000</v>
       </c>
       <c r="E94" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="F94" t="s">
         <v>200</v>
@@ -8329,19 +8337,19 @@
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
+        <v>757</v>
+      </c>
+      <c r="B95" t="s">
+        <v>333</v>
+      </c>
+      <c r="C95" t="s">
         <v>758</v>
-      </c>
-      <c r="B95" t="s">
-        <v>333</v>
-      </c>
-      <c r="C95" t="s">
-        <v>759</v>
       </c>
       <c r="D95" s="8">
         <v>16000000</v>
       </c>
       <c r="E95" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="F95" t="s">
         <v>200</v>
@@ -8355,19 +8363,19 @@
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
+        <v>810</v>
+      </c>
+      <c r="B96" t="s">
+        <v>333</v>
+      </c>
+      <c r="C96" t="s">
         <v>811</v>
-      </c>
-      <c r="B96" t="s">
-        <v>333</v>
-      </c>
-      <c r="C96" t="s">
-        <v>812</v>
       </c>
       <c r="D96" s="8">
         <v>16000000</v>
       </c>
       <c r="E96" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="F96" t="s">
         <v>200</v>
@@ -8381,19 +8389,19 @@
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
+        <v>402</v>
+      </c>
+      <c r="B97" t="s">
+        <v>333</v>
+      </c>
+      <c r="C97" t="s">
         <v>403</v>
-      </c>
-      <c r="B97" t="s">
-        <v>333</v>
-      </c>
-      <c r="C97" t="s">
-        <v>404</v>
       </c>
       <c r="D97" s="8">
         <v>15000000</v>
       </c>
       <c r="E97" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="F97" t="s">
         <v>13</v>
@@ -8402,24 +8410,24 @@
         <v>66</v>
       </c>
       <c r="H97" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
+        <v>434</v>
+      </c>
+      <c r="B98" t="s">
+        <v>333</v>
+      </c>
+      <c r="C98" t="s">
         <v>435</v>
-      </c>
-      <c r="B98" t="s">
-        <v>333</v>
-      </c>
-      <c r="C98" t="s">
-        <v>436</v>
       </c>
       <c r="D98" s="8">
         <v>15000000</v>
       </c>
       <c r="E98" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="F98" t="s">
         <v>13</v>
@@ -8433,19 +8441,19 @@
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
+        <v>529</v>
+      </c>
+      <c r="B99" t="s">
+        <v>333</v>
+      </c>
+      <c r="C99" t="s">
         <v>530</v>
-      </c>
-      <c r="B99" t="s">
-        <v>333</v>
-      </c>
-      <c r="C99" t="s">
-        <v>531</v>
       </c>
       <c r="D99" s="8">
         <v>15000000</v>
       </c>
       <c r="E99" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="F99" t="s">
         <v>123</v>
@@ -8454,24 +8462,24 @@
         <v>124</v>
       </c>
       <c r="H99" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
+        <v>550</v>
+      </c>
+      <c r="B100" t="s">
+        <v>333</v>
+      </c>
+      <c r="C100" t="s">
         <v>551</v>
-      </c>
-      <c r="B100" t="s">
-        <v>333</v>
-      </c>
-      <c r="C100" t="s">
-        <v>552</v>
       </c>
       <c r="D100" s="8">
         <v>14400000</v>
       </c>
       <c r="E100" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="F100" t="s">
         <v>123</v>
@@ -8480,24 +8488,24 @@
         <v>124</v>
       </c>
       <c r="H100" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
+        <v>562</v>
+      </c>
+      <c r="B101" t="s">
+        <v>333</v>
+      </c>
+      <c r="C101" t="s">
         <v>563</v>
-      </c>
-      <c r="B101" t="s">
-        <v>333</v>
-      </c>
-      <c r="C101" t="s">
-        <v>564</v>
       </c>
       <c r="D101" s="8">
         <v>14300000</v>
       </c>
       <c r="E101" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="F101" t="s">
         <v>123</v>
@@ -8537,13 +8545,13 @@
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
+        <v>387</v>
+      </c>
+      <c r="B103" t="s">
+        <v>333</v>
+      </c>
+      <c r="C103" t="s">
         <v>388</v>
-      </c>
-      <c r="B103" t="s">
-        <v>333</v>
-      </c>
-      <c r="C103" t="s">
-        <v>389</v>
       </c>
       <c r="D103" s="8">
         <v>14000000</v>
@@ -8563,13 +8571,13 @@
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
+        <v>702</v>
+      </c>
+      <c r="B104" t="s">
+        <v>333</v>
+      </c>
+      <c r="C104" t="s">
         <v>703</v>
-      </c>
-      <c r="B104" t="s">
-        <v>333</v>
-      </c>
-      <c r="C104" t="s">
-        <v>704</v>
       </c>
       <c r="D104" s="8">
         <v>14000000</v>
@@ -8589,19 +8597,19 @@
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
+        <v>419</v>
+      </c>
+      <c r="B105" t="s">
+        <v>333</v>
+      </c>
+      <c r="C105" t="s">
         <v>420</v>
-      </c>
-      <c r="B105" t="s">
-        <v>333</v>
-      </c>
-      <c r="C105" t="s">
-        <v>421</v>
       </c>
       <c r="D105" s="8">
         <v>13600000</v>
       </c>
       <c r="E105" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="F105" t="s">
         <v>13</v>
@@ -8615,13 +8623,13 @@
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
+        <v>580</v>
+      </c>
+      <c r="B106" t="s">
+        <v>333</v>
+      </c>
+      <c r="C106" t="s">
         <v>581</v>
-      </c>
-      <c r="B106" t="s">
-        <v>333</v>
-      </c>
-      <c r="C106" t="s">
-        <v>582</v>
       </c>
       <c r="D106" s="8">
         <v>13500000</v>
@@ -8641,19 +8649,19 @@
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
+        <v>482</v>
+      </c>
+      <c r="B107" t="s">
+        <v>333</v>
+      </c>
+      <c r="C107" t="s">
         <v>483</v>
-      </c>
-      <c r="B107" t="s">
-        <v>333</v>
-      </c>
-      <c r="C107" t="s">
-        <v>484</v>
       </c>
       <c r="D107" s="8">
         <v>13000000</v>
       </c>
       <c r="E107" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="F107" t="s">
         <v>13</v>
@@ -8662,24 +8670,24 @@
         <v>94</v>
       </c>
       <c r="H107" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
+        <v>422</v>
+      </c>
+      <c r="B108" t="s">
+        <v>333</v>
+      </c>
+      <c r="C108" t="s">
         <v>423</v>
-      </c>
-      <c r="B108" t="s">
-        <v>333</v>
-      </c>
-      <c r="C108" t="s">
-        <v>424</v>
       </c>
       <c r="D108" s="8">
         <v>12700000</v>
       </c>
       <c r="E108" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F108" t="s">
         <v>13</v>
@@ -8693,19 +8701,19 @@
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="B109" t="s">
         <v>333</v>
       </c>
       <c r="C109" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="D109" s="8">
         <v>12000000</v>
       </c>
       <c r="E109" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="F109" t="s">
         <v>200</v>
@@ -8719,19 +8727,19 @@
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
+        <v>455</v>
+      </c>
+      <c r="B110" t="s">
+        <v>333</v>
+      </c>
+      <c r="C110" t="s">
         <v>456</v>
-      </c>
-      <c r="B110" t="s">
-        <v>333</v>
-      </c>
-      <c r="C110" t="s">
-        <v>457</v>
       </c>
       <c r="D110" s="8">
         <v>11700000</v>
       </c>
       <c r="E110" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="F110" t="s">
         <v>13</v>
@@ -8740,24 +8748,24 @@
         <v>94</v>
       </c>
       <c r="H110" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="B111" t="s">
         <v>333</v>
       </c>
       <c r="C111" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="D111" s="8">
         <v>11600000</v>
       </c>
       <c r="E111" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="F111" t="s">
         <v>200</v>
@@ -8774,19 +8782,19 @@
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
+        <v>526</v>
+      </c>
+      <c r="B112" t="s">
+        <v>333</v>
+      </c>
+      <c r="C112" t="s">
         <v>527</v>
-      </c>
-      <c r="B112" t="s">
-        <v>333</v>
-      </c>
-      <c r="C112" t="s">
-        <v>528</v>
       </c>
       <c r="D112" s="8">
         <v>11500000</v>
       </c>
       <c r="E112" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="F112" t="s">
         <v>123</v>
@@ -8795,24 +8803,24 @@
         <v>124</v>
       </c>
       <c r="H112" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
+        <v>680</v>
+      </c>
+      <c r="B113" t="s">
+        <v>333</v>
+      </c>
+      <c r="C113" t="s">
         <v>681</v>
-      </c>
-      <c r="B113" t="s">
-        <v>333</v>
-      </c>
-      <c r="C113" t="s">
-        <v>682</v>
       </c>
       <c r="D113" s="8">
         <v>11500000</v>
       </c>
       <c r="E113" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="F113" t="s">
         <v>200</v>
@@ -8826,19 +8834,19 @@
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
+        <v>413</v>
+      </c>
+      <c r="B114" t="s">
+        <v>333</v>
+      </c>
+      <c r="C114" t="s">
         <v>414</v>
-      </c>
-      <c r="B114" t="s">
-        <v>333</v>
-      </c>
-      <c r="C114" t="s">
-        <v>415</v>
       </c>
       <c r="D114" s="8">
         <v>11000000</v>
       </c>
       <c r="E114" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="F114" t="s">
         <v>13</v>
@@ -8852,19 +8860,19 @@
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
+        <v>710</v>
+      </c>
+      <c r="B115" t="s">
+        <v>333</v>
+      </c>
+      <c r="C115" t="s">
         <v>711</v>
-      </c>
-      <c r="B115" t="s">
-        <v>333</v>
-      </c>
-      <c r="C115" t="s">
-        <v>712</v>
       </c>
       <c r="D115" s="8">
         <v>11000000</v>
       </c>
       <c r="E115" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="F115" t="s">
         <v>200</v>
@@ -8878,19 +8886,19 @@
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
+        <v>485</v>
+      </c>
+      <c r="B116" t="s">
+        <v>333</v>
+      </c>
+      <c r="C116" t="s">
         <v>486</v>
-      </c>
-      <c r="B116" t="s">
-        <v>333</v>
-      </c>
-      <c r="C116" t="s">
-        <v>487</v>
       </c>
       <c r="D116" s="8">
         <v>10900000</v>
       </c>
       <c r="E116" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="F116" t="s">
         <v>13</v>
@@ -8899,24 +8907,24 @@
         <v>94</v>
       </c>
       <c r="H116" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
+        <v>544</v>
+      </c>
+      <c r="B117" t="s">
+        <v>333</v>
+      </c>
+      <c r="C117" t="s">
         <v>545</v>
-      </c>
-      <c r="B117" t="s">
-        <v>333</v>
-      </c>
-      <c r="C117" t="s">
-        <v>546</v>
       </c>
       <c r="D117" s="8">
         <v>10000000</v>
       </c>
       <c r="E117" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="F117" t="s">
         <v>123</v>
@@ -8925,24 +8933,24 @@
         <v>124</v>
       </c>
       <c r="H117" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
+        <v>582</v>
+      </c>
+      <c r="B118" t="s">
+        <v>333</v>
+      </c>
+      <c r="C118" t="s">
         <v>583</v>
-      </c>
-      <c r="B118" t="s">
-        <v>333</v>
-      </c>
-      <c r="C118" t="s">
-        <v>584</v>
       </c>
       <c r="D118" s="8">
         <v>10000000</v>
       </c>
       <c r="E118" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="F118" t="s">
         <v>123</v>
@@ -8956,19 +8964,19 @@
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
+        <v>686</v>
+      </c>
+      <c r="B119" t="s">
+        <v>333</v>
+      </c>
+      <c r="C119" t="s">
         <v>687</v>
-      </c>
-      <c r="B119" t="s">
-        <v>333</v>
-      </c>
-      <c r="C119" t="s">
-        <v>688</v>
       </c>
       <c r="D119" s="8">
         <v>10000000</v>
       </c>
       <c r="E119" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="F119" t="s">
         <v>200</v>
@@ -8982,19 +8990,19 @@
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
+        <v>771</v>
+      </c>
+      <c r="B120" t="s">
+        <v>333</v>
+      </c>
+      <c r="C120" t="s">
         <v>772</v>
-      </c>
-      <c r="B120" t="s">
-        <v>333</v>
-      </c>
-      <c r="C120" t="s">
-        <v>773</v>
       </c>
       <c r="D120" s="8">
         <v>10000000</v>
       </c>
       <c r="E120" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="F120" t="s">
         <v>200</v>
@@ -9003,24 +9011,24 @@
         <v>205</v>
       </c>
       <c r="H120" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
+        <v>837</v>
+      </c>
+      <c r="B121" t="s">
+        <v>333</v>
+      </c>
+      <c r="C121" t="s">
         <v>838</v>
-      </c>
-      <c r="B121" t="s">
-        <v>333</v>
-      </c>
-      <c r="C121" t="s">
-        <v>839</v>
       </c>
       <c r="D121" s="8">
         <v>10000000</v>
       </c>
       <c r="E121" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="F121" t="s">
         <v>200</v>
@@ -9034,19 +9042,19 @@
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
+        <v>389</v>
+      </c>
+      <c r="B122" t="s">
+        <v>333</v>
+      </c>
+      <c r="C122" t="s">
         <v>390</v>
-      </c>
-      <c r="B122" t="s">
-        <v>333</v>
-      </c>
-      <c r="C122" t="s">
-        <v>391</v>
       </c>
       <c r="D122" s="8">
         <v>9300000</v>
       </c>
       <c r="E122" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F122" t="s">
         <v>13</v>
@@ -9055,24 +9063,24 @@
         <v>66</v>
       </c>
       <c r="H122" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
+        <v>535</v>
+      </c>
+      <c r="B123" t="s">
+        <v>333</v>
+      </c>
+      <c r="C123" t="s">
         <v>536</v>
-      </c>
-      <c r="B123" t="s">
-        <v>333</v>
-      </c>
-      <c r="C123" t="s">
-        <v>537</v>
       </c>
       <c r="D123" s="8">
         <v>9000000</v>
       </c>
       <c r="E123" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="F123" t="s">
         <v>123</v>
@@ -9081,24 +9089,24 @@
         <v>124</v>
       </c>
       <c r="H123" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
+        <v>745</v>
+      </c>
+      <c r="B124" t="s">
+        <v>333</v>
+      </c>
+      <c r="C124" t="s">
         <v>746</v>
-      </c>
-      <c r="B124" t="s">
-        <v>333</v>
-      </c>
-      <c r="C124" t="s">
-        <v>747</v>
       </c>
       <c r="D124" s="8">
         <v>8200000</v>
       </c>
       <c r="E124" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="F124" t="s">
         <v>200</v>
@@ -9112,19 +9120,19 @@
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
+        <v>760</v>
+      </c>
+      <c r="B125" t="s">
+        <v>333</v>
+      </c>
+      <c r="C125" t="s">
         <v>761</v>
-      </c>
-      <c r="B125" t="s">
-        <v>333</v>
-      </c>
-      <c r="C125" t="s">
-        <v>762</v>
       </c>
       <c r="D125" s="8">
         <v>8000000</v>
       </c>
       <c r="E125" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="F125" t="s">
         <v>200</v>
@@ -9133,24 +9141,24 @@
         <v>289</v>
       </c>
       <c r="H125" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
+        <v>789</v>
+      </c>
+      <c r="B126" t="s">
+        <v>333</v>
+      </c>
+      <c r="C126" t="s">
         <v>790</v>
-      </c>
-      <c r="B126" t="s">
-        <v>333</v>
-      </c>
-      <c r="C126" t="s">
-        <v>791</v>
       </c>
       <c r="D126" s="8">
         <v>8000000</v>
       </c>
       <c r="E126" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="F126" t="s">
         <v>200</v>
@@ -9164,19 +9172,19 @@
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
+        <v>649</v>
+      </c>
+      <c r="B127" t="s">
+        <v>333</v>
+      </c>
+      <c r="C127" t="s">
         <v>650</v>
-      </c>
-      <c r="B127" t="s">
-        <v>333</v>
-      </c>
-      <c r="C127" t="s">
-        <v>651</v>
       </c>
       <c r="D127" s="8">
         <v>7909999</v>
       </c>
       <c r="E127" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="F127" t="s">
         <v>123</v>
@@ -9190,19 +9198,19 @@
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
+        <v>397</v>
+      </c>
+      <c r="B128" t="s">
+        <v>333</v>
+      </c>
+      <c r="C128" t="s">
         <v>398</v>
-      </c>
-      <c r="B128" t="s">
-        <v>333</v>
-      </c>
-      <c r="C128" t="s">
-        <v>399</v>
       </c>
       <c r="D128" s="8">
         <v>7700000</v>
       </c>
       <c r="E128" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="F128" t="s">
         <v>13</v>
@@ -9216,19 +9224,19 @@
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
+        <v>520</v>
+      </c>
+      <c r="B129" t="s">
+        <v>333</v>
+      </c>
+      <c r="C129" t="s">
         <v>521</v>
-      </c>
-      <c r="B129" t="s">
-        <v>333</v>
-      </c>
-      <c r="C129" t="s">
-        <v>522</v>
       </c>
       <c r="D129" s="8">
         <v>7500000</v>
       </c>
       <c r="E129" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="F129" t="s">
         <v>123</v>
@@ -9242,13 +9250,13 @@
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
+        <v>659</v>
+      </c>
+      <c r="B130" t="s">
+        <v>333</v>
+      </c>
+      <c r="C130" t="s">
         <v>660</v>
-      </c>
-      <c r="B130" t="s">
-        <v>333</v>
-      </c>
-      <c r="C130" t="s">
-        <v>661</v>
       </c>
       <c r="D130" s="8">
         <v>7500000</v>
@@ -9268,13 +9276,13 @@
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="B131" t="s">
         <v>333</v>
       </c>
       <c r="C131" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="D131" s="8">
         <v>7500000</v>
@@ -9297,19 +9305,19 @@
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
+        <v>410</v>
+      </c>
+      <c r="B132" t="s">
+        <v>333</v>
+      </c>
+      <c r="C132" t="s">
         <v>411</v>
-      </c>
-      <c r="B132" t="s">
-        <v>333</v>
-      </c>
-      <c r="C132" t="s">
-        <v>412</v>
       </c>
       <c r="D132" s="8">
         <v>7300000</v>
       </c>
       <c r="E132" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="F132" t="s">
         <v>13</v>
@@ -9318,24 +9326,24 @@
         <v>66</v>
       </c>
       <c r="H132" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
+        <v>470</v>
+      </c>
+      <c r="B133" t="s">
+        <v>333</v>
+      </c>
+      <c r="C133" t="s">
         <v>471</v>
-      </c>
-      <c r="B133" t="s">
-        <v>333</v>
-      </c>
-      <c r="C133" t="s">
-        <v>472</v>
       </c>
       <c r="D133" s="8">
         <v>7000000</v>
       </c>
       <c r="E133" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="F133" t="s">
         <v>13</v>
@@ -9349,13 +9357,13 @@
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
+        <v>766</v>
+      </c>
+      <c r="B134" t="s">
+        <v>333</v>
+      </c>
+      <c r="C134" t="s">
         <v>767</v>
-      </c>
-      <c r="B134" t="s">
-        <v>333</v>
-      </c>
-      <c r="C134" t="s">
-        <v>768</v>
       </c>
       <c r="D134" s="8">
         <v>7000000</v>
@@ -9375,19 +9383,19 @@
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
+        <v>553</v>
+      </c>
+      <c r="B135" t="s">
+        <v>333</v>
+      </c>
+      <c r="C135" t="s">
         <v>554</v>
-      </c>
-      <c r="B135" t="s">
-        <v>333</v>
-      </c>
-      <c r="C135" t="s">
-        <v>555</v>
       </c>
       <c r="D135" s="8">
         <v>6000000</v>
       </c>
       <c r="E135" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="F135" t="s">
         <v>123</v>
@@ -9396,24 +9404,24 @@
         <v>124</v>
       </c>
       <c r="H135" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
+        <v>634</v>
+      </c>
+      <c r="B136" t="s">
+        <v>333</v>
+      </c>
+      <c r="C136" t="s">
         <v>635</v>
-      </c>
-      <c r="B136" t="s">
-        <v>333</v>
-      </c>
-      <c r="C136" t="s">
-        <v>636</v>
       </c>
       <c r="D136" s="8">
         <v>6000000</v>
       </c>
       <c r="E136" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="F136" t="s">
         <v>123</v>
@@ -9422,24 +9430,24 @@
         <v>191</v>
       </c>
       <c r="H136" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
+        <v>646</v>
+      </c>
+      <c r="B137" t="s">
+        <v>333</v>
+      </c>
+      <c r="C137" t="s">
         <v>647</v>
-      </c>
-      <c r="B137" t="s">
-        <v>333</v>
-      </c>
-      <c r="C137" t="s">
-        <v>648</v>
       </c>
       <c r="D137" s="8">
         <v>6000000</v>
       </c>
       <c r="E137" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="F137" t="s">
         <v>123</v>
@@ -9453,19 +9461,19 @@
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
+        <v>496</v>
+      </c>
+      <c r="B138" t="s">
+        <v>333</v>
+      </c>
+      <c r="C138" t="s">
         <v>497</v>
-      </c>
-      <c r="B138" t="s">
-        <v>333</v>
-      </c>
-      <c r="C138" t="s">
-        <v>498</v>
       </c>
       <c r="D138" s="8">
         <v>5200000</v>
       </c>
       <c r="E138" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="F138" t="s">
         <v>13</v>
@@ -9500,24 +9508,24 @@
         <v>14</v>
       </c>
       <c r="H139" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
+        <v>467</v>
+      </c>
+      <c r="B140" t="s">
+        <v>333</v>
+      </c>
+      <c r="C140" t="s">
         <v>468</v>
-      </c>
-      <c r="B140" t="s">
-        <v>333</v>
-      </c>
-      <c r="C140" t="s">
-        <v>469</v>
       </c>
       <c r="D140" s="8">
         <v>5000000</v>
       </c>
       <c r="E140" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="F140" t="s">
         <v>13</v>
@@ -9531,13 +9539,13 @@
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B141" t="s">
         <v>333</v>
       </c>
       <c r="C141" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="D141" s="8">
         <v>5000000</v>
@@ -9552,18 +9560,18 @@
         <v>205</v>
       </c>
       <c r="H141" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
+        <v>831</v>
+      </c>
+      <c r="B142" t="s">
+        <v>333</v>
+      </c>
+      <c r="C142" t="s">
         <v>832</v>
-      </c>
-      <c r="B142" t="s">
-        <v>333</v>
-      </c>
-      <c r="C142" t="s">
-        <v>833</v>
       </c>
       <c r="D142" s="8">
         <v>4875000</v>
@@ -9583,19 +9591,19 @@
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
+        <v>699</v>
+      </c>
+      <c r="B143" t="s">
+        <v>333</v>
+      </c>
+      <c r="C143" t="s">
         <v>700</v>
-      </c>
-      <c r="B143" t="s">
-        <v>333</v>
-      </c>
-      <c r="C143" t="s">
-        <v>701</v>
       </c>
       <c r="D143" s="8">
         <v>4700000</v>
       </c>
       <c r="E143" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="F143" t="s">
         <v>200</v>
@@ -9604,24 +9612,24 @@
         <v>219</v>
       </c>
       <c r="H143" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
+        <v>591</v>
+      </c>
+      <c r="B144" t="s">
+        <v>333</v>
+      </c>
+      <c r="C144" t="s">
         <v>592</v>
-      </c>
-      <c r="B144" t="s">
-        <v>333</v>
-      </c>
-      <c r="C144" t="s">
-        <v>593</v>
       </c>
       <c r="D144" s="8">
         <v>4500000</v>
       </c>
       <c r="E144" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="F144" t="s">
         <v>123</v>
@@ -9635,19 +9643,19 @@
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
+        <v>614</v>
+      </c>
+      <c r="B145" t="s">
+        <v>333</v>
+      </c>
+      <c r="C145" t="s">
         <v>615</v>
-      </c>
-      <c r="B145" t="s">
-        <v>333</v>
-      </c>
-      <c r="C145" t="s">
-        <v>616</v>
       </c>
       <c r="D145" s="8">
         <v>4500000</v>
       </c>
       <c r="E145" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="F145" t="s">
         <v>123</v>
@@ -9661,19 +9669,19 @@
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
+        <v>748</v>
+      </c>
+      <c r="B146" t="s">
+        <v>333</v>
+      </c>
+      <c r="C146" t="s">
         <v>749</v>
-      </c>
-      <c r="B146" t="s">
-        <v>333</v>
-      </c>
-      <c r="C146" t="s">
-        <v>750</v>
       </c>
       <c r="D146" s="8">
         <v>4500000</v>
       </c>
       <c r="E146" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="F146" t="s">
         <v>200</v>
@@ -9682,18 +9690,18 @@
         <v>289</v>
       </c>
       <c r="H146" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
+        <v>840</v>
+      </c>
+      <c r="B147" t="s">
+        <v>333</v>
+      </c>
+      <c r="C147" t="s">
         <v>841</v>
-      </c>
-      <c r="B147" t="s">
-        <v>333</v>
-      </c>
-      <c r="C147" t="s">
-        <v>842</v>
       </c>
       <c r="D147" s="8">
         <v>4500000</v>
@@ -9716,19 +9724,19 @@
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
+        <v>605</v>
+      </c>
+      <c r="B148" t="s">
+        <v>333</v>
+      </c>
+      <c r="C148" t="s">
         <v>606</v>
-      </c>
-      <c r="B148" t="s">
-        <v>333</v>
-      </c>
-      <c r="C148" t="s">
-        <v>607</v>
       </c>
       <c r="D148" s="8">
         <v>4000000</v>
       </c>
       <c r="E148" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="F148" t="s">
         <v>123</v>
@@ -9742,19 +9750,19 @@
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
+        <v>565</v>
+      </c>
+      <c r="B149" t="s">
+        <v>333</v>
+      </c>
+      <c r="C149" t="s">
         <v>566</v>
-      </c>
-      <c r="B149" t="s">
-        <v>333</v>
-      </c>
-      <c r="C149" t="s">
-        <v>567</v>
       </c>
       <c r="D149" s="8">
         <v>3175000</v>
       </c>
       <c r="E149" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="F149" t="s">
         <v>123</v>
@@ -9768,19 +9776,19 @@
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
+        <v>517</v>
+      </c>
+      <c r="B150" t="s">
+        <v>333</v>
+      </c>
+      <c r="C150" t="s">
         <v>518</v>
-      </c>
-      <c r="B150" t="s">
-        <v>333</v>
-      </c>
-      <c r="C150" t="s">
-        <v>519</v>
       </c>
       <c r="D150" s="8">
         <v>3000000</v>
       </c>
       <c r="E150" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="F150" t="s">
         <v>123</v>
@@ -9789,18 +9797,18 @@
         <v>124</v>
       </c>
       <c r="H150" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
+        <v>849</v>
+      </c>
+      <c r="B151" t="s">
+        <v>333</v>
+      </c>
+      <c r="C151" t="s">
         <v>850</v>
-      </c>
-      <c r="B151" t="s">
-        <v>333</v>
-      </c>
-      <c r="C151" t="s">
-        <v>851</v>
       </c>
       <c r="D151" s="8">
         <v>3000000</v>
@@ -9823,19 +9831,19 @@
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
+        <v>733</v>
+      </c>
+      <c r="B152" t="s">
+        <v>333</v>
+      </c>
+      <c r="C152" t="s">
         <v>734</v>
-      </c>
-      <c r="B152" t="s">
-        <v>333</v>
-      </c>
-      <c r="C152" t="s">
-        <v>735</v>
       </c>
       <c r="D152" s="8">
         <v>2857500</v>
       </c>
       <c r="E152" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="F152" t="s">
         <v>200</v>
@@ -9849,19 +9857,19 @@
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
+        <v>825</v>
+      </c>
+      <c r="B153" t="s">
+        <v>333</v>
+      </c>
+      <c r="C153" t="s">
         <v>826</v>
-      </c>
-      <c r="B153" t="s">
-        <v>333</v>
-      </c>
-      <c r="C153" t="s">
-        <v>827</v>
       </c>
       <c r="D153" s="8">
         <v>2800000</v>
       </c>
       <c r="E153" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="F153" t="s">
         <v>200</v>
@@ -9875,19 +9883,19 @@
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
+        <v>608</v>
+      </c>
+      <c r="B154" t="s">
+        <v>333</v>
+      </c>
+      <c r="C154" t="s">
         <v>609</v>
-      </c>
-      <c r="B154" t="s">
-        <v>333</v>
-      </c>
-      <c r="C154" t="s">
-        <v>610</v>
       </c>
       <c r="D154" s="8">
         <v>2500000</v>
       </c>
       <c r="E154" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="F154" t="s">
         <v>123</v>
@@ -9901,19 +9909,19 @@
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
+        <v>611</v>
+      </c>
+      <c r="B155" t="s">
+        <v>333</v>
+      </c>
+      <c r="C155" t="s">
         <v>612</v>
-      </c>
-      <c r="B155" t="s">
-        <v>333</v>
-      </c>
-      <c r="C155" t="s">
-        <v>613</v>
       </c>
       <c r="D155" s="8">
         <v>2500000</v>
       </c>
       <c r="E155" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="F155" t="s">
         <v>123</v>
@@ -9927,19 +9935,19 @@
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
+        <v>725</v>
+      </c>
+      <c r="B156" t="s">
+        <v>333</v>
+      </c>
+      <c r="C156" t="s">
         <v>726</v>
-      </c>
-      <c r="B156" t="s">
-        <v>333</v>
-      </c>
-      <c r="C156" t="s">
-        <v>727</v>
       </c>
       <c r="D156" s="8">
         <v>2500000</v>
       </c>
       <c r="E156" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="F156" t="s">
         <v>200</v>
@@ -9948,24 +9956,24 @@
         <v>219</v>
       </c>
       <c r="H156" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
+        <v>431</v>
+      </c>
+      <c r="B157" t="s">
+        <v>333</v>
+      </c>
+      <c r="C157" t="s">
         <v>432</v>
-      </c>
-      <c r="B157" t="s">
-        <v>333</v>
-      </c>
-      <c r="C157" t="s">
-        <v>433</v>
       </c>
       <c r="D157" s="8">
         <v>2300000</v>
       </c>
       <c r="E157" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="F157" t="s">
         <v>13</v>
@@ -9979,19 +9987,19 @@
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
+        <v>664</v>
+      </c>
+      <c r="B158" t="s">
+        <v>333</v>
+      </c>
+      <c r="C158" t="s">
         <v>665</v>
-      </c>
-      <c r="B158" t="s">
-        <v>333</v>
-      </c>
-      <c r="C158" t="s">
-        <v>666</v>
       </c>
       <c r="D158" s="8">
         <v>2300000</v>
       </c>
       <c r="E158" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="F158" t="s">
         <v>123</v>
@@ -10005,19 +10013,19 @@
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
+        <v>736</v>
+      </c>
+      <c r="B159" t="s">
+        <v>333</v>
+      </c>
+      <c r="C159" t="s">
         <v>737</v>
-      </c>
-      <c r="B159" t="s">
-        <v>333</v>
-      </c>
-      <c r="C159" t="s">
-        <v>738</v>
       </c>
       <c r="D159" s="8">
         <v>2300000</v>
       </c>
       <c r="E159" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="F159" t="s">
         <v>200</v>
@@ -10031,19 +10039,19 @@
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
+        <v>425</v>
+      </c>
+      <c r="B160" t="s">
+        <v>333</v>
+      </c>
+      <c r="C160" t="s">
         <v>426</v>
-      </c>
-      <c r="B160" t="s">
-        <v>333</v>
-      </c>
-      <c r="C160" t="s">
-        <v>427</v>
       </c>
       <c r="D160" s="8">
         <v>2000000</v>
       </c>
       <c r="E160" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="F160" t="s">
         <v>13</v>
@@ -10057,19 +10065,19 @@
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
+        <v>514</v>
+      </c>
+      <c r="B161" t="s">
+        <v>333</v>
+      </c>
+      <c r="C161" t="s">
         <v>515</v>
-      </c>
-      <c r="B161" t="s">
-        <v>333</v>
-      </c>
-      <c r="C161" t="s">
-        <v>516</v>
       </c>
       <c r="D161" s="8">
         <v>2000000</v>
       </c>
       <c r="E161" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="F161" t="s">
         <v>123</v>
@@ -10083,19 +10091,19 @@
     </row>
     <row r="162" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
+        <v>559</v>
+      </c>
+      <c r="B162" t="s">
+        <v>333</v>
+      </c>
+      <c r="C162" t="s">
         <v>560</v>
-      </c>
-      <c r="B162" t="s">
-        <v>333</v>
-      </c>
-      <c r="C162" t="s">
-        <v>561</v>
       </c>
       <c r="D162" s="8">
         <v>2000000</v>
       </c>
       <c r="E162" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="F162" t="s">
         <v>123</v>
@@ -10109,19 +10117,19 @@
     </row>
     <row r="163" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
+        <v>668</v>
+      </c>
+      <c r="B163" t="s">
+        <v>333</v>
+      </c>
+      <c r="C163" t="s">
         <v>669</v>
-      </c>
-      <c r="B163" t="s">
-        <v>333</v>
-      </c>
-      <c r="C163" t="s">
-        <v>670</v>
       </c>
       <c r="D163" s="8">
         <v>2000000</v>
       </c>
       <c r="E163" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="F163" t="s">
         <v>200</v>
@@ -10130,24 +10138,24 @@
         <v>219</v>
       </c>
       <c r="H163" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
+        <v>843</v>
+      </c>
+      <c r="B164" t="s">
+        <v>333</v>
+      </c>
+      <c r="C164" t="s">
         <v>844</v>
-      </c>
-      <c r="B164" t="s">
-        <v>333</v>
-      </c>
-      <c r="C164" t="s">
-        <v>845</v>
       </c>
       <c r="D164" s="8">
         <v>2000000</v>
       </c>
       <c r="E164" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="F164" t="s">
         <v>13</v>
@@ -10164,19 +10172,19 @@
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
+        <v>661</v>
+      </c>
+      <c r="B165" t="s">
+        <v>333</v>
+      </c>
+      <c r="C165" t="s">
         <v>662</v>
-      </c>
-      <c r="B165" t="s">
-        <v>333</v>
-      </c>
-      <c r="C165" t="s">
-        <v>663</v>
       </c>
       <c r="D165" s="8">
         <v>1800000</v>
       </c>
       <c r="E165" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="F165" t="s">
         <v>123</v>
@@ -10190,19 +10198,19 @@
     </row>
     <row r="166" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
+        <v>502</v>
+      </c>
+      <c r="B166" t="s">
+        <v>333</v>
+      </c>
+      <c r="C166" t="s">
         <v>503</v>
-      </c>
-      <c r="B166" t="s">
-        <v>333</v>
-      </c>
-      <c r="C166" t="s">
-        <v>504</v>
       </c>
       <c r="D166" s="8">
         <v>1700000</v>
       </c>
       <c r="E166" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="F166" t="s">
         <v>123</v>
@@ -10237,24 +10245,24 @@
         <v>14</v>
       </c>
       <c r="H167" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="168" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
+        <v>622</v>
+      </c>
+      <c r="B168" t="s">
+        <v>333</v>
+      </c>
+      <c r="C168" t="s">
         <v>623</v>
-      </c>
-      <c r="B168" t="s">
-        <v>333</v>
-      </c>
-      <c r="C168" t="s">
-        <v>624</v>
       </c>
       <c r="D168" s="8">
         <v>1524000</v>
       </c>
       <c r="E168" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="F168" t="s">
         <v>123</v>
@@ -10268,19 +10276,19 @@
     </row>
     <row r="169" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
+        <v>730</v>
+      </c>
+      <c r="B169" t="s">
+        <v>333</v>
+      </c>
+      <c r="C169" t="s">
         <v>731</v>
-      </c>
-      <c r="B169" t="s">
-        <v>333</v>
-      </c>
-      <c r="C169" t="s">
-        <v>732</v>
       </c>
       <c r="D169" s="8">
         <v>1440000</v>
       </c>
       <c r="E169" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="F169" t="s">
         <v>200</v>
@@ -10294,19 +10302,19 @@
     </row>
     <row r="170" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
+        <v>571</v>
+      </c>
+      <c r="B170" t="s">
+        <v>333</v>
+      </c>
+      <c r="C170" t="s">
         <v>572</v>
-      </c>
-      <c r="B170" t="s">
-        <v>333</v>
-      </c>
-      <c r="C170" t="s">
-        <v>573</v>
       </c>
       <c r="D170" s="8">
         <v>1270000</v>
       </c>
       <c r="E170" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="F170" t="s">
         <v>123</v>
@@ -10315,24 +10323,24 @@
         <v>124</v>
       </c>
       <c r="H170" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
     </row>
     <row r="171" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
+        <v>813</v>
+      </c>
+      <c r="B171" t="s">
+        <v>333</v>
+      </c>
+      <c r="C171" t="s">
         <v>814</v>
-      </c>
-      <c r="B171" t="s">
-        <v>333</v>
-      </c>
-      <c r="C171" t="s">
-        <v>815</v>
       </c>
       <c r="D171" s="8">
         <v>1270000</v>
       </c>
       <c r="E171" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="F171" t="s">
         <v>200</v>
@@ -10346,13 +10354,13 @@
     </row>
     <row r="172" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
+        <v>392</v>
+      </c>
+      <c r="B172" t="s">
+        <v>333</v>
+      </c>
+      <c r="C172" t="s">
         <v>393</v>
-      </c>
-      <c r="B172" t="s">
-        <v>333</v>
-      </c>
-      <c r="C172" t="s">
-        <v>394</v>
       </c>
       <c r="D172" s="8">
         <v>1200000</v>
@@ -10367,24 +10375,24 @@
         <v>66</v>
       </c>
       <c r="H172" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="173" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
+        <v>568</v>
+      </c>
+      <c r="B173" t="s">
+        <v>333</v>
+      </c>
+      <c r="C173" t="s">
         <v>569</v>
-      </c>
-      <c r="B173" t="s">
-        <v>333</v>
-      </c>
-      <c r="C173" t="s">
-        <v>570</v>
       </c>
       <c r="D173" s="8">
         <v>1200000</v>
       </c>
       <c r="E173" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="F173" t="s">
         <v>123</v>
@@ -10398,19 +10406,19 @@
     </row>
     <row r="174" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
+        <v>707</v>
+      </c>
+      <c r="B174" t="s">
+        <v>333</v>
+      </c>
+      <c r="C174" t="s">
         <v>708</v>
-      </c>
-      <c r="B174" t="s">
-        <v>333</v>
-      </c>
-      <c r="C174" t="s">
-        <v>709</v>
       </c>
       <c r="D174" s="8">
         <v>1200000</v>
       </c>
       <c r="E174" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="F174" t="s">
         <v>200</v>
@@ -10419,24 +10427,24 @@
         <v>219</v>
       </c>
       <c r="H174" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
     </row>
     <row r="175" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
+        <v>643</v>
+      </c>
+      <c r="B175" t="s">
+        <v>333</v>
+      </c>
+      <c r="C175" t="s">
         <v>644</v>
-      </c>
-      <c r="B175" t="s">
-        <v>333</v>
-      </c>
-      <c r="C175" t="s">
-        <v>645</v>
       </c>
       <c r="D175" s="8">
         <v>1180000</v>
       </c>
       <c r="E175" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="F175" t="s">
         <v>123</v>
@@ -10450,19 +10458,19 @@
     </row>
     <row r="176" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
+        <v>596</v>
+      </c>
+      <c r="B176" t="s">
+        <v>333</v>
+      </c>
+      <c r="C176" t="s">
         <v>597</v>
-      </c>
-      <c r="B176" t="s">
-        <v>333</v>
-      </c>
-      <c r="C176" t="s">
-        <v>598</v>
       </c>
       <c r="D176" s="8">
         <v>900000</v>
       </c>
       <c r="E176" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="F176" t="s">
         <v>123</v>
@@ -10476,19 +10484,19 @@
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
+        <v>763</v>
+      </c>
+      <c r="B177" t="s">
+        <v>333</v>
+      </c>
+      <c r="C177" t="s">
         <v>764</v>
-      </c>
-      <c r="B177" t="s">
-        <v>333</v>
-      </c>
-      <c r="C177" t="s">
-        <v>765</v>
       </c>
       <c r="D177" s="8">
         <v>400000</v>
       </c>
       <c r="E177" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="F177" t="s">
         <v>200</v>
@@ -10502,19 +10510,19 @@
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
+        <v>653</v>
+      </c>
+      <c r="B178" t="s">
+        <v>333</v>
+      </c>
+      <c r="C178" t="s">
         <v>654</v>
-      </c>
-      <c r="B178" t="s">
-        <v>333</v>
-      </c>
-      <c r="C178" t="s">
-        <v>655</v>
       </c>
       <c r="D178" s="8">
         <v>370000</v>
       </c>
       <c r="E178" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="F178" t="s">
         <v>123</v>
@@ -10528,19 +10536,19 @@
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
+        <v>816</v>
+      </c>
+      <c r="B179" t="s">
+        <v>333</v>
+      </c>
+      <c r="C179" t="s">
         <v>817</v>
-      </c>
-      <c r="B179" t="s">
-        <v>333</v>
-      </c>
-      <c r="C179" t="s">
-        <v>818</v>
       </c>
       <c r="D179" s="8">
         <v>323850</v>
       </c>
       <c r="E179" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="F179" t="s">
         <v>200</v>
@@ -10549,24 +10557,24 @@
         <v>205</v>
       </c>
       <c r="H179" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
+        <v>704</v>
+      </c>
+      <c r="B180" t="s">
+        <v>333</v>
+      </c>
+      <c r="C180" t="s">
         <v>705</v>
-      </c>
-      <c r="B180" t="s">
-        <v>333</v>
-      </c>
-      <c r="C180" t="s">
-        <v>706</v>
       </c>
       <c r="D180" s="8">
         <v>250000</v>
       </c>
       <c r="E180" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="F180" t="s">
         <v>200</v>
@@ -10580,19 +10588,19 @@
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
+        <v>577</v>
+      </c>
+      <c r="B181" t="s">
+        <v>333</v>
+      </c>
+      <c r="C181" t="s">
         <v>578</v>
-      </c>
-      <c r="B181" t="s">
-        <v>333</v>
-      </c>
-      <c r="C181" t="s">
-        <v>579</v>
       </c>
       <c r="D181" s="8">
         <v>200000</v>
       </c>
       <c r="E181" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="F181" t="s">
         <v>123</v>
@@ -10610,6 +10618,9 @@
       <sortCondition descending="1" ref="D1:D181"/>
     </sortState>
   </autoFilter>
+  <conditionalFormatting sqref="C7">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -10637,36 +10648,36 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="B2" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="C2" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="D2" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="E2" s="3">
         <v>17000000</v>
@@ -10680,16 +10691,16 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B3" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="C3" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="D3" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="E3" s="3">
         <v>75000000</v>
@@ -10703,16 +10714,16 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>853</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>862</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>854</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>863</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>855</v>
       </c>
       <c r="E4" s="9">
         <v>235000000</v>
@@ -10726,16 +10737,16 @@
     </row>
     <row r="5" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="B5" s="4" t="s">
+        <v>853</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>860</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>854</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>861</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>855</v>
       </c>
       <c r="E5" s="9">
         <v>232000000</v>
@@ -10749,16 +10760,16 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="B6" s="4" t="s">
+        <v>853</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>858</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>854</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>859</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>855</v>
       </c>
       <c r="E6" s="9">
         <v>494000000</v>
@@ -10772,16 +10783,16 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B7" s="4" t="s">
+        <v>853</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>857</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>854</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>858</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>855</v>
       </c>
       <c r="E7" s="9">
         <v>28000000</v>
@@ -10795,16 +10806,16 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="B8" s="4" t="s">
+        <v>853</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>855</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>854</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>856</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>855</v>
       </c>
       <c r="E8" s="9">
         <v>101000000</v>
@@ -10818,16 +10829,16 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="E9" s="9">
         <v>364000000</v>

--- a/MedTech_Deals.xlsx
+++ b/MedTech_Deals.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://beacononehcp-my.sharepoint.com/personal/hannah_peric_beacononehcp_com/Documents/Documents/medtech-dashboard/medtech-dashboard/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="189" documentId="13_ncr:1_{A8E36CAE-087B-4CF0-B739-AC648A6297F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1D3AC0D3-B857-40A1-ACDF-1083D7823CEF}"/>
+  <xr:revisionPtr revIDLastSave="201" documentId="13_ncr:1_{A8E36CAE-087B-4CF0-B739-AC648A6297F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5522D16B-5BB4-465C-8CA4-BBB4084992F7}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="YTD M&amp;A Activity" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2151" uniqueCount="884">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2158" uniqueCount="887">
   <si>
     <t>Company</t>
   </si>
@@ -2678,6 +2678,15 @@
   </si>
   <si>
     <t>All-suture, "all-inside" meniscus repair system</t>
+  </si>
+  <si>
+    <t>Berlin Heals GmbH</t>
+  </si>
+  <si>
+    <t>Developer of a cardiac implant device designed for the treatment of heart failure with Electrical Microcurrent.. Recently the C-MIC system received a Breakthrough Device Designation and was selected to be part of the Total Product Life Cycle Advisory Program (TAP) with the FDA.</t>
+  </si>
+  <si>
+    <t>BLR Partners</t>
   </si>
 </sst>
 </file>
@@ -3099,8 +3108,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I105"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5868,10 +5878,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:I181"/>
+  <dimension ref="A1:I182"/>
   <sheetViews>
-    <sheetView topLeftCell="A160" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="H174" sqref="H174"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A167" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E185" sqref="E185"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10610,6 +10621,32 @@
       </c>
       <c r="H181" t="s">
         <v>41</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>884</v>
+      </c>
+      <c r="B182" t="s">
+        <v>333</v>
+      </c>
+      <c r="C182" t="s">
+        <v>885</v>
+      </c>
+      <c r="D182" s="8">
+        <v>5000000</v>
+      </c>
+      <c r="E182" t="s">
+        <v>886</v>
+      </c>
+      <c r="F182" t="s">
+        <v>200</v>
+      </c>
+      <c r="G182" t="s">
+        <v>205</v>
+      </c>
+      <c r="H182" t="s">
+        <v>876</v>
       </c>
     </row>
   </sheetData>

--- a/MedTech_Deals.xlsx
+++ b/MedTech_Deals.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://beacononehcp-my.sharepoint.com/personal/hannah_peric_beacononehcp_com/Documents/Documents/medtech-dashboard/medtech-dashboard/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="201" documentId="13_ncr:1_{A8E36CAE-087B-4CF0-B739-AC648A6297F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5522D16B-5BB4-465C-8CA4-BBB4084992F7}"/>
+  <xr:revisionPtr revIDLastSave="254" documentId="13_ncr:1_{A8E36CAE-087B-4CF0-B739-AC648A6297F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{64A03597-7457-4012-AD64-C672D046F0AD}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2158" uniqueCount="887">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2197" uniqueCount="906">
   <si>
     <t>Company</t>
   </si>
@@ -2687,6 +2687,63 @@
   </si>
   <si>
     <t>BLR Partners</t>
+  </si>
+  <si>
+    <t>Kardi AI</t>
+  </si>
+  <si>
+    <t>Prague-based medtech startup Kardi Ai uses artificial intelligence and a smart chest strap to detect heart arrhythmias</t>
+  </si>
+  <si>
+    <t>BrightCap Ventures, DEPO Ventures, and Garage Angels</t>
+  </si>
+  <si>
+    <t>Pilo Surgical</t>
+  </si>
+  <si>
+    <t>Grant</t>
+  </si>
+  <si>
+    <t>Integration of micro-sensors on Plio’s magnetic anastomosis implant.</t>
+  </si>
+  <si>
+    <t>EIC Transition Grant from the European Innovation Council (EIC)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tybr Health </t>
+  </si>
+  <si>
+    <t>Provider of regenrative medicine for post surgical scarring.</t>
+  </si>
+  <si>
+    <t>Sylke</t>
+  </si>
+  <si>
+    <t>Operator of an advanced wound closure solutions company intended to address common challenges in post-surgical healing. The company offers a solution to the problems with its innovative design made from a proprietary silk fibroin, which provides a breathable, water-resistant, and biocompatible alternative to conventional adhesives</t>
+  </si>
+  <si>
+    <t>HepaTx</t>
+  </si>
+  <si>
+    <t>Sprio Robotics</t>
+  </si>
+  <si>
+    <t>Garland Surgical</t>
+  </si>
+  <si>
+    <t>Precisis GmbH</t>
+  </si>
+  <si>
+    <t>NeuroRevive SRL</t>
+  </si>
+  <si>
+    <t>Pulsetto</t>
+  </si>
+  <si>
+    <t>Sub-Q Bionics</t>
+  </si>
+  <si>
+    <t>BHS technologies</t>
   </si>
 </sst>
 </file>
@@ -2797,7 +2854,27 @@
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -5878,11 +5955,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:I182"/>
+  <dimension ref="A1:I194"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A167" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E185" sqref="E185"/>
+      <pane ySplit="1" topLeftCell="A171" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B194" sqref="B194"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10493,7 +10570,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>763</v>
       </c>
@@ -10519,7 +10596,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>653</v>
       </c>
@@ -10545,7 +10622,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>816</v>
       </c>
@@ -10571,7 +10648,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>704</v>
       </c>
@@ -10597,7 +10674,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>577</v>
       </c>
@@ -10623,7 +10700,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>884</v>
       </c>
@@ -10647,6 +10724,159 @@
       </c>
       <c r="H182" t="s">
         <v>876</v>
+      </c>
+      <c r="I182" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>887</v>
+      </c>
+      <c r="B183" t="s">
+        <v>333</v>
+      </c>
+      <c r="C183" t="s">
+        <v>888</v>
+      </c>
+      <c r="D183" s="8">
+        <v>1270000</v>
+      </c>
+      <c r="E183" t="s">
+        <v>889</v>
+      </c>
+      <c r="F183" t="s">
+        <v>123</v>
+      </c>
+      <c r="G183" t="s">
+        <v>124</v>
+      </c>
+      <c r="H183" t="s">
+        <v>41</v>
+      </c>
+      <c r="I183" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>890</v>
+      </c>
+      <c r="B184" t="s">
+        <v>891</v>
+      </c>
+      <c r="C184" t="s">
+        <v>892</v>
+      </c>
+      <c r="D184" s="8">
+        <v>2888000</v>
+      </c>
+      <c r="E184" t="s">
+        <v>893</v>
+      </c>
+      <c r="F184" t="s">
+        <v>13</v>
+      </c>
+      <c r="G184" t="s">
+        <v>66</v>
+      </c>
+      <c r="H184" t="s">
+        <v>15</v>
+      </c>
+      <c r="I184" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>894</v>
+      </c>
+      <c r="B185" t="s">
+        <v>333</v>
+      </c>
+      <c r="C185" t="s">
+        <v>895</v>
+      </c>
+      <c r="D185" s="8">
+        <v>1080000</v>
+      </c>
+      <c r="F185" t="s">
+        <v>13</v>
+      </c>
+      <c r="G185" t="s">
+        <v>14</v>
+      </c>
+      <c r="H185" t="s">
+        <v>15</v>
+      </c>
+      <c r="I185" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>896</v>
+      </c>
+      <c r="B186" t="s">
+        <v>333</v>
+      </c>
+      <c r="C186" t="s">
+        <v>897</v>
+      </c>
+      <c r="D186" s="8">
+        <v>10030000</v>
+      </c>
+      <c r="F186" t="s">
+        <v>123</v>
+      </c>
+      <c r="G186" t="s">
+        <v>94</v>
+      </c>
+      <c r="H186" t="s">
+        <v>875</v>
+      </c>
+      <c r="I186" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>905</v>
       </c>
     </row>
   </sheetData>
@@ -10656,6 +10886,9 @@
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="C7">
+    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B185:B186">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/MedTech_Deals.xlsx
+++ b/MedTech_Deals.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://beacononehcp-my.sharepoint.com/personal/hannah_peric_beacononehcp_com/Documents/Documents/medtech-dashboard/medtech-dashboard/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="254" documentId="13_ncr:1_{A8E36CAE-087B-4CF0-B739-AC648A6297F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{64A03597-7457-4012-AD64-C672D046F0AD}"/>
+  <xr:revisionPtr revIDLastSave="264" documentId="13_ncr:1_{A8E36CAE-087B-4CF0-B739-AC648A6297F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0D84E6EF-28C6-4588-9457-D0C698E05C58}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2197" uniqueCount="906">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2205" uniqueCount="908">
   <si>
     <t>Company</t>
   </si>
@@ -2744,6 +2744,12 @@
   </si>
   <si>
     <t>BHS technologies</t>
+  </si>
+  <si>
+    <t>NIH SBIR Grant</t>
+  </si>
+  <si>
+    <t>The Phase I grant will support the development of a proteomic assay designed to monitor transplanted cells and tissues.</t>
   </si>
 </sst>
 </file>
@@ -2854,17 +2860,7 @@
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -5959,7 +5955,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A171" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B194" sqref="B194"/>
+      <selection pane="bottomLeft" activeCell="F188" sqref="F188"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10843,6 +10839,30 @@
       <c r="A187" t="s">
         <v>898</v>
       </c>
+      <c r="B187" t="s">
+        <v>891</v>
+      </c>
+      <c r="C187" t="s">
+        <v>907</v>
+      </c>
+      <c r="D187" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E187" t="s">
+        <v>906</v>
+      </c>
+      <c r="F187" t="s">
+        <v>123</v>
+      </c>
+      <c r="G187" t="s">
+        <v>158</v>
+      </c>
+      <c r="H187" t="s">
+        <v>15</v>
+      </c>
+      <c r="I187" t="s">
+        <v>214</v>
+      </c>
     </row>
     <row r="188" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
@@ -10885,11 +10905,11 @@
       <sortCondition descending="1" ref="D1:D181"/>
     </sortState>
   </autoFilter>
+  <conditionalFormatting sqref="B185:B187">
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+  </conditionalFormatting>
   <conditionalFormatting sqref="C7">
-    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B185:B186">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/MedTech_Deals.xlsx
+++ b/MedTech_Deals.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://beacononehcp-my.sharepoint.com/personal/hannah_peric_beacononehcp_com/Documents/Documents/medtech-dashboard/medtech-dashboard/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="264" documentId="13_ncr:1_{A8E36CAE-087B-4CF0-B739-AC648A6297F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0D84E6EF-28C6-4588-9457-D0C698E05C58}"/>
+  <xr:revisionPtr revIDLastSave="299" documentId="13_ncr:1_{A8E36CAE-087B-4CF0-B739-AC648A6297F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4BB28505-4BCF-4623-83FE-C28ADDE40358}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2205" uniqueCount="908">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2223" uniqueCount="910">
   <si>
     <t>Company</t>
   </si>
@@ -2725,31 +2725,37 @@
     <t>HepaTx</t>
   </si>
   <si>
-    <t>Sprio Robotics</t>
-  </si>
-  <si>
     <t>Garland Surgical</t>
   </si>
   <si>
     <t>Precisis GmbH</t>
   </si>
   <si>
-    <t>NeuroRevive SRL</t>
-  </si>
-  <si>
     <t>Pulsetto</t>
   </si>
   <si>
-    <t>Sub-Q Bionics</t>
-  </si>
-  <si>
-    <t>BHS technologies</t>
-  </si>
-  <si>
     <t>NIH SBIR Grant</t>
   </si>
   <si>
     <t>The Phase I grant will support the development of a proteomic assay designed to monitor transplanted cells and tissues.</t>
+  </si>
+  <si>
+    <t>NLC Health Impact Fund and  Malta Venture Capital Fund</t>
+  </si>
+  <si>
+    <t>Accelerate the completion of product development, regulatory preparations, and the addition of key personnel as the company advances its flagship innovation, the MaltaHip</t>
+  </si>
+  <si>
+    <t>European Investment Bank (EIB)</t>
+  </si>
+  <si>
+    <t>PRECISIS GmbH is an innovative medical technology company based in Heidelberg, specializing in neuromodulatory therapies for the treatment of neurological disorders. The venture debt loan will be used to advance clinical development and prepare for market expansion, as well as scaling up production and enabling greater market access across Europe.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pulsetto is a hands-free, wearable device designed to stimulate the vagus nerve with gentle electrical impulses, helping the body shift from “fight or flight” to “rest and digest.' This funding allows the company to expand it’s technology beyond the wellness market into defence applications, benefiting soldiers and frontline personnel dealing with stress and mental fatigue. </t>
+  </si>
+  <si>
+    <t>Scalewolf</t>
   </si>
 </sst>
 </file>
@@ -5951,11 +5957,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:I194"/>
+  <dimension ref="A1:I190"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A171" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F188" sqref="F188"/>
+      <pane ySplit="1" topLeftCell="A166" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I190" sqref="I190"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10279,6 +10285,9 @@
       <c r="H165" t="s">
         <v>37</v>
       </c>
+      <c r="I165" t="s">
+        <v>214</v>
+      </c>
     </row>
     <row r="166" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
@@ -10843,13 +10852,13 @@
         <v>891</v>
       </c>
       <c r="C187" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
       <c r="D187" s="8" t="s">
         <v>19</v>
       </c>
       <c r="E187" t="s">
-        <v>906</v>
+        <v>902</v>
       </c>
       <c r="F187" t="s">
         <v>123</v>
@@ -10868,35 +10877,87 @@
       <c r="A188" t="s">
         <v>899</v>
       </c>
+      <c r="B188" t="s">
+        <v>333</v>
+      </c>
+      <c r="C188" t="s">
+        <v>905</v>
+      </c>
+      <c r="D188" s="8">
+        <v>4618000</v>
+      </c>
+      <c r="E188" t="s">
+        <v>904</v>
+      </c>
+      <c r="F188" t="s">
+        <v>200</v>
+      </c>
+      <c r="G188" t="s">
+        <v>219</v>
+      </c>
+      <c r="H188" t="s">
+        <v>23</v>
+      </c>
+      <c r="I188" t="s">
+        <v>214</v>
+      </c>
     </row>
     <row r="189" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>900</v>
       </c>
+      <c r="B189" t="s">
+        <v>333</v>
+      </c>
+      <c r="C189" t="s">
+        <v>907</v>
+      </c>
+      <c r="D189" s="8">
+        <v>23085800</v>
+      </c>
+      <c r="E189" t="s">
+        <v>906</v>
+      </c>
+      <c r="F189" t="s">
+        <v>251</v>
+      </c>
+      <c r="G189" t="s">
+        <v>201</v>
+      </c>
+      <c r="H189" t="s">
+        <v>880</v>
+      </c>
+      <c r="I189" t="s">
+        <v>214</v>
+      </c>
     </row>
     <row r="190" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>901</v>
       </c>
-    </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A191" t="s">
-        <v>902</v>
-      </c>
-    </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A192" t="s">
-        <v>903</v>
-      </c>
-    </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A193" t="s">
-        <v>904</v>
-      </c>
-    </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A194" t="s">
-        <v>905</v>
+      <c r="B190" t="s">
+        <v>333</v>
+      </c>
+      <c r="C190" t="s">
+        <v>908</v>
+      </c>
+      <c r="D190" s="8">
+        <v>2308000</v>
+      </c>
+      <c r="E190" t="s">
+        <v>909</v>
+      </c>
+      <c r="F190" t="s">
+        <v>13</v>
+      </c>
+      <c r="G190" t="s">
+        <v>66</v>
+      </c>
+      <c r="H190" t="s">
+        <v>880</v>
+      </c>
+      <c r="I190" t="s">
+        <v>214</v>
       </c>
     </row>
   </sheetData>
@@ -10905,13 +10966,11 @@
       <sortCondition descending="1" ref="D1:D181"/>
     </sortState>
   </autoFilter>
-  <conditionalFormatting sqref="B185:B187">
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
-  </conditionalFormatting>
   <conditionalFormatting sqref="C7">
     <cfRule type="duplicateValues" dxfId="0" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/MedTech_Deals.xlsx
+++ b/MedTech_Deals.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://beacononehcp-my.sharepoint.com/personal/hannah_peric_beacononehcp_com/Documents/Documents/medtech-dashboard/medtech-dashboard/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="299" documentId="13_ncr:1_{A8E36CAE-087B-4CF0-B739-AC648A6297F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4BB28505-4BCF-4623-83FE-C28ADDE40358}"/>
+  <xr:revisionPtr revIDLastSave="300" documentId="13_ncr:1_{A8E36CAE-087B-4CF0-B739-AC648A6297F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{98B803A4-38AE-4880-89CE-3CC8CEA31BFF}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="YTD M&amp;A Activity" sheetId="1" r:id="rId1"/>
@@ -2866,17 +2866,7 @@
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -3187,9 +3177,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I105"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:XFD1"/>
+      <selection pane="bottomLeft" activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3201,6 +3191,7 @@
     <col min="5" max="5" width="18" customWidth="1"/>
     <col min="6" max="7" width="9.140625" customWidth="1"/>
     <col min="8" max="8" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -5959,7 +5950,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I190"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A166" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="I190" sqref="I190"/>
     </sheetView>

--- a/MedTech_Deals.xlsx
+++ b/MedTech_Deals.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://beacononehcp-my.sharepoint.com/personal/hannah_peric_beacononehcp_com/Documents/Documents/medtech-dashboard/medtech-dashboard/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="300" documentId="13_ncr:1_{A8E36CAE-087B-4CF0-B739-AC648A6297F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{98B803A4-38AE-4880-89CE-3CC8CEA31BFF}"/>
+  <xr:revisionPtr revIDLastSave="301" documentId="13_ncr:1_{A8E36CAE-087B-4CF0-B739-AC648A6297F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E0016D1E-8B5A-48A1-9F12-3943AD40A33B}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="YTD M&amp;A Activity" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2223" uniqueCount="910">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2224" uniqueCount="910">
   <si>
     <t>Company</t>
   </si>
@@ -3177,7 +3177,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I105"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D28" sqref="D28"/>
     </sheetView>
@@ -5950,9 +5950,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I190"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A166" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I190" sqref="I190"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6385,7 +6385,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>716</v>
       </c>
@@ -6411,7 +6411,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>722</v>
       </c>
@@ -6437,7 +6437,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>819</v>
       </c>
@@ -6463,7 +6463,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>822</v>
       </c>
@@ -6489,7 +6489,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>674</v>
       </c>
@@ -6515,7 +6515,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>792</v>
       </c>
@@ -6541,7 +6541,7 @@
         <v>876</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>349</v>
       </c>
@@ -6567,7 +6567,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>786</v>
       </c>
@@ -6593,7 +6593,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>448</v>
       </c>
@@ -6619,7 +6619,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>505</v>
       </c>
@@ -6645,7 +6645,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>446</v>
       </c>
@@ -6671,7 +6671,7 @@
         <v>876</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>795</v>
       </c>
@@ -6697,7 +6697,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>780</v>
       </c>
@@ -6723,7 +6723,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>211</v>
       </c>
@@ -6748,8 +6748,11 @@
       <c r="H30" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I30" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>798</v>
       </c>
@@ -6775,7 +6778,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>332</v>
       </c>
